--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="5685" yWindow="3720" windowWidth="14805" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Prefabs/Models/Body/Female_Body_8100</t>
   </si>
@@ -42,6 +42,62 @@
   </si>
   <si>
     <t>NPC2号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击发声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击发声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲发声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临死发声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机说话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,12 +127,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,8 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -394,50 +457,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
         <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -451,7 +649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Prefabs/Models/Body/Female_Body_8100</t>
   </si>
@@ -37,14 +37,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NPC1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC2号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,6 +90,79 @@
   </si>
   <si>
     <t>随机说话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-99，测试NPC
+1000-9999，NPC
+10000-19999，普通怪物
+20000-29999，精英怪物
+30000-39999，活动怪物
+40000-49999，BOSS怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-8个中文字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\GitLab\Unity\shen1\Assets\Resources\Prefabs\Models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-200，等级影响到怪物的实际能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4，0=NPC，1=普通怪物，2=精英怪物，3=BOSS，4=宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4294967295，击杀怪物后可获得该数值的经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4294967295，怪物的血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4294967295，怪物的能力，物理和法术攻击都配置的时候，分别计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4294967295，收到的物理攻击-物理防御=实际伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4294967295，收到的法术攻击-法术防御=实际伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手接引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3，0=所有人可访问，1=本国人可访问，2=本家族人可访问，3=所有人都不能访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貂蝉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土狼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +189,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -153,9 +225,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,29 +542,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" customWidth="1"/>
+    <col min="6" max="6" width="7.125" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -487,155 +572,220 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
         <v>100</v>
       </c>
-      <c r="G3">
+      <c r="H4">
         <v>20</v>
       </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -647,16 +797,167 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="3720" windowWidth="14805" windowHeight="10305"/>
+    <workbookView xWindow="5685" yWindow="3750" windowWidth="14805" windowHeight="10275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,76 +93,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1-8个中文字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\GitLab\Unity\shen1\Assets\Resources\Prefabs\Models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-200，等级影响到怪物的实际能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4，0=NPC，1=普通怪物，2=精英怪物，3=BOSS，4=宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4294967295，击杀怪物后可获得该数值的经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4294967295，怪物的血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4294967295，怪物的能力，物理和法术攻击都配置的时候，分别计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4294967295，收到的物理攻击-物理防御=实际伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4294967295，收到的法术攻击-法术防御=实际伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手接引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3，0=所有人可访问，1=本国人可访问，2=本家族人可访问，3=所有人都不能访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貂蝉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1-99，测试NPC
 1000-9999，NPC
 10000-19999，普通怪物
 20000-29999，精英怪物
 30000-39999，活动怪物
 40000-49999，BOSS怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-8个中文字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\GitLab\Unity\shen1\Assets\Resources\Prefabs\Models</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-200，等级影响到怪物的实际能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-4，0=NPC，1=普通怪物，2=精英怪物，3=BOSS，4=宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-4294967295，击杀怪物后可获得该数值的经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-4294967295，怪物的血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-4294967295，怪物的能力，物理和法术攻击都配置的时候，分别计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-4294967295，收到的物理攻击-物理防御=实际伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-4294967295，收到的法术攻击-法术防御=实际伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手接引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-3，0=所有人可访问，1=本国人可访问，2=本家族人可访问，3=所有人都不能访问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貂蝉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土狼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -572,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -625,7 +625,7 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>10000</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -839,15 +839,15 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -855,7 +855,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -863,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -871,7 +871,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -879,7 +879,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -887,7 +887,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -903,7 +903,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -911,7 +911,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -919,7 +919,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -927,7 +927,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -935,7 +935,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -943,7 +943,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -951,7 +951,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="3750" windowWidth="14805" windowHeight="10275" activeTab="1"/>
+    <workbookView xWindow="5685" yWindow="3750" windowWidth="14805" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,16 +153,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>土狼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-99，测试NPC
 1000-9999，NPC
 10000-19999，普通怪物
 20000-29999，精英怪物
 30000-39999，活动怪物
 40000-49999，BOSS怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -737,7 +737,7 @@
         <v>10000</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3750" windowWidth="14805" windowHeight="10275"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Prefabs/Models/Body/Female_Body_8100</t>
   </si>
@@ -251,12 +251,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -298,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,7 +336,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -785,6 +788,118 @@
         <v>0</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>20000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>40000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>0</v>
       </c>
     </row>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3750" windowWidth="14805" windowHeight="10275"/>
@@ -169,8 +169,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -241,6 +241,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -301,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,10 +334,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,7 +368,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,14 +543,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
@@ -567,7 +566,7 @@
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -580,7 +579,7 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -623,7 +622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -636,9 +635,6 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
         <v>0</v>
       </c>
@@ -679,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -692,9 +688,6 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
         <v>0</v>
       </c>
@@ -735,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -791,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>20000</v>
       </c>
@@ -847,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>40000</v>
       </c>
@@ -911,21 +904,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="99">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -933,7 +926,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -941,7 +934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -949,7 +942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -957,7 +950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
@@ -965,7 +958,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -973,7 +966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -981,7 +974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -989,7 +982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -997,7 +990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1005,7 +998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +1006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1029,7 +1022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -1037,7 +1030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1045,7 +1038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1053,7 +1046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1061,7 +1054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -1077,12 +1070,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3750" windowWidth="14805" windowHeight="10275"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>Prefabs/Models/Body/Female_Body_8100</t>
   </si>
@@ -162,15 +162,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Prefabs/Models/Npc/Npc_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小老虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>老虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎大王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,9 +350,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,6 +385,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,14 +561,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
@@ -566,7 +584,7 @@
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -622,7 +640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -635,6 +653,9 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="F2">
         <v>0</v>
       </c>
@@ -675,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -688,6 +709,9 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="F3">
         <v>0</v>
       </c>
@@ -728,12 +752,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10000</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -763,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -784,12 +808,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>20000</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -819,7 +843,7 @@
         <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -840,12 +864,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>40000</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -875,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -904,21 +928,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="99">
+    <row r="1" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -926,7 +950,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -934,7 +958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -942,7 +966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -950,7 +974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
@@ -958,7 +982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -966,7 +990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -974,7 +998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -982,7 +1006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -990,7 +1014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -998,7 +1022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -1006,7 +1030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1014,7 +1038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1022,7 +1046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -1030,7 +1054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1038,7 +1062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1046,7 +1070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1054,7 +1078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -1070,12 +1094,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -162,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Models/Npc/Npc_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Models/Npc/Npc_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,6 +175,10 @@
   </si>
   <si>
     <t>老虎大王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +565,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -757,7 +757,7 @@
         <v>10000</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>20000</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>40000</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6">
         <v>0</v>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>Prefabs/Models/Body/Female_Body_8100</t>
   </si>
@@ -179,6 +178,14 @@
   </si>
   <si>
     <t>Prefabs/Models/Npc/Npc_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血条贴图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["BarRed","BarBlue","BarGreen"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -581,10 +588,11 @@
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -621,26 +629,29 @@
       <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -695,8 +706,11 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -751,8 +765,11 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -807,8 +824,11 @@
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>20000</v>
       </c>
@@ -863,8 +883,11 @@
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>40000</v>
       </c>
@@ -901,8 +924,8 @@
       <c r="L6" t="s">
         <v>35</v>
       </c>
-      <c r="M6">
-        <v>0</v>
+      <c r="M6" t="s">
+        <v>41</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -917,6 +940,9 @@
         <v>0</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>0</v>
       </c>
     </row>
@@ -932,7 +958,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1091,17 +1117,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3750" windowWidth="14805" windowHeight="10275"/>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -192,8 +192,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,7 +325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,10 +357,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,7 +391,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -568,14 +566,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
@@ -588,11 +586,11 @@
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.75" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -651,7 +649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -688,9 +686,6 @@
       <c r="L2" t="s">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
@@ -710,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -747,9 +742,6 @@
       <c r="L3" t="s">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
@@ -769,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -806,9 +798,6 @@
       <c r="L4" t="s">
         <v>35</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
         <v>0</v>
       </c>
@@ -828,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>20000</v>
       </c>
@@ -865,9 +854,6 @@
       <c r="L5" t="s">
         <v>39</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -887,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>40000</v>
       </c>
@@ -954,21 +940,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="99">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -976,7 +962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -984,7 +970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -992,7 +978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1000,7 +986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
@@ -1008,7 +994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1016,7 +1002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +1010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -1032,7 +1018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1040,7 +1026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +1034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1064,7 +1050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1072,7 +1058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -1080,7 +1066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1088,7 +1074,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1096,7 +1082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1104,7 +1090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3750" windowWidth="14805" windowHeight="10275"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Prefabs/Models/Body/Female_Body_8100</t>
   </si>
@@ -177,23 +177,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Models/Npc/Npc_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血条贴图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>["BarRed","BarBlue","BarGreen"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,7 +329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,9 +361,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,6 +396,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -566,14 +572,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="M4" sqref="A1:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
@@ -590,7 +596,7 @@
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -628,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
@@ -649,7 +655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -705,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -761,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -817,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>20000</v>
       </c>
@@ -852,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -873,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>40000</v>
       </c>
@@ -908,10 +914,10 @@
         <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -940,21 +946,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="99">
+    <row r="1" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -962,7 +968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -970,7 +976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -978,7 +984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -986,7 +992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1010,7 +1016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -1042,7 +1048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1050,7 +1056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1074,7 +1080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3750" windowWidth="14805" windowHeight="10275"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>Prefabs/Models/Body/Female_Body_8100</t>
   </si>
@@ -192,12 +192,19 @@
     <t>Prefabs/Models/Npc/Npc_003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是一枚NPC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,7 +336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,10 +368,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,7 +402,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -572,114 +577,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="A1:M4"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" customWidth="1"/>
-    <col min="6" max="6" width="7.125" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.75" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.75" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>44</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>100</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
         <v>0</v>
       </c>
@@ -689,12 +699,12 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
         <v>1</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
@@ -710,32 +720,35 @@
       <c r="S2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>44</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>100</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -745,10 +758,10 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>0</v>
       </c>
       <c r="O3">
@@ -766,47 +779,50 @@
       <c r="S3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>10000</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>100</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>20</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
         <v>35</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
         <v>0</v>
       </c>
@@ -822,47 +838,50 @@
       <c r="S4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>20000</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>44</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>100</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>20</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>10</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
         <v>41</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
         <v>0</v>
       </c>
@@ -878,50 +897,53 @@
       <c r="S5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>40000</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>44</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>100</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>20</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>10</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
         <v>42</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>40</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
         <v>0</v>
       </c>
@@ -935,6 +957,9 @@
         <v>0</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>0</v>
       </c>
     </row>
@@ -946,21 +971,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="99">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -968,7 +993,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -976,7 +1001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -984,7 +1009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -992,7 +1017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
@@ -1000,7 +1025,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1008,7 +1033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1016,7 +1041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -1024,7 +1049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1032,7 +1057,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1040,7 +1065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -1048,7 +1073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +1081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -1072,7 +1097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1080,7 +1105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1088,7 +1113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1096,7 +1121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3750" windowWidth="14805" windowHeight="10275"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>Prefabs/Models/Body/Female_Body_8100</t>
   </si>
@@ -199,12 +199,64 @@
   <si>
     <t>我是一枚NPC</t>
   </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛮族士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是一朵怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,7 +388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,9 +420,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,6 +455,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -577,18 +631,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.25" customWidth="1"/>
@@ -603,7 +657,7 @@
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -665,7 +719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -724,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -783,12 +837,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>10000</v>
+        <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -800,28 +854,28 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -842,12 +896,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>20000</v>
+        <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -859,28 +913,28 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -901,12 +955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>40000</v>
+        <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -918,48 +972,402 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>10000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
         <v>20</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>10</v>
       </c>
-      <c r="L6">
+      <c r="L9">
         <v>10</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>20000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>40000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
         <v>42</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N12" t="s">
         <v>40</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>0</v>
       </c>
     </row>
@@ -971,21 +1379,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="99">
+    <row r="1" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -993,7 +1401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1001,7 +1409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +1417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1017,7 +1425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
@@ -1025,7 +1433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1033,7 +1441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -1049,7 +1457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1057,7 +1465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1065,7 +1473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1081,7 +1489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1089,7 +1497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -1097,7 +1505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1105,7 +1513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1113,7 +1521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1121,7 +1529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -635,7 +635,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,9 +643,9 @@
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" customWidth="1"/>
+    <col min="4" max="4" width="5.25" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.125" customWidth="1"/>
     <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
@@ -667,14 +667,14 @@
       <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -969,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1087,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1143,10 +1143,10 @@
         <v>52</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1202,10 +1202,10 @@
         <v>52</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1261,13 +1261,13 @@
         <v>52</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1320,13 +1320,13 @@
         <v>52</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>1</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>Prefabs/Models/Body/Female_Body_8100</t>
   </si>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,10 +137,6 @@
   </si>
   <si>
     <t>新手接引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-3，0=所有人可访问，1=本国人可访问，2=本家族人可访问，3=所有人都不能访问</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -249,6 +241,17 @@
   </si>
   <si>
     <t>Prefabs/Models/Npc/Npc_022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：本国人可以访问 2：盟国人可访问 4：外国人可用访问 0：不可被任何人访问</t>
+  </si>
+  <si>
+    <t>基本类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +638,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,7 +646,7 @@
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="5.25" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.125" customWidth="1"/>
@@ -665,58 +668,58 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
@@ -724,16 +727,16 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -783,16 +786,16 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -842,16 +845,16 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -875,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -901,16 +904,16 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -934,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -960,16 +963,16 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -993,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1019,16 +1022,16 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1052,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1078,16 +1081,16 @@
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1111,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1137,16 +1140,16 @@
         <v>10000</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1170,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1196,16 +1199,16 @@
         <v>10001</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1229,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1255,16 +1258,16 @@
         <v>20000</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1288,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1314,16 +1317,16 @@
         <v>40000</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1347,10 +1350,10 @@
         <v>10</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1383,7 +1386,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1398,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1406,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1414,71 +1417,71 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1486,55 +1489,55 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3750" windowWidth="14805" windowHeight="10275"/>
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>Prefabs/Models/Body/Female_Body_8100</t>
   </si>
@@ -252,6 +252,22 @@
   </si>
   <si>
     <t>基本类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被诸葛亮七进七出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍天已死黄天当立</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +304,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -331,6 +353,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -349,7 +372,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -391,7 +414,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,7 +449,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -635,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1136,70 +1159,70 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>10000</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9">
+      <c r="A9" s="8">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>7</v>
+      </c>
+      <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
         <v>100</v>
       </c>
-      <c r="I9">
-        <v>20</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
@@ -1232,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1255,16 +1278,16 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>20000</v>
+        <v>10001</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -1291,7 +1314,7 @@
         <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1312,18 +1335,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -1350,27 +1373,145 @@
         <v>10</v>
       </c>
       <c r="M12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>20001</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8">
+        <v>7</v>
+      </c>
+      <c r="F13" s="8">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>100</v>
+      </c>
+      <c r="I13" s="8">
+        <v>20</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>10</v>
+      </c>
+      <c r="L13" s="8">
+        <v>10</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>40000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14" t="s">
         <v>40</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N14" t="s">
         <v>38</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>0</v>
       </c>
     </row>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3750" windowWidth="14805" windowHeight="10275"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>Prefabs/Models/Body/Female_Body_8100</t>
   </si>
@@ -268,6 +268,26 @@
   </si>
   <si>
     <t>苍天已死黄天当立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +324,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,8 +343,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -332,11 +358,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -354,6 +395,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -372,7 +414,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -414,7 +456,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,7 +491,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -660,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -673,7 +715,7 @@
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.125" customWidth="1"/>
-    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
@@ -683,7 +725,7 @@
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -705,20 +747,20 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
+      <c r="H1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="3750" windowWidth="14805" windowHeight="10275"/>
+    <workbookView xWindow="5688" yWindow="3756" windowWidth="14808" windowHeight="10272"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>貂蝉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-99，测试NPC
 1000-9999，NPC
 10000-19999，普通怪物
@@ -192,18 +188,6 @@
     <t>我是一枚NPC</t>
   </si>
   <si>
-    <t>曹操</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蛮族士兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,6 +272,22 @@
   </si>
   <si>
     <t>最大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司命神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大乔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏歌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -456,7 +456,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,7 +491,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,30 +702,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.75" customWidth="1"/>
+    <col min="13" max="13" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.77734375" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -733,10 +733,10 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>29</v>
@@ -748,25 +748,25 @@
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -787,7 +787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -795,7 +795,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -846,15 +846,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -905,15 +905,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -964,15 +964,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1023,15 +1023,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1082,15 +1082,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1141,15 +1141,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1200,15 +1200,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1007</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O9" s="8">
         <v>0</v>
@@ -1259,15 +1259,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10000</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1318,15 +1318,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10001</v>
       </c>
       <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1377,15 +1377,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20000</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1415,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1436,15 +1436,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>20001</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
@@ -1474,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1495,15 +1495,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>40000</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1533,10 +1533,10 @@
         <v>10</v>
       </c>
       <c r="M14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1572,22 +1572,22 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="93.6" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1603,23 +1603,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -283,11 +283,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>踏歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>大乔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>踏歌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,7 +703,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>Prefabs/Models/Body/Female_Body_8100</t>
   </si>
@@ -192,14 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Models/Npc/Npc_014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>苍天已死黄天当立</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,6 +276,22 @@
   </si>
   <si>
     <t>大乔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水镜先生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -736,7 +740,7 @@
         <v>40</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>29</v>
@@ -748,19 +752,19 @@
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
@@ -851,7 +855,7 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -910,7 +914,7 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
@@ -943,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -969,7 +973,7 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -1002,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1028,7 +1032,7 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -1061,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1087,7 +1091,7 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -1120,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1146,7 +1150,7 @@
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>41</v>
@@ -1179,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1205,10 +1209,10 @@
         <v>1007</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -1238,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O9" s="8">
         <v>0</v>
@@ -1260,73 +1264,73 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10000</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10">
+      <c r="A10" s="8">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>7</v>
+      </c>
+      <c r="F10" s="8">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
         <v>100</v>
       </c>
-      <c r="I10">
-        <v>20</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0</v>
+      </c>
+      <c r="T10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1356,7 +1360,7 @@
         <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1379,16 +1383,16 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>20000</v>
+        <v>10001</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -1415,145 +1419,204 @@
         <v>10</v>
       </c>
       <c r="M12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
         <v>38</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>20001</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="B14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="8">
         <v>2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="8">
         <v>7</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="8">
         <v>20</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <v>5</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H14" s="8">
         <v>100</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I14" s="8">
         <v>20</v>
       </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
         <v>10</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L14" s="8">
         <v>10</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>40000</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14">
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>7</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>5</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>100</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>20</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>10</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>10</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M15" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N15" t="s">
         <v>37</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>0</v>
       </c>
     </row>
@@ -1605,7 +1668,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>21</v>
@@ -1616,7 +1679,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5688" yWindow="3756" windowWidth="14808" windowHeight="10272"/>
+    <workbookView xWindow="5685" yWindow="3750" windowWidth="14805" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>Prefabs/Models/Body/Female_Body_8100</t>
   </si>
@@ -208,90 +208,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Prefabs/Models/Npc/Npc_011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：本国人可以访问 2：盟国人可访问 4：外国人可用访问 0：不可被任何人访问</t>
+  </si>
+  <si>
+    <t>基本类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被诸葛亮七进七出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍天已死黄天当立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司命神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大乔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水镜先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁血毛东东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是大僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Prefabs/Models/Npc/Npc_010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Models/Npc/Npc_011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Models/Npc/Npc_022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：本国人可以访问 2：盟国人可访问 4：外国人可用访问 0：不可被任何人访问</t>
-  </si>
-  <si>
-    <t>基本类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟获</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被诸葛亮七进七出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苍天已死黄天当立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司命神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侍剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>踏歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大乔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水镜先生</t>
+    <t>Prefabs/Models/Body/Npc_010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +430,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -460,7 +472,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,7 +507,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -704,32 +716,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="M14" activeCellId="1" sqref="M2 M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.77734375" customWidth="1"/>
+    <col min="13" max="13" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.75" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -740,7 +752,7 @@
         <v>40</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>29</v>
@@ -752,19 +764,19 @@
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
@@ -791,15 +803,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -814,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -829,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -850,12 +862,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -888,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -909,12 +921,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
@@ -947,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -968,12 +980,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -1006,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1027,12 +1039,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -1065,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1086,12 +1098,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -1124,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1145,12 +1157,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>41</v>
@@ -1183,95 +1195,95 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>43</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <v>1007</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>7</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>100</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>0</v>
-      </c>
-      <c r="R9" s="8">
-        <v>0</v>
-      </c>
-      <c r="S9" s="8">
-        <v>0</v>
-      </c>
-      <c r="T9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1008</v>
-      </c>
       <c r="B10" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -1322,71 +1334,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>100</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>10000</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="I11">
-        <v>20</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10001</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
@@ -1419,7 +1431,7 @@
         <v>10</v>
       </c>
       <c r="M12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1440,18 +1452,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>20000</v>
+        <v>10001</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -1478,145 +1490,204 @@
         <v>10</v>
       </c>
       <c r="M13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>20000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14" t="s">
         <v>38</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
         <v>20001</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <v>2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="8">
         <v>7</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="8">
         <v>20</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="8">
         <v>5</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H15" s="8">
         <v>100</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I15" s="8">
         <v>20</v>
       </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
         <v>10</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L15" s="8">
         <v>10</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16">
         <v>40000</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>7</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>5</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>100</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>20</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>10</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>10</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M16" t="s">
         <v>39</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N16" t="s">
         <v>37</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <v>0</v>
       </c>
     </row>
@@ -1635,14 +1706,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="93.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1650,7 +1721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1658,7 +1729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1666,23 +1737,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1690,7 +1761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1698,7 +1769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1706,7 +1777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1714,7 +1785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1722,7 +1793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1730,7 +1801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +1809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -1746,7 +1817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1754,7 +1825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -1762,7 +1833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1770,7 +1841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -1778,7 +1849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -719,7 +719,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" activeCellId="1" sqref="M2 M14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -814,7 +814,7 @@
         <v>69</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>7</v>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>Prefabs/Models/Body/Female_Body_8100</t>
   </si>
@@ -300,10 +300,6 @@
   </si>
   <si>
     <t>Prefabs/Models/Npc/Npc_010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Models/Body/Npc_010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +715,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -805,16 +801,16 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -826,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1000000</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -841,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -864,10 +860,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -900,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -923,10 +919,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
@@ -959,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -982,10 +978,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -1018,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1041,10 +1037,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -1077,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1100,10 +1096,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -1136,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1159,10 +1155,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
         <v>41</v>
@@ -1195,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1217,70 +1213,70 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>1006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="A9" s="8">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
         <v>7</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
         <v>100</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>54</v>
@@ -1335,70 +1331,70 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
-        <v>1008</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>7</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
         <v>100</v>
       </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>0</v>
-      </c>
-      <c r="R11" s="8">
-        <v>0</v>
-      </c>
-      <c r="S11" s="8">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8">
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>10000</v>
+        <v>10001</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
@@ -1431,7 +1427,7 @@
         <v>10</v>
       </c>
       <c r="M12" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1454,16 +1450,16 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>10001</v>
+        <v>20000</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -1490,7 +1486,7 @@
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1512,103 +1508,106 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>20000</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="A14" s="8">
+        <v>20001</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8">
+        <v>7</v>
+      </c>
+      <c r="F14" s="8">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8">
+        <v>5</v>
+      </c>
+      <c r="H14" s="8">
+        <v>100</v>
+      </c>
+      <c r="I14" s="8">
+        <v>20</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>10</v>
+      </c>
+      <c r="L14" s="8">
+        <v>10</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>40000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
         <v>7</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>5</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>100</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>20</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>10</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>10</v>
       </c>
-      <c r="M14" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="8">
-        <v>20001</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8">
-        <v>7</v>
-      </c>
-      <c r="F15" s="8">
-        <v>20</v>
-      </c>
-      <c r="G15" s="8">
-        <v>5</v>
-      </c>
-      <c r="H15" s="8">
-        <v>100</v>
-      </c>
-      <c r="I15" s="8">
-        <v>20</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>10</v>
-      </c>
-      <c r="L15" s="8">
-        <v>10</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>38</v>
+      <c r="M15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" t="s">
+        <v>37</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1629,15 +1628,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1646,28 +1645,28 @@
         <v>7</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="I16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="N16" t="s">
         <v>37</v>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="3750" windowWidth="14805" windowHeight="10275"/>
+    <workbookView xWindow="5688" yWindow="3816" windowWidth="14808" windowHeight="10212"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
   <si>
     <t>Prefabs/Models/Body/Female_Body_8100</t>
   </si>
@@ -153,11 +153,165 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小老虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老虎</t>
+    <t>血条贴图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["BarRed","BarBlue","BarGreen"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是一枚NPC</t>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：本国人可以访问 2：盟国人可访问 4：外国人可用访问 0：不可被任何人访问</t>
+  </si>
+  <si>
+    <t>基本类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍天已死黄天当立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司命神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大乔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水镜先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃源强盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃源刀客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃源巫祝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔化琴姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤尾魔猴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方锤鬼将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔瞳狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偃刀叛将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔化校尉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔化吕布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是一朵怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤炎金睛兽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -165,141 +319,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>血条贴图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["BarRed","BarBlue","BarGreen"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Models/Npc/Npc_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Models/Npc/Npc_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是一枚NPC</t>
-  </si>
-  <si>
-    <t>蛮族士兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Models/Npc/Npc_014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是一朵怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Models/Npc/Npc_012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Models/Npc/Npc_013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Models/Npc/Npc_011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Models/Npc/Npc_022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：本国人可以访问 2：盟国人可访问 4：外国人可用访问 0：不可被任何人访问</t>
-  </si>
-  <si>
-    <t>基本类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟获</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被诸葛亮七进七出</t>
+    <t>铁血毛东东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是大僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔弱的强盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫祝君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力不到5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖艺不卖身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一柱大圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方锤重一斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪亮的眼睛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒酸的妖怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗷~嗷嗷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要成为真正的吕布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>苍天已死黄天当立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司命神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侍剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>踏歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大乔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水镜先生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁血毛东东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是大僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Models/Npc/Npc_010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +498,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,7 +540,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,7 +575,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,32 +784,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.75" customWidth="1"/>
+    <col min="13" max="13" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.77734375" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -745,10 +817,10 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>29</v>
@@ -760,25 +832,25 @@
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -799,7 +871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -807,7 +879,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -858,15 +930,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -917,15 +989,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -955,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -976,15 +1048,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1014,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1035,15 +1107,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1073,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1094,15 +1166,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1132,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1153,15 +1225,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1191,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1212,15 +1284,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1007</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -1250,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O9" s="8">
         <v>0</v>
@@ -1271,15 +1343,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1008</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -1309,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O10" s="8">
         <v>0</v>
@@ -1330,15 +1402,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10000</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1389,15 +1461,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10001</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1427,7 +1499,7 @@
         <v>10</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1448,24 +1520,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>20000</v>
+        <v>10002</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>7</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -1486,7 +1558,7 @@
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1507,45 +1579,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
-        <v>20001</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2</v>
-      </c>
-      <c r="E14" s="8">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10003</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>7</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
         <v>20</v>
       </c>
-      <c r="G14" s="8">
-        <v>5</v>
-      </c>
-      <c r="H14" s="8">
-        <v>100</v>
-      </c>
-      <c r="I14" s="8">
-        <v>20</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>10</v>
-      </c>
-      <c r="L14" s="8">
-        <v>10</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>38</v>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1566,24 +1638,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>40000</v>
+        <v>10004</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>7</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -1604,10 +1676,7 @@
         <v>10</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1628,65 +1697,540 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>50000</v>
+        <v>10005</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>7</v>
       </c>
       <c r="F16">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10006</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10007</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20" t="s">
+        <v>72</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20002</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20003</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>40000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>50000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>99</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
         <v>100000</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>70</v>
-      </c>
-      <c r="N16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <v>0</v>
       </c>
     </row>
@@ -1705,14 +2249,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="93.6" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1720,7 +2264,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1728,7 +2272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1736,23 +2280,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1760,7 +2304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1768,7 +2312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1776,7 +2320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1784,7 +2328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1792,7 +2336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1800,7 +2344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1808,7 +2352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -1816,7 +2360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1824,7 +2368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -1832,7 +2376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1840,7 +2384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -1848,7 +2392,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5688" yWindow="3816" windowWidth="14808" windowHeight="10212"/>
+    <workbookView xWindow="5685" yWindow="3810" windowWidth="14805" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
   <si>
     <t>Prefabs/Models/Body/Female_Body_8100</t>
   </si>
@@ -372,6 +372,10 @@
   </si>
   <si>
     <t>苍天已死黄天当立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +502,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -540,7 +544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,7 +579,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -784,32 +788,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.77734375" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.75" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -834,44 +838,47 @@
       <c r="H1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -897,7 +904,7 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -908,12 +915,12 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>1</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
         <v>0</v>
       </c>
@@ -929,8 +936,11 @@
       <c r="T2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -956,7 +966,7 @@
         <v>100</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -967,10 +977,10 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
         <v>0</v>
       </c>
       <c r="P3">
@@ -988,8 +998,11 @@
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1015,7 +1028,7 @@
         <v>100</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1026,12 +1039,12 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
         <v>59</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
         <v>0</v>
       </c>
@@ -1047,8 +1060,11 @@
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1074,7 +1090,7 @@
         <v>100</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1085,12 +1101,12 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>40</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
       <c r="P5">
         <v>0</v>
       </c>
@@ -1106,8 +1122,11 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1133,7 +1152,7 @@
         <v>100</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1144,12 +1163,12 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
         <v>38</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
@@ -1165,8 +1184,11 @@
       <c r="T6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1192,7 +1214,7 @@
         <v>100</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1203,12 +1225,12 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>39</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
       <c r="P7">
         <v>0</v>
       </c>
@@ -1224,8 +1246,11 @@
       <c r="T7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1251,7 +1276,7 @@
         <v>100</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1262,12 +1287,12 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>37</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
       <c r="P8">
         <v>0</v>
       </c>
@@ -1283,8 +1308,11 @@
       <c r="T8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>1007</v>
       </c>
@@ -1309,8 +1337,8 @@
       <c r="H9" s="8">
         <v>100</v>
       </c>
-      <c r="I9" s="8">
-        <v>0</v>
+      <c r="I9">
+        <v>500</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
@@ -1321,12 +1349,12 @@
       <c r="L9" s="8">
         <v>0</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
       <c r="P9" s="8">
         <v>0</v>
       </c>
@@ -1342,8 +1370,11 @@
       <c r="T9" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>1008</v>
       </c>
@@ -1368,8 +1399,8 @@
       <c r="H10" s="8">
         <v>100</v>
       </c>
-      <c r="I10" s="8">
-        <v>0</v>
+      <c r="I10">
+        <v>500</v>
       </c>
       <c r="J10" s="8">
         <v>0</v>
@@ -1380,12 +1411,12 @@
       <c r="L10" s="8">
         <v>0</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
       <c r="P10" s="8">
         <v>0</v>
       </c>
@@ -1401,8 +1432,11 @@
       <c r="T10" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -1428,23 +1462,23 @@
         <v>100</v>
       </c>
       <c r="I11">
+        <v>500</v>
+      </c>
+      <c r="J11">
         <v>20</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>10</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
         <v>32</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
         <v>0</v>
       </c>
@@ -1460,8 +1494,11 @@
       <c r="T11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10001</v>
       </c>
@@ -1487,23 +1524,23 @@
         <v>100</v>
       </c>
       <c r="I12">
+        <v>500</v>
+      </c>
+      <c r="J12">
         <v>20</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>10</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
       <c r="P12">
         <v>0</v>
       </c>
@@ -1519,8 +1556,11 @@
       <c r="T12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10002</v>
       </c>
@@ -1546,23 +1586,23 @@
         <v>100</v>
       </c>
       <c r="I13">
+        <v>500</v>
+      </c>
+      <c r="J13">
         <v>20</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>10</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
         <v>41</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
       <c r="P13">
         <v>0</v>
       </c>
@@ -1578,8 +1618,11 @@
       <c r="T13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10003</v>
       </c>
@@ -1605,23 +1648,23 @@
         <v>100</v>
       </c>
       <c r="I14">
+        <v>500</v>
+      </c>
+      <c r="J14">
         <v>20</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>10</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
         <v>32</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
       <c r="P14">
         <v>0</v>
       </c>
@@ -1637,8 +1680,11 @@
       <c r="T14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10004</v>
       </c>
@@ -1664,23 +1710,23 @@
         <v>100</v>
       </c>
       <c r="I15">
+        <v>500</v>
+      </c>
+      <c r="J15">
         <v>20</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>10</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
         <v>41</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
       <c r="P15">
         <v>0</v>
       </c>
@@ -1696,8 +1742,11 @@
       <c r="T15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -1723,23 +1772,23 @@
         <v>100</v>
       </c>
       <c r="I16">
+        <v>500</v>
+      </c>
+      <c r="J16">
         <v>20</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>10</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
         <v>41</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
       <c r="P16">
         <v>0</v>
       </c>
@@ -1755,8 +1804,11 @@
       <c r="T16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>10006</v>
       </c>
@@ -1782,23 +1834,23 @@
         <v>100</v>
       </c>
       <c r="I17">
+        <v>500</v>
+      </c>
+      <c r="J17">
         <v>20</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>10</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
         <v>41</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
       <c r="P17">
         <v>0</v>
       </c>
@@ -1814,8 +1866,11 @@
       <c r="T17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>10007</v>
       </c>
@@ -1841,23 +1896,23 @@
         <v>100</v>
       </c>
       <c r="I18">
+        <v>500</v>
+      </c>
+      <c r="J18">
         <v>20</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>10</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18" t="s">
         <v>41</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
       <c r="P18">
         <v>0</v>
       </c>
@@ -1873,8 +1928,11 @@
       <c r="T18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>20000</v>
       </c>
@@ -1900,23 +1958,23 @@
         <v>100</v>
       </c>
       <c r="I19">
+        <v>500</v>
+      </c>
+      <c r="J19">
         <v>20</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>10</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19" t="s">
         <v>72</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
       <c r="P19">
         <v>0</v>
       </c>
@@ -1932,8 +1990,11 @@
       <c r="T19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>20001</v>
       </c>
@@ -1959,23 +2020,23 @@
         <v>100</v>
       </c>
       <c r="I20">
+        <v>500</v>
+      </c>
+      <c r="J20">
         <v>20</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>10</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20" t="s">
         <v>72</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
       <c r="P20">
         <v>0</v>
       </c>
@@ -1991,8 +2052,11 @@
       <c r="T20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20002</v>
       </c>
@@ -2018,23 +2082,23 @@
         <v>100</v>
       </c>
       <c r="I21">
+        <v>500</v>
+      </c>
+      <c r="J21">
         <v>20</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>10</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21" t="s">
         <v>72</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
       <c r="P21">
         <v>0</v>
       </c>
@@ -2050,8 +2114,11 @@
       <c r="T21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20003</v>
       </c>
@@ -2077,23 +2144,23 @@
         <v>100</v>
       </c>
       <c r="I22">
+        <v>500</v>
+      </c>
+      <c r="J22">
         <v>20</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>10</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22" t="s">
         <v>72</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
       <c r="P22">
         <v>0</v>
       </c>
@@ -2109,8 +2176,11 @@
       <c r="T22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>40000</v>
       </c>
@@ -2136,26 +2206,26 @@
         <v>100</v>
       </c>
       <c r="I23">
+        <v>500</v>
+      </c>
+      <c r="J23">
         <v>20</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>10</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="N23" t="s">
         <v>72</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>34</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
       <c r="P23">
         <v>0</v>
       </c>
@@ -2171,8 +2241,11 @@
       <c r="T23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>50000</v>
       </c>
@@ -2198,7 +2271,7 @@
         <v>100000</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2209,15 +2282,15 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
         <v>77</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>34</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
       <c r="P24">
         <v>0</v>
       </c>
@@ -2231,6 +2304,9 @@
         <v>0</v>
       </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>0</v>
       </c>
     </row>
@@ -2249,14 +2325,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="93.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -2264,7 +2340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -2272,7 +2348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2280,7 +2356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
@@ -2288,7 +2364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -2296,7 +2372,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -2304,7 +2380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2312,7 +2388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -2320,7 +2396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -2328,7 +2404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -2336,7 +2412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -2344,7 +2420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -2352,7 +2428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -2360,7 +2436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2368,7 +2444,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -2376,7 +2452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -2384,7 +2460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -2392,7 +2468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3810" windowWidth="14805" windowHeight="10215"/>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -665,10 +665,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特殊伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>访问类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -690,6 +686,10 @@
   </si>
   <si>
     <t>我是一枚NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,14 +819,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -890,7 +883,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -932,7 +925,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -967,7 +960,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1179,8 +1172,8 @@
   <dimension ref="A1:Z116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q40" sqref="Q40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1217,13 +1210,13 @@
         <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>48</v>
@@ -1253,7 +1246,7 @@
         <v>183</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>3</v>
@@ -1288,7 +1281,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="10">
         <v>0</v>
@@ -1363,7 +1356,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="10">
         <v>0</v>
@@ -1408,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="10">
@@ -1438,7 +1431,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="10">
         <v>0</v>
@@ -1513,7 +1506,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D5" s="10">
         <v>0</v>
@@ -1588,7 +1581,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="10">
         <v>0</v>
@@ -1663,7 +1656,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
@@ -1738,7 +1731,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -10217,37 +10210,37 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B19:B110">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H110">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:M110">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44:O110">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P110">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q110">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:O43">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -689,7 +689,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怪物伤害</t>
+    <t>附加伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1171,9 +1171,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3810" windowWidth="14805" windowHeight="10215"/>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -819,7 +819,63 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -883,7 +939,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -925,7 +981,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -960,7 +1016,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,9 +1227,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="K104" sqref="K104:K116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1981,7 +2037,7 @@
         <v>40</v>
       </c>
       <c r="K11" s="12">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L11" s="12">
         <v>1</v>
@@ -2056,7 +2112,7 @@
         <v>500</v>
       </c>
       <c r="J12" s="12">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="K12" s="12">
         <v>42</v>
@@ -2137,7 +2193,7 @@
         <v>44</v>
       </c>
       <c r="K13" s="12">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L13" s="12">
         <v>1</v>
@@ -2212,7 +2268,7 @@
         <v>500</v>
       </c>
       <c r="J14" s="12">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="K14" s="12">
         <v>46</v>
@@ -2293,7 +2349,7 @@
         <v>48</v>
       </c>
       <c r="K15" s="12">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="L15" s="12">
         <v>1</v>
@@ -2368,7 +2424,7 @@
         <v>500</v>
       </c>
       <c r="J16" s="12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K16" s="12">
         <v>50</v>
@@ -2449,7 +2505,7 @@
         <v>52</v>
       </c>
       <c r="K17" s="12">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="L17" s="12">
         <v>1</v>
@@ -2524,7 +2580,7 @@
         <v>500</v>
       </c>
       <c r="J18" s="12">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K18" s="12">
         <v>54</v>
@@ -2605,7 +2661,7 @@
         <v>56</v>
       </c>
       <c r="K19" s="12">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="L19" s="12">
         <v>1</v>
@@ -2680,7 +2736,7 @@
         <v>500</v>
       </c>
       <c r="J20" s="12">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="K20" s="12">
         <v>58</v>
@@ -2761,7 +2817,7 @@
         <v>60</v>
       </c>
       <c r="K21" s="12">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L21" s="12">
         <v>1</v>
@@ -2836,7 +2892,7 @@
         <v>500</v>
       </c>
       <c r="J22" s="12">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="K22" s="12">
         <v>62</v>
@@ -2917,7 +2973,7 @@
         <v>64</v>
       </c>
       <c r="K23" s="12">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="L23" s="12">
         <v>1</v>
@@ -2992,7 +3048,7 @@
         <v>500</v>
       </c>
       <c r="J24" s="12">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="K24" s="12">
         <v>66</v>
@@ -3073,7 +3129,7 @@
         <v>68</v>
       </c>
       <c r="K25" s="12">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="L25" s="12">
         <v>1</v>
@@ -3148,7 +3204,7 @@
         <v>500</v>
       </c>
       <c r="J26" s="12">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K26" s="12">
         <v>70</v>
@@ -3229,7 +3285,7 @@
         <v>72</v>
       </c>
       <c r="K27" s="12">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="L27" s="12">
         <v>1</v>
@@ -3304,7 +3360,7 @@
         <v>500</v>
       </c>
       <c r="J28" s="12">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="K28" s="12">
         <v>74</v>
@@ -3385,7 +3441,7 @@
         <v>76</v>
       </c>
       <c r="K29" s="12">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="L29" s="12">
         <v>1</v>
@@ -3460,7 +3516,7 @@
         <v>500</v>
       </c>
       <c r="J30" s="12">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="K30" s="12">
         <v>135</v>
@@ -3541,7 +3597,7 @@
         <v>138</v>
       </c>
       <c r="K31" s="12">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="L31" s="12">
         <v>1</v>
@@ -3616,7 +3672,7 @@
         <v>500</v>
       </c>
       <c r="J32" s="12">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="K32" s="12">
         <v>141</v>
@@ -3697,7 +3753,7 @@
         <v>144</v>
       </c>
       <c r="K33" s="12">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="L33" s="12">
         <v>1</v>
@@ -3772,7 +3828,7 @@
         <v>500</v>
       </c>
       <c r="J34" s="12">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="K34" s="12">
         <v>147</v>
@@ -3853,7 +3909,7 @@
         <v>150</v>
       </c>
       <c r="K35" s="12">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L35" s="12">
         <v>1</v>
@@ -3928,7 +3984,7 @@
         <v>500</v>
       </c>
       <c r="J36" s="12">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="K36" s="12">
         <v>153</v>
@@ -4009,7 +4065,7 @@
         <v>156</v>
       </c>
       <c r="K37" s="12">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="L37" s="12">
         <v>1</v>
@@ -4084,7 +4140,7 @@
         <v>500</v>
       </c>
       <c r="J38" s="12">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="K38" s="12">
         <v>159</v>
@@ -4165,7 +4221,7 @@
         <v>162</v>
       </c>
       <c r="K39" s="12">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="L39" s="12">
         <v>1</v>
@@ -4240,7 +4296,7 @@
         <v>500</v>
       </c>
       <c r="J40" s="12">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="K40" s="12">
         <v>165</v>
@@ -4321,7 +4377,7 @@
         <v>168</v>
       </c>
       <c r="K41" s="12">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="L41" s="12">
         <v>1</v>
@@ -4396,7 +4452,7 @@
         <v>500</v>
       </c>
       <c r="J42" s="12">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="K42" s="12">
         <v>171</v>
@@ -4477,7 +4533,7 @@
         <v>174</v>
       </c>
       <c r="K43" s="12">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="L43" s="12">
         <v>1</v>
@@ -4552,7 +4608,7 @@
         <v>500</v>
       </c>
       <c r="J44" s="12">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="K44" s="12">
         <v>177</v>
@@ -4633,7 +4689,7 @@
         <v>180</v>
       </c>
       <c r="K45" s="12">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="L45" s="12">
         <v>1</v>
@@ -4708,7 +4764,7 @@
         <v>500</v>
       </c>
       <c r="J46" s="12">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="K46" s="12">
         <v>183</v>
@@ -4789,7 +4845,7 @@
         <v>186</v>
       </c>
       <c r="K47" s="12">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="L47" s="12">
         <v>1</v>
@@ -4864,7 +4920,7 @@
         <v>500</v>
       </c>
       <c r="J48" s="12">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="K48" s="12">
         <v>189</v>
@@ -4945,7 +5001,7 @@
         <v>192</v>
       </c>
       <c r="K49" s="12">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="L49" s="12">
         <v>1</v>
@@ -5020,7 +5076,7 @@
         <v>500</v>
       </c>
       <c r="J50" s="12">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="K50" s="12">
         <v>240</v>
@@ -5101,7 +5157,7 @@
         <v>246</v>
       </c>
       <c r="K51" s="12">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="L51" s="12">
         <v>1</v>
@@ -5176,7 +5232,7 @@
         <v>500</v>
       </c>
       <c r="J52" s="12">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="K52" s="12">
         <v>252</v>
@@ -5257,7 +5313,7 @@
         <v>258</v>
       </c>
       <c r="K53" s="12">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="L53" s="12">
         <v>1</v>
@@ -5332,7 +5388,7 @@
         <v>500</v>
       </c>
       <c r="J54" s="12">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="K54" s="12">
         <v>264</v>
@@ -5410,7 +5466,7 @@
         <v>500</v>
       </c>
       <c r="J55" s="12">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="K55" s="12">
         <v>270</v>
@@ -5488,7 +5544,7 @@
         <v>500</v>
       </c>
       <c r="J56" s="12">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="K56" s="12">
         <v>276</v>
@@ -5566,7 +5622,7 @@
         <v>500</v>
       </c>
       <c r="J57" s="12">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="K57" s="12">
         <v>282</v>
@@ -5644,7 +5700,7 @@
         <v>500</v>
       </c>
       <c r="J58" s="12">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="K58" s="12">
         <v>288</v>
@@ -5722,7 +5778,7 @@
         <v>500</v>
       </c>
       <c r="J59" s="12">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="K59" s="12">
         <v>294</v>
@@ -5800,7 +5856,7 @@
         <v>500</v>
       </c>
       <c r="J60" s="12">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K60" s="12">
         <v>300</v>
@@ -5878,7 +5934,7 @@
         <v>500</v>
       </c>
       <c r="J61" s="12">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="K61" s="12">
         <v>306</v>
@@ -5956,7 +6012,7 @@
         <v>500</v>
       </c>
       <c r="J62" s="12">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="K62" s="12">
         <v>312</v>
@@ -6034,7 +6090,7 @@
         <v>500</v>
       </c>
       <c r="J63" s="12">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="K63" s="12">
         <v>318</v>
@@ -6115,7 +6171,7 @@
         <v>324</v>
       </c>
       <c r="K64" s="12">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="L64" s="12">
         <v>1</v>
@@ -6193,7 +6249,7 @@
         <v>330</v>
       </c>
       <c r="K65" s="12">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="L65" s="12">
         <v>1</v>
@@ -6271,7 +6327,7 @@
         <v>336</v>
       </c>
       <c r="K66" s="12">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="L66" s="12">
         <v>1</v>
@@ -6349,7 +6405,7 @@
         <v>342</v>
       </c>
       <c r="K67" s="12">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="L67" s="12">
         <v>1</v>
@@ -6427,7 +6483,7 @@
         <v>348</v>
       </c>
       <c r="K68" s="12">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="L68" s="12">
         <v>1</v>
@@ -6505,7 +6561,7 @@
         <v>354</v>
       </c>
       <c r="K69" s="12">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="L69" s="12">
         <v>1</v>
@@ -6583,7 +6639,7 @@
         <v>360</v>
       </c>
       <c r="K70" s="12">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="L70" s="12">
         <v>1</v>
@@ -6661,7 +6717,7 @@
         <v>400</v>
       </c>
       <c r="K71" s="12">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L71" s="12">
         <v>1</v>
@@ -6739,7 +6795,7 @@
         <v>410</v>
       </c>
       <c r="K72" s="12">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="L72" s="12">
         <v>1</v>
@@ -6817,7 +6873,7 @@
         <v>420</v>
       </c>
       <c r="K73" s="12">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="L73" s="12">
         <v>1</v>
@@ -6892,7 +6948,7 @@
         <v>500</v>
       </c>
       <c r="J74" s="12">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="K74" s="12">
         <v>430</v>
@@ -6970,7 +7026,7 @@
         <v>500</v>
       </c>
       <c r="J75" s="12">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="K75" s="12">
         <v>440</v>
@@ -7048,7 +7104,7 @@
         <v>500</v>
       </c>
       <c r="J76" s="12">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="K76" s="12">
         <v>450</v>
@@ -7126,7 +7182,7 @@
         <v>500</v>
       </c>
       <c r="J77" s="12">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="K77" s="12">
         <v>460</v>
@@ -7204,7 +7260,7 @@
         <v>500</v>
       </c>
       <c r="J78" s="12">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="K78" s="12">
         <v>470</v>
@@ -7282,7 +7338,7 @@
         <v>500</v>
       </c>
       <c r="J79" s="12">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="K79" s="12">
         <v>480</v>
@@ -7360,7 +7416,7 @@
         <v>500</v>
       </c>
       <c r="J80" s="12">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="K80" s="12">
         <v>490</v>
@@ -7438,7 +7494,7 @@
         <v>500</v>
       </c>
       <c r="J81" s="12">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K81" s="12">
         <v>500</v>
@@ -7516,7 +7572,7 @@
         <v>500</v>
       </c>
       <c r="J82" s="12">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="K82" s="12">
         <v>510</v>
@@ -7594,7 +7650,7 @@
         <v>500</v>
       </c>
       <c r="J83" s="12">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="K83" s="12">
         <v>520</v>
@@ -7675,7 +7731,7 @@
         <v>530</v>
       </c>
       <c r="K84" s="12">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="L84" s="12">
         <v>1</v>
@@ -7753,7 +7809,7 @@
         <v>540</v>
       </c>
       <c r="K85" s="12">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="L85" s="12">
         <v>1</v>
@@ -7831,7 +7887,7 @@
         <v>550</v>
       </c>
       <c r="K86" s="12">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="L86" s="12">
         <v>1</v>
@@ -7909,7 +7965,7 @@
         <v>560</v>
       </c>
       <c r="K87" s="12">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="L87" s="12">
         <v>1</v>
@@ -7987,7 +8043,7 @@
         <v>570</v>
       </c>
       <c r="K88" s="12">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="L88" s="12">
         <v>1</v>
@@ -8065,7 +8121,7 @@
         <v>580</v>
       </c>
       <c r="K89" s="12">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="L89" s="12">
         <v>1</v>
@@ -8143,7 +8199,7 @@
         <v>590</v>
       </c>
       <c r="K90" s="12">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="L90" s="12">
         <v>1</v>
@@ -8221,7 +8277,7 @@
         <v>640</v>
       </c>
       <c r="K91" s="12">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="L91" s="12">
         <v>1</v>
@@ -8299,7 +8355,7 @@
         <v>655</v>
       </c>
       <c r="K92" s="12">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="L92" s="12">
         <v>1</v>
@@ -8377,7 +8433,7 @@
         <v>670</v>
       </c>
       <c r="K93" s="12">
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="L93" s="12">
         <v>1</v>
@@ -8452,7 +8508,7 @@
         <v>500</v>
       </c>
       <c r="J94" s="12">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="K94" s="12">
         <v>685</v>
@@ -8530,7 +8586,7 @@
         <v>500</v>
       </c>
       <c r="J95" s="12">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K95" s="12">
         <v>700</v>
@@ -8608,7 +8664,7 @@
         <v>500</v>
       </c>
       <c r="J96" s="12">
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="K96" s="12">
         <v>715</v>
@@ -8686,7 +8742,7 @@
         <v>500</v>
       </c>
       <c r="J97" s="12">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="K97" s="12">
         <v>730</v>
@@ -8764,7 +8820,7 @@
         <v>500</v>
       </c>
       <c r="J98" s="12">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="K98" s="12">
         <v>745</v>
@@ -8842,7 +8898,7 @@
         <v>500</v>
       </c>
       <c r="J99" s="12">
-        <v>760</v>
+        <v>0</v>
       </c>
       <c r="K99" s="12">
         <v>760</v>
@@ -8920,7 +8976,7 @@
         <v>500</v>
       </c>
       <c r="J100" s="12">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="K100" s="12">
         <v>775</v>
@@ -8998,7 +9054,7 @@
         <v>500</v>
       </c>
       <c r="J101" s="12">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="K101" s="12">
         <v>790</v>
@@ -9076,7 +9132,7 @@
         <v>500</v>
       </c>
       <c r="J102" s="12">
-        <v>805</v>
+        <v>0</v>
       </c>
       <c r="K102" s="12">
         <v>805</v>
@@ -9154,7 +9210,7 @@
         <v>500</v>
       </c>
       <c r="J103" s="12">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="K103" s="12">
         <v>820</v>
@@ -9235,7 +9291,7 @@
         <v>835</v>
       </c>
       <c r="K104" s="12">
-        <v>835</v>
+        <v>0</v>
       </c>
       <c r="L104" s="12">
         <v>1</v>
@@ -9313,7 +9369,7 @@
         <v>850</v>
       </c>
       <c r="K105" s="12">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="L105" s="12">
         <v>1</v>
@@ -9391,7 +9447,7 @@
         <v>865</v>
       </c>
       <c r="K106" s="12">
-        <v>865</v>
+        <v>0</v>
       </c>
       <c r="L106" s="12">
         <v>1</v>
@@ -9469,7 +9525,7 @@
         <v>880</v>
       </c>
       <c r="K107" s="12">
-        <v>880</v>
+        <v>0</v>
       </c>
       <c r="L107" s="12">
         <v>1</v>
@@ -9547,7 +9603,7 @@
         <v>895</v>
       </c>
       <c r="K108" s="12">
-        <v>895</v>
+        <v>0</v>
       </c>
       <c r="L108" s="12">
         <v>1</v>
@@ -9625,7 +9681,7 @@
         <v>910</v>
       </c>
       <c r="K109" s="12">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="L109" s="12">
         <v>1</v>
@@ -9703,7 +9759,7 @@
         <v>925</v>
       </c>
       <c r="K110" s="12">
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="L110" s="12">
         <v>1</v>
@@ -10210,37 +10266,42 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B19:B110">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H110">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:M110">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="J11:M103 J104:J110 L104:M110">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44:O110">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P110">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q110">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:O43">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K104:K116">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="199">
   <si>
     <t>Prefabs/Models/Body/Male_Body_7000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -691,6 +691,36 @@
   <si>
     <t>附加伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“10000-10000”</t>
+  </si>
+  <si>
+    <t>“10000-10000:10001-500”</t>
   </si>
 </sst>
 </file>
@@ -819,56 +849,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1225,11 +1206,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z116"/>
+  <dimension ref="A1:AD116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K104" sqref="K104:K116"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1245,14 +1226,15 @@
     <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="9" customWidth="1"/>
-    <col min="18" max="18" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.75" customWidth="1"/>
-    <col min="20" max="20" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="9" customWidth="1"/>
+    <col min="20" max="20" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="40.75" customWidth="1"/>
+    <col min="23" max="23" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="29" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1301,35 +1283,50 @@
       <c r="P1" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="R1" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AC1" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1000</v>
       </c>
@@ -1381,19 +1378,19 @@
       <c r="Q2" s="10">
         <v>0</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="10"/>
+      <c r="R2" s="10">
+        <v>0</v>
+      </c>
+      <c r="S2" s="10">
+        <v>0</v>
+      </c>
       <c r="T2" s="10">
         <v>0</v>
       </c>
-      <c r="U2" s="10">
-        <v>0</v>
-      </c>
-      <c r="V2" s="10">
-        <v>0</v>
-      </c>
+      <c r="U2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="10"/>
       <c r="W2" s="10">
         <v>0</v>
       </c>
@@ -1403,8 +1400,23 @@
       <c r="Y2" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1001</v>
       </c>
@@ -1456,19 +1468,19 @@
       <c r="Q3" s="10">
         <v>0</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="10">
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <v>0</v>
+      </c>
+      <c r="T3" s="10">
+        <v>0</v>
+      </c>
+      <c r="U3" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10">
-        <v>0</v>
-      </c>
-      <c r="U3" s="10">
-        <v>0</v>
-      </c>
-      <c r="V3" s="10">
-        <v>0</v>
-      </c>
+      <c r="V3" s="10"/>
       <c r="W3" s="10">
         <v>0</v>
       </c>
@@ -1478,8 +1490,23 @@
       <c r="Y3" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>1002</v>
       </c>
@@ -1531,19 +1558,19 @@
       <c r="Q4" s="10">
         <v>0</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="10">
+        <v>0</v>
+      </c>
+      <c r="S4" s="10">
+        <v>0</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10">
-        <v>0</v>
-      </c>
-      <c r="U4" s="10">
-        <v>0</v>
-      </c>
-      <c r="V4" s="10">
-        <v>0</v>
-      </c>
+      <c r="V4" s="10"/>
       <c r="W4" s="10">
         <v>0</v>
       </c>
@@ -1553,8 +1580,23 @@
       <c r="Y4" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>1003</v>
       </c>
@@ -1606,19 +1648,19 @@
       <c r="Q5" s="10">
         <v>0</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="10">
+        <v>0</v>
+      </c>
+      <c r="S5" s="10">
+        <v>0</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0</v>
+      </c>
+      <c r="U5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10">
-        <v>0</v>
-      </c>
-      <c r="U5" s="10">
-        <v>0</v>
-      </c>
-      <c r="V5" s="10">
-        <v>0</v>
-      </c>
+      <c r="V5" s="10"/>
       <c r="W5" s="10">
         <v>0</v>
       </c>
@@ -1628,8 +1670,23 @@
       <c r="Y5" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>1004</v>
       </c>
@@ -1681,19 +1738,19 @@
       <c r="Q6" s="10">
         <v>0</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="10">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0</v>
+      </c>
+      <c r="U6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10">
-        <v>0</v>
-      </c>
-      <c r="U6" s="10">
-        <v>0</v>
-      </c>
-      <c r="V6" s="10">
-        <v>0</v>
-      </c>
+      <c r="V6" s="10"/>
       <c r="W6" s="10">
         <v>0</v>
       </c>
@@ -1703,8 +1760,23 @@
       <c r="Y6" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>1005</v>
       </c>
@@ -1756,19 +1828,19 @@
       <c r="Q7" s="10">
         <v>0</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="10">
+        <v>0</v>
+      </c>
+      <c r="S7" s="10">
+        <v>0</v>
+      </c>
+      <c r="T7" s="10">
+        <v>0</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10">
-        <v>0</v>
-      </c>
-      <c r="U7" s="10">
-        <v>0</v>
-      </c>
-      <c r="V7" s="10">
-        <v>0</v>
-      </c>
+      <c r="V7" s="10"/>
       <c r="W7" s="10">
         <v>0</v>
       </c>
@@ -1778,8 +1850,23 @@
       <c r="Y7" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>1006</v>
       </c>
@@ -1831,19 +1918,19 @@
       <c r="Q8" s="10">
         <v>0</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="10">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
+        <v>0</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0</v>
+      </c>
+      <c r="U8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10">
-        <v>0</v>
-      </c>
-      <c r="U8" s="10">
-        <v>0</v>
-      </c>
-      <c r="V8" s="10">
-        <v>0</v>
-      </c>
+      <c r="V8" s="10"/>
       <c r="W8" s="10">
         <v>0</v>
       </c>
@@ -1853,8 +1940,23 @@
       <c r="Y8" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>1007</v>
       </c>
@@ -1906,19 +2008,19 @@
       <c r="Q9" s="10">
         <v>0</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="10">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0</v>
+      </c>
+      <c r="U9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10">
-        <v>0</v>
-      </c>
-      <c r="U9" s="10">
-        <v>0</v>
-      </c>
-      <c r="V9" s="10">
-        <v>0</v>
-      </c>
+      <c r="V9" s="10"/>
       <c r="W9" s="10">
         <v>0</v>
       </c>
@@ -1928,8 +2030,23 @@
       <c r="Y9" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>1008</v>
       </c>
@@ -1981,19 +2098,19 @@
       <c r="Q10" s="10">
         <v>0</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="10">
+        <v>0</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10">
-        <v>0</v>
-      </c>
-      <c r="U10" s="10">
-        <v>0</v>
-      </c>
-      <c r="V10" s="10">
-        <v>0</v>
-      </c>
+      <c r="V10" s="10"/>
       <c r="W10" s="10">
         <v>0</v>
       </c>
@@ -2003,8 +2120,23 @@
       <c r="Y10" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>10000</v>
       </c>
@@ -2057,19 +2189,19 @@
       <c r="Q11" s="12">
         <v>3</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="10">
+        <v>0</v>
+      </c>
+      <c r="S11" s="10">
+        <v>5</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="U11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12">
-        <v>0</v>
-      </c>
-      <c r="U11" s="12">
-        <v>0</v>
-      </c>
-      <c r="V11" s="12">
-        <v>0</v>
-      </c>
+      <c r="V11" s="12"/>
       <c r="W11" s="12">
         <v>0</v>
       </c>
@@ -2079,9 +2211,23 @@
       <c r="Y11" s="12">
         <v>0</v>
       </c>
-      <c r="Z11" s="12"/>
-    </row>
-    <row r="12" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>10001</v>
       </c>
@@ -2135,19 +2281,19 @@
       <c r="Q12" s="12">
         <v>3</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="R12" s="10">
+        <v>0</v>
+      </c>
+      <c r="S12" s="10">
+        <v>5</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="U12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12">
-        <v>0</v>
-      </c>
-      <c r="U12" s="12">
-        <v>0</v>
-      </c>
-      <c r="V12" s="12">
-        <v>0</v>
-      </c>
+      <c r="V12" s="12"/>
       <c r="W12" s="12">
         <v>0</v>
       </c>
@@ -2157,9 +2303,23 @@
       <c r="Y12" s="12">
         <v>0</v>
       </c>
-      <c r="Z12" s="12"/>
-    </row>
-    <row r="13" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>10002</v>
       </c>
@@ -2213,19 +2373,19 @@
       <c r="Q13" s="12">
         <v>3</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="R13" s="10">
+        <v>0</v>
+      </c>
+      <c r="S13" s="10">
+        <v>5</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12">
-        <v>0</v>
-      </c>
-      <c r="U13" s="12">
-        <v>0</v>
-      </c>
-      <c r="V13" s="12">
-        <v>0</v>
-      </c>
+      <c r="V13" s="12"/>
       <c r="W13" s="12">
         <v>0</v>
       </c>
@@ -2235,9 +2395,23 @@
       <c r="Y13" s="12">
         <v>0</v>
       </c>
-      <c r="Z13" s="12"/>
-    </row>
-    <row r="14" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>10003</v>
       </c>
@@ -2291,19 +2465,19 @@
       <c r="Q14" s="12">
         <v>6</v>
       </c>
-      <c r="R14" s="12" t="s">
+      <c r="R14" s="10">
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
+        <v>5</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="U14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12">
-        <v>0</v>
-      </c>
-      <c r="U14" s="12">
-        <v>0</v>
-      </c>
-      <c r="V14" s="12">
-        <v>0</v>
-      </c>
+      <c r="V14" s="12"/>
       <c r="W14" s="12">
         <v>0</v>
       </c>
@@ -2313,9 +2487,23 @@
       <c r="Y14" s="12">
         <v>0</v>
       </c>
-      <c r="Z14" s="12"/>
-    </row>
-    <row r="15" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>10004</v>
       </c>
@@ -2369,19 +2557,19 @@
       <c r="Q15" s="12">
         <v>6</v>
       </c>
-      <c r="R15" s="12" t="s">
+      <c r="R15" s="10">
+        <v>0</v>
+      </c>
+      <c r="S15" s="10">
+        <v>5</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="U15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12">
-        <v>0</v>
-      </c>
-      <c r="U15" s="12">
-        <v>0</v>
-      </c>
-      <c r="V15" s="12">
-        <v>0</v>
-      </c>
+      <c r="V15" s="12"/>
       <c r="W15" s="12">
         <v>0</v>
       </c>
@@ -2391,9 +2579,23 @@
       <c r="Y15" s="12">
         <v>0</v>
       </c>
-      <c r="Z15" s="12"/>
-    </row>
-    <row r="16" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>10005</v>
       </c>
@@ -2447,19 +2649,19 @@
       <c r="Q16" s="12">
         <v>6</v>
       </c>
-      <c r="R16" s="12" t="s">
+      <c r="R16" s="10">
+        <v>0</v>
+      </c>
+      <c r="S16" s="10">
+        <v>5</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="U16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12">
-        <v>0</v>
-      </c>
-      <c r="U16" s="12">
-        <v>0</v>
-      </c>
-      <c r="V16" s="12">
-        <v>0</v>
-      </c>
+      <c r="V16" s="12"/>
       <c r="W16" s="12">
         <v>0</v>
       </c>
@@ -2469,9 +2671,23 @@
       <c r="Y16" s="12">
         <v>0</v>
       </c>
-      <c r="Z16" s="12"/>
-    </row>
-    <row r="17" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>10006</v>
       </c>
@@ -2525,19 +2741,19 @@
       <c r="Q17" s="12">
         <v>6</v>
       </c>
-      <c r="R17" s="12" t="s">
+      <c r="R17" s="10">
+        <v>0</v>
+      </c>
+      <c r="S17" s="10">
+        <v>5</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="U17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12">
-        <v>0</v>
-      </c>
-      <c r="U17" s="12">
-        <v>0</v>
-      </c>
-      <c r="V17" s="12">
-        <v>0</v>
-      </c>
+      <c r="V17" s="12"/>
       <c r="W17" s="12">
         <v>0</v>
       </c>
@@ -2547,9 +2763,23 @@
       <c r="Y17" s="12">
         <v>0</v>
       </c>
-      <c r="Z17" s="12"/>
-    </row>
-    <row r="18" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>10007</v>
       </c>
@@ -2603,19 +2833,19 @@
       <c r="Q18" s="12">
         <v>6</v>
       </c>
-      <c r="R18" s="12" t="s">
+      <c r="R18" s="10">
+        <v>0</v>
+      </c>
+      <c r="S18" s="10">
+        <v>5</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="U18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12">
-        <v>0</v>
-      </c>
-      <c r="U18" s="12">
-        <v>0</v>
-      </c>
-      <c r="V18" s="12">
-        <v>0</v>
-      </c>
+      <c r="V18" s="12"/>
       <c r="W18" s="12">
         <v>0</v>
       </c>
@@ -2625,9 +2855,23 @@
       <c r="Y18" s="12">
         <v>0</v>
       </c>
-      <c r="Z18" s="12"/>
-    </row>
-    <row r="19" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>10008</v>
       </c>
@@ -2681,19 +2925,19 @@
       <c r="Q19" s="12">
         <v>6</v>
       </c>
-      <c r="R19" s="12" t="s">
+      <c r="R19" s="10">
+        <v>0</v>
+      </c>
+      <c r="S19" s="10">
+        <v>5</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="U19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12">
-        <v>0</v>
-      </c>
-      <c r="U19" s="12">
-        <v>0</v>
-      </c>
-      <c r="V19" s="12">
-        <v>0</v>
-      </c>
+      <c r="V19" s="12"/>
       <c r="W19" s="12">
         <v>0</v>
       </c>
@@ -2703,9 +2947,23 @@
       <c r="Y19" s="12">
         <v>0</v>
       </c>
-      <c r="Z19" s="12"/>
-    </row>
-    <row r="20" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>10009</v>
       </c>
@@ -2759,19 +3017,19 @@
       <c r="Q20" s="12">
         <v>9</v>
       </c>
-      <c r="R20" s="12" t="s">
+      <c r="R20" s="10">
+        <v>0</v>
+      </c>
+      <c r="S20" s="10">
+        <v>5</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="U20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12">
-        <v>0</v>
-      </c>
-      <c r="U20" s="12">
-        <v>0</v>
-      </c>
-      <c r="V20" s="12">
-        <v>0</v>
-      </c>
+      <c r="V20" s="12"/>
       <c r="W20" s="12">
         <v>0</v>
       </c>
@@ -2781,9 +3039,23 @@
       <c r="Y20" s="12">
         <v>0</v>
       </c>
-      <c r="Z20" s="12"/>
-    </row>
-    <row r="21" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>10010</v>
       </c>
@@ -2837,19 +3109,19 @@
       <c r="Q21" s="12">
         <v>9</v>
       </c>
-      <c r="R21" s="12" t="s">
+      <c r="R21" s="10">
+        <v>0</v>
+      </c>
+      <c r="S21" s="10">
+        <v>5</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="U21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12">
-        <v>0</v>
-      </c>
-      <c r="U21" s="12">
-        <v>0</v>
-      </c>
-      <c r="V21" s="12">
-        <v>0</v>
-      </c>
+      <c r="V21" s="12"/>
       <c r="W21" s="12">
         <v>0</v>
       </c>
@@ -2859,9 +3131,23 @@
       <c r="Y21" s="12">
         <v>0</v>
       </c>
-      <c r="Z21" s="12"/>
-    </row>
-    <row r="22" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>10011</v>
       </c>
@@ -2915,19 +3201,19 @@
       <c r="Q22" s="12">
         <v>9</v>
       </c>
-      <c r="R22" s="12" t="s">
+      <c r="R22" s="10">
+        <v>0</v>
+      </c>
+      <c r="S22" s="10">
+        <v>5</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="U22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12">
-        <v>0</v>
-      </c>
-      <c r="U22" s="12">
-        <v>0</v>
-      </c>
-      <c r="V22" s="12">
-        <v>0</v>
-      </c>
+      <c r="V22" s="12"/>
       <c r="W22" s="12">
         <v>0</v>
       </c>
@@ -2937,9 +3223,23 @@
       <c r="Y22" s="12">
         <v>0</v>
       </c>
-      <c r="Z22" s="12"/>
-    </row>
-    <row r="23" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>10012</v>
       </c>
@@ -2993,19 +3293,19 @@
       <c r="Q23" s="12">
         <v>9</v>
       </c>
-      <c r="R23" s="12" t="s">
+      <c r="R23" s="10">
+        <v>0</v>
+      </c>
+      <c r="S23" s="10">
+        <v>5</v>
+      </c>
+      <c r="T23" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="U23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12">
-        <v>0</v>
-      </c>
-      <c r="U23" s="12">
-        <v>0</v>
-      </c>
-      <c r="V23" s="12">
-        <v>0</v>
-      </c>
+      <c r="V23" s="12"/>
       <c r="W23" s="12">
         <v>0</v>
       </c>
@@ -3015,9 +3315,23 @@
       <c r="Y23" s="12">
         <v>0</v>
       </c>
-      <c r="Z23" s="12"/>
-    </row>
-    <row r="24" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>10013</v>
       </c>
@@ -3071,19 +3385,19 @@
       <c r="Q24" s="12">
         <v>9</v>
       </c>
-      <c r="R24" s="12" t="s">
+      <c r="R24" s="10">
+        <v>0</v>
+      </c>
+      <c r="S24" s="10">
+        <v>5</v>
+      </c>
+      <c r="T24" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="U24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12">
-        <v>0</v>
-      </c>
-      <c r="U24" s="12">
-        <v>0</v>
-      </c>
-      <c r="V24" s="12">
-        <v>0</v>
-      </c>
+      <c r="V24" s="12"/>
       <c r="W24" s="12">
         <v>0</v>
       </c>
@@ -3093,9 +3407,23 @@
       <c r="Y24" s="12">
         <v>0</v>
       </c>
-      <c r="Z24" s="12"/>
-    </row>
-    <row r="25" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>10014</v>
       </c>
@@ -3149,19 +3477,19 @@
       <c r="Q25" s="12">
         <v>9</v>
       </c>
-      <c r="R25" s="12" t="s">
+      <c r="R25" s="10">
+        <v>0</v>
+      </c>
+      <c r="S25" s="10">
+        <v>5</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="U25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12">
-        <v>0</v>
-      </c>
-      <c r="U25" s="12">
-        <v>0</v>
-      </c>
-      <c r="V25" s="12">
-        <v>0</v>
-      </c>
+      <c r="V25" s="12"/>
       <c r="W25" s="12">
         <v>0</v>
       </c>
@@ -3171,9 +3499,23 @@
       <c r="Y25" s="12">
         <v>0</v>
       </c>
-      <c r="Z25" s="12"/>
-    </row>
-    <row r="26" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>10015</v>
       </c>
@@ -3227,19 +3569,19 @@
       <c r="Q26" s="12">
         <v>9</v>
       </c>
-      <c r="R26" s="12" t="s">
+      <c r="R26" s="10">
+        <v>0</v>
+      </c>
+      <c r="S26" s="10">
+        <v>5</v>
+      </c>
+      <c r="T26" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="U26" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12">
-        <v>0</v>
-      </c>
-      <c r="U26" s="12">
-        <v>0</v>
-      </c>
-      <c r="V26" s="12">
-        <v>0</v>
-      </c>
+      <c r="V26" s="12"/>
       <c r="W26" s="12">
         <v>0</v>
       </c>
@@ -3249,9 +3591,23 @@
       <c r="Y26" s="12">
         <v>0</v>
       </c>
-      <c r="Z26" s="12"/>
-    </row>
-    <row r="27" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>10016</v>
       </c>
@@ -3305,19 +3661,19 @@
       <c r="Q27" s="12">
         <v>9</v>
       </c>
-      <c r="R27" s="12" t="s">
+      <c r="R27" s="10">
+        <v>0</v>
+      </c>
+      <c r="S27" s="10">
+        <v>5</v>
+      </c>
+      <c r="T27" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="U27" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12">
-        <v>0</v>
-      </c>
-      <c r="U27" s="12">
-        <v>0</v>
-      </c>
-      <c r="V27" s="12">
-        <v>0</v>
-      </c>
+      <c r="V27" s="12"/>
       <c r="W27" s="12">
         <v>0</v>
       </c>
@@ -3327,9 +3683,23 @@
       <c r="Y27" s="12">
         <v>0</v>
       </c>
-      <c r="Z27" s="12"/>
-    </row>
-    <row r="28" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>10017</v>
       </c>
@@ -3383,19 +3753,19 @@
       <c r="Q28" s="12">
         <v>10</v>
       </c>
-      <c r="R28" s="12" t="s">
+      <c r="R28" s="10">
+        <v>0</v>
+      </c>
+      <c r="S28" s="10">
+        <v>5</v>
+      </c>
+      <c r="T28" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="U28" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12">
-        <v>0</v>
-      </c>
-      <c r="U28" s="12">
-        <v>0</v>
-      </c>
-      <c r="V28" s="12">
-        <v>0</v>
-      </c>
+      <c r="V28" s="12"/>
       <c r="W28" s="12">
         <v>0</v>
       </c>
@@ -3405,9 +3775,23 @@
       <c r="Y28" s="12">
         <v>0</v>
       </c>
-      <c r="Z28" s="12"/>
-    </row>
-    <row r="29" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>10018</v>
       </c>
@@ -3461,19 +3845,19 @@
       <c r="Q29" s="12">
         <v>10</v>
       </c>
-      <c r="R29" s="12" t="s">
+      <c r="R29" s="10">
+        <v>0</v>
+      </c>
+      <c r="S29" s="10">
+        <v>5</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="U29" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12">
-        <v>0</v>
-      </c>
-      <c r="U29" s="12">
-        <v>0</v>
-      </c>
-      <c r="V29" s="12">
-        <v>0</v>
-      </c>
+      <c r="V29" s="12"/>
       <c r="W29" s="12">
         <v>0</v>
       </c>
@@ -3483,9 +3867,23 @@
       <c r="Y29" s="12">
         <v>0</v>
       </c>
-      <c r="Z29" s="12"/>
-    </row>
-    <row r="30" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>10019</v>
       </c>
@@ -3539,19 +3937,19 @@
       <c r="Q30" s="12">
         <v>10</v>
       </c>
-      <c r="R30" s="12" t="s">
+      <c r="R30" s="10">
+        <v>0</v>
+      </c>
+      <c r="S30" s="10">
+        <v>5</v>
+      </c>
+      <c r="T30" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="U30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12">
-        <v>0</v>
-      </c>
-      <c r="U30" s="12">
-        <v>0</v>
-      </c>
-      <c r="V30" s="12">
-        <v>0</v>
-      </c>
+      <c r="V30" s="12"/>
       <c r="W30" s="12">
         <v>0</v>
       </c>
@@ -3561,9 +3959,23 @@
       <c r="Y30" s="12">
         <v>0</v>
       </c>
-      <c r="Z30" s="12"/>
-    </row>
-    <row r="31" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>10020</v>
       </c>
@@ -3617,19 +4029,19 @@
       <c r="Q31" s="12">
         <v>10</v>
       </c>
-      <c r="R31" s="12" t="s">
+      <c r="R31" s="10">
+        <v>0</v>
+      </c>
+      <c r="S31" s="10">
+        <v>5</v>
+      </c>
+      <c r="T31" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="U31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12">
-        <v>0</v>
-      </c>
-      <c r="U31" s="12">
-        <v>0</v>
-      </c>
-      <c r="V31" s="12">
-        <v>0</v>
-      </c>
+      <c r="V31" s="12"/>
       <c r="W31" s="12">
         <v>0</v>
       </c>
@@ -3639,9 +4051,23 @@
       <c r="Y31" s="12">
         <v>0</v>
       </c>
-      <c r="Z31" s="12"/>
-    </row>
-    <row r="32" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>10021</v>
       </c>
@@ -3695,19 +4121,19 @@
       <c r="Q32" s="12">
         <v>10</v>
       </c>
-      <c r="R32" s="12" t="s">
+      <c r="R32" s="10">
+        <v>0</v>
+      </c>
+      <c r="S32" s="10">
+        <v>5</v>
+      </c>
+      <c r="T32" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="U32" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12">
-        <v>0</v>
-      </c>
-      <c r="U32" s="12">
-        <v>0</v>
-      </c>
-      <c r="V32" s="12">
-        <v>0</v>
-      </c>
+      <c r="V32" s="12"/>
       <c r="W32" s="12">
         <v>0</v>
       </c>
@@ -3717,9 +4143,23 @@
       <c r="Y32" s="12">
         <v>0</v>
       </c>
-      <c r="Z32" s="12"/>
-    </row>
-    <row r="33" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>10022</v>
       </c>
@@ -3773,19 +4213,19 @@
       <c r="Q33" s="12">
         <v>10</v>
       </c>
-      <c r="R33" s="12" t="s">
+      <c r="R33" s="10">
+        <v>0</v>
+      </c>
+      <c r="S33" s="10">
+        <v>5</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="U33" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12">
-        <v>0</v>
-      </c>
-      <c r="U33" s="12">
-        <v>0</v>
-      </c>
-      <c r="V33" s="12">
-        <v>0</v>
-      </c>
+      <c r="V33" s="12"/>
       <c r="W33" s="12">
         <v>0</v>
       </c>
@@ -3795,9 +4235,23 @@
       <c r="Y33" s="12">
         <v>0</v>
       </c>
-      <c r="Z33" s="12"/>
-    </row>
-    <row r="34" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>10023</v>
       </c>
@@ -3851,19 +4305,19 @@
       <c r="Q34" s="12">
         <v>10</v>
       </c>
-      <c r="R34" s="12" t="s">
+      <c r="R34" s="10">
+        <v>0</v>
+      </c>
+      <c r="S34" s="10">
+        <v>5</v>
+      </c>
+      <c r="T34" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="U34" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12">
-        <v>0</v>
-      </c>
-      <c r="U34" s="12">
-        <v>0</v>
-      </c>
-      <c r="V34" s="12">
-        <v>0</v>
-      </c>
+      <c r="V34" s="12"/>
       <c r="W34" s="12">
         <v>0</v>
       </c>
@@ -3873,9 +4327,23 @@
       <c r="Y34" s="12">
         <v>0</v>
       </c>
-      <c r="Z34" s="12"/>
-    </row>
-    <row r="35" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>10024</v>
       </c>
@@ -3929,19 +4397,19 @@
       <c r="Q35" s="12">
         <v>10</v>
       </c>
-      <c r="R35" s="12" t="s">
+      <c r="R35" s="10">
+        <v>0</v>
+      </c>
+      <c r="S35" s="10">
+        <v>5</v>
+      </c>
+      <c r="T35" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="U35" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12">
-        <v>0</v>
-      </c>
-      <c r="U35" s="12">
-        <v>0</v>
-      </c>
-      <c r="V35" s="12">
-        <v>0</v>
-      </c>
+      <c r="V35" s="12"/>
       <c r="W35" s="12">
         <v>0</v>
       </c>
@@ -3951,9 +4419,23 @@
       <c r="Y35" s="12">
         <v>0</v>
       </c>
-      <c r="Z35" s="12"/>
-    </row>
-    <row r="36" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
         <v>10025</v>
       </c>
@@ -4007,19 +4489,19 @@
       <c r="Q36" s="12">
         <v>11</v>
       </c>
-      <c r="R36" s="12" t="s">
+      <c r="R36" s="10">
+        <v>0</v>
+      </c>
+      <c r="S36" s="10">
+        <v>5</v>
+      </c>
+      <c r="T36" s="10">
+        <v>0</v>
+      </c>
+      <c r="U36" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12">
-        <v>0</v>
-      </c>
-      <c r="U36" s="12">
-        <v>0</v>
-      </c>
-      <c r="V36" s="12">
-        <v>0</v>
-      </c>
+      <c r="V36" s="12"/>
       <c r="W36" s="12">
         <v>0</v>
       </c>
@@ -4029,9 +4511,23 @@
       <c r="Y36" s="12">
         <v>0</v>
       </c>
-      <c r="Z36" s="12"/>
-    </row>
-    <row r="37" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>10026</v>
       </c>
@@ -4085,19 +4581,19 @@
       <c r="Q37" s="12">
         <v>12</v>
       </c>
-      <c r="R37" s="12" t="s">
+      <c r="R37" s="10">
+        <v>0</v>
+      </c>
+      <c r="S37" s="10">
+        <v>5</v>
+      </c>
+      <c r="T37" s="10">
+        <v>0</v>
+      </c>
+      <c r="U37" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12">
-        <v>0</v>
-      </c>
-      <c r="U37" s="12">
-        <v>0</v>
-      </c>
-      <c r="V37" s="12">
-        <v>0</v>
-      </c>
+      <c r="V37" s="12"/>
       <c r="W37" s="12">
         <v>0</v>
       </c>
@@ -4107,9 +4603,23 @@
       <c r="Y37" s="12">
         <v>0</v>
       </c>
-      <c r="Z37" s="12"/>
-    </row>
-    <row r="38" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>10027</v>
       </c>
@@ -4163,19 +4673,19 @@
       <c r="Q38" s="12">
         <v>13</v>
       </c>
-      <c r="R38" s="12" t="s">
+      <c r="R38" s="10">
+        <v>0</v>
+      </c>
+      <c r="S38" s="10">
+        <v>5</v>
+      </c>
+      <c r="T38" s="10">
+        <v>0</v>
+      </c>
+      <c r="U38" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12">
-        <v>0</v>
-      </c>
-      <c r="U38" s="12">
-        <v>0</v>
-      </c>
-      <c r="V38" s="12">
-        <v>0</v>
-      </c>
+      <c r="V38" s="12"/>
       <c r="W38" s="12">
         <v>0</v>
       </c>
@@ -4185,9 +4695,23 @@
       <c r="Y38" s="12">
         <v>0</v>
       </c>
-      <c r="Z38" s="12"/>
-    </row>
-    <row r="39" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>10028</v>
       </c>
@@ -4241,19 +4765,19 @@
       <c r="Q39" s="12">
         <v>14</v>
       </c>
-      <c r="R39" s="12" t="s">
+      <c r="R39" s="10">
+        <v>0</v>
+      </c>
+      <c r="S39" s="10">
+        <v>5</v>
+      </c>
+      <c r="T39" s="10">
+        <v>0</v>
+      </c>
+      <c r="U39" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12">
-        <v>0</v>
-      </c>
-      <c r="U39" s="12">
-        <v>0</v>
-      </c>
-      <c r="V39" s="12">
-        <v>0</v>
-      </c>
+      <c r="V39" s="12"/>
       <c r="W39" s="12">
         <v>0</v>
       </c>
@@ -4263,9 +4787,23 @@
       <c r="Y39" s="12">
         <v>0</v>
       </c>
-      <c r="Z39" s="12"/>
-    </row>
-    <row r="40" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>10029</v>
       </c>
@@ -4319,19 +4857,19 @@
       <c r="Q40" s="12">
         <v>15</v>
       </c>
-      <c r="R40" s="12" t="s">
+      <c r="R40" s="10">
+        <v>0</v>
+      </c>
+      <c r="S40" s="10">
+        <v>5</v>
+      </c>
+      <c r="T40" s="10">
+        <v>0</v>
+      </c>
+      <c r="U40" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12">
-        <v>0</v>
-      </c>
-      <c r="U40" s="12">
-        <v>0</v>
-      </c>
-      <c r="V40" s="12">
-        <v>0</v>
-      </c>
+      <c r="V40" s="12"/>
       <c r="W40" s="12">
         <v>0</v>
       </c>
@@ -4341,9 +4879,23 @@
       <c r="Y40" s="12">
         <v>0</v>
       </c>
-      <c r="Z40" s="12"/>
-    </row>
-    <row r="41" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>10030</v>
       </c>
@@ -4397,19 +4949,19 @@
       <c r="Q41" s="12">
         <v>16</v>
       </c>
-      <c r="R41" s="12" t="s">
+      <c r="R41" s="10">
+        <v>0</v>
+      </c>
+      <c r="S41" s="10">
+        <v>5</v>
+      </c>
+      <c r="T41" s="10">
+        <v>0</v>
+      </c>
+      <c r="U41" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12">
-        <v>0</v>
-      </c>
-      <c r="U41" s="12">
-        <v>0</v>
-      </c>
-      <c r="V41" s="12">
-        <v>0</v>
-      </c>
+      <c r="V41" s="12"/>
       <c r="W41" s="12">
         <v>0</v>
       </c>
@@ -4419,9 +4971,23 @@
       <c r="Y41" s="12">
         <v>0</v>
       </c>
-      <c r="Z41" s="12"/>
-    </row>
-    <row r="42" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <v>10031</v>
       </c>
@@ -4475,19 +5041,19 @@
       <c r="Q42" s="12">
         <v>17</v>
       </c>
-      <c r="R42" s="12" t="s">
+      <c r="R42" s="10">
+        <v>0</v>
+      </c>
+      <c r="S42" s="10">
+        <v>5</v>
+      </c>
+      <c r="T42" s="10">
+        <v>0</v>
+      </c>
+      <c r="U42" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12">
-        <v>0</v>
-      </c>
-      <c r="U42" s="12">
-        <v>0</v>
-      </c>
-      <c r="V42" s="12">
-        <v>0</v>
-      </c>
+      <c r="V42" s="12"/>
       <c r="W42" s="12">
         <v>0</v>
       </c>
@@ -4497,9 +5063,23 @@
       <c r="Y42" s="12">
         <v>0</v>
       </c>
-      <c r="Z42" s="12"/>
-    </row>
-    <row r="43" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>10032</v>
       </c>
@@ -4553,19 +5133,19 @@
       <c r="Q43" s="12">
         <v>18</v>
       </c>
-      <c r="R43" s="12" t="s">
+      <c r="R43" s="10">
+        <v>0</v>
+      </c>
+      <c r="S43" s="10">
+        <v>5</v>
+      </c>
+      <c r="T43" s="10">
+        <v>0</v>
+      </c>
+      <c r="U43" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12">
-        <v>0</v>
-      </c>
-      <c r="U43" s="12">
-        <v>0</v>
-      </c>
-      <c r="V43" s="12">
-        <v>0</v>
-      </c>
+      <c r="V43" s="12"/>
       <c r="W43" s="12">
         <v>0</v>
       </c>
@@ -4575,9 +5155,23 @@
       <c r="Y43" s="12">
         <v>0</v>
       </c>
-      <c r="Z43" s="12"/>
-    </row>
-    <row r="44" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="12">
         <v>10033</v>
       </c>
@@ -4631,19 +5225,19 @@
       <c r="Q44" s="12">
         <v>19</v>
       </c>
-      <c r="R44" s="12" t="s">
+      <c r="R44" s="10">
+        <v>0</v>
+      </c>
+      <c r="S44" s="10">
+        <v>5</v>
+      </c>
+      <c r="T44" s="10">
+        <v>0</v>
+      </c>
+      <c r="U44" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12">
-        <v>0</v>
-      </c>
-      <c r="U44" s="12">
-        <v>0</v>
-      </c>
-      <c r="V44" s="12">
-        <v>0</v>
-      </c>
+      <c r="V44" s="12"/>
       <c r="W44" s="12">
         <v>0</v>
       </c>
@@ -4653,9 +5247,23 @@
       <c r="Y44" s="12">
         <v>0</v>
       </c>
-      <c r="Z44" s="12"/>
-    </row>
-    <row r="45" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="12">
         <v>10034</v>
       </c>
@@ -4709,19 +5317,19 @@
       <c r="Q45" s="12">
         <v>20</v>
       </c>
-      <c r="R45" s="12" t="s">
+      <c r="R45" s="10">
+        <v>0</v>
+      </c>
+      <c r="S45" s="10">
+        <v>5</v>
+      </c>
+      <c r="T45" s="10">
+        <v>0</v>
+      </c>
+      <c r="U45" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12">
-        <v>0</v>
-      </c>
-      <c r="U45" s="12">
-        <v>0</v>
-      </c>
-      <c r="V45" s="12">
-        <v>0</v>
-      </c>
+      <c r="V45" s="12"/>
       <c r="W45" s="12">
         <v>0</v>
       </c>
@@ -4731,9 +5339,23 @@
       <c r="Y45" s="12">
         <v>0</v>
       </c>
-      <c r="Z45" s="12"/>
-    </row>
-    <row r="46" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
         <v>10035</v>
       </c>
@@ -4787,19 +5409,19 @@
       <c r="Q46" s="12">
         <v>21</v>
       </c>
-      <c r="R46" s="12" t="s">
+      <c r="R46" s="10">
+        <v>0</v>
+      </c>
+      <c r="S46" s="10">
+        <v>5</v>
+      </c>
+      <c r="T46" s="10">
+        <v>0</v>
+      </c>
+      <c r="U46" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12">
-        <v>0</v>
-      </c>
-      <c r="U46" s="12">
-        <v>0</v>
-      </c>
-      <c r="V46" s="12">
-        <v>0</v>
-      </c>
+      <c r="V46" s="12"/>
       <c r="W46" s="12">
         <v>0</v>
       </c>
@@ -4809,9 +5431,23 @@
       <c r="Y46" s="12">
         <v>0</v>
       </c>
-      <c r="Z46" s="12"/>
-    </row>
-    <row r="47" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="12">
         <v>10036</v>
       </c>
@@ -4865,19 +5501,19 @@
       <c r="Q47" s="12">
         <v>22</v>
       </c>
-      <c r="R47" s="12" t="s">
+      <c r="R47" s="10">
+        <v>0</v>
+      </c>
+      <c r="S47" s="10">
+        <v>5</v>
+      </c>
+      <c r="T47" s="10">
+        <v>0</v>
+      </c>
+      <c r="U47" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12">
-        <v>0</v>
-      </c>
-      <c r="U47" s="12">
-        <v>0</v>
-      </c>
-      <c r="V47" s="12">
-        <v>0</v>
-      </c>
+      <c r="V47" s="12"/>
       <c r="W47" s="12">
         <v>0</v>
       </c>
@@ -4887,9 +5523,23 @@
       <c r="Y47" s="12">
         <v>0</v>
       </c>
-      <c r="Z47" s="12"/>
-    </row>
-    <row r="48" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="12">
         <v>10037</v>
       </c>
@@ -4943,19 +5593,19 @@
       <c r="Q48" s="12">
         <v>23</v>
       </c>
-      <c r="R48" s="12" t="s">
+      <c r="R48" s="10">
+        <v>0</v>
+      </c>
+      <c r="S48" s="10">
+        <v>5</v>
+      </c>
+      <c r="T48" s="10">
+        <v>0</v>
+      </c>
+      <c r="U48" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S48" s="12"/>
-      <c r="T48" s="12">
-        <v>0</v>
-      </c>
-      <c r="U48" s="12">
-        <v>0</v>
-      </c>
-      <c r="V48" s="12">
-        <v>0</v>
-      </c>
+      <c r="V48" s="12"/>
       <c r="W48" s="12">
         <v>0</v>
       </c>
@@ -4965,9 +5615,23 @@
       <c r="Y48" s="12">
         <v>0</v>
       </c>
-      <c r="Z48" s="12"/>
-    </row>
-    <row r="49" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="12">
         <v>10038</v>
       </c>
@@ -5021,19 +5685,19 @@
       <c r="Q49" s="12">
         <v>24</v>
       </c>
-      <c r="R49" s="12" t="s">
+      <c r="R49" s="10">
+        <v>0</v>
+      </c>
+      <c r="S49" s="10">
+        <v>5</v>
+      </c>
+      <c r="T49" s="10">
+        <v>0</v>
+      </c>
+      <c r="U49" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12">
-        <v>0</v>
-      </c>
-      <c r="U49" s="12">
-        <v>0</v>
-      </c>
-      <c r="V49" s="12">
-        <v>0</v>
-      </c>
+      <c r="V49" s="12"/>
       <c r="W49" s="12">
         <v>0</v>
       </c>
@@ -5043,9 +5707,23 @@
       <c r="Y49" s="12">
         <v>0</v>
       </c>
-      <c r="Z49" s="12"/>
-    </row>
-    <row r="50" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>10039</v>
       </c>
@@ -5099,19 +5777,19 @@
       <c r="Q50" s="12">
         <v>25</v>
       </c>
-      <c r="R50" s="12" t="s">
+      <c r="R50" s="10">
+        <v>0</v>
+      </c>
+      <c r="S50" s="10">
+        <v>5</v>
+      </c>
+      <c r="T50" s="10">
+        <v>0</v>
+      </c>
+      <c r="U50" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12">
-        <v>0</v>
-      </c>
-      <c r="U50" s="12">
-        <v>0</v>
-      </c>
-      <c r="V50" s="12">
-        <v>0</v>
-      </c>
+      <c r="V50" s="12"/>
       <c r="W50" s="12">
         <v>0</v>
       </c>
@@ -5121,9 +5799,23 @@
       <c r="Y50" s="12">
         <v>0</v>
       </c>
-      <c r="Z50" s="12"/>
-    </row>
-    <row r="51" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <v>10040</v>
       </c>
@@ -5177,19 +5869,19 @@
       <c r="Q51" s="12">
         <v>30</v>
       </c>
-      <c r="R51" s="12" t="s">
+      <c r="R51" s="10">
+        <v>0</v>
+      </c>
+      <c r="S51" s="10">
+        <v>5</v>
+      </c>
+      <c r="T51" s="10">
+        <v>0</v>
+      </c>
+      <c r="U51" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12">
-        <v>0</v>
-      </c>
-      <c r="U51" s="12">
-        <v>0</v>
-      </c>
-      <c r="V51" s="12">
-        <v>0</v>
-      </c>
+      <c r="V51" s="12"/>
       <c r="W51" s="12">
         <v>0</v>
       </c>
@@ -5199,9 +5891,23 @@
       <c r="Y51" s="12">
         <v>0</v>
       </c>
-      <c r="Z51" s="12"/>
-    </row>
-    <row r="52" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <v>10041</v>
       </c>
@@ -5255,19 +5961,19 @@
       <c r="Q52" s="12">
         <v>31</v>
       </c>
-      <c r="R52" s="12" t="s">
+      <c r="R52" s="10">
+        <v>0</v>
+      </c>
+      <c r="S52" s="10">
+        <v>5</v>
+      </c>
+      <c r="T52" s="10">
+        <v>0</v>
+      </c>
+      <c r="U52" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12">
-        <v>0</v>
-      </c>
-      <c r="U52" s="12">
-        <v>0</v>
-      </c>
-      <c r="V52" s="12">
-        <v>0</v>
-      </c>
+      <c r="V52" s="12"/>
       <c r="W52" s="12">
         <v>0</v>
       </c>
@@ -5277,9 +5983,23 @@
       <c r="Y52" s="12">
         <v>0</v>
       </c>
-      <c r="Z52" s="12"/>
-    </row>
-    <row r="53" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>10042</v>
       </c>
@@ -5333,19 +6053,19 @@
       <c r="Q53" s="12">
         <v>32</v>
       </c>
-      <c r="R53" s="12" t="s">
+      <c r="R53" s="10">
+        <v>0</v>
+      </c>
+      <c r="S53" s="10">
+        <v>5</v>
+      </c>
+      <c r="T53" s="10">
+        <v>0</v>
+      </c>
+      <c r="U53" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12">
-        <v>0</v>
-      </c>
-      <c r="U53" s="12">
-        <v>0</v>
-      </c>
-      <c r="V53" s="12">
-        <v>0</v>
-      </c>
+      <c r="V53" s="12"/>
       <c r="W53" s="12">
         <v>0</v>
       </c>
@@ -5355,9 +6075,23 @@
       <c r="Y53" s="12">
         <v>0</v>
       </c>
-      <c r="Z53" s="12"/>
-    </row>
-    <row r="54" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>10043</v>
       </c>
@@ -5411,19 +6145,19 @@
       <c r="Q54" s="12">
         <v>33</v>
       </c>
-      <c r="R54" s="12" t="s">
+      <c r="R54" s="10">
+        <v>0</v>
+      </c>
+      <c r="S54" s="10">
+        <v>5</v>
+      </c>
+      <c r="T54" s="10">
+        <v>0</v>
+      </c>
+      <c r="U54" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12">
-        <v>0</v>
-      </c>
-      <c r="U54" s="12">
-        <v>0</v>
-      </c>
-      <c r="V54" s="12">
-        <v>0</v>
-      </c>
+      <c r="V54" s="12"/>
       <c r="W54" s="12">
         <v>0</v>
       </c>
@@ -5433,9 +6167,23 @@
       <c r="Y54" s="12">
         <v>0</v>
       </c>
-      <c r="Z54" s="12"/>
-    </row>
-    <row r="55" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>10044</v>
       </c>
@@ -5489,19 +6237,19 @@
       <c r="Q55" s="12">
         <v>34</v>
       </c>
-      <c r="R55" s="12" t="s">
+      <c r="R55" s="10">
+        <v>0</v>
+      </c>
+      <c r="S55" s="10">
+        <v>5</v>
+      </c>
+      <c r="T55" s="10">
+        <v>0</v>
+      </c>
+      <c r="U55" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12">
-        <v>0</v>
-      </c>
-      <c r="U55" s="12">
-        <v>0</v>
-      </c>
-      <c r="V55" s="12">
-        <v>0</v>
-      </c>
+      <c r="V55" s="12"/>
       <c r="W55" s="12">
         <v>0</v>
       </c>
@@ -5511,9 +6259,23 @@
       <c r="Y55" s="12">
         <v>0</v>
       </c>
-      <c r="Z55" s="12"/>
-    </row>
-    <row r="56" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <v>10045</v>
       </c>
@@ -5567,19 +6329,19 @@
       <c r="Q56" s="12">
         <v>35</v>
       </c>
-      <c r="R56" s="12" t="s">
+      <c r="R56" s="10">
+        <v>0</v>
+      </c>
+      <c r="S56" s="10">
+        <v>5</v>
+      </c>
+      <c r="T56" s="10">
+        <v>0</v>
+      </c>
+      <c r="U56" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12">
-        <v>0</v>
-      </c>
-      <c r="U56" s="12">
-        <v>0</v>
-      </c>
-      <c r="V56" s="12">
-        <v>0</v>
-      </c>
+      <c r="V56" s="12"/>
       <c r="W56" s="12">
         <v>0</v>
       </c>
@@ -5589,9 +6351,23 @@
       <c r="Y56" s="12">
         <v>0</v>
       </c>
-      <c r="Z56" s="12"/>
-    </row>
-    <row r="57" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A57" s="12">
         <v>10046</v>
       </c>
@@ -5645,19 +6421,19 @@
       <c r="Q57" s="12">
         <v>36</v>
       </c>
-      <c r="R57" s="12" t="s">
+      <c r="R57" s="10">
+        <v>0</v>
+      </c>
+      <c r="S57" s="10">
+        <v>5</v>
+      </c>
+      <c r="T57" s="10">
+        <v>0</v>
+      </c>
+      <c r="U57" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12">
-        <v>0</v>
-      </c>
-      <c r="U57" s="12">
-        <v>0</v>
-      </c>
-      <c r="V57" s="12">
-        <v>0</v>
-      </c>
+      <c r="V57" s="12"/>
       <c r="W57" s="12">
         <v>0</v>
       </c>
@@ -5667,9 +6443,23 @@
       <c r="Y57" s="12">
         <v>0</v>
       </c>
-      <c r="Z57" s="12"/>
-    </row>
-    <row r="58" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A58" s="12">
         <v>10047</v>
       </c>
@@ -5723,19 +6513,19 @@
       <c r="Q58" s="12">
         <v>37</v>
       </c>
-      <c r="R58" s="12" t="s">
+      <c r="R58" s="10">
+        <v>0</v>
+      </c>
+      <c r="S58" s="10">
+        <v>5</v>
+      </c>
+      <c r="T58" s="10">
+        <v>0</v>
+      </c>
+      <c r="U58" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12">
-        <v>0</v>
-      </c>
-      <c r="U58" s="12">
-        <v>0</v>
-      </c>
-      <c r="V58" s="12">
-        <v>0</v>
-      </c>
+      <c r="V58" s="12"/>
       <c r="W58" s="12">
         <v>0</v>
       </c>
@@ -5745,9 +6535,23 @@
       <c r="Y58" s="12">
         <v>0</v>
       </c>
-      <c r="Z58" s="12"/>
-    </row>
-    <row r="59" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A59" s="12">
         <v>10048</v>
       </c>
@@ -5801,19 +6605,19 @@
       <c r="Q59" s="12">
         <v>38</v>
       </c>
-      <c r="R59" s="12" t="s">
+      <c r="R59" s="10">
+        <v>0</v>
+      </c>
+      <c r="S59" s="10">
+        <v>5</v>
+      </c>
+      <c r="T59" s="10">
+        <v>0</v>
+      </c>
+      <c r="U59" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12">
-        <v>0</v>
-      </c>
-      <c r="U59" s="12">
-        <v>0</v>
-      </c>
-      <c r="V59" s="12">
-        <v>0</v>
-      </c>
+      <c r="V59" s="12"/>
       <c r="W59" s="12">
         <v>0</v>
       </c>
@@ -5823,9 +6627,23 @@
       <c r="Y59" s="12">
         <v>0</v>
       </c>
-      <c r="Z59" s="12"/>
-    </row>
-    <row r="60" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A60" s="12">
         <v>10049</v>
       </c>
@@ -5879,19 +6697,19 @@
       <c r="Q60" s="12">
         <v>39</v>
       </c>
-      <c r="R60" s="12" t="s">
+      <c r="R60" s="10">
+        <v>0</v>
+      </c>
+      <c r="S60" s="10">
+        <v>5</v>
+      </c>
+      <c r="T60" s="10">
+        <v>0</v>
+      </c>
+      <c r="U60" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12">
-        <v>0</v>
-      </c>
-      <c r="U60" s="12">
-        <v>0</v>
-      </c>
-      <c r="V60" s="12">
-        <v>0</v>
-      </c>
+      <c r="V60" s="12"/>
       <c r="W60" s="12">
         <v>0</v>
       </c>
@@ -5901,9 +6719,23 @@
       <c r="Y60" s="12">
         <v>0</v>
       </c>
-      <c r="Z60" s="12"/>
-    </row>
-    <row r="61" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A61" s="12">
         <v>10050</v>
       </c>
@@ -5957,19 +6789,19 @@
       <c r="Q61" s="12">
         <v>40</v>
       </c>
-      <c r="R61" s="12" t="s">
+      <c r="R61" s="10">
+        <v>0</v>
+      </c>
+      <c r="S61" s="10">
+        <v>5</v>
+      </c>
+      <c r="T61" s="10">
+        <v>0</v>
+      </c>
+      <c r="U61" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12">
-        <v>0</v>
-      </c>
-      <c r="U61" s="12">
-        <v>0</v>
-      </c>
-      <c r="V61" s="12">
-        <v>0</v>
-      </c>
+      <c r="V61" s="12"/>
       <c r="W61" s="12">
         <v>0</v>
       </c>
@@ -5979,9 +6811,23 @@
       <c r="Y61" s="12">
         <v>0</v>
       </c>
-      <c r="Z61" s="12"/>
-    </row>
-    <row r="62" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A62" s="12">
         <v>10051</v>
       </c>
@@ -6035,19 +6881,19 @@
       <c r="Q62" s="12">
         <v>41</v>
       </c>
-      <c r="R62" s="12" t="s">
+      <c r="R62" s="10">
+        <v>0</v>
+      </c>
+      <c r="S62" s="10">
+        <v>5</v>
+      </c>
+      <c r="T62" s="10">
+        <v>0</v>
+      </c>
+      <c r="U62" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12">
-        <v>0</v>
-      </c>
-      <c r="U62" s="12">
-        <v>0</v>
-      </c>
-      <c r="V62" s="12">
-        <v>0</v>
-      </c>
+      <c r="V62" s="12"/>
       <c r="W62" s="12">
         <v>0</v>
       </c>
@@ -6057,9 +6903,23 @@
       <c r="Y62" s="12">
         <v>0</v>
       </c>
-      <c r="Z62" s="12"/>
-    </row>
-    <row r="63" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A63" s="12">
         <v>10052</v>
       </c>
@@ -6113,19 +6973,19 @@
       <c r="Q63" s="12">
         <v>42</v>
       </c>
-      <c r="R63" s="12" t="s">
+      <c r="R63" s="10">
+        <v>0</v>
+      </c>
+      <c r="S63" s="10">
+        <v>5</v>
+      </c>
+      <c r="T63" s="10">
+        <v>0</v>
+      </c>
+      <c r="U63" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12">
-        <v>0</v>
-      </c>
-      <c r="U63" s="12">
-        <v>0</v>
-      </c>
-      <c r="V63" s="12">
-        <v>0</v>
-      </c>
+      <c r="V63" s="12"/>
       <c r="W63" s="12">
         <v>0</v>
       </c>
@@ -6135,9 +6995,23 @@
       <c r="Y63" s="12">
         <v>0</v>
       </c>
-      <c r="Z63" s="12"/>
-    </row>
-    <row r="64" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A64" s="12">
         <v>10053</v>
       </c>
@@ -6191,19 +7065,19 @@
       <c r="Q64" s="12">
         <v>43</v>
       </c>
-      <c r="R64" s="12" t="s">
+      <c r="R64" s="10">
+        <v>0</v>
+      </c>
+      <c r="S64" s="10">
+        <v>5</v>
+      </c>
+      <c r="T64" s="10">
+        <v>0</v>
+      </c>
+      <c r="U64" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12">
-        <v>0</v>
-      </c>
-      <c r="U64" s="12">
-        <v>0</v>
-      </c>
-      <c r="V64" s="12">
-        <v>0</v>
-      </c>
+      <c r="V64" s="12"/>
       <c r="W64" s="12">
         <v>0</v>
       </c>
@@ -6213,9 +7087,23 @@
       <c r="Y64" s="12">
         <v>0</v>
       </c>
-      <c r="Z64" s="12"/>
-    </row>
-    <row r="65" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A65" s="12">
         <v>10054</v>
       </c>
@@ -6269,19 +7157,19 @@
       <c r="Q65" s="12">
         <v>44</v>
       </c>
-      <c r="R65" s="12" t="s">
+      <c r="R65" s="10">
+        <v>0</v>
+      </c>
+      <c r="S65" s="10">
+        <v>5</v>
+      </c>
+      <c r="T65" s="10">
+        <v>0</v>
+      </c>
+      <c r="U65" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12">
-        <v>0</v>
-      </c>
-      <c r="U65" s="12">
-        <v>0</v>
-      </c>
-      <c r="V65" s="12">
-        <v>0</v>
-      </c>
+      <c r="V65" s="12"/>
       <c r="W65" s="12">
         <v>0</v>
       </c>
@@ -6291,9 +7179,23 @@
       <c r="Y65" s="12">
         <v>0</v>
       </c>
-      <c r="Z65" s="12"/>
-    </row>
-    <row r="66" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z65" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A66" s="12">
         <v>10055</v>
       </c>
@@ -6347,19 +7249,19 @@
       <c r="Q66" s="12">
         <v>45</v>
       </c>
-      <c r="R66" s="12" t="s">
+      <c r="R66" s="10">
+        <v>0</v>
+      </c>
+      <c r="S66" s="10">
+        <v>5</v>
+      </c>
+      <c r="T66" s="10">
+        <v>0</v>
+      </c>
+      <c r="U66" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S66" s="12"/>
-      <c r="T66" s="12">
-        <v>0</v>
-      </c>
-      <c r="U66" s="12">
-        <v>0</v>
-      </c>
-      <c r="V66" s="12">
-        <v>0</v>
-      </c>
+      <c r="V66" s="12"/>
       <c r="W66" s="12">
         <v>0</v>
       </c>
@@ -6369,9 +7271,23 @@
       <c r="Y66" s="12">
         <v>0</v>
       </c>
-      <c r="Z66" s="12"/>
-    </row>
-    <row r="67" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z66" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A67" s="12">
         <v>10056</v>
       </c>
@@ -6425,19 +7341,19 @@
       <c r="Q67" s="12">
         <v>46</v>
       </c>
-      <c r="R67" s="12" t="s">
+      <c r="R67" s="10">
+        <v>0</v>
+      </c>
+      <c r="S67" s="10">
+        <v>5</v>
+      </c>
+      <c r="T67" s="10">
+        <v>0</v>
+      </c>
+      <c r="U67" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S67" s="12"/>
-      <c r="T67" s="12">
-        <v>0</v>
-      </c>
-      <c r="U67" s="12">
-        <v>0</v>
-      </c>
-      <c r="V67" s="12">
-        <v>0</v>
-      </c>
+      <c r="V67" s="12"/>
       <c r="W67" s="12">
         <v>0</v>
       </c>
@@ -6447,9 +7363,23 @@
       <c r="Y67" s="12">
         <v>0</v>
       </c>
-      <c r="Z67" s="12"/>
-    </row>
-    <row r="68" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z67" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>10057</v>
       </c>
@@ -6503,19 +7433,19 @@
       <c r="Q68" s="12">
         <v>47</v>
       </c>
-      <c r="R68" s="12" t="s">
+      <c r="R68" s="10">
+        <v>0</v>
+      </c>
+      <c r="S68" s="10">
+        <v>5</v>
+      </c>
+      <c r="T68" s="10">
+        <v>0</v>
+      </c>
+      <c r="U68" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12">
-        <v>0</v>
-      </c>
-      <c r="U68" s="12">
-        <v>0</v>
-      </c>
-      <c r="V68" s="12">
-        <v>0</v>
-      </c>
+      <c r="V68" s="12"/>
       <c r="W68" s="12">
         <v>0</v>
       </c>
@@ -6525,9 +7455,23 @@
       <c r="Y68" s="12">
         <v>0</v>
       </c>
-      <c r="Z68" s="12"/>
-    </row>
-    <row r="69" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z68" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A69" s="12">
         <v>10058</v>
       </c>
@@ -6581,19 +7525,19 @@
       <c r="Q69" s="12">
         <v>48</v>
       </c>
-      <c r="R69" s="12" t="s">
+      <c r="R69" s="10">
+        <v>0</v>
+      </c>
+      <c r="S69" s="10">
+        <v>5</v>
+      </c>
+      <c r="T69" s="10">
+        <v>0</v>
+      </c>
+      <c r="U69" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S69" s="12"/>
-      <c r="T69" s="12">
-        <v>0</v>
-      </c>
-      <c r="U69" s="12">
-        <v>0</v>
-      </c>
-      <c r="V69" s="12">
-        <v>0</v>
-      </c>
+      <c r="V69" s="12"/>
       <c r="W69" s="12">
         <v>0</v>
       </c>
@@ -6603,9 +7547,23 @@
       <c r="Y69" s="12">
         <v>0</v>
       </c>
-      <c r="Z69" s="12"/>
-    </row>
-    <row r="70" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A70" s="12">
         <v>10059</v>
       </c>
@@ -6659,19 +7617,19 @@
       <c r="Q70" s="12">
         <v>49</v>
       </c>
-      <c r="R70" s="12" t="s">
+      <c r="R70" s="10">
+        <v>0</v>
+      </c>
+      <c r="S70" s="10">
+        <v>5</v>
+      </c>
+      <c r="T70" s="10">
+        <v>0</v>
+      </c>
+      <c r="U70" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12">
-        <v>0</v>
-      </c>
-      <c r="U70" s="12">
-        <v>0</v>
-      </c>
-      <c r="V70" s="12">
-        <v>0</v>
-      </c>
+      <c r="V70" s="12"/>
       <c r="W70" s="12">
         <v>0</v>
       </c>
@@ -6681,9 +7639,23 @@
       <c r="Y70" s="12">
         <v>0</v>
       </c>
-      <c r="Z70" s="12"/>
-    </row>
-    <row r="71" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z70" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A71" s="12">
         <v>10060</v>
       </c>
@@ -6737,19 +7709,19 @@
       <c r="Q71" s="12">
         <v>50</v>
       </c>
-      <c r="R71" s="12" t="s">
+      <c r="R71" s="10">
+        <v>0</v>
+      </c>
+      <c r="S71" s="10">
+        <v>5</v>
+      </c>
+      <c r="T71" s="10">
+        <v>0</v>
+      </c>
+      <c r="U71" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S71" s="12"/>
-      <c r="T71" s="12">
-        <v>0</v>
-      </c>
-      <c r="U71" s="12">
-        <v>0</v>
-      </c>
-      <c r="V71" s="12">
-        <v>0</v>
-      </c>
+      <c r="V71" s="12"/>
       <c r="W71" s="12">
         <v>0</v>
       </c>
@@ -6759,9 +7731,23 @@
       <c r="Y71" s="12">
         <v>0</v>
       </c>
-      <c r="Z71" s="12"/>
-    </row>
-    <row r="72" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z71" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A72" s="12">
         <v>10061</v>
       </c>
@@ -6815,19 +7801,19 @@
       <c r="Q72" s="12">
         <v>51</v>
       </c>
-      <c r="R72" s="12" t="s">
+      <c r="R72" s="10">
+        <v>0</v>
+      </c>
+      <c r="S72" s="10">
+        <v>5</v>
+      </c>
+      <c r="T72" s="10">
+        <v>0</v>
+      </c>
+      <c r="U72" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S72" s="12"/>
-      <c r="T72" s="12">
-        <v>0</v>
-      </c>
-      <c r="U72" s="12">
-        <v>0</v>
-      </c>
-      <c r="V72" s="12">
-        <v>0</v>
-      </c>
+      <c r="V72" s="12"/>
       <c r="W72" s="12">
         <v>0</v>
       </c>
@@ -6837,9 +7823,23 @@
       <c r="Y72" s="12">
         <v>0</v>
       </c>
-      <c r="Z72" s="12"/>
-    </row>
-    <row r="73" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z72" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A73" s="12">
         <v>10062</v>
       </c>
@@ -6893,19 +7893,19 @@
       <c r="Q73" s="12">
         <v>52</v>
       </c>
-      <c r="R73" s="12" t="s">
+      <c r="R73" s="10">
+        <v>0</v>
+      </c>
+      <c r="S73" s="10">
+        <v>5</v>
+      </c>
+      <c r="T73" s="10">
+        <v>0</v>
+      </c>
+      <c r="U73" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12">
-        <v>0</v>
-      </c>
-      <c r="U73" s="12">
-        <v>0</v>
-      </c>
-      <c r="V73" s="12">
-        <v>0</v>
-      </c>
+      <c r="V73" s="12"/>
       <c r="W73" s="12">
         <v>0</v>
       </c>
@@ -6915,9 +7915,23 @@
       <c r="Y73" s="12">
         <v>0</v>
       </c>
-      <c r="Z73" s="12"/>
-    </row>
-    <row r="74" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A74" s="12">
         <v>10063</v>
       </c>
@@ -6971,19 +7985,19 @@
       <c r="Q74" s="12">
         <v>53</v>
       </c>
-      <c r="R74" s="12" t="s">
+      <c r="R74" s="10">
+        <v>0</v>
+      </c>
+      <c r="S74" s="10">
+        <v>5</v>
+      </c>
+      <c r="T74" s="10">
+        <v>0</v>
+      </c>
+      <c r="U74" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12">
-        <v>0</v>
-      </c>
-      <c r="U74" s="12">
-        <v>0</v>
-      </c>
-      <c r="V74" s="12">
-        <v>0</v>
-      </c>
+      <c r="V74" s="12"/>
       <c r="W74" s="12">
         <v>0</v>
       </c>
@@ -6993,9 +8007,23 @@
       <c r="Y74" s="12">
         <v>0</v>
       </c>
-      <c r="Z74" s="12"/>
-    </row>
-    <row r="75" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A75" s="12">
         <v>10064</v>
       </c>
@@ -7049,19 +8077,19 @@
       <c r="Q75" s="12">
         <v>54</v>
       </c>
-      <c r="R75" s="12" t="s">
+      <c r="R75" s="10">
+        <v>0</v>
+      </c>
+      <c r="S75" s="10">
+        <v>5</v>
+      </c>
+      <c r="T75" s="10">
+        <v>0</v>
+      </c>
+      <c r="U75" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12">
-        <v>0</v>
-      </c>
-      <c r="U75" s="12">
-        <v>0</v>
-      </c>
-      <c r="V75" s="12">
-        <v>0</v>
-      </c>
+      <c r="V75" s="12"/>
       <c r="W75" s="12">
         <v>0</v>
       </c>
@@ -7071,9 +8099,23 @@
       <c r="Y75" s="12">
         <v>0</v>
       </c>
-      <c r="Z75" s="12"/>
-    </row>
-    <row r="76" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z75" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A76" s="12">
         <v>10065</v>
       </c>
@@ -7127,19 +8169,19 @@
       <c r="Q76" s="12">
         <v>55</v>
       </c>
-      <c r="R76" s="12" t="s">
+      <c r="R76" s="10">
+        <v>0</v>
+      </c>
+      <c r="S76" s="10">
+        <v>5</v>
+      </c>
+      <c r="T76" s="10">
+        <v>0</v>
+      </c>
+      <c r="U76" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S76" s="12"/>
-      <c r="T76" s="12">
-        <v>0</v>
-      </c>
-      <c r="U76" s="12">
-        <v>0</v>
-      </c>
-      <c r="V76" s="12">
-        <v>0</v>
-      </c>
+      <c r="V76" s="12"/>
       <c r="W76" s="12">
         <v>0</v>
       </c>
@@ -7149,9 +8191,23 @@
       <c r="Y76" s="12">
         <v>0</v>
       </c>
-      <c r="Z76" s="12"/>
-    </row>
-    <row r="77" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z76" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A77" s="12">
         <v>10066</v>
       </c>
@@ -7205,19 +8261,19 @@
       <c r="Q77" s="12">
         <v>56</v>
       </c>
-      <c r="R77" s="12" t="s">
+      <c r="R77" s="10">
+        <v>0</v>
+      </c>
+      <c r="S77" s="10">
+        <v>5</v>
+      </c>
+      <c r="T77" s="10">
+        <v>0</v>
+      </c>
+      <c r="U77" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S77" s="12"/>
-      <c r="T77" s="12">
-        <v>0</v>
-      </c>
-      <c r="U77" s="12">
-        <v>0</v>
-      </c>
-      <c r="V77" s="12">
-        <v>0</v>
-      </c>
+      <c r="V77" s="12"/>
       <c r="W77" s="12">
         <v>0</v>
       </c>
@@ -7227,9 +8283,23 @@
       <c r="Y77" s="12">
         <v>0</v>
       </c>
-      <c r="Z77" s="12"/>
-    </row>
-    <row r="78" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z77" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A78" s="12">
         <v>10067</v>
       </c>
@@ -7283,19 +8353,19 @@
       <c r="Q78" s="12">
         <v>57</v>
       </c>
-      <c r="R78" s="12" t="s">
+      <c r="R78" s="10">
+        <v>0</v>
+      </c>
+      <c r="S78" s="10">
+        <v>5</v>
+      </c>
+      <c r="T78" s="10">
+        <v>0</v>
+      </c>
+      <c r="U78" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S78" s="12"/>
-      <c r="T78" s="12">
-        <v>0</v>
-      </c>
-      <c r="U78" s="12">
-        <v>0</v>
-      </c>
-      <c r="V78" s="12">
-        <v>0</v>
-      </c>
+      <c r="V78" s="12"/>
       <c r="W78" s="12">
         <v>0</v>
       </c>
@@ -7305,9 +8375,23 @@
       <c r="Y78" s="12">
         <v>0</v>
       </c>
-      <c r="Z78" s="12"/>
-    </row>
-    <row r="79" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z78" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A79" s="12">
         <v>10068</v>
       </c>
@@ -7361,19 +8445,19 @@
       <c r="Q79" s="12">
         <v>58</v>
       </c>
-      <c r="R79" s="12" t="s">
+      <c r="R79" s="10">
+        <v>0</v>
+      </c>
+      <c r="S79" s="10">
+        <v>5</v>
+      </c>
+      <c r="T79" s="10">
+        <v>0</v>
+      </c>
+      <c r="U79" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S79" s="12"/>
-      <c r="T79" s="12">
-        <v>0</v>
-      </c>
-      <c r="U79" s="12">
-        <v>0</v>
-      </c>
-      <c r="V79" s="12">
-        <v>0</v>
-      </c>
+      <c r="V79" s="12"/>
       <c r="W79" s="12">
         <v>0</v>
       </c>
@@ -7383,9 +8467,23 @@
       <c r="Y79" s="12">
         <v>0</v>
       </c>
-      <c r="Z79" s="12"/>
-    </row>
-    <row r="80" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z79" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A80" s="12">
         <v>10069</v>
       </c>
@@ -7439,19 +8537,19 @@
       <c r="Q80" s="12">
         <v>59</v>
       </c>
-      <c r="R80" s="12" t="s">
+      <c r="R80" s="10">
+        <v>0</v>
+      </c>
+      <c r="S80" s="10">
+        <v>5</v>
+      </c>
+      <c r="T80" s="10">
+        <v>0</v>
+      </c>
+      <c r="U80" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S80" s="12"/>
-      <c r="T80" s="12">
-        <v>0</v>
-      </c>
-      <c r="U80" s="12">
-        <v>0</v>
-      </c>
-      <c r="V80" s="12">
-        <v>0</v>
-      </c>
+      <c r="V80" s="12"/>
       <c r="W80" s="12">
         <v>0</v>
       </c>
@@ -7461,9 +8559,23 @@
       <c r="Y80" s="12">
         <v>0</v>
       </c>
-      <c r="Z80" s="12"/>
-    </row>
-    <row r="81" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z80" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A81" s="12">
         <v>10070</v>
       </c>
@@ -7517,19 +8629,19 @@
       <c r="Q81" s="12">
         <v>60</v>
       </c>
-      <c r="R81" s="12" t="s">
+      <c r="R81" s="10">
+        <v>0</v>
+      </c>
+      <c r="S81" s="10">
+        <v>5</v>
+      </c>
+      <c r="T81" s="10">
+        <v>0</v>
+      </c>
+      <c r="U81" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S81" s="12"/>
-      <c r="T81" s="12">
-        <v>0</v>
-      </c>
-      <c r="U81" s="12">
-        <v>0</v>
-      </c>
-      <c r="V81" s="12">
-        <v>0</v>
-      </c>
+      <c r="V81" s="12"/>
       <c r="W81" s="12">
         <v>0</v>
       </c>
@@ -7539,9 +8651,23 @@
       <c r="Y81" s="12">
         <v>0</v>
       </c>
-      <c r="Z81" s="12"/>
-    </row>
-    <row r="82" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z81" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A82" s="12">
         <v>10071</v>
       </c>
@@ -7595,19 +8721,19 @@
       <c r="Q82" s="12">
         <v>61</v>
       </c>
-      <c r="R82" s="12" t="s">
+      <c r="R82" s="10">
+        <v>0</v>
+      </c>
+      <c r="S82" s="10">
+        <v>5</v>
+      </c>
+      <c r="T82" s="10">
+        <v>0</v>
+      </c>
+      <c r="U82" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S82" s="12"/>
-      <c r="T82" s="12">
-        <v>0</v>
-      </c>
-      <c r="U82" s="12">
-        <v>0</v>
-      </c>
-      <c r="V82" s="12">
-        <v>0</v>
-      </c>
+      <c r="V82" s="12"/>
       <c r="W82" s="12">
         <v>0</v>
       </c>
@@ -7617,9 +8743,23 @@
       <c r="Y82" s="12">
         <v>0</v>
       </c>
-      <c r="Z82" s="12"/>
-    </row>
-    <row r="83" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z82" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A83" s="12">
         <v>10072</v>
       </c>
@@ -7673,19 +8813,19 @@
       <c r="Q83" s="12">
         <v>62</v>
       </c>
-      <c r="R83" s="12" t="s">
+      <c r="R83" s="10">
+        <v>0</v>
+      </c>
+      <c r="S83" s="10">
+        <v>5</v>
+      </c>
+      <c r="T83" s="10">
+        <v>0</v>
+      </c>
+      <c r="U83" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S83" s="12"/>
-      <c r="T83" s="12">
-        <v>0</v>
-      </c>
-      <c r="U83" s="12">
-        <v>0</v>
-      </c>
-      <c r="V83" s="12">
-        <v>0</v>
-      </c>
+      <c r="V83" s="12"/>
       <c r="W83" s="12">
         <v>0</v>
       </c>
@@ -7695,9 +8835,23 @@
       <c r="Y83" s="12">
         <v>0</v>
       </c>
-      <c r="Z83" s="12"/>
-    </row>
-    <row r="84" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z83" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A84" s="12">
         <v>10073</v>
       </c>
@@ -7751,19 +8905,19 @@
       <c r="Q84" s="12">
         <v>63</v>
       </c>
-      <c r="R84" s="12" t="s">
+      <c r="R84" s="10">
+        <v>0</v>
+      </c>
+      <c r="S84" s="10">
+        <v>5</v>
+      </c>
+      <c r="T84" s="10">
+        <v>0</v>
+      </c>
+      <c r="U84" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S84" s="12"/>
-      <c r="T84" s="12">
-        <v>0</v>
-      </c>
-      <c r="U84" s="12">
-        <v>0</v>
-      </c>
-      <c r="V84" s="12">
-        <v>0</v>
-      </c>
+      <c r="V84" s="12"/>
       <c r="W84" s="12">
         <v>0</v>
       </c>
@@ -7773,9 +8927,23 @@
       <c r="Y84" s="12">
         <v>0</v>
       </c>
-      <c r="Z84" s="12"/>
-    </row>
-    <row r="85" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z84" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A85" s="12">
         <v>10074</v>
       </c>
@@ -7829,19 +8997,19 @@
       <c r="Q85" s="12">
         <v>64</v>
       </c>
-      <c r="R85" s="12" t="s">
+      <c r="R85" s="10">
+        <v>0</v>
+      </c>
+      <c r="S85" s="10">
+        <v>5</v>
+      </c>
+      <c r="T85" s="10">
+        <v>0</v>
+      </c>
+      <c r="U85" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S85" s="12"/>
-      <c r="T85" s="12">
-        <v>0</v>
-      </c>
-      <c r="U85" s="12">
-        <v>0</v>
-      </c>
-      <c r="V85" s="12">
-        <v>0</v>
-      </c>
+      <c r="V85" s="12"/>
       <c r="W85" s="12">
         <v>0</v>
       </c>
@@ -7851,9 +9019,23 @@
       <c r="Y85" s="12">
         <v>0</v>
       </c>
-      <c r="Z85" s="12"/>
-    </row>
-    <row r="86" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z85" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A86" s="12">
         <v>10075</v>
       </c>
@@ -7907,19 +9089,19 @@
       <c r="Q86" s="12">
         <v>65</v>
       </c>
-      <c r="R86" s="12" t="s">
+      <c r="R86" s="10">
+        <v>0</v>
+      </c>
+      <c r="S86" s="10">
+        <v>5</v>
+      </c>
+      <c r="T86" s="10">
+        <v>0</v>
+      </c>
+      <c r="U86" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S86" s="12"/>
-      <c r="T86" s="12">
-        <v>0</v>
-      </c>
-      <c r="U86" s="12">
-        <v>0</v>
-      </c>
-      <c r="V86" s="12">
-        <v>0</v>
-      </c>
+      <c r="V86" s="12"/>
       <c r="W86" s="12">
         <v>0</v>
       </c>
@@ -7929,9 +9111,23 @@
       <c r="Y86" s="12">
         <v>0</v>
       </c>
-      <c r="Z86" s="12"/>
-    </row>
-    <row r="87" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z86" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A87" s="12">
         <v>10076</v>
       </c>
@@ -7985,19 +9181,19 @@
       <c r="Q87" s="12">
         <v>66</v>
       </c>
-      <c r="R87" s="12" t="s">
+      <c r="R87" s="10">
+        <v>0</v>
+      </c>
+      <c r="S87" s="10">
+        <v>5</v>
+      </c>
+      <c r="T87" s="10">
+        <v>0</v>
+      </c>
+      <c r="U87" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S87" s="12"/>
-      <c r="T87" s="12">
-        <v>0</v>
-      </c>
-      <c r="U87" s="12">
-        <v>0</v>
-      </c>
-      <c r="V87" s="12">
-        <v>0</v>
-      </c>
+      <c r="V87" s="12"/>
       <c r="W87" s="12">
         <v>0</v>
       </c>
@@ -8007,9 +9203,23 @@
       <c r="Y87" s="12">
         <v>0</v>
       </c>
-      <c r="Z87" s="12"/>
-    </row>
-    <row r="88" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z87" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A88" s="12">
         <v>10077</v>
       </c>
@@ -8063,19 +9273,19 @@
       <c r="Q88" s="12">
         <v>67</v>
       </c>
-      <c r="R88" s="12" t="s">
+      <c r="R88" s="10">
+        <v>0</v>
+      </c>
+      <c r="S88" s="10">
+        <v>5</v>
+      </c>
+      <c r="T88" s="10">
+        <v>0</v>
+      </c>
+      <c r="U88" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S88" s="12"/>
-      <c r="T88" s="12">
-        <v>0</v>
-      </c>
-      <c r="U88" s="12">
-        <v>0</v>
-      </c>
-      <c r="V88" s="12">
-        <v>0</v>
-      </c>
+      <c r="V88" s="12"/>
       <c r="W88" s="12">
         <v>0</v>
       </c>
@@ -8085,9 +9295,23 @@
       <c r="Y88" s="12">
         <v>0</v>
       </c>
-      <c r="Z88" s="12"/>
-    </row>
-    <row r="89" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z88" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A89" s="12">
         <v>10078</v>
       </c>
@@ -8141,19 +9365,19 @@
       <c r="Q89" s="12">
         <v>68</v>
       </c>
-      <c r="R89" s="12" t="s">
+      <c r="R89" s="10">
+        <v>0</v>
+      </c>
+      <c r="S89" s="10">
+        <v>5</v>
+      </c>
+      <c r="T89" s="10">
+        <v>0</v>
+      </c>
+      <c r="U89" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S89" s="12"/>
-      <c r="T89" s="12">
-        <v>0</v>
-      </c>
-      <c r="U89" s="12">
-        <v>0</v>
-      </c>
-      <c r="V89" s="12">
-        <v>0</v>
-      </c>
+      <c r="V89" s="12"/>
       <c r="W89" s="12">
         <v>0</v>
       </c>
@@ -8163,9 +9387,23 @@
       <c r="Y89" s="12">
         <v>0</v>
       </c>
-      <c r="Z89" s="12"/>
-    </row>
-    <row r="90" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z89" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A90" s="12">
         <v>10079</v>
       </c>
@@ -8219,19 +9457,19 @@
       <c r="Q90" s="12">
         <v>69</v>
       </c>
-      <c r="R90" s="12" t="s">
+      <c r="R90" s="10">
+        <v>0</v>
+      </c>
+      <c r="S90" s="10">
+        <v>5</v>
+      </c>
+      <c r="T90" s="10">
+        <v>0</v>
+      </c>
+      <c r="U90" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S90" s="12"/>
-      <c r="T90" s="12">
-        <v>0</v>
-      </c>
-      <c r="U90" s="12">
-        <v>0</v>
-      </c>
-      <c r="V90" s="12">
-        <v>0</v>
-      </c>
+      <c r="V90" s="12"/>
       <c r="W90" s="12">
         <v>0</v>
       </c>
@@ -8241,9 +9479,23 @@
       <c r="Y90" s="12">
         <v>0</v>
       </c>
-      <c r="Z90" s="12"/>
-    </row>
-    <row r="91" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z90" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A91" s="12">
         <v>10080</v>
       </c>
@@ -8297,19 +9549,19 @@
       <c r="Q91" s="12">
         <v>70</v>
       </c>
-      <c r="R91" s="12" t="s">
+      <c r="R91" s="10">
+        <v>0</v>
+      </c>
+      <c r="S91" s="10">
+        <v>5</v>
+      </c>
+      <c r="T91" s="10">
+        <v>0</v>
+      </c>
+      <c r="U91" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S91" s="12"/>
-      <c r="T91" s="12">
-        <v>0</v>
-      </c>
-      <c r="U91" s="12">
-        <v>0</v>
-      </c>
-      <c r="V91" s="12">
-        <v>0</v>
-      </c>
+      <c r="V91" s="12"/>
       <c r="W91" s="12">
         <v>0</v>
       </c>
@@ -8319,9 +9571,23 @@
       <c r="Y91" s="12">
         <v>0</v>
       </c>
-      <c r="Z91" s="12"/>
-    </row>
-    <row r="92" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z91" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A92" s="12">
         <v>10081</v>
       </c>
@@ -8375,19 +9641,19 @@
       <c r="Q92" s="12">
         <v>71</v>
       </c>
-      <c r="R92" s="12" t="s">
+      <c r="R92" s="10">
+        <v>0</v>
+      </c>
+      <c r="S92" s="10">
+        <v>5</v>
+      </c>
+      <c r="T92" s="10">
+        <v>0</v>
+      </c>
+      <c r="U92" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S92" s="12"/>
-      <c r="T92" s="12">
-        <v>0</v>
-      </c>
-      <c r="U92" s="12">
-        <v>0</v>
-      </c>
-      <c r="V92" s="12">
-        <v>0</v>
-      </c>
+      <c r="V92" s="12"/>
       <c r="W92" s="12">
         <v>0</v>
       </c>
@@ -8397,9 +9663,23 @@
       <c r="Y92" s="12">
         <v>0</v>
       </c>
-      <c r="Z92" s="12"/>
-    </row>
-    <row r="93" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z92" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A93" s="12">
         <v>10082</v>
       </c>
@@ -8453,19 +9733,19 @@
       <c r="Q93" s="12">
         <v>72</v>
       </c>
-      <c r="R93" s="12" t="s">
+      <c r="R93" s="10">
+        <v>0</v>
+      </c>
+      <c r="S93" s="10">
+        <v>5</v>
+      </c>
+      <c r="T93" s="10">
+        <v>0</v>
+      </c>
+      <c r="U93" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S93" s="12"/>
-      <c r="T93" s="12">
-        <v>0</v>
-      </c>
-      <c r="U93" s="12">
-        <v>0</v>
-      </c>
-      <c r="V93" s="12">
-        <v>0</v>
-      </c>
+      <c r="V93" s="12"/>
       <c r="W93" s="12">
         <v>0</v>
       </c>
@@ -8475,9 +9755,23 @@
       <c r="Y93" s="12">
         <v>0</v>
       </c>
-      <c r="Z93" s="12"/>
-    </row>
-    <row r="94" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z93" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A94" s="12">
         <v>10083</v>
       </c>
@@ -8531,19 +9825,19 @@
       <c r="Q94" s="12">
         <v>73</v>
       </c>
-      <c r="R94" s="12" t="s">
+      <c r="R94" s="10">
+        <v>0</v>
+      </c>
+      <c r="S94" s="10">
+        <v>5</v>
+      </c>
+      <c r="T94" s="10">
+        <v>0</v>
+      </c>
+      <c r="U94" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S94" s="12"/>
-      <c r="T94" s="12">
-        <v>0</v>
-      </c>
-      <c r="U94" s="12">
-        <v>0</v>
-      </c>
-      <c r="V94" s="12">
-        <v>0</v>
-      </c>
+      <c r="V94" s="12"/>
       <c r="W94" s="12">
         <v>0</v>
       </c>
@@ -8553,9 +9847,23 @@
       <c r="Y94" s="12">
         <v>0</v>
       </c>
-      <c r="Z94" s="12"/>
-    </row>
-    <row r="95" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z94" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A95" s="12">
         <v>10084</v>
       </c>
@@ -8609,19 +9917,19 @@
       <c r="Q95" s="12">
         <v>74</v>
       </c>
-      <c r="R95" s="12" t="s">
+      <c r="R95" s="10">
+        <v>0</v>
+      </c>
+      <c r="S95" s="10">
+        <v>5</v>
+      </c>
+      <c r="T95" s="10">
+        <v>0</v>
+      </c>
+      <c r="U95" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S95" s="12"/>
-      <c r="T95" s="12">
-        <v>0</v>
-      </c>
-      <c r="U95" s="12">
-        <v>0</v>
-      </c>
-      <c r="V95" s="12">
-        <v>0</v>
-      </c>
+      <c r="V95" s="12"/>
       <c r="W95" s="12">
         <v>0</v>
       </c>
@@ -8631,9 +9939,23 @@
       <c r="Y95" s="12">
         <v>0</v>
       </c>
-      <c r="Z95" s="12"/>
-    </row>
-    <row r="96" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A96" s="12">
         <v>10085</v>
       </c>
@@ -8687,19 +10009,19 @@
       <c r="Q96" s="12">
         <v>75</v>
       </c>
-      <c r="R96" s="12" t="s">
+      <c r="R96" s="10">
+        <v>0</v>
+      </c>
+      <c r="S96" s="10">
+        <v>5</v>
+      </c>
+      <c r="T96" s="10">
+        <v>0</v>
+      </c>
+      <c r="U96" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S96" s="12"/>
-      <c r="T96" s="12">
-        <v>0</v>
-      </c>
-      <c r="U96" s="12">
-        <v>0</v>
-      </c>
-      <c r="V96" s="12">
-        <v>0</v>
-      </c>
+      <c r="V96" s="12"/>
       <c r="W96" s="12">
         <v>0</v>
       </c>
@@ -8709,9 +10031,23 @@
       <c r="Y96" s="12">
         <v>0</v>
       </c>
-      <c r="Z96" s="12"/>
-    </row>
-    <row r="97" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z96" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A97" s="12">
         <v>10086</v>
       </c>
@@ -8765,19 +10101,19 @@
       <c r="Q97" s="12">
         <v>76</v>
       </c>
-      <c r="R97" s="12" t="s">
+      <c r="R97" s="10">
+        <v>0</v>
+      </c>
+      <c r="S97" s="10">
+        <v>5</v>
+      </c>
+      <c r="T97" s="10">
+        <v>0</v>
+      </c>
+      <c r="U97" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S97" s="12"/>
-      <c r="T97" s="12">
-        <v>0</v>
-      </c>
-      <c r="U97" s="12">
-        <v>0</v>
-      </c>
-      <c r="V97" s="12">
-        <v>0</v>
-      </c>
+      <c r="V97" s="12"/>
       <c r="W97" s="12">
         <v>0</v>
       </c>
@@ -8787,9 +10123,23 @@
       <c r="Y97" s="12">
         <v>0</v>
       </c>
-      <c r="Z97" s="12"/>
-    </row>
-    <row r="98" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z97" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A98" s="12">
         <v>10087</v>
       </c>
@@ -8843,19 +10193,19 @@
       <c r="Q98" s="12">
         <v>77</v>
       </c>
-      <c r="R98" s="12" t="s">
+      <c r="R98" s="10">
+        <v>0</v>
+      </c>
+      <c r="S98" s="10">
+        <v>5</v>
+      </c>
+      <c r="T98" s="10">
+        <v>0</v>
+      </c>
+      <c r="U98" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S98" s="12"/>
-      <c r="T98" s="12">
-        <v>0</v>
-      </c>
-      <c r="U98" s="12">
-        <v>0</v>
-      </c>
-      <c r="V98" s="12">
-        <v>0</v>
-      </c>
+      <c r="V98" s="12"/>
       <c r="W98" s="12">
         <v>0</v>
       </c>
@@ -8865,9 +10215,23 @@
       <c r="Y98" s="12">
         <v>0</v>
       </c>
-      <c r="Z98" s="12"/>
-    </row>
-    <row r="99" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z98" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A99" s="12">
         <v>10088</v>
       </c>
@@ -8921,19 +10285,19 @@
       <c r="Q99" s="12">
         <v>78</v>
       </c>
-      <c r="R99" s="12" t="s">
+      <c r="R99" s="10">
+        <v>0</v>
+      </c>
+      <c r="S99" s="10">
+        <v>5</v>
+      </c>
+      <c r="T99" s="10">
+        <v>0</v>
+      </c>
+      <c r="U99" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S99" s="12"/>
-      <c r="T99" s="12">
-        <v>0</v>
-      </c>
-      <c r="U99" s="12">
-        <v>0</v>
-      </c>
-      <c r="V99" s="12">
-        <v>0</v>
-      </c>
+      <c r="V99" s="12"/>
       <c r="W99" s="12">
         <v>0</v>
       </c>
@@ -8943,9 +10307,23 @@
       <c r="Y99" s="12">
         <v>0</v>
       </c>
-      <c r="Z99" s="12"/>
-    </row>
-    <row r="100" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z99" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A100" s="12">
         <v>10089</v>
       </c>
@@ -8999,19 +10377,19 @@
       <c r="Q100" s="12">
         <v>79</v>
       </c>
-      <c r="R100" s="12" t="s">
+      <c r="R100" s="10">
+        <v>0</v>
+      </c>
+      <c r="S100" s="10">
+        <v>5</v>
+      </c>
+      <c r="T100" s="10">
+        <v>0</v>
+      </c>
+      <c r="U100" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S100" s="12"/>
-      <c r="T100" s="12">
-        <v>0</v>
-      </c>
-      <c r="U100" s="12">
-        <v>0</v>
-      </c>
-      <c r="V100" s="12">
-        <v>0</v>
-      </c>
+      <c r="V100" s="12"/>
       <c r="W100" s="12">
         <v>0</v>
       </c>
@@ -9021,9 +10399,23 @@
       <c r="Y100" s="12">
         <v>0</v>
       </c>
-      <c r="Z100" s="12"/>
-    </row>
-    <row r="101" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z100" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A101" s="12">
         <v>10090</v>
       </c>
@@ -9077,19 +10469,19 @@
       <c r="Q101" s="12">
         <v>80</v>
       </c>
-      <c r="R101" s="12" t="s">
+      <c r="R101" s="10">
+        <v>0</v>
+      </c>
+      <c r="S101" s="10">
+        <v>5</v>
+      </c>
+      <c r="T101" s="10">
+        <v>0</v>
+      </c>
+      <c r="U101" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S101" s="12"/>
-      <c r="T101" s="12">
-        <v>0</v>
-      </c>
-      <c r="U101" s="12">
-        <v>0</v>
-      </c>
-      <c r="V101" s="12">
-        <v>0</v>
-      </c>
+      <c r="V101" s="12"/>
       <c r="W101" s="12">
         <v>0</v>
       </c>
@@ -9099,9 +10491,23 @@
       <c r="Y101" s="12">
         <v>0</v>
       </c>
-      <c r="Z101" s="12"/>
-    </row>
-    <row r="102" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z101" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A102" s="12">
         <v>10091</v>
       </c>
@@ -9155,19 +10561,19 @@
       <c r="Q102" s="12">
         <v>81</v>
       </c>
-      <c r="R102" s="12" t="s">
+      <c r="R102" s="10">
+        <v>0</v>
+      </c>
+      <c r="S102" s="10">
+        <v>5</v>
+      </c>
+      <c r="T102" s="10">
+        <v>0</v>
+      </c>
+      <c r="U102" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S102" s="12"/>
-      <c r="T102" s="12">
-        <v>0</v>
-      </c>
-      <c r="U102" s="12">
-        <v>0</v>
-      </c>
-      <c r="V102" s="12">
-        <v>0</v>
-      </c>
+      <c r="V102" s="12"/>
       <c r="W102" s="12">
         <v>0</v>
       </c>
@@ -9177,9 +10583,23 @@
       <c r="Y102" s="12">
         <v>0</v>
       </c>
-      <c r="Z102" s="12"/>
-    </row>
-    <row r="103" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z102" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A103" s="12">
         <v>10092</v>
       </c>
@@ -9233,19 +10653,19 @@
       <c r="Q103" s="12">
         <v>82</v>
       </c>
-      <c r="R103" s="12" t="s">
+      <c r="R103" s="10">
+        <v>0</v>
+      </c>
+      <c r="S103" s="10">
+        <v>5</v>
+      </c>
+      <c r="T103" s="10">
+        <v>0</v>
+      </c>
+      <c r="U103" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S103" s="12"/>
-      <c r="T103" s="12">
-        <v>0</v>
-      </c>
-      <c r="U103" s="12">
-        <v>0</v>
-      </c>
-      <c r="V103" s="12">
-        <v>0</v>
-      </c>
+      <c r="V103" s="12"/>
       <c r="W103" s="12">
         <v>0</v>
       </c>
@@ -9255,9 +10675,23 @@
       <c r="Y103" s="12">
         <v>0</v>
       </c>
-      <c r="Z103" s="12"/>
-    </row>
-    <row r="104" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z103" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD103" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A104" s="12">
         <v>10093</v>
       </c>
@@ -9311,19 +10745,19 @@
       <c r="Q104" s="12">
         <v>83</v>
       </c>
-      <c r="R104" s="12" t="s">
+      <c r="R104" s="10">
+        <v>0</v>
+      </c>
+      <c r="S104" s="10">
+        <v>5</v>
+      </c>
+      <c r="T104" s="10">
+        <v>0</v>
+      </c>
+      <c r="U104" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S104" s="12"/>
-      <c r="T104" s="12">
-        <v>0</v>
-      </c>
-      <c r="U104" s="12">
-        <v>0</v>
-      </c>
-      <c r="V104" s="12">
-        <v>0</v>
-      </c>
+      <c r="V104" s="12"/>
       <c r="W104" s="12">
         <v>0</v>
       </c>
@@ -9333,9 +10767,23 @@
       <c r="Y104" s="12">
         <v>0</v>
       </c>
-      <c r="Z104" s="12"/>
-    </row>
-    <row r="105" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z104" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD104" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A105" s="12">
         <v>10094</v>
       </c>
@@ -9389,19 +10837,19 @@
       <c r="Q105" s="12">
         <v>84</v>
       </c>
-      <c r="R105" s="12" t="s">
+      <c r="R105" s="10">
+        <v>0</v>
+      </c>
+      <c r="S105" s="10">
+        <v>5</v>
+      </c>
+      <c r="T105" s="10">
+        <v>0</v>
+      </c>
+      <c r="U105" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S105" s="12"/>
-      <c r="T105" s="12">
-        <v>0</v>
-      </c>
-      <c r="U105" s="12">
-        <v>0</v>
-      </c>
-      <c r="V105" s="12">
-        <v>0</v>
-      </c>
+      <c r="V105" s="12"/>
       <c r="W105" s="12">
         <v>0</v>
       </c>
@@ -9411,9 +10859,23 @@
       <c r="Y105" s="12">
         <v>0</v>
       </c>
-      <c r="Z105" s="12"/>
-    </row>
-    <row r="106" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z105" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC105" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD105" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A106" s="12">
         <v>10095</v>
       </c>
@@ -9467,19 +10929,19 @@
       <c r="Q106" s="12">
         <v>85</v>
       </c>
-      <c r="R106" s="12" t="s">
+      <c r="R106" s="10">
+        <v>0</v>
+      </c>
+      <c r="S106" s="10">
+        <v>5</v>
+      </c>
+      <c r="T106" s="10">
+        <v>0</v>
+      </c>
+      <c r="U106" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S106" s="12"/>
-      <c r="T106" s="12">
-        <v>0</v>
-      </c>
-      <c r="U106" s="12">
-        <v>0</v>
-      </c>
-      <c r="V106" s="12">
-        <v>0</v>
-      </c>
+      <c r="V106" s="12"/>
       <c r="W106" s="12">
         <v>0</v>
       </c>
@@ -9489,9 +10951,23 @@
       <c r="Y106" s="12">
         <v>0</v>
       </c>
-      <c r="Z106" s="12"/>
-    </row>
-    <row r="107" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z106" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC106" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD106" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A107" s="12">
         <v>10096</v>
       </c>
@@ -9545,19 +11021,19 @@
       <c r="Q107" s="12">
         <v>86</v>
       </c>
-      <c r="R107" s="12" t="s">
+      <c r="R107" s="10">
+        <v>0</v>
+      </c>
+      <c r="S107" s="10">
+        <v>5</v>
+      </c>
+      <c r="T107" s="10">
+        <v>0</v>
+      </c>
+      <c r="U107" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S107" s="12"/>
-      <c r="T107" s="12">
-        <v>0</v>
-      </c>
-      <c r="U107" s="12">
-        <v>0</v>
-      </c>
-      <c r="V107" s="12">
-        <v>0</v>
-      </c>
+      <c r="V107" s="12"/>
       <c r="W107" s="12">
         <v>0</v>
       </c>
@@ -9567,9 +11043,23 @@
       <c r="Y107" s="12">
         <v>0</v>
       </c>
-      <c r="Z107" s="12"/>
-    </row>
-    <row r="108" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z107" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC107" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD107" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A108" s="12">
         <v>10097</v>
       </c>
@@ -9623,19 +11113,19 @@
       <c r="Q108" s="12">
         <v>87</v>
       </c>
-      <c r="R108" s="12" t="s">
+      <c r="R108" s="10">
+        <v>0</v>
+      </c>
+      <c r="S108" s="10">
+        <v>5</v>
+      </c>
+      <c r="T108" s="10">
+        <v>0</v>
+      </c>
+      <c r="U108" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S108" s="12"/>
-      <c r="T108" s="12">
-        <v>0</v>
-      </c>
-      <c r="U108" s="12">
-        <v>0</v>
-      </c>
-      <c r="V108" s="12">
-        <v>0</v>
-      </c>
+      <c r="V108" s="12"/>
       <c r="W108" s="12">
         <v>0</v>
       </c>
@@ -9645,9 +11135,23 @@
       <c r="Y108" s="12">
         <v>0</v>
       </c>
-      <c r="Z108" s="12"/>
-    </row>
-    <row r="109" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z108" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD108" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A109" s="12">
         <v>10098</v>
       </c>
@@ -9701,19 +11205,19 @@
       <c r="Q109" s="12">
         <v>88</v>
       </c>
-      <c r="R109" s="12" t="s">
+      <c r="R109" s="10">
+        <v>0</v>
+      </c>
+      <c r="S109" s="10">
+        <v>5</v>
+      </c>
+      <c r="T109" s="10">
+        <v>0</v>
+      </c>
+      <c r="U109" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S109" s="12"/>
-      <c r="T109" s="12">
-        <v>0</v>
-      </c>
-      <c r="U109" s="12">
-        <v>0</v>
-      </c>
-      <c r="V109" s="12">
-        <v>0</v>
-      </c>
+      <c r="V109" s="12"/>
       <c r="W109" s="12">
         <v>0</v>
       </c>
@@ -9723,9 +11227,23 @@
       <c r="Y109" s="12">
         <v>0</v>
       </c>
-      <c r="Z109" s="12"/>
-    </row>
-    <row r="110" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z109" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC109" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD109" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A110" s="12">
         <v>10099</v>
       </c>
@@ -9779,19 +11297,19 @@
       <c r="Q110" s="12">
         <v>89</v>
       </c>
-      <c r="R110" s="12" t="s">
+      <c r="R110" s="10">
+        <v>0</v>
+      </c>
+      <c r="S110" s="10">
+        <v>5</v>
+      </c>
+      <c r="T110" s="10">
+        <v>0</v>
+      </c>
+      <c r="U110" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S110" s="12"/>
-      <c r="T110" s="12">
-        <v>0</v>
-      </c>
-      <c r="U110" s="12">
-        <v>0</v>
-      </c>
-      <c r="V110" s="12">
-        <v>0</v>
-      </c>
+      <c r="V110" s="12"/>
       <c r="W110" s="12">
         <v>0</v>
       </c>
@@ -9801,9 +11319,23 @@
       <c r="Y110" s="12">
         <v>0</v>
       </c>
-      <c r="Z110" s="12"/>
-    </row>
-    <row r="111" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z110" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC110" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD110" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A111" s="12">
         <v>20000</v>
       </c>
@@ -9855,19 +11387,19 @@
       <c r="Q111" s="12">
         <v>30</v>
       </c>
-      <c r="R111" s="12" t="s">
+      <c r="R111" s="10">
+        <v>0</v>
+      </c>
+      <c r="S111" s="10">
+        <v>5</v>
+      </c>
+      <c r="T111" s="10">
+        <v>0</v>
+      </c>
+      <c r="U111" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="S111" s="12"/>
-      <c r="T111" s="12">
-        <v>0</v>
-      </c>
-      <c r="U111" s="12">
-        <v>0</v>
-      </c>
-      <c r="V111" s="12">
-        <v>0</v>
-      </c>
+      <c r="V111" s="12"/>
       <c r="W111" s="12">
         <v>0</v>
       </c>
@@ -9877,9 +11409,23 @@
       <c r="Y111" s="12">
         <v>0</v>
       </c>
-      <c r="Z111" s="12"/>
-    </row>
-    <row r="112" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z111" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC111" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD111" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A112" s="12">
         <v>20001</v>
       </c>
@@ -9931,19 +11477,19 @@
       <c r="Q112" s="12">
         <v>30</v>
       </c>
-      <c r="R112" s="12" t="s">
+      <c r="R112" s="10">
+        <v>0</v>
+      </c>
+      <c r="S112" s="10">
+        <v>5</v>
+      </c>
+      <c r="T112" s="10">
+        <v>0</v>
+      </c>
+      <c r="U112" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="S112" s="12"/>
-      <c r="T112" s="12">
-        <v>0</v>
-      </c>
-      <c r="U112" s="12">
-        <v>0</v>
-      </c>
-      <c r="V112" s="12">
-        <v>0</v>
-      </c>
+      <c r="V112" s="12"/>
       <c r="W112" s="12">
         <v>0</v>
       </c>
@@ -9953,9 +11499,23 @@
       <c r="Y112" s="12">
         <v>0</v>
       </c>
-      <c r="Z112" s="12"/>
-    </row>
-    <row r="113" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z112" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA112" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD112" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A113" s="12">
         <v>20002</v>
       </c>
@@ -10007,19 +11567,19 @@
       <c r="Q113" s="12">
         <v>30</v>
       </c>
-      <c r="R113" s="12" t="s">
+      <c r="R113" s="10">
+        <v>0</v>
+      </c>
+      <c r="S113" s="10">
+        <v>5</v>
+      </c>
+      <c r="T113" s="10">
+        <v>0</v>
+      </c>
+      <c r="U113" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="S113" s="12"/>
-      <c r="T113" s="12">
-        <v>0</v>
-      </c>
-      <c r="U113" s="12">
-        <v>0</v>
-      </c>
-      <c r="V113" s="12">
-        <v>0</v>
-      </c>
+      <c r="V113" s="12"/>
       <c r="W113" s="12">
         <v>0</v>
       </c>
@@ -10029,9 +11589,23 @@
       <c r="Y113" s="12">
         <v>0</v>
       </c>
-      <c r="Z113" s="12"/>
-    </row>
-    <row r="114" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z113" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA113" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC113" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD113" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A114" s="12">
         <v>20003</v>
       </c>
@@ -10083,19 +11657,19 @@
       <c r="Q114" s="12">
         <v>30</v>
       </c>
-      <c r="R114" s="12" t="s">
+      <c r="R114" s="10">
+        <v>0</v>
+      </c>
+      <c r="S114" s="10">
+        <v>5</v>
+      </c>
+      <c r="T114" s="10">
+        <v>0</v>
+      </c>
+      <c r="U114" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="S114" s="12"/>
-      <c r="T114" s="12">
-        <v>0</v>
-      </c>
-      <c r="U114" s="12">
-        <v>0</v>
-      </c>
-      <c r="V114" s="12">
-        <v>0</v>
-      </c>
+      <c r="V114" s="12"/>
       <c r="W114" s="12">
         <v>0</v>
       </c>
@@ -10105,9 +11679,23 @@
       <c r="Y114" s="12">
         <v>0</v>
       </c>
-      <c r="Z114" s="12"/>
-    </row>
-    <row r="115" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z114" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA114" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC114" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD114" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A115" s="12">
         <v>40000</v>
       </c>
@@ -10159,21 +11747,21 @@
       <c r="Q115" s="12">
         <v>30</v>
       </c>
-      <c r="R115" s="12" t="s">
+      <c r="R115" s="10">
+        <v>0</v>
+      </c>
+      <c r="S115" s="10">
+        <v>5</v>
+      </c>
+      <c r="T115" s="10">
+        <v>0</v>
+      </c>
+      <c r="U115" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="S115" s="12" t="s">
+      <c r="V115" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="T115" s="12">
-        <v>0</v>
-      </c>
-      <c r="U115" s="12">
-        <v>0</v>
-      </c>
-      <c r="V115" s="12">
-        <v>0</v>
-      </c>
       <c r="W115" s="12">
         <v>0</v>
       </c>
@@ -10183,9 +11771,23 @@
       <c r="Y115" s="12">
         <v>0</v>
       </c>
-      <c r="Z115" s="12"/>
-    </row>
-    <row r="116" spans="1:26" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Z115" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD115" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A116" s="12">
         <v>50000</v>
       </c>
@@ -10237,21 +11839,21 @@
       <c r="Q116" s="12">
         <v>30</v>
       </c>
-      <c r="R116" s="12" t="s">
+      <c r="R116" s="10">
+        <v>0</v>
+      </c>
+      <c r="S116" s="10">
+        <v>5</v>
+      </c>
+      <c r="T116" s="10">
+        <v>0</v>
+      </c>
+      <c r="U116" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="S116" s="12" t="s">
+      <c r="V116" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="T116" s="12">
-        <v>0</v>
-      </c>
-      <c r="U116" s="12">
-        <v>0</v>
-      </c>
-      <c r="V116" s="12">
-        <v>0</v>
-      </c>
       <c r="W116" s="12">
         <v>0</v>
       </c>
@@ -10261,47 +11863,61 @@
       <c r="Y116" s="12">
         <v>0</v>
       </c>
-      <c r="Z116" s="12"/>
+      <c r="Z116" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA116" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC116" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD116" s="12">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B19:B110">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H110">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:M103 J104:J110 L104:M110">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44:O110">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P110">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q110">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:O43">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K104:K116">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="200">
   <si>
     <t>Prefabs/Models/Body/Male_Body_7000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,6 +721,10 @@
   </si>
   <si>
     <t>“10000-10000:10001-500”</t>
+  </si>
+  <si>
+    <t>掉落池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1206,11 +1210,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD116"/>
+  <dimension ref="A1:AE116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W60" sqref="W60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1228,13 +1232,14 @@
     <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
     <col min="13" max="19" width="9" customWidth="1"/>
     <col min="20" max="20" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="40.75" customWidth="1"/>
-    <col min="23" max="23" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="29" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.5" customWidth="1"/>
+    <col min="22" max="22" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="40.75" customWidth="1"/>
+    <col min="24" max="24" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="30" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1286,47 +1291,50 @@
       <c r="Q1" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1000</v>
       </c>
@@ -1387,13 +1395,13 @@
       <c r="T2" s="10">
         <v>0</v>
       </c>
-      <c r="U2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10">
-        <v>0</v>
-      </c>
+      <c r="U2" s="10">
+        <v>0</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="10"/>
       <c r="X2" s="10">
         <v>0</v>
       </c>
@@ -1415,8 +1423,11 @@
       <c r="AD2" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1001</v>
       </c>
@@ -1477,13 +1488,13 @@
       <c r="T3" s="10">
         <v>0</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="10">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10">
-        <v>0</v>
-      </c>
+      <c r="W3" s="10"/>
       <c r="X3" s="10">
         <v>0</v>
       </c>
@@ -1505,8 +1516,11 @@
       <c r="AD3" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>1002</v>
       </c>
@@ -1567,13 +1581,13 @@
       <c r="T4" s="10">
         <v>0</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="10">
+        <v>0</v>
+      </c>
+      <c r="V4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10">
-        <v>0</v>
-      </c>
+      <c r="W4" s="10"/>
       <c r="X4" s="10">
         <v>0</v>
       </c>
@@ -1595,8 +1609,11 @@
       <c r="AD4" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>1003</v>
       </c>
@@ -1657,13 +1674,13 @@
       <c r="T5" s="10">
         <v>0</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U5" s="10">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10">
-        <v>0</v>
-      </c>
+      <c r="W5" s="10"/>
       <c r="X5" s="10">
         <v>0</v>
       </c>
@@ -1685,8 +1702,11 @@
       <c r="AD5" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>1004</v>
       </c>
@@ -1747,13 +1767,13 @@
       <c r="T6" s="10">
         <v>0</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U6" s="10">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10">
-        <v>0</v>
-      </c>
+      <c r="W6" s="10"/>
       <c r="X6" s="10">
         <v>0</v>
       </c>
@@ -1775,8 +1795,11 @@
       <c r="AD6" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>1005</v>
       </c>
@@ -1837,13 +1860,13 @@
       <c r="T7" s="10">
         <v>0</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="U7" s="10">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10">
-        <v>0</v>
-      </c>
+      <c r="W7" s="10"/>
       <c r="X7" s="10">
         <v>0</v>
       </c>
@@ -1865,8 +1888,11 @@
       <c r="AD7" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>1006</v>
       </c>
@@ -1927,13 +1953,13 @@
       <c r="T8" s="10">
         <v>0</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="U8" s="10">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10">
-        <v>0</v>
-      </c>
+      <c r="W8" s="10"/>
       <c r="X8" s="10">
         <v>0</v>
       </c>
@@ -1955,8 +1981,11 @@
       <c r="AD8" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>1007</v>
       </c>
@@ -2017,13 +2046,13 @@
       <c r="T9" s="10">
         <v>0</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="U9" s="10">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10">
-        <v>0</v>
-      </c>
+      <c r="W9" s="10"/>
       <c r="X9" s="10">
         <v>0</v>
       </c>
@@ -2045,8 +2074,11 @@
       <c r="AD9" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>1008</v>
       </c>
@@ -2107,13 +2139,13 @@
       <c r="T10" s="10">
         <v>0</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" s="10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10">
-        <v>0</v>
-      </c>
+      <c r="W10" s="10"/>
       <c r="X10" s="10">
         <v>0</v>
       </c>
@@ -2135,8 +2167,11 @@
       <c r="AD10" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>10000</v>
       </c>
@@ -2198,13 +2233,13 @@
       <c r="T11" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="U11" s="12" t="s">
+      <c r="U11" s="10">
+        <v>100</v>
+      </c>
+      <c r="V11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12">
-        <v>0</v>
-      </c>
+      <c r="W11" s="12"/>
       <c r="X11" s="12">
         <v>0</v>
       </c>
@@ -2226,8 +2261,11 @@
       <c r="AD11" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>10001</v>
       </c>
@@ -2290,13 +2328,13 @@
       <c r="T12" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="U12" s="12" t="s">
+      <c r="U12" s="10">
+        <v>100</v>
+      </c>
+      <c r="V12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12">
-        <v>0</v>
-      </c>
+      <c r="W12" s="12"/>
       <c r="X12" s="12">
         <v>0</v>
       </c>
@@ -2318,8 +2356,11 @@
       <c r="AD12" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>10002</v>
       </c>
@@ -2382,13 +2423,13 @@
       <c r="T13" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="U13" s="12" t="s">
+      <c r="U13" s="10">
+        <v>100</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12">
-        <v>0</v>
-      </c>
+      <c r="W13" s="12"/>
       <c r="X13" s="12">
         <v>0</v>
       </c>
@@ -2410,8 +2451,11 @@
       <c r="AD13" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>10003</v>
       </c>
@@ -2474,13 +2518,13 @@
       <c r="T14" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="U14" s="12" t="s">
+      <c r="U14" s="10">
+        <v>100</v>
+      </c>
+      <c r="V14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12">
-        <v>0</v>
-      </c>
+      <c r="W14" s="12"/>
       <c r="X14" s="12">
         <v>0</v>
       </c>
@@ -2502,8 +2546,11 @@
       <c r="AD14" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>10004</v>
       </c>
@@ -2566,13 +2613,13 @@
       <c r="T15" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="U15" s="12" t="s">
+      <c r="U15" s="10">
+        <v>100</v>
+      </c>
+      <c r="V15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12">
-        <v>0</v>
-      </c>
+      <c r="W15" s="12"/>
       <c r="X15" s="12">
         <v>0</v>
       </c>
@@ -2594,8 +2641,11 @@
       <c r="AD15" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>10005</v>
       </c>
@@ -2658,13 +2708,13 @@
       <c r="T16" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="U16" s="12" t="s">
+      <c r="U16" s="10">
+        <v>100</v>
+      </c>
+      <c r="V16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12">
-        <v>0</v>
-      </c>
+      <c r="W16" s="12"/>
       <c r="X16" s="12">
         <v>0</v>
       </c>
@@ -2686,8 +2736,11 @@
       <c r="AD16" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>10006</v>
       </c>
@@ -2750,13 +2803,13 @@
       <c r="T17" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="U17" s="12" t="s">
+      <c r="U17" s="10">
+        <v>100</v>
+      </c>
+      <c r="V17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12">
-        <v>0</v>
-      </c>
+      <c r="W17" s="12"/>
       <c r="X17" s="12">
         <v>0</v>
       </c>
@@ -2778,8 +2831,11 @@
       <c r="AD17" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>10007</v>
       </c>
@@ -2842,13 +2898,13 @@
       <c r="T18" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="U18" s="12" t="s">
+      <c r="U18" s="10">
+        <v>100</v>
+      </c>
+      <c r="V18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12">
-        <v>0</v>
-      </c>
+      <c r="W18" s="12"/>
       <c r="X18" s="12">
         <v>0</v>
       </c>
@@ -2870,8 +2926,11 @@
       <c r="AD18" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>10008</v>
       </c>
@@ -2934,13 +2993,13 @@
       <c r="T19" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="U19" s="12" t="s">
+      <c r="U19" s="10">
+        <v>100</v>
+      </c>
+      <c r="V19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12">
-        <v>0</v>
-      </c>
+      <c r="W19" s="12"/>
       <c r="X19" s="12">
         <v>0</v>
       </c>
@@ -2962,8 +3021,11 @@
       <c r="AD19" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>10009</v>
       </c>
@@ -3026,13 +3088,13 @@
       <c r="T20" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="U20" s="12" t="s">
+      <c r="U20" s="10">
+        <v>100</v>
+      </c>
+      <c r="V20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12">
-        <v>0</v>
-      </c>
+      <c r="W20" s="12"/>
       <c r="X20" s="12">
         <v>0</v>
       </c>
@@ -3054,8 +3116,11 @@
       <c r="AD20" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>10010</v>
       </c>
@@ -3118,13 +3183,13 @@
       <c r="T21" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="U21" s="12" t="s">
+      <c r="U21" s="10">
+        <v>100</v>
+      </c>
+      <c r="V21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12">
-        <v>0</v>
-      </c>
+      <c r="W21" s="12"/>
       <c r="X21" s="12">
         <v>0</v>
       </c>
@@ -3146,8 +3211,11 @@
       <c r="AD21" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>10011</v>
       </c>
@@ -3210,13 +3278,13 @@
       <c r="T22" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="U22" s="12" t="s">
+      <c r="U22" s="10">
+        <v>100</v>
+      </c>
+      <c r="V22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12">
-        <v>0</v>
-      </c>
+      <c r="W22" s="12"/>
       <c r="X22" s="12">
         <v>0</v>
       </c>
@@ -3238,8 +3306,11 @@
       <c r="AD22" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>10012</v>
       </c>
@@ -3302,13 +3373,13 @@
       <c r="T23" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="U23" s="12" t="s">
+      <c r="U23" s="10">
+        <v>100</v>
+      </c>
+      <c r="V23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12">
-        <v>0</v>
-      </c>
+      <c r="W23" s="12"/>
       <c r="X23" s="12">
         <v>0</v>
       </c>
@@ -3330,8 +3401,11 @@
       <c r="AD23" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>10013</v>
       </c>
@@ -3394,13 +3468,13 @@
       <c r="T24" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U24" s="12" t="s">
+      <c r="U24" s="10">
+        <v>100</v>
+      </c>
+      <c r="V24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12">
-        <v>0</v>
-      </c>
+      <c r="W24" s="12"/>
       <c r="X24" s="12">
         <v>0</v>
       </c>
@@ -3422,8 +3496,11 @@
       <c r="AD24" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>10014</v>
       </c>
@@ -3486,13 +3563,13 @@
       <c r="T25" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U25" s="12" t="s">
+      <c r="U25" s="10">
+        <v>100</v>
+      </c>
+      <c r="V25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12">
-        <v>0</v>
-      </c>
+      <c r="W25" s="12"/>
       <c r="X25" s="12">
         <v>0</v>
       </c>
@@ -3514,8 +3591,11 @@
       <c r="AD25" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>10015</v>
       </c>
@@ -3578,13 +3658,13 @@
       <c r="T26" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U26" s="12" t="s">
+      <c r="U26" s="10">
+        <v>100</v>
+      </c>
+      <c r="V26" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12">
-        <v>0</v>
-      </c>
+      <c r="W26" s="12"/>
       <c r="X26" s="12">
         <v>0</v>
       </c>
@@ -3606,8 +3686,11 @@
       <c r="AD26" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>10016</v>
       </c>
@@ -3670,13 +3753,13 @@
       <c r="T27" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U27" s="12" t="s">
+      <c r="U27" s="10">
+        <v>100</v>
+      </c>
+      <c r="V27" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12">
-        <v>0</v>
-      </c>
+      <c r="W27" s="12"/>
       <c r="X27" s="12">
         <v>0</v>
       </c>
@@ -3698,8 +3781,11 @@
       <c r="AD27" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>10017</v>
       </c>
@@ -3762,13 +3848,13 @@
       <c r="T28" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U28" s="12" t="s">
+      <c r="U28" s="10">
+        <v>100</v>
+      </c>
+      <c r="V28" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12">
-        <v>0</v>
-      </c>
+      <c r="W28" s="12"/>
       <c r="X28" s="12">
         <v>0</v>
       </c>
@@ -3790,8 +3876,11 @@
       <c r="AD28" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>10018</v>
       </c>
@@ -3854,13 +3943,13 @@
       <c r="T29" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U29" s="12" t="s">
+      <c r="U29" s="10">
+        <v>100</v>
+      </c>
+      <c r="V29" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12">
-        <v>0</v>
-      </c>
+      <c r="W29" s="12"/>
       <c r="X29" s="12">
         <v>0</v>
       </c>
@@ -3882,8 +3971,11 @@
       <c r="AD29" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>10019</v>
       </c>
@@ -3946,13 +4038,13 @@
       <c r="T30" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U30" s="12" t="s">
+      <c r="U30" s="10">
+        <v>100</v>
+      </c>
+      <c r="V30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12">
-        <v>0</v>
-      </c>
+      <c r="W30" s="12"/>
       <c r="X30" s="12">
         <v>0</v>
       </c>
@@ -3974,8 +4066,11 @@
       <c r="AD30" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>10020</v>
       </c>
@@ -4038,13 +4133,13 @@
       <c r="T31" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U31" s="12" t="s">
+      <c r="U31" s="10">
+        <v>100</v>
+      </c>
+      <c r="V31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12">
-        <v>0</v>
-      </c>
+      <c r="W31" s="12"/>
       <c r="X31" s="12">
         <v>0</v>
       </c>
@@ -4066,8 +4161,11 @@
       <c r="AD31" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>10021</v>
       </c>
@@ -4130,13 +4228,13 @@
       <c r="T32" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U32" s="12" t="s">
+      <c r="U32" s="10">
+        <v>100</v>
+      </c>
+      <c r="V32" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12">
-        <v>0</v>
-      </c>
+      <c r="W32" s="12"/>
       <c r="X32" s="12">
         <v>0</v>
       </c>
@@ -4158,8 +4256,11 @@
       <c r="AD32" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>10022</v>
       </c>
@@ -4222,13 +4323,13 @@
       <c r="T33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U33" s="12" t="s">
+      <c r="U33" s="10">
+        <v>100</v>
+      </c>
+      <c r="V33" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12">
-        <v>0</v>
-      </c>
+      <c r="W33" s="12"/>
       <c r="X33" s="12">
         <v>0</v>
       </c>
@@ -4250,8 +4351,11 @@
       <c r="AD33" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>10023</v>
       </c>
@@ -4314,13 +4418,13 @@
       <c r="T34" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U34" s="12" t="s">
+      <c r="U34" s="10">
+        <v>100</v>
+      </c>
+      <c r="V34" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12">
-        <v>0</v>
-      </c>
+      <c r="W34" s="12"/>
       <c r="X34" s="12">
         <v>0</v>
       </c>
@@ -4342,8 +4446,11 @@
       <c r="AD34" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>10024</v>
       </c>
@@ -4406,13 +4513,13 @@
       <c r="T35" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U35" s="12" t="s">
+      <c r="U35" s="10">
+        <v>100</v>
+      </c>
+      <c r="V35" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12">
-        <v>0</v>
-      </c>
+      <c r="W35" s="12"/>
       <c r="X35" s="12">
         <v>0</v>
       </c>
@@ -4434,8 +4541,11 @@
       <c r="AD35" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
         <v>10025</v>
       </c>
@@ -4498,13 +4608,13 @@
       <c r="T36" s="10">
         <v>0</v>
       </c>
-      <c r="U36" s="12" t="s">
+      <c r="U36" s="10">
+        <v>100</v>
+      </c>
+      <c r="V36" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12">
-        <v>0</v>
-      </c>
+      <c r="W36" s="12"/>
       <c r="X36" s="12">
         <v>0</v>
       </c>
@@ -4526,8 +4636,11 @@
       <c r="AD36" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>10026</v>
       </c>
@@ -4590,13 +4703,13 @@
       <c r="T37" s="10">
         <v>0</v>
       </c>
-      <c r="U37" s="12" t="s">
+      <c r="U37" s="10">
+        <v>100</v>
+      </c>
+      <c r="V37" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12">
-        <v>0</v>
-      </c>
+      <c r="W37" s="12"/>
       <c r="X37" s="12">
         <v>0</v>
       </c>
@@ -4618,8 +4731,11 @@
       <c r="AD37" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>10027</v>
       </c>
@@ -4682,13 +4798,13 @@
       <c r="T38" s="10">
         <v>0</v>
       </c>
-      <c r="U38" s="12" t="s">
+      <c r="U38" s="10">
+        <v>100</v>
+      </c>
+      <c r="V38" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12">
-        <v>0</v>
-      </c>
+      <c r="W38" s="12"/>
       <c r="X38" s="12">
         <v>0</v>
       </c>
@@ -4710,8 +4826,11 @@
       <c r="AD38" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>10028</v>
       </c>
@@ -4774,13 +4893,13 @@
       <c r="T39" s="10">
         <v>0</v>
       </c>
-      <c r="U39" s="12" t="s">
+      <c r="U39" s="10">
+        <v>100</v>
+      </c>
+      <c r="V39" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12">
-        <v>0</v>
-      </c>
+      <c r="W39" s="12"/>
       <c r="X39" s="12">
         <v>0</v>
       </c>
@@ -4802,8 +4921,11 @@
       <c r="AD39" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>10029</v>
       </c>
@@ -4866,13 +4988,13 @@
       <c r="T40" s="10">
         <v>0</v>
       </c>
-      <c r="U40" s="12" t="s">
+      <c r="U40" s="10">
+        <v>100</v>
+      </c>
+      <c r="V40" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12">
-        <v>0</v>
-      </c>
+      <c r="W40" s="12"/>
       <c r="X40" s="12">
         <v>0</v>
       </c>
@@ -4894,8 +5016,11 @@
       <c r="AD40" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>10030</v>
       </c>
@@ -4958,13 +5083,13 @@
       <c r="T41" s="10">
         <v>0</v>
       </c>
-      <c r="U41" s="12" t="s">
+      <c r="U41" s="10">
+        <v>100</v>
+      </c>
+      <c r="V41" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12">
-        <v>0</v>
-      </c>
+      <c r="W41" s="12"/>
       <c r="X41" s="12">
         <v>0</v>
       </c>
@@ -4986,8 +5111,11 @@
       <c r="AD41" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <v>10031</v>
       </c>
@@ -5050,13 +5178,13 @@
       <c r="T42" s="10">
         <v>0</v>
       </c>
-      <c r="U42" s="12" t="s">
+      <c r="U42" s="10">
+        <v>100</v>
+      </c>
+      <c r="V42" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12">
-        <v>0</v>
-      </c>
+      <c r="W42" s="12"/>
       <c r="X42" s="12">
         <v>0</v>
       </c>
@@ -5078,8 +5206,11 @@
       <c r="AD42" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>10032</v>
       </c>
@@ -5142,13 +5273,13 @@
       <c r="T43" s="10">
         <v>0</v>
       </c>
-      <c r="U43" s="12" t="s">
+      <c r="U43" s="10">
+        <v>100</v>
+      </c>
+      <c r="V43" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12">
-        <v>0</v>
-      </c>
+      <c r="W43" s="12"/>
       <c r="X43" s="12">
         <v>0</v>
       </c>
@@ -5170,8 +5301,11 @@
       <c r="AD43" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="12">
         <v>10033</v>
       </c>
@@ -5234,13 +5368,13 @@
       <c r="T44" s="10">
         <v>0</v>
       </c>
-      <c r="U44" s="12" t="s">
+      <c r="U44" s="10">
+        <v>100</v>
+      </c>
+      <c r="V44" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12">
-        <v>0</v>
-      </c>
+      <c r="W44" s="12"/>
       <c r="X44" s="12">
         <v>0</v>
       </c>
@@ -5262,8 +5396,11 @@
       <c r="AD44" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="12">
         <v>10034</v>
       </c>
@@ -5326,13 +5463,13 @@
       <c r="T45" s="10">
         <v>0</v>
       </c>
-      <c r="U45" s="12" t="s">
+      <c r="U45" s="10">
+        <v>100</v>
+      </c>
+      <c r="V45" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12">
-        <v>0</v>
-      </c>
+      <c r="W45" s="12"/>
       <c r="X45" s="12">
         <v>0</v>
       </c>
@@ -5354,8 +5491,11 @@
       <c r="AD45" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
         <v>10035</v>
       </c>
@@ -5418,13 +5558,13 @@
       <c r="T46" s="10">
         <v>0</v>
       </c>
-      <c r="U46" s="12" t="s">
+      <c r="U46" s="10">
+        <v>100</v>
+      </c>
+      <c r="V46" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V46" s="12"/>
-      <c r="W46" s="12">
-        <v>0</v>
-      </c>
+      <c r="W46" s="12"/>
       <c r="X46" s="12">
         <v>0</v>
       </c>
@@ -5446,8 +5586,11 @@
       <c r="AD46" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="12">
         <v>10036</v>
       </c>
@@ -5510,13 +5653,13 @@
       <c r="T47" s="10">
         <v>0</v>
       </c>
-      <c r="U47" s="12" t="s">
+      <c r="U47" s="10">
+        <v>100</v>
+      </c>
+      <c r="V47" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V47" s="12"/>
-      <c r="W47" s="12">
-        <v>0</v>
-      </c>
+      <c r="W47" s="12"/>
       <c r="X47" s="12">
         <v>0</v>
       </c>
@@ -5538,8 +5681,11 @@
       <c r="AD47" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="12">
         <v>10037</v>
       </c>
@@ -5602,13 +5748,13 @@
       <c r="T48" s="10">
         <v>0</v>
       </c>
-      <c r="U48" s="12" t="s">
+      <c r="U48" s="10">
+        <v>100</v>
+      </c>
+      <c r="V48" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V48" s="12"/>
-      <c r="W48" s="12">
-        <v>0</v>
-      </c>
+      <c r="W48" s="12"/>
       <c r="X48" s="12">
         <v>0</v>
       </c>
@@ -5630,8 +5776,11 @@
       <c r="AD48" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="12">
         <v>10038</v>
       </c>
@@ -5694,13 +5843,13 @@
       <c r="T49" s="10">
         <v>0</v>
       </c>
-      <c r="U49" s="12" t="s">
+      <c r="U49" s="10">
+        <v>100</v>
+      </c>
+      <c r="V49" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12">
-        <v>0</v>
-      </c>
+      <c r="W49" s="12"/>
       <c r="X49" s="12">
         <v>0</v>
       </c>
@@ -5722,8 +5871,11 @@
       <c r="AD49" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>10039</v>
       </c>
@@ -5786,13 +5938,13 @@
       <c r="T50" s="10">
         <v>0</v>
       </c>
-      <c r="U50" s="12" t="s">
+      <c r="U50" s="10">
+        <v>100</v>
+      </c>
+      <c r="V50" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V50" s="12"/>
-      <c r="W50" s="12">
-        <v>0</v>
-      </c>
+      <c r="W50" s="12"/>
       <c r="X50" s="12">
         <v>0</v>
       </c>
@@ -5814,8 +5966,11 @@
       <c r="AD50" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <v>10040</v>
       </c>
@@ -5878,13 +6033,13 @@
       <c r="T51" s="10">
         <v>0</v>
       </c>
-      <c r="U51" s="12" t="s">
+      <c r="U51" s="10">
+        <v>100</v>
+      </c>
+      <c r="V51" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12">
-        <v>0</v>
-      </c>
+      <c r="W51" s="12"/>
       <c r="X51" s="12">
         <v>0</v>
       </c>
@@ -5906,8 +6061,11 @@
       <c r="AD51" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <v>10041</v>
       </c>
@@ -5970,13 +6128,13 @@
       <c r="T52" s="10">
         <v>0</v>
       </c>
-      <c r="U52" s="12" t="s">
+      <c r="U52" s="10">
+        <v>100</v>
+      </c>
+      <c r="V52" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V52" s="12"/>
-      <c r="W52" s="12">
-        <v>0</v>
-      </c>
+      <c r="W52" s="12"/>
       <c r="X52" s="12">
         <v>0</v>
       </c>
@@ -5998,8 +6156,11 @@
       <c r="AD52" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>10042</v>
       </c>
@@ -6062,13 +6223,13 @@
       <c r="T53" s="10">
         <v>0</v>
       </c>
-      <c r="U53" s="12" t="s">
+      <c r="U53" s="10">
+        <v>100</v>
+      </c>
+      <c r="V53" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V53" s="12"/>
-      <c r="W53" s="12">
-        <v>0</v>
-      </c>
+      <c r="W53" s="12"/>
       <c r="X53" s="12">
         <v>0</v>
       </c>
@@ -6090,8 +6251,11 @@
       <c r="AD53" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>10043</v>
       </c>
@@ -6154,13 +6318,13 @@
       <c r="T54" s="10">
         <v>0</v>
       </c>
-      <c r="U54" s="12" t="s">
+      <c r="U54" s="10">
+        <v>100</v>
+      </c>
+      <c r="V54" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V54" s="12"/>
-      <c r="W54" s="12">
-        <v>0</v>
-      </c>
+      <c r="W54" s="12"/>
       <c r="X54" s="12">
         <v>0</v>
       </c>
@@ -6182,8 +6346,11 @@
       <c r="AD54" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>10044</v>
       </c>
@@ -6246,13 +6413,13 @@
       <c r="T55" s="10">
         <v>0</v>
       </c>
-      <c r="U55" s="12" t="s">
+      <c r="U55" s="10">
+        <v>100</v>
+      </c>
+      <c r="V55" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V55" s="12"/>
-      <c r="W55" s="12">
-        <v>0</v>
-      </c>
+      <c r="W55" s="12"/>
       <c r="X55" s="12">
         <v>0</v>
       </c>
@@ -6274,8 +6441,11 @@
       <c r="AD55" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <v>10045</v>
       </c>
@@ -6338,13 +6508,13 @@
       <c r="T56" s="10">
         <v>0</v>
       </c>
-      <c r="U56" s="12" t="s">
+      <c r="U56" s="10">
+        <v>100</v>
+      </c>
+      <c r="V56" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12">
-        <v>0</v>
-      </c>
+      <c r="W56" s="12"/>
       <c r="X56" s="12">
         <v>0</v>
       </c>
@@ -6366,8 +6536,11 @@
       <c r="AD56" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A57" s="12">
         <v>10046</v>
       </c>
@@ -6430,13 +6603,13 @@
       <c r="T57" s="10">
         <v>0</v>
       </c>
-      <c r="U57" s="12" t="s">
+      <c r="U57" s="10">
+        <v>100</v>
+      </c>
+      <c r="V57" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12">
-        <v>0</v>
-      </c>
+      <c r="W57" s="12"/>
       <c r="X57" s="12">
         <v>0</v>
       </c>
@@ -6458,8 +6631,11 @@
       <c r="AD57" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A58" s="12">
         <v>10047</v>
       </c>
@@ -6522,13 +6698,13 @@
       <c r="T58" s="10">
         <v>0</v>
       </c>
-      <c r="U58" s="12" t="s">
+      <c r="U58" s="10">
+        <v>100</v>
+      </c>
+      <c r="V58" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12">
-        <v>0</v>
-      </c>
+      <c r="W58" s="12"/>
       <c r="X58" s="12">
         <v>0</v>
       </c>
@@ -6550,8 +6726,11 @@
       <c r="AD58" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE58" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A59" s="12">
         <v>10048</v>
       </c>
@@ -6614,13 +6793,13 @@
       <c r="T59" s="10">
         <v>0</v>
       </c>
-      <c r="U59" s="12" t="s">
+      <c r="U59" s="10">
+        <v>100</v>
+      </c>
+      <c r="V59" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V59" s="12"/>
-      <c r="W59" s="12">
-        <v>0</v>
-      </c>
+      <c r="W59" s="12"/>
       <c r="X59" s="12">
         <v>0</v>
       </c>
@@ -6642,8 +6821,11 @@
       <c r="AD59" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A60" s="12">
         <v>10049</v>
       </c>
@@ -6706,13 +6888,13 @@
       <c r="T60" s="10">
         <v>0</v>
       </c>
-      <c r="U60" s="12" t="s">
+      <c r="U60" s="10">
+        <v>100</v>
+      </c>
+      <c r="V60" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V60" s="12"/>
-      <c r="W60" s="12">
-        <v>0</v>
-      </c>
+      <c r="W60" s="12"/>
       <c r="X60" s="12">
         <v>0</v>
       </c>
@@ -6734,8 +6916,11 @@
       <c r="AD60" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A61" s="12">
         <v>10050</v>
       </c>
@@ -6798,13 +6983,13 @@
       <c r="T61" s="10">
         <v>0</v>
       </c>
-      <c r="U61" s="12" t="s">
+      <c r="U61" s="10">
+        <v>100</v>
+      </c>
+      <c r="V61" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V61" s="12"/>
-      <c r="W61" s="12">
-        <v>0</v>
-      </c>
+      <c r="W61" s="12"/>
       <c r="X61" s="12">
         <v>0</v>
       </c>
@@ -6826,8 +7011,11 @@
       <c r="AD61" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A62" s="12">
         <v>10051</v>
       </c>
@@ -6890,13 +7078,13 @@
       <c r="T62" s="10">
         <v>0</v>
       </c>
-      <c r="U62" s="12" t="s">
+      <c r="U62" s="10">
+        <v>100</v>
+      </c>
+      <c r="V62" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V62" s="12"/>
-      <c r="W62" s="12">
-        <v>0</v>
-      </c>
+      <c r="W62" s="12"/>
       <c r="X62" s="12">
         <v>0</v>
       </c>
@@ -6918,8 +7106,11 @@
       <c r="AD62" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A63" s="12">
         <v>10052</v>
       </c>
@@ -6982,13 +7173,13 @@
       <c r="T63" s="10">
         <v>0</v>
       </c>
-      <c r="U63" s="12" t="s">
+      <c r="U63" s="10">
+        <v>100</v>
+      </c>
+      <c r="V63" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V63" s="12"/>
-      <c r="W63" s="12">
-        <v>0</v>
-      </c>
+      <c r="W63" s="12"/>
       <c r="X63" s="12">
         <v>0</v>
       </c>
@@ -7010,8 +7201,11 @@
       <c r="AD63" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A64" s="12">
         <v>10053</v>
       </c>
@@ -7074,13 +7268,13 @@
       <c r="T64" s="10">
         <v>0</v>
       </c>
-      <c r="U64" s="12" t="s">
+      <c r="U64" s="10">
+        <v>100</v>
+      </c>
+      <c r="V64" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V64" s="12"/>
-      <c r="W64" s="12">
-        <v>0</v>
-      </c>
+      <c r="W64" s="12"/>
       <c r="X64" s="12">
         <v>0</v>
       </c>
@@ -7102,8 +7296,11 @@
       <c r="AD64" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A65" s="12">
         <v>10054</v>
       </c>
@@ -7166,13 +7363,13 @@
       <c r="T65" s="10">
         <v>0</v>
       </c>
-      <c r="U65" s="12" t="s">
+      <c r="U65" s="10">
+        <v>100</v>
+      </c>
+      <c r="V65" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V65" s="12"/>
-      <c r="W65" s="12">
-        <v>0</v>
-      </c>
+      <c r="W65" s="12"/>
       <c r="X65" s="12">
         <v>0</v>
       </c>
@@ -7194,8 +7391,11 @@
       <c r="AD65" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE65" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A66" s="12">
         <v>10055</v>
       </c>
@@ -7258,13 +7458,13 @@
       <c r="T66" s="10">
         <v>0</v>
       </c>
-      <c r="U66" s="12" t="s">
+      <c r="U66" s="10">
+        <v>100</v>
+      </c>
+      <c r="V66" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V66" s="12"/>
-      <c r="W66" s="12">
-        <v>0</v>
-      </c>
+      <c r="W66" s="12"/>
       <c r="X66" s="12">
         <v>0</v>
       </c>
@@ -7286,8 +7486,11 @@
       <c r="AD66" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A67" s="12">
         <v>10056</v>
       </c>
@@ -7350,13 +7553,13 @@
       <c r="T67" s="10">
         <v>0</v>
       </c>
-      <c r="U67" s="12" t="s">
+      <c r="U67" s="10">
+        <v>100</v>
+      </c>
+      <c r="V67" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V67" s="12"/>
-      <c r="W67" s="12">
-        <v>0</v>
-      </c>
+      <c r="W67" s="12"/>
       <c r="X67" s="12">
         <v>0</v>
       </c>
@@ -7378,8 +7581,11 @@
       <c r="AD67" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE67" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>10057</v>
       </c>
@@ -7442,13 +7648,13 @@
       <c r="T68" s="10">
         <v>0</v>
       </c>
-      <c r="U68" s="12" t="s">
+      <c r="U68" s="10">
+        <v>100</v>
+      </c>
+      <c r="V68" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V68" s="12"/>
-      <c r="W68" s="12">
-        <v>0</v>
-      </c>
+      <c r="W68" s="12"/>
       <c r="X68" s="12">
         <v>0</v>
       </c>
@@ -7470,8 +7676,11 @@
       <c r="AD68" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE68" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A69" s="12">
         <v>10058</v>
       </c>
@@ -7534,13 +7743,13 @@
       <c r="T69" s="10">
         <v>0</v>
       </c>
-      <c r="U69" s="12" t="s">
+      <c r="U69" s="10">
+        <v>100</v>
+      </c>
+      <c r="V69" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V69" s="12"/>
-      <c r="W69" s="12">
-        <v>0</v>
-      </c>
+      <c r="W69" s="12"/>
       <c r="X69" s="12">
         <v>0</v>
       </c>
@@ -7562,8 +7771,11 @@
       <c r="AD69" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE69" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A70" s="12">
         <v>10059</v>
       </c>
@@ -7626,13 +7838,13 @@
       <c r="T70" s="10">
         <v>0</v>
       </c>
-      <c r="U70" s="12" t="s">
+      <c r="U70" s="10">
+        <v>100</v>
+      </c>
+      <c r="V70" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V70" s="12"/>
-      <c r="W70" s="12">
-        <v>0</v>
-      </c>
+      <c r="W70" s="12"/>
       <c r="X70" s="12">
         <v>0</v>
       </c>
@@ -7654,8 +7866,11 @@
       <c r="AD70" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE70" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A71" s="12">
         <v>10060</v>
       </c>
@@ -7718,13 +7933,13 @@
       <c r="T71" s="10">
         <v>0</v>
       </c>
-      <c r="U71" s="12" t="s">
+      <c r="U71" s="10">
+        <v>100</v>
+      </c>
+      <c r="V71" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V71" s="12"/>
-      <c r="W71" s="12">
-        <v>0</v>
-      </c>
+      <c r="W71" s="12"/>
       <c r="X71" s="12">
         <v>0</v>
       </c>
@@ -7746,8 +7961,11 @@
       <c r="AD71" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE71" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A72" s="12">
         <v>10061</v>
       </c>
@@ -7810,13 +8028,13 @@
       <c r="T72" s="10">
         <v>0</v>
       </c>
-      <c r="U72" s="12" t="s">
+      <c r="U72" s="10">
+        <v>100</v>
+      </c>
+      <c r="V72" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V72" s="12"/>
-      <c r="W72" s="12">
-        <v>0</v>
-      </c>
+      <c r="W72" s="12"/>
       <c r="X72" s="12">
         <v>0</v>
       </c>
@@ -7838,8 +8056,11 @@
       <c r="AD72" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE72" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A73" s="12">
         <v>10062</v>
       </c>
@@ -7902,13 +8123,13 @@
       <c r="T73" s="10">
         <v>0</v>
       </c>
-      <c r="U73" s="12" t="s">
+      <c r="U73" s="10">
+        <v>100</v>
+      </c>
+      <c r="V73" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V73" s="12"/>
-      <c r="W73" s="12">
-        <v>0</v>
-      </c>
+      <c r="W73" s="12"/>
       <c r="X73" s="12">
         <v>0</v>
       </c>
@@ -7930,8 +8151,11 @@
       <c r="AD73" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A74" s="12">
         <v>10063</v>
       </c>
@@ -7994,13 +8218,13 @@
       <c r="T74" s="10">
         <v>0</v>
       </c>
-      <c r="U74" s="12" t="s">
+      <c r="U74" s="10">
+        <v>100</v>
+      </c>
+      <c r="V74" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V74" s="12"/>
-      <c r="W74" s="12">
-        <v>0</v>
-      </c>
+      <c r="W74" s="12"/>
       <c r="X74" s="12">
         <v>0</v>
       </c>
@@ -8022,8 +8246,11 @@
       <c r="AD74" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A75" s="12">
         <v>10064</v>
       </c>
@@ -8086,13 +8313,13 @@
       <c r="T75" s="10">
         <v>0</v>
       </c>
-      <c r="U75" s="12" t="s">
+      <c r="U75" s="10">
+        <v>100</v>
+      </c>
+      <c r="V75" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V75" s="12"/>
-      <c r="W75" s="12">
-        <v>0</v>
-      </c>
+      <c r="W75" s="12"/>
       <c r="X75" s="12">
         <v>0</v>
       </c>
@@ -8114,8 +8341,11 @@
       <c r="AD75" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE75" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A76" s="12">
         <v>10065</v>
       </c>
@@ -8178,13 +8408,13 @@
       <c r="T76" s="10">
         <v>0</v>
       </c>
-      <c r="U76" s="12" t="s">
+      <c r="U76" s="10">
+        <v>100</v>
+      </c>
+      <c r="V76" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V76" s="12"/>
-      <c r="W76" s="12">
-        <v>0</v>
-      </c>
+      <c r="W76" s="12"/>
       <c r="X76" s="12">
         <v>0</v>
       </c>
@@ -8206,8 +8436,11 @@
       <c r="AD76" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE76" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A77" s="12">
         <v>10066</v>
       </c>
@@ -8270,13 +8503,13 @@
       <c r="T77" s="10">
         <v>0</v>
       </c>
-      <c r="U77" s="12" t="s">
+      <c r="U77" s="10">
+        <v>100</v>
+      </c>
+      <c r="V77" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V77" s="12"/>
-      <c r="W77" s="12">
-        <v>0</v>
-      </c>
+      <c r="W77" s="12"/>
       <c r="X77" s="12">
         <v>0</v>
       </c>
@@ -8298,8 +8531,11 @@
       <c r="AD77" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE77" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A78" s="12">
         <v>10067</v>
       </c>
@@ -8362,13 +8598,13 @@
       <c r="T78" s="10">
         <v>0</v>
       </c>
-      <c r="U78" s="12" t="s">
+      <c r="U78" s="10">
+        <v>100</v>
+      </c>
+      <c r="V78" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V78" s="12"/>
-      <c r="W78" s="12">
-        <v>0</v>
-      </c>
+      <c r="W78" s="12"/>
       <c r="X78" s="12">
         <v>0</v>
       </c>
@@ -8390,8 +8626,11 @@
       <c r="AD78" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE78" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A79" s="12">
         <v>10068</v>
       </c>
@@ -8454,13 +8693,13 @@
       <c r="T79" s="10">
         <v>0</v>
       </c>
-      <c r="U79" s="12" t="s">
+      <c r="U79" s="10">
+        <v>100</v>
+      </c>
+      <c r="V79" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V79" s="12"/>
-      <c r="W79" s="12">
-        <v>0</v>
-      </c>
+      <c r="W79" s="12"/>
       <c r="X79" s="12">
         <v>0</v>
       </c>
@@ -8482,8 +8721,11 @@
       <c r="AD79" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE79" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A80" s="12">
         <v>10069</v>
       </c>
@@ -8546,13 +8788,13 @@
       <c r="T80" s="10">
         <v>0</v>
       </c>
-      <c r="U80" s="12" t="s">
+      <c r="U80" s="10">
+        <v>100</v>
+      </c>
+      <c r="V80" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V80" s="12"/>
-      <c r="W80" s="12">
-        <v>0</v>
-      </c>
+      <c r="W80" s="12"/>
       <c r="X80" s="12">
         <v>0</v>
       </c>
@@ -8574,8 +8816,11 @@
       <c r="AD80" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE80" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A81" s="12">
         <v>10070</v>
       </c>
@@ -8638,13 +8883,13 @@
       <c r="T81" s="10">
         <v>0</v>
       </c>
-      <c r="U81" s="12" t="s">
+      <c r="U81" s="10">
+        <v>100</v>
+      </c>
+      <c r="V81" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V81" s="12"/>
-      <c r="W81" s="12">
-        <v>0</v>
-      </c>
+      <c r="W81" s="12"/>
       <c r="X81" s="12">
         <v>0</v>
       </c>
@@ -8666,8 +8911,11 @@
       <c r="AD81" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE81" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A82" s="12">
         <v>10071</v>
       </c>
@@ -8730,13 +8978,13 @@
       <c r="T82" s="10">
         <v>0</v>
       </c>
-      <c r="U82" s="12" t="s">
+      <c r="U82" s="10">
+        <v>100</v>
+      </c>
+      <c r="V82" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V82" s="12"/>
-      <c r="W82" s="12">
-        <v>0</v>
-      </c>
+      <c r="W82" s="12"/>
       <c r="X82" s="12">
         <v>0</v>
       </c>
@@ -8758,8 +9006,11 @@
       <c r="AD82" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE82" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A83" s="12">
         <v>10072</v>
       </c>
@@ -8822,13 +9073,13 @@
       <c r="T83" s="10">
         <v>0</v>
       </c>
-      <c r="U83" s="12" t="s">
+      <c r="U83" s="10">
+        <v>100</v>
+      </c>
+      <c r="V83" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V83" s="12"/>
-      <c r="W83" s="12">
-        <v>0</v>
-      </c>
+      <c r="W83" s="12"/>
       <c r="X83" s="12">
         <v>0</v>
       </c>
@@ -8850,8 +9101,11 @@
       <c r="AD83" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE83" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A84" s="12">
         <v>10073</v>
       </c>
@@ -8914,13 +9168,13 @@
       <c r="T84" s="10">
         <v>0</v>
       </c>
-      <c r="U84" s="12" t="s">
+      <c r="U84" s="10">
+        <v>100</v>
+      </c>
+      <c r="V84" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V84" s="12"/>
-      <c r="W84" s="12">
-        <v>0</v>
-      </c>
+      <c r="W84" s="12"/>
       <c r="X84" s="12">
         <v>0</v>
       </c>
@@ -8942,8 +9196,11 @@
       <c r="AD84" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE84" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A85" s="12">
         <v>10074</v>
       </c>
@@ -9006,13 +9263,13 @@
       <c r="T85" s="10">
         <v>0</v>
       </c>
-      <c r="U85" s="12" t="s">
+      <c r="U85" s="10">
+        <v>100</v>
+      </c>
+      <c r="V85" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V85" s="12"/>
-      <c r="W85" s="12">
-        <v>0</v>
-      </c>
+      <c r="W85" s="12"/>
       <c r="X85" s="12">
         <v>0</v>
       </c>
@@ -9034,8 +9291,11 @@
       <c r="AD85" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE85" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A86" s="12">
         <v>10075</v>
       </c>
@@ -9098,13 +9358,13 @@
       <c r="T86" s="10">
         <v>0</v>
       </c>
-      <c r="U86" s="12" t="s">
+      <c r="U86" s="10">
+        <v>100</v>
+      </c>
+      <c r="V86" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V86" s="12"/>
-      <c r="W86" s="12">
-        <v>0</v>
-      </c>
+      <c r="W86" s="12"/>
       <c r="X86" s="12">
         <v>0</v>
       </c>
@@ -9126,8 +9386,11 @@
       <c r="AD86" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE86" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A87" s="12">
         <v>10076</v>
       </c>
@@ -9190,13 +9453,13 @@
       <c r="T87" s="10">
         <v>0</v>
       </c>
-      <c r="U87" s="12" t="s">
+      <c r="U87" s="10">
+        <v>100</v>
+      </c>
+      <c r="V87" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V87" s="12"/>
-      <c r="W87" s="12">
-        <v>0</v>
-      </c>
+      <c r="W87" s="12"/>
       <c r="X87" s="12">
         <v>0</v>
       </c>
@@ -9218,8 +9481,11 @@
       <c r="AD87" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE87" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A88" s="12">
         <v>10077</v>
       </c>
@@ -9282,13 +9548,13 @@
       <c r="T88" s="10">
         <v>0</v>
       </c>
-      <c r="U88" s="12" t="s">
+      <c r="U88" s="10">
+        <v>100</v>
+      </c>
+      <c r="V88" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V88" s="12"/>
-      <c r="W88" s="12">
-        <v>0</v>
-      </c>
+      <c r="W88" s="12"/>
       <c r="X88" s="12">
         <v>0</v>
       </c>
@@ -9310,8 +9576,11 @@
       <c r="AD88" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE88" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A89" s="12">
         <v>10078</v>
       </c>
@@ -9374,13 +9643,13 @@
       <c r="T89" s="10">
         <v>0</v>
       </c>
-      <c r="U89" s="12" t="s">
+      <c r="U89" s="10">
+        <v>100</v>
+      </c>
+      <c r="V89" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V89" s="12"/>
-      <c r="W89" s="12">
-        <v>0</v>
-      </c>
+      <c r="W89" s="12"/>
       <c r="X89" s="12">
         <v>0</v>
       </c>
@@ -9402,8 +9671,11 @@
       <c r="AD89" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE89" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A90" s="12">
         <v>10079</v>
       </c>
@@ -9466,13 +9738,13 @@
       <c r="T90" s="10">
         <v>0</v>
       </c>
-      <c r="U90" s="12" t="s">
+      <c r="U90" s="10">
+        <v>100</v>
+      </c>
+      <c r="V90" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V90" s="12"/>
-      <c r="W90" s="12">
-        <v>0</v>
-      </c>
+      <c r="W90" s="12"/>
       <c r="X90" s="12">
         <v>0</v>
       </c>
@@ -9494,8 +9766,11 @@
       <c r="AD90" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE90" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A91" s="12">
         <v>10080</v>
       </c>
@@ -9558,13 +9833,13 @@
       <c r="T91" s="10">
         <v>0</v>
       </c>
-      <c r="U91" s="12" t="s">
+      <c r="U91" s="10">
+        <v>100</v>
+      </c>
+      <c r="V91" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V91" s="12"/>
-      <c r="W91" s="12">
-        <v>0</v>
-      </c>
+      <c r="W91" s="12"/>
       <c r="X91" s="12">
         <v>0</v>
       </c>
@@ -9586,8 +9861,11 @@
       <c r="AD91" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE91" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A92" s="12">
         <v>10081</v>
       </c>
@@ -9650,13 +9928,13 @@
       <c r="T92" s="10">
         <v>0</v>
       </c>
-      <c r="U92" s="12" t="s">
+      <c r="U92" s="10">
+        <v>100</v>
+      </c>
+      <c r="V92" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V92" s="12"/>
-      <c r="W92" s="12">
-        <v>0</v>
-      </c>
+      <c r="W92" s="12"/>
       <c r="X92" s="12">
         <v>0</v>
       </c>
@@ -9678,8 +9956,11 @@
       <c r="AD92" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE92" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A93" s="12">
         <v>10082</v>
       </c>
@@ -9742,13 +10023,13 @@
       <c r="T93" s="10">
         <v>0</v>
       </c>
-      <c r="U93" s="12" t="s">
+      <c r="U93" s="10">
+        <v>100</v>
+      </c>
+      <c r="V93" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V93" s="12"/>
-      <c r="W93" s="12">
-        <v>0</v>
-      </c>
+      <c r="W93" s="12"/>
       <c r="X93" s="12">
         <v>0</v>
       </c>
@@ -9770,8 +10051,11 @@
       <c r="AD93" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE93" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A94" s="12">
         <v>10083</v>
       </c>
@@ -9834,13 +10118,13 @@
       <c r="T94" s="10">
         <v>0</v>
       </c>
-      <c r="U94" s="12" t="s">
+      <c r="U94" s="10">
+        <v>100</v>
+      </c>
+      <c r="V94" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V94" s="12"/>
-      <c r="W94" s="12">
-        <v>0</v>
-      </c>
+      <c r="W94" s="12"/>
       <c r="X94" s="12">
         <v>0</v>
       </c>
@@ -9862,8 +10146,11 @@
       <c r="AD94" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE94" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A95" s="12">
         <v>10084</v>
       </c>
@@ -9926,13 +10213,13 @@
       <c r="T95" s="10">
         <v>0</v>
       </c>
-      <c r="U95" s="12" t="s">
+      <c r="U95" s="10">
+        <v>100</v>
+      </c>
+      <c r="V95" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V95" s="12"/>
-      <c r="W95" s="12">
-        <v>0</v>
-      </c>
+      <c r="W95" s="12"/>
       <c r="X95" s="12">
         <v>0</v>
       </c>
@@ -9954,8 +10241,11 @@
       <c r="AD95" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE95" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A96" s="12">
         <v>10085</v>
       </c>
@@ -10018,13 +10308,13 @@
       <c r="T96" s="10">
         <v>0</v>
       </c>
-      <c r="U96" s="12" t="s">
+      <c r="U96" s="10">
+        <v>100</v>
+      </c>
+      <c r="V96" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V96" s="12"/>
-      <c r="W96" s="12">
-        <v>0</v>
-      </c>
+      <c r="W96" s="12"/>
       <c r="X96" s="12">
         <v>0</v>
       </c>
@@ -10046,8 +10336,11 @@
       <c r="AD96" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE96" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A97" s="12">
         <v>10086</v>
       </c>
@@ -10110,13 +10403,13 @@
       <c r="T97" s="10">
         <v>0</v>
       </c>
-      <c r="U97" s="12" t="s">
+      <c r="U97" s="10">
+        <v>100</v>
+      </c>
+      <c r="V97" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V97" s="12"/>
-      <c r="W97" s="12">
-        <v>0</v>
-      </c>
+      <c r="W97" s="12"/>
       <c r="X97" s="12">
         <v>0</v>
       </c>
@@ -10138,8 +10431,11 @@
       <c r="AD97" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE97" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A98" s="12">
         <v>10087</v>
       </c>
@@ -10202,13 +10498,13 @@
       <c r="T98" s="10">
         <v>0</v>
       </c>
-      <c r="U98" s="12" t="s">
+      <c r="U98" s="10">
+        <v>100</v>
+      </c>
+      <c r="V98" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V98" s="12"/>
-      <c r="W98" s="12">
-        <v>0</v>
-      </c>
+      <c r="W98" s="12"/>
       <c r="X98" s="12">
         <v>0</v>
       </c>
@@ -10230,8 +10526,11 @@
       <c r="AD98" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE98" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A99" s="12">
         <v>10088</v>
       </c>
@@ -10294,13 +10593,13 @@
       <c r="T99" s="10">
         <v>0</v>
       </c>
-      <c r="U99" s="12" t="s">
+      <c r="U99" s="10">
+        <v>100</v>
+      </c>
+      <c r="V99" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V99" s="12"/>
-      <c r="W99" s="12">
-        <v>0</v>
-      </c>
+      <c r="W99" s="12"/>
       <c r="X99" s="12">
         <v>0</v>
       </c>
@@ -10322,8 +10621,11 @@
       <c r="AD99" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE99" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A100" s="12">
         <v>10089</v>
       </c>
@@ -10386,13 +10688,13 @@
       <c r="T100" s="10">
         <v>0</v>
       </c>
-      <c r="U100" s="12" t="s">
+      <c r="U100" s="10">
+        <v>100</v>
+      </c>
+      <c r="V100" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V100" s="12"/>
-      <c r="W100" s="12">
-        <v>0</v>
-      </c>
+      <c r="W100" s="12"/>
       <c r="X100" s="12">
         <v>0</v>
       </c>
@@ -10414,8 +10716,11 @@
       <c r="AD100" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE100" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A101" s="12">
         <v>10090</v>
       </c>
@@ -10478,13 +10783,13 @@
       <c r="T101" s="10">
         <v>0</v>
       </c>
-      <c r="U101" s="12" t="s">
+      <c r="U101" s="10">
+        <v>100</v>
+      </c>
+      <c r="V101" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V101" s="12"/>
-      <c r="W101" s="12">
-        <v>0</v>
-      </c>
+      <c r="W101" s="12"/>
       <c r="X101" s="12">
         <v>0</v>
       </c>
@@ -10506,8 +10811,11 @@
       <c r="AD101" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE101" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A102" s="12">
         <v>10091</v>
       </c>
@@ -10570,13 +10878,13 @@
       <c r="T102" s="10">
         <v>0</v>
       </c>
-      <c r="U102" s="12" t="s">
+      <c r="U102" s="10">
+        <v>100</v>
+      </c>
+      <c r="V102" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V102" s="12"/>
-      <c r="W102" s="12">
-        <v>0</v>
-      </c>
+      <c r="W102" s="12"/>
       <c r="X102" s="12">
         <v>0</v>
       </c>
@@ -10598,8 +10906,11 @@
       <c r="AD102" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE102" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A103" s="12">
         <v>10092</v>
       </c>
@@ -10662,13 +10973,13 @@
       <c r="T103" s="10">
         <v>0</v>
       </c>
-      <c r="U103" s="12" t="s">
+      <c r="U103" s="10">
+        <v>100</v>
+      </c>
+      <c r="V103" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V103" s="12"/>
-      <c r="W103" s="12">
-        <v>0</v>
-      </c>
+      <c r="W103" s="12"/>
       <c r="X103" s="12">
         <v>0</v>
       </c>
@@ -10690,8 +11001,11 @@
       <c r="AD103" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE103" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A104" s="12">
         <v>10093</v>
       </c>
@@ -10754,13 +11068,13 @@
       <c r="T104" s="10">
         <v>0</v>
       </c>
-      <c r="U104" s="12" t="s">
+      <c r="U104" s="10">
+        <v>100</v>
+      </c>
+      <c r="V104" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V104" s="12"/>
-      <c r="W104" s="12">
-        <v>0</v>
-      </c>
+      <c r="W104" s="12"/>
       <c r="X104" s="12">
         <v>0</v>
       </c>
@@ -10782,8 +11096,11 @@
       <c r="AD104" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE104" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A105" s="12">
         <v>10094</v>
       </c>
@@ -10846,13 +11163,13 @@
       <c r="T105" s="10">
         <v>0</v>
       </c>
-      <c r="U105" s="12" t="s">
+      <c r="U105" s="10">
+        <v>100</v>
+      </c>
+      <c r="V105" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V105" s="12"/>
-      <c r="W105" s="12">
-        <v>0</v>
-      </c>
+      <c r="W105" s="12"/>
       <c r="X105" s="12">
         <v>0</v>
       </c>
@@ -10874,8 +11191,11 @@
       <c r="AD105" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE105" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A106" s="12">
         <v>10095</v>
       </c>
@@ -10938,13 +11258,13 @@
       <c r="T106" s="10">
         <v>0</v>
       </c>
-      <c r="U106" s="12" t="s">
+      <c r="U106" s="10">
+        <v>100</v>
+      </c>
+      <c r="V106" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V106" s="12"/>
-      <c r="W106" s="12">
-        <v>0</v>
-      </c>
+      <c r="W106" s="12"/>
       <c r="X106" s="12">
         <v>0</v>
       </c>
@@ -10966,8 +11286,11 @@
       <c r="AD106" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE106" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A107" s="12">
         <v>10096</v>
       </c>
@@ -11030,13 +11353,13 @@
       <c r="T107" s="10">
         <v>0</v>
       </c>
-      <c r="U107" s="12" t="s">
+      <c r="U107" s="10">
+        <v>100</v>
+      </c>
+      <c r="V107" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V107" s="12"/>
-      <c r="W107" s="12">
-        <v>0</v>
-      </c>
+      <c r="W107" s="12"/>
       <c r="X107" s="12">
         <v>0</v>
       </c>
@@ -11058,8 +11381,11 @@
       <c r="AD107" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE107" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A108" s="12">
         <v>10097</v>
       </c>
@@ -11122,13 +11448,13 @@
       <c r="T108" s="10">
         <v>0</v>
       </c>
-      <c r="U108" s="12" t="s">
+      <c r="U108" s="10">
+        <v>100</v>
+      </c>
+      <c r="V108" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V108" s="12"/>
-      <c r="W108" s="12">
-        <v>0</v>
-      </c>
+      <c r="W108" s="12"/>
       <c r="X108" s="12">
         <v>0</v>
       </c>
@@ -11150,8 +11476,11 @@
       <c r="AD108" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE108" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A109" s="12">
         <v>10098</v>
       </c>
@@ -11214,13 +11543,13 @@
       <c r="T109" s="10">
         <v>0</v>
       </c>
-      <c r="U109" s="12" t="s">
+      <c r="U109" s="10">
+        <v>100</v>
+      </c>
+      <c r="V109" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V109" s="12"/>
-      <c r="W109" s="12">
-        <v>0</v>
-      </c>
+      <c r="W109" s="12"/>
       <c r="X109" s="12">
         <v>0</v>
       </c>
@@ -11242,8 +11571,11 @@
       <c r="AD109" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE109" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A110" s="12">
         <v>10099</v>
       </c>
@@ -11306,13 +11638,13 @@
       <c r="T110" s="10">
         <v>0</v>
       </c>
-      <c r="U110" s="12" t="s">
+      <c r="U110" s="10">
+        <v>100</v>
+      </c>
+      <c r="V110" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V110" s="12"/>
-      <c r="W110" s="12">
-        <v>0</v>
-      </c>
+      <c r="W110" s="12"/>
       <c r="X110" s="12">
         <v>0</v>
       </c>
@@ -11334,8 +11666,11 @@
       <c r="AD110" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE110" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A111" s="12">
         <v>20000</v>
       </c>
@@ -11396,13 +11731,13 @@
       <c r="T111" s="10">
         <v>0</v>
       </c>
-      <c r="U111" s="12" t="s">
+      <c r="U111" s="10">
+        <v>100</v>
+      </c>
+      <c r="V111" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="V111" s="12"/>
-      <c r="W111" s="12">
-        <v>0</v>
-      </c>
+      <c r="W111" s="12"/>
       <c r="X111" s="12">
         <v>0</v>
       </c>
@@ -11424,8 +11759,11 @@
       <c r="AD111" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE111" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A112" s="12">
         <v>20001</v>
       </c>
@@ -11486,13 +11824,13 @@
       <c r="T112" s="10">
         <v>0</v>
       </c>
-      <c r="U112" s="12" t="s">
+      <c r="U112" s="10">
+        <v>100</v>
+      </c>
+      <c r="V112" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="V112" s="12"/>
-      <c r="W112" s="12">
-        <v>0</v>
-      </c>
+      <c r="W112" s="12"/>
       <c r="X112" s="12">
         <v>0</v>
       </c>
@@ -11514,8 +11852,11 @@
       <c r="AD112" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE112" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A113" s="12">
         <v>20002</v>
       </c>
@@ -11576,13 +11917,13 @@
       <c r="T113" s="10">
         <v>0</v>
       </c>
-      <c r="U113" s="12" t="s">
+      <c r="U113" s="10">
+        <v>100</v>
+      </c>
+      <c r="V113" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="V113" s="12"/>
-      <c r="W113" s="12">
-        <v>0</v>
-      </c>
+      <c r="W113" s="12"/>
       <c r="X113" s="12">
         <v>0</v>
       </c>
@@ -11604,8 +11945,11 @@
       <c r="AD113" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE113" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A114" s="12">
         <v>20003</v>
       </c>
@@ -11666,13 +12010,13 @@
       <c r="T114" s="10">
         <v>0</v>
       </c>
-      <c r="U114" s="12" t="s">
+      <c r="U114" s="10">
+        <v>100</v>
+      </c>
+      <c r="V114" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="V114" s="12"/>
-      <c r="W114" s="12">
-        <v>0</v>
-      </c>
+      <c r="W114" s="12"/>
       <c r="X114" s="12">
         <v>0</v>
       </c>
@@ -11694,8 +12038,11 @@
       <c r="AD114" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE114" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A115" s="12">
         <v>40000</v>
       </c>
@@ -11756,15 +12103,15 @@
       <c r="T115" s="10">
         <v>0</v>
       </c>
-      <c r="U115" s="12" t="s">
+      <c r="U115" s="10">
+        <v>100</v>
+      </c>
+      <c r="V115" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="V115" s="12" t="s">
+      <c r="W115" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="W115" s="12">
-        <v>0</v>
-      </c>
       <c r="X115" s="12">
         <v>0</v>
       </c>
@@ -11786,8 +12133,11 @@
       <c r="AD115" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AE115" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A116" s="12">
         <v>50000</v>
       </c>
@@ -11848,15 +12198,15 @@
       <c r="T116" s="10">
         <v>0</v>
       </c>
-      <c r="U116" s="12" t="s">
+      <c r="U116" s="10">
+        <v>100</v>
+      </c>
+      <c r="V116" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="V116" s="12" t="s">
+      <c r="W116" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="W116" s="12">
-        <v>0</v>
-      </c>
       <c r="X116" s="12">
         <v>0</v>
       </c>
@@ -11876,6 +12226,9 @@
         <v>0</v>
       </c>
       <c r="AD116" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE116" s="12">
         <v>0</v>
       </c>
     </row>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3810" windowWidth="14805" windowHeight="10215"/>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -717,14 +717,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>“10000-10000”</t>
-  </si>
-  <si>
-    <t>“10000-10000:10001-500”</t>
-  </si>
-  <si>
     <t>掉落池</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“10000-1-10000”</t>
+  </si>
+  <si>
+    <t>“10000-1-10000:10001-1-500”</t>
   </si>
 </sst>
 </file>
@@ -924,7 +924,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -966,7 +966,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1001,7 +1001,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1213,8 +1213,8 @@
   <dimension ref="A1:AE116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W60" sqref="W60"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1301,7 +1301,7 @@
         <v>192</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>194</v>
@@ -2231,7 +2231,7 @@
         <v>5</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U11" s="10">
         <v>100</v>
@@ -2326,7 +2326,7 @@
         <v>5</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U12" s="10">
         <v>100</v>
@@ -2421,7 +2421,7 @@
         <v>5</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U13" s="10">
         <v>100</v>
@@ -2516,7 +2516,7 @@
         <v>5</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U14" s="10">
         <v>100</v>
@@ -2611,7 +2611,7 @@
         <v>5</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U15" s="10">
         <v>100</v>
@@ -2706,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U16" s="10">
         <v>100</v>
@@ -2801,7 +2801,7 @@
         <v>5</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U17" s="10">
         <v>100</v>
@@ -2896,7 +2896,7 @@
         <v>5</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U18" s="10">
         <v>100</v>
@@ -2991,7 +2991,7 @@
         <v>5</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U19" s="10">
         <v>100</v>
@@ -3086,7 +3086,7 @@
         <v>5</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U20" s="10">
         <v>100</v>
@@ -3181,7 +3181,7 @@
         <v>5</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U21" s="10">
         <v>100</v>
@@ -3276,7 +3276,7 @@
         <v>5</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U22" s="10">
         <v>100</v>
@@ -3371,7 +3371,7 @@
         <v>5</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U23" s="10">
         <v>100</v>
@@ -3466,7 +3466,7 @@
         <v>5</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U24" s="10">
         <v>100</v>
@@ -3561,7 +3561,7 @@
         <v>5</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U25" s="10">
         <v>100</v>
@@ -3656,7 +3656,7 @@
         <v>5</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U26" s="10">
         <v>100</v>
@@ -3751,7 +3751,7 @@
         <v>5</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U27" s="10">
         <v>100</v>
@@ -3846,7 +3846,7 @@
         <v>5</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U28" s="10">
         <v>100</v>
@@ -3941,7 +3941,7 @@
         <v>5</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U29" s="10">
         <v>100</v>
@@ -4036,7 +4036,7 @@
         <v>5</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U30" s="10">
         <v>100</v>
@@ -4131,7 +4131,7 @@
         <v>5</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U31" s="10">
         <v>100</v>
@@ -4226,7 +4226,7 @@
         <v>5</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U32" s="10">
         <v>100</v>
@@ -4321,7 +4321,7 @@
         <v>5</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U33" s="10">
         <v>100</v>
@@ -4416,7 +4416,7 @@
         <v>5</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U34" s="10">
         <v>100</v>
@@ -4511,7 +4511,7 @@
         <v>5</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U35" s="10">
         <v>100</v>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -724,7 +724,7 @@
     <t>“10000-1-10000”</t>
   </si>
   <si>
-    <t>“10000-1-10000:10001-1-500”</t>
+    <t>“10000-1-10000,10001-1-500”</t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1213,8 @@
   <dimension ref="A1:AE116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T23" sqref="T23"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -721,10 +721,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>“10000-1-10000”</t>
-  </si>
-  <si>
-    <t>“10000-1-10000,10001-1-500”</t>
+    <t>10000-1-10000</t>
+  </si>
+  <si>
+    <t>10000-1-10000,10001-1-500</t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1213,8 @@
   <dimension ref="A1:AE116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U22" sqref="U22"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="201">
   <si>
     <t>Prefabs/Models/Body/Male_Body_7000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,6 +725,9 @@
   </si>
   <si>
     <t>10000-1-10000,10001-1-500</t>
+  </si>
+  <si>
+    <t>100-10000,101-1000</t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1216,8 @@
   <dimension ref="A1:AE116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T20" sqref="T20"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2233,8 +2236,8 @@
       <c r="T11" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U11" s="10">
-        <v>100</v>
+      <c r="U11" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>31</v>
@@ -2328,8 +2331,8 @@
       <c r="T12" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U12" s="10">
-        <v>100</v>
+      <c r="U12" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V12" s="12" t="s">
         <v>39</v>
@@ -2423,8 +2426,8 @@
       <c r="T13" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U13" s="10">
-        <v>100</v>
+      <c r="U13" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V13" s="12" t="s">
         <v>39</v>
@@ -2518,8 +2521,8 @@
       <c r="T14" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U14" s="10">
-        <v>100</v>
+      <c r="U14" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V14" s="12" t="s">
         <v>31</v>
@@ -2613,8 +2616,8 @@
       <c r="T15" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U15" s="10">
-        <v>100</v>
+      <c r="U15" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V15" s="12" t="s">
         <v>39</v>
@@ -2708,8 +2711,8 @@
       <c r="T16" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U16" s="10">
-        <v>100</v>
+      <c r="U16" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V16" s="12" t="s">
         <v>39</v>
@@ -2803,8 +2806,8 @@
       <c r="T17" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U17" s="10">
-        <v>100</v>
+      <c r="U17" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V17" s="12" t="s">
         <v>39</v>
@@ -2898,8 +2901,8 @@
       <c r="T18" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U18" s="10">
-        <v>100</v>
+      <c r="U18" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V18" s="12" t="s">
         <v>39</v>
@@ -2993,8 +2996,8 @@
       <c r="T19" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U19" s="10">
-        <v>100</v>
+      <c r="U19" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V19" s="12" t="s">
         <v>39</v>
@@ -3088,8 +3091,8 @@
       <c r="T20" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U20" s="10">
-        <v>100</v>
+      <c r="U20" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V20" s="12" t="s">
         <v>39</v>
@@ -3183,8 +3186,8 @@
       <c r="T21" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U21" s="10">
-        <v>100</v>
+      <c r="U21" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V21" s="12" t="s">
         <v>39</v>
@@ -3278,8 +3281,8 @@
       <c r="T22" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U22" s="10">
-        <v>100</v>
+      <c r="U22" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V22" s="12" t="s">
         <v>39</v>
@@ -3373,8 +3376,8 @@
       <c r="T23" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="U23" s="10">
-        <v>100</v>
+      <c r="U23" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V23" s="12" t="s">
         <v>39</v>
@@ -3468,8 +3471,8 @@
       <c r="T24" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="U24" s="10">
-        <v>100</v>
+      <c r="U24" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V24" s="12" t="s">
         <v>39</v>
@@ -3563,8 +3566,8 @@
       <c r="T25" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="U25" s="10">
-        <v>100</v>
+      <c r="U25" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V25" s="12" t="s">
         <v>39</v>
@@ -3658,8 +3661,8 @@
       <c r="T26" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="U26" s="10">
-        <v>100</v>
+      <c r="U26" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V26" s="12" t="s">
         <v>39</v>
@@ -3753,8 +3756,8 @@
       <c r="T27" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="U27" s="10">
-        <v>100</v>
+      <c r="U27" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V27" s="12" t="s">
         <v>39</v>
@@ -3848,8 +3851,8 @@
       <c r="T28" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="U28" s="10">
-        <v>100</v>
+      <c r="U28" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V28" s="12" t="s">
         <v>39</v>
@@ -3943,8 +3946,8 @@
       <c r="T29" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="U29" s="10">
-        <v>100</v>
+      <c r="U29" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V29" s="12" t="s">
         <v>39</v>
@@ -4038,8 +4041,8 @@
       <c r="T30" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="U30" s="10">
-        <v>100</v>
+      <c r="U30" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V30" s="12" t="s">
         <v>39</v>
@@ -4133,8 +4136,8 @@
       <c r="T31" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="U31" s="10">
-        <v>100</v>
+      <c r="U31" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V31" s="12" t="s">
         <v>39</v>
@@ -4228,8 +4231,8 @@
       <c r="T32" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="U32" s="10">
-        <v>100</v>
+      <c r="U32" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V32" s="12" t="s">
         <v>39</v>
@@ -4323,8 +4326,8 @@
       <c r="T33" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="U33" s="10">
-        <v>100</v>
+      <c r="U33" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V33" s="12" t="s">
         <v>39</v>
@@ -4418,8 +4421,8 @@
       <c r="T34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="U34" s="10">
-        <v>100</v>
+      <c r="U34" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V34" s="12" t="s">
         <v>39</v>
@@ -4513,8 +4516,8 @@
       <c r="T35" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="U35" s="10">
-        <v>100</v>
+      <c r="U35" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V35" s="12" t="s">
         <v>39</v>
@@ -4608,8 +4611,8 @@
       <c r="T36" s="10">
         <v>0</v>
       </c>
-      <c r="U36" s="10">
-        <v>100</v>
+      <c r="U36" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V36" s="12" t="s">
         <v>39</v>
@@ -4703,8 +4706,8 @@
       <c r="T37" s="10">
         <v>0</v>
       </c>
-      <c r="U37" s="10">
-        <v>100</v>
+      <c r="U37" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V37" s="12" t="s">
         <v>39</v>
@@ -4798,8 +4801,8 @@
       <c r="T38" s="10">
         <v>0</v>
       </c>
-      <c r="U38" s="10">
-        <v>100</v>
+      <c r="U38" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V38" s="12" t="s">
         <v>39</v>
@@ -4893,8 +4896,8 @@
       <c r="T39" s="10">
         <v>0</v>
       </c>
-      <c r="U39" s="10">
-        <v>100</v>
+      <c r="U39" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V39" s="12" t="s">
         <v>39</v>
@@ -4988,8 +4991,8 @@
       <c r="T40" s="10">
         <v>0</v>
       </c>
-      <c r="U40" s="10">
-        <v>100</v>
+      <c r="U40" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V40" s="12" t="s">
         <v>39</v>
@@ -5083,8 +5086,8 @@
       <c r="T41" s="10">
         <v>0</v>
       </c>
-      <c r="U41" s="10">
-        <v>100</v>
+      <c r="U41" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V41" s="12" t="s">
         <v>39</v>
@@ -5178,8 +5181,8 @@
       <c r="T42" s="10">
         <v>0</v>
       </c>
-      <c r="U42" s="10">
-        <v>100</v>
+      <c r="U42" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V42" s="12" t="s">
         <v>39</v>
@@ -5273,8 +5276,8 @@
       <c r="T43" s="10">
         <v>0</v>
       </c>
-      <c r="U43" s="10">
-        <v>100</v>
+      <c r="U43" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V43" s="12" t="s">
         <v>39</v>
@@ -5368,8 +5371,8 @@
       <c r="T44" s="10">
         <v>0</v>
       </c>
-      <c r="U44" s="10">
-        <v>100</v>
+      <c r="U44" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V44" s="12" t="s">
         <v>39</v>
@@ -5463,8 +5466,8 @@
       <c r="T45" s="10">
         <v>0</v>
       </c>
-      <c r="U45" s="10">
-        <v>100</v>
+      <c r="U45" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V45" s="12" t="s">
         <v>39</v>
@@ -5558,8 +5561,8 @@
       <c r="T46" s="10">
         <v>0</v>
       </c>
-      <c r="U46" s="10">
-        <v>100</v>
+      <c r="U46" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V46" s="12" t="s">
         <v>39</v>
@@ -5653,8 +5656,8 @@
       <c r="T47" s="10">
         <v>0</v>
       </c>
-      <c r="U47" s="10">
-        <v>100</v>
+      <c r="U47" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V47" s="12" t="s">
         <v>39</v>
@@ -5748,8 +5751,8 @@
       <c r="T48" s="10">
         <v>0</v>
       </c>
-      <c r="U48" s="10">
-        <v>100</v>
+      <c r="U48" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V48" s="12" t="s">
         <v>39</v>
@@ -5843,8 +5846,8 @@
       <c r="T49" s="10">
         <v>0</v>
       </c>
-      <c r="U49" s="10">
-        <v>100</v>
+      <c r="U49" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V49" s="12" t="s">
         <v>39</v>
@@ -5938,8 +5941,8 @@
       <c r="T50" s="10">
         <v>0</v>
       </c>
-      <c r="U50" s="10">
-        <v>100</v>
+      <c r="U50" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V50" s="12" t="s">
         <v>39</v>
@@ -6033,8 +6036,8 @@
       <c r="T51" s="10">
         <v>0</v>
       </c>
-      <c r="U51" s="10">
-        <v>100</v>
+      <c r="U51" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V51" s="12" t="s">
         <v>39</v>
@@ -6128,8 +6131,8 @@
       <c r="T52" s="10">
         <v>0</v>
       </c>
-      <c r="U52" s="10">
-        <v>100</v>
+      <c r="U52" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V52" s="12" t="s">
         <v>39</v>
@@ -6223,8 +6226,8 @@
       <c r="T53" s="10">
         <v>0</v>
       </c>
-      <c r="U53" s="10">
-        <v>100</v>
+      <c r="U53" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V53" s="12" t="s">
         <v>39</v>
@@ -6318,8 +6321,8 @@
       <c r="T54" s="10">
         <v>0</v>
       </c>
-      <c r="U54" s="10">
-        <v>100</v>
+      <c r="U54" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V54" s="12" t="s">
         <v>39</v>
@@ -6413,8 +6416,8 @@
       <c r="T55" s="10">
         <v>0</v>
       </c>
-      <c r="U55" s="10">
-        <v>100</v>
+      <c r="U55" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V55" s="12" t="s">
         <v>39</v>
@@ -6508,8 +6511,8 @@
       <c r="T56" s="10">
         <v>0</v>
       </c>
-      <c r="U56" s="10">
-        <v>100</v>
+      <c r="U56" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V56" s="12" t="s">
         <v>39</v>
@@ -6603,8 +6606,8 @@
       <c r="T57" s="10">
         <v>0</v>
       </c>
-      <c r="U57" s="10">
-        <v>100</v>
+      <c r="U57" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V57" s="12" t="s">
         <v>39</v>
@@ -6698,8 +6701,8 @@
       <c r="T58" s="10">
         <v>0</v>
       </c>
-      <c r="U58" s="10">
-        <v>100</v>
+      <c r="U58" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V58" s="12" t="s">
         <v>39</v>
@@ -6793,8 +6796,8 @@
       <c r="T59" s="10">
         <v>0</v>
       </c>
-      <c r="U59" s="10">
-        <v>100</v>
+      <c r="U59" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V59" s="12" t="s">
         <v>39</v>
@@ -6888,8 +6891,8 @@
       <c r="T60" s="10">
         <v>0</v>
       </c>
-      <c r="U60" s="10">
-        <v>100</v>
+      <c r="U60" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V60" s="12" t="s">
         <v>39</v>
@@ -6983,8 +6986,8 @@
       <c r="T61" s="10">
         <v>0</v>
       </c>
-      <c r="U61" s="10">
-        <v>100</v>
+      <c r="U61" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V61" s="12" t="s">
         <v>39</v>
@@ -7078,8 +7081,8 @@
       <c r="T62" s="10">
         <v>0</v>
       </c>
-      <c r="U62" s="10">
-        <v>100</v>
+      <c r="U62" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V62" s="12" t="s">
         <v>39</v>
@@ -7173,8 +7176,8 @@
       <c r="T63" s="10">
         <v>0</v>
       </c>
-      <c r="U63" s="10">
-        <v>100</v>
+      <c r="U63" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V63" s="12" t="s">
         <v>39</v>
@@ -7268,8 +7271,8 @@
       <c r="T64" s="10">
         <v>0</v>
       </c>
-      <c r="U64" s="10">
-        <v>100</v>
+      <c r="U64" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V64" s="12" t="s">
         <v>39</v>
@@ -7363,8 +7366,8 @@
       <c r="T65" s="10">
         <v>0</v>
       </c>
-      <c r="U65" s="10">
-        <v>100</v>
+      <c r="U65" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V65" s="12" t="s">
         <v>39</v>
@@ -7458,8 +7461,8 @@
       <c r="T66" s="10">
         <v>0</v>
       </c>
-      <c r="U66" s="10">
-        <v>100</v>
+      <c r="U66" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V66" s="12" t="s">
         <v>39</v>
@@ -7553,8 +7556,8 @@
       <c r="T67" s="10">
         <v>0</v>
       </c>
-      <c r="U67" s="10">
-        <v>100</v>
+      <c r="U67" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V67" s="12" t="s">
         <v>39</v>
@@ -7648,8 +7651,8 @@
       <c r="T68" s="10">
         <v>0</v>
       </c>
-      <c r="U68" s="10">
-        <v>100</v>
+      <c r="U68" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V68" s="12" t="s">
         <v>39</v>
@@ -7743,8 +7746,8 @@
       <c r="T69" s="10">
         <v>0</v>
       </c>
-      <c r="U69" s="10">
-        <v>100</v>
+      <c r="U69" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V69" s="12" t="s">
         <v>39</v>
@@ -7838,8 +7841,8 @@
       <c r="T70" s="10">
         <v>0</v>
       </c>
-      <c r="U70" s="10">
-        <v>100</v>
+      <c r="U70" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V70" s="12" t="s">
         <v>39</v>
@@ -7933,8 +7936,8 @@
       <c r="T71" s="10">
         <v>0</v>
       </c>
-      <c r="U71" s="10">
-        <v>100</v>
+      <c r="U71" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V71" s="12" t="s">
         <v>39</v>
@@ -8028,8 +8031,8 @@
       <c r="T72" s="10">
         <v>0</v>
       </c>
-      <c r="U72" s="10">
-        <v>100</v>
+      <c r="U72" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V72" s="12" t="s">
         <v>39</v>
@@ -8123,8 +8126,8 @@
       <c r="T73" s="10">
         <v>0</v>
       </c>
-      <c r="U73" s="10">
-        <v>100</v>
+      <c r="U73" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V73" s="12" t="s">
         <v>39</v>
@@ -8218,8 +8221,8 @@
       <c r="T74" s="10">
         <v>0</v>
       </c>
-      <c r="U74" s="10">
-        <v>100</v>
+      <c r="U74" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V74" s="12" t="s">
         <v>39</v>
@@ -8313,8 +8316,8 @@
       <c r="T75" s="10">
         <v>0</v>
       </c>
-      <c r="U75" s="10">
-        <v>100</v>
+      <c r="U75" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V75" s="12" t="s">
         <v>39</v>
@@ -8408,8 +8411,8 @@
       <c r="T76" s="10">
         <v>0</v>
       </c>
-      <c r="U76" s="10">
-        <v>100</v>
+      <c r="U76" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V76" s="12" t="s">
         <v>39</v>
@@ -8503,8 +8506,8 @@
       <c r="T77" s="10">
         <v>0</v>
       </c>
-      <c r="U77" s="10">
-        <v>100</v>
+      <c r="U77" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V77" s="12" t="s">
         <v>39</v>
@@ -8598,8 +8601,8 @@
       <c r="T78" s="10">
         <v>0</v>
       </c>
-      <c r="U78" s="10">
-        <v>100</v>
+      <c r="U78" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V78" s="12" t="s">
         <v>39</v>
@@ -8693,8 +8696,8 @@
       <c r="T79" s="10">
         <v>0</v>
       </c>
-      <c r="U79" s="10">
-        <v>100</v>
+      <c r="U79" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V79" s="12" t="s">
         <v>39</v>
@@ -8788,8 +8791,8 @@
       <c r="T80" s="10">
         <v>0</v>
       </c>
-      <c r="U80" s="10">
-        <v>100</v>
+      <c r="U80" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V80" s="12" t="s">
         <v>39</v>
@@ -8883,8 +8886,8 @@
       <c r="T81" s="10">
         <v>0</v>
       </c>
-      <c r="U81" s="10">
-        <v>100</v>
+      <c r="U81" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V81" s="12" t="s">
         <v>39</v>
@@ -8978,8 +8981,8 @@
       <c r="T82" s="10">
         <v>0</v>
       </c>
-      <c r="U82" s="10">
-        <v>100</v>
+      <c r="U82" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V82" s="12" t="s">
         <v>39</v>
@@ -9073,8 +9076,8 @@
       <c r="T83" s="10">
         <v>0</v>
       </c>
-      <c r="U83" s="10">
-        <v>100</v>
+      <c r="U83" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V83" s="12" t="s">
         <v>39</v>
@@ -9168,8 +9171,8 @@
       <c r="T84" s="10">
         <v>0</v>
       </c>
-      <c r="U84" s="10">
-        <v>100</v>
+      <c r="U84" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V84" s="12" t="s">
         <v>39</v>
@@ -9263,8 +9266,8 @@
       <c r="T85" s="10">
         <v>0</v>
       </c>
-      <c r="U85" s="10">
-        <v>100</v>
+      <c r="U85" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V85" s="12" t="s">
         <v>39</v>
@@ -9358,8 +9361,8 @@
       <c r="T86" s="10">
         <v>0</v>
       </c>
-      <c r="U86" s="10">
-        <v>100</v>
+      <c r="U86" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V86" s="12" t="s">
         <v>39</v>
@@ -9453,8 +9456,8 @@
       <c r="T87" s="10">
         <v>0</v>
       </c>
-      <c r="U87" s="10">
-        <v>100</v>
+      <c r="U87" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V87" s="12" t="s">
         <v>39</v>
@@ -9548,8 +9551,8 @@
       <c r="T88" s="10">
         <v>0</v>
       </c>
-      <c r="U88" s="10">
-        <v>100</v>
+      <c r="U88" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V88" s="12" t="s">
         <v>39</v>
@@ -9643,8 +9646,8 @@
       <c r="T89" s="10">
         <v>0</v>
       </c>
-      <c r="U89" s="10">
-        <v>100</v>
+      <c r="U89" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V89" s="12" t="s">
         <v>39</v>
@@ -9738,8 +9741,8 @@
       <c r="T90" s="10">
         <v>0</v>
       </c>
-      <c r="U90" s="10">
-        <v>100</v>
+      <c r="U90" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V90" s="12" t="s">
         <v>39</v>
@@ -9833,8 +9836,8 @@
       <c r="T91" s="10">
         <v>0</v>
       </c>
-      <c r="U91" s="10">
-        <v>100</v>
+      <c r="U91" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V91" s="12" t="s">
         <v>39</v>
@@ -9928,8 +9931,8 @@
       <c r="T92" s="10">
         <v>0</v>
       </c>
-      <c r="U92" s="10">
-        <v>100</v>
+      <c r="U92" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V92" s="12" t="s">
         <v>39</v>
@@ -10023,8 +10026,8 @@
       <c r="T93" s="10">
         <v>0</v>
       </c>
-      <c r="U93" s="10">
-        <v>100</v>
+      <c r="U93" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V93" s="12" t="s">
         <v>39</v>
@@ -10118,8 +10121,8 @@
       <c r="T94" s="10">
         <v>0</v>
       </c>
-      <c r="U94" s="10">
-        <v>100</v>
+      <c r="U94" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V94" s="12" t="s">
         <v>39</v>
@@ -10213,8 +10216,8 @@
       <c r="T95" s="10">
         <v>0</v>
       </c>
-      <c r="U95" s="10">
-        <v>100</v>
+      <c r="U95" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V95" s="12" t="s">
         <v>39</v>
@@ -10308,8 +10311,8 @@
       <c r="T96" s="10">
         <v>0</v>
       </c>
-      <c r="U96" s="10">
-        <v>100</v>
+      <c r="U96" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V96" s="12" t="s">
         <v>39</v>
@@ -10403,8 +10406,8 @@
       <c r="T97" s="10">
         <v>0</v>
       </c>
-      <c r="U97" s="10">
-        <v>100</v>
+      <c r="U97" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V97" s="12" t="s">
         <v>39</v>
@@ -10498,8 +10501,8 @@
       <c r="T98" s="10">
         <v>0</v>
       </c>
-      <c r="U98" s="10">
-        <v>100</v>
+      <c r="U98" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V98" s="12" t="s">
         <v>39</v>
@@ -10593,8 +10596,8 @@
       <c r="T99" s="10">
         <v>0</v>
       </c>
-      <c r="U99" s="10">
-        <v>100</v>
+      <c r="U99" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V99" s="12" t="s">
         <v>39</v>
@@ -10688,8 +10691,8 @@
       <c r="T100" s="10">
         <v>0</v>
       </c>
-      <c r="U100" s="10">
-        <v>100</v>
+      <c r="U100" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V100" s="12" t="s">
         <v>39</v>
@@ -10783,8 +10786,8 @@
       <c r="T101" s="10">
         <v>0</v>
       </c>
-      <c r="U101" s="10">
-        <v>100</v>
+      <c r="U101" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V101" s="12" t="s">
         <v>39</v>
@@ -10878,8 +10881,8 @@
       <c r="T102" s="10">
         <v>0</v>
       </c>
-      <c r="U102" s="10">
-        <v>100</v>
+      <c r="U102" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V102" s="12" t="s">
         <v>39</v>
@@ -10973,8 +10976,8 @@
       <c r="T103" s="10">
         <v>0</v>
       </c>
-      <c r="U103" s="10">
-        <v>100</v>
+      <c r="U103" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V103" s="12" t="s">
         <v>39</v>
@@ -11068,8 +11071,8 @@
       <c r="T104" s="10">
         <v>0</v>
       </c>
-      <c r="U104" s="10">
-        <v>100</v>
+      <c r="U104" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V104" s="12" t="s">
         <v>39</v>
@@ -11163,8 +11166,8 @@
       <c r="T105" s="10">
         <v>0</v>
       </c>
-      <c r="U105" s="10">
-        <v>100</v>
+      <c r="U105" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V105" s="12" t="s">
         <v>39</v>
@@ -11258,8 +11261,8 @@
       <c r="T106" s="10">
         <v>0</v>
       </c>
-      <c r="U106" s="10">
-        <v>100</v>
+      <c r="U106" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V106" s="12" t="s">
         <v>39</v>
@@ -11353,8 +11356,8 @@
       <c r="T107" s="10">
         <v>0</v>
       </c>
-      <c r="U107" s="10">
-        <v>100</v>
+      <c r="U107" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V107" s="12" t="s">
         <v>39</v>
@@ -11448,8 +11451,8 @@
       <c r="T108" s="10">
         <v>0</v>
       </c>
-      <c r="U108" s="10">
-        <v>100</v>
+      <c r="U108" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V108" s="12" t="s">
         <v>39</v>
@@ -11543,8 +11546,8 @@
       <c r="T109" s="10">
         <v>0</v>
       </c>
-      <c r="U109" s="10">
-        <v>100</v>
+      <c r="U109" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V109" s="12" t="s">
         <v>39</v>
@@ -11638,8 +11641,8 @@
       <c r="T110" s="10">
         <v>0</v>
       </c>
-      <c r="U110" s="10">
-        <v>100</v>
+      <c r="U110" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V110" s="12" t="s">
         <v>39</v>
@@ -11731,8 +11734,8 @@
       <c r="T111" s="10">
         <v>0</v>
       </c>
-      <c r="U111" s="10">
-        <v>100</v>
+      <c r="U111" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V111" s="12" t="s">
         <v>70</v>
@@ -11824,8 +11827,8 @@
       <c r="T112" s="10">
         <v>0</v>
       </c>
-      <c r="U112" s="10">
-        <v>100</v>
+      <c r="U112" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V112" s="12" t="s">
         <v>70</v>
@@ -11917,8 +11920,8 @@
       <c r="T113" s="10">
         <v>0</v>
       </c>
-      <c r="U113" s="10">
-        <v>100</v>
+      <c r="U113" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V113" s="12" t="s">
         <v>70</v>
@@ -12010,8 +12013,8 @@
       <c r="T114" s="10">
         <v>0</v>
       </c>
-      <c r="U114" s="10">
-        <v>100</v>
+      <c r="U114" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V114" s="12" t="s">
         <v>70</v>
@@ -12103,8 +12106,8 @@
       <c r="T115" s="10">
         <v>0</v>
       </c>
-      <c r="U115" s="10">
-        <v>100</v>
+      <c r="U115" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V115" s="12" t="s">
         <v>70</v>
@@ -12198,8 +12201,8 @@
       <c r="T116" s="10">
         <v>0</v>
       </c>
-      <c r="U116" s="10">
-        <v>100</v>
+      <c r="U116" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="V116" s="12" t="s">
         <v>75</v>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="202">
   <si>
     <t>Prefabs/Models/Body/Male_Body_7000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -709,14 +709,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>死亡动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落池</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -728,6 +720,18 @@
   </si>
   <si>
     <t>100-10000,101-1000</t>
+  </si>
+  <si>
+    <t>10000-1-10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸体停留时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸体消失技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1215,9 +1219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD26" sqref="AD26:AD116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1239,7 +1243,9 @@
     <col min="22" max="22" width="40.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="40.75" customWidth="1"/>
     <col min="24" max="24" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="30" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -1304,7 +1310,7 @@
         <v>192</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>194</v>
@@ -1331,10 +1337,10 @@
         <v>16</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -1426,9 +1432,6 @@
       <c r="AD2" s="10">
         <v>0</v>
       </c>
-      <c r="AE2" s="10">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
@@ -1519,9 +1522,6 @@
       <c r="AD3" s="10">
         <v>0</v>
       </c>
-      <c r="AE3" s="10">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
@@ -1612,9 +1612,6 @@
       <c r="AD4" s="10">
         <v>0</v>
       </c>
-      <c r="AE4" s="10">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
@@ -1705,9 +1702,6 @@
       <c r="AD5" s="10">
         <v>0</v>
       </c>
-      <c r="AE5" s="10">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
@@ -1798,9 +1792,6 @@
       <c r="AD6" s="10">
         <v>0</v>
       </c>
-      <c r="AE6" s="10">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
@@ -1891,9 +1882,6 @@
       <c r="AD7" s="10">
         <v>0</v>
       </c>
-      <c r="AE7" s="10">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
@@ -1984,9 +1972,6 @@
       <c r="AD8" s="10">
         <v>0</v>
       </c>
-      <c r="AE8" s="10">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
@@ -2077,9 +2062,6 @@
       <c r="AD9" s="10">
         <v>0</v>
       </c>
-      <c r="AE9" s="10">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
@@ -2170,9 +2152,6 @@
       <c r="AD10" s="10">
         <v>0</v>
       </c>
-      <c r="AE10" s="10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
@@ -2234,10 +2213,10 @@
         <v>5</v>
       </c>
       <c r="T11" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="U11" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>31</v>
@@ -2262,9 +2241,6 @@
         <v>0</v>
       </c>
       <c r="AD11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2329,10 +2305,10 @@
         <v>5</v>
       </c>
       <c r="T12" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="U12" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="V12" s="12" t="s">
         <v>39</v>
@@ -2357,9 +2333,6 @@
         <v>0</v>
       </c>
       <c r="AD12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2424,10 +2397,10 @@
         <v>5</v>
       </c>
       <c r="T13" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="U13" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="V13" s="12" t="s">
         <v>39</v>
@@ -2452,9 +2425,6 @@
         <v>0</v>
       </c>
       <c r="AD13" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2519,10 +2489,10 @@
         <v>5</v>
       </c>
       <c r="T14" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="U14" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="V14" s="12" t="s">
         <v>31</v>
@@ -2547,9 +2517,6 @@
         <v>0</v>
       </c>
       <c r="AD14" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2614,10 +2581,10 @@
         <v>5</v>
       </c>
       <c r="T15" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="U15" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="V15" s="12" t="s">
         <v>39</v>
@@ -2642,9 +2609,6 @@
         <v>0</v>
       </c>
       <c r="AD15" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2709,10 +2673,10 @@
         <v>5</v>
       </c>
       <c r="T16" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="U16" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="V16" s="12" t="s">
         <v>39</v>
@@ -2737,9 +2701,6 @@
         <v>0</v>
       </c>
       <c r="AD16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2804,10 +2765,10 @@
         <v>5</v>
       </c>
       <c r="T17" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="U17" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="V17" s="12" t="s">
         <v>39</v>
@@ -2832,9 +2793,6 @@
         <v>0</v>
       </c>
       <c r="AD17" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2899,10 +2857,10 @@
         <v>5</v>
       </c>
       <c r="T18" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="U18" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="V18" s="12" t="s">
         <v>39</v>
@@ -2927,9 +2885,6 @@
         <v>0</v>
       </c>
       <c r="AD18" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2994,10 +2949,10 @@
         <v>5</v>
       </c>
       <c r="T19" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="U19" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="V19" s="12" t="s">
         <v>39</v>
@@ -3022,9 +2977,6 @@
         <v>0</v>
       </c>
       <c r="AD19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3089,10 +3041,10 @@
         <v>5</v>
       </c>
       <c r="T20" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="U20" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="V20" s="12" t="s">
         <v>39</v>
@@ -3117,9 +3069,6 @@
         <v>0</v>
       </c>
       <c r="AD20" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3184,10 +3133,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="U21" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="U21" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="V21" s="12" t="s">
         <v>39</v>
@@ -3212,9 +3161,6 @@
         <v>0</v>
       </c>
       <c r="AD21" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3279,10 +3225,10 @@
         <v>5</v>
       </c>
       <c r="T22" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="U22" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="V22" s="12" t="s">
         <v>39</v>
@@ -3307,9 +3253,6 @@
         <v>0</v>
       </c>
       <c r="AD22" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3374,10 +3317,10 @@
         <v>5</v>
       </c>
       <c r="T23" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="U23" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="V23" s="12" t="s">
         <v>39</v>
@@ -3402,9 +3345,6 @@
         <v>0</v>
       </c>
       <c r="AD23" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3469,10 +3409,10 @@
         <v>5</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V24" s="12" t="s">
         <v>39</v>
@@ -3497,9 +3437,6 @@
         <v>0</v>
       </c>
       <c r="AD24" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3564,10 +3501,10 @@
         <v>5</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V25" s="12" t="s">
         <v>39</v>
@@ -3592,9 +3529,6 @@
         <v>0</v>
       </c>
       <c r="AD25" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3659,10 +3593,10 @@
         <v>5</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V26" s="12" t="s">
         <v>39</v>
@@ -3687,10 +3621,10 @@
         <v>0</v>
       </c>
       <c r="AD26" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE26" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -3754,10 +3688,10 @@
         <v>5</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V27" s="12" t="s">
         <v>39</v>
@@ -3782,10 +3716,10 @@
         <v>0</v>
       </c>
       <c r="AD27" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE27" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -3849,10 +3783,10 @@
         <v>5</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V28" s="12" t="s">
         <v>39</v>
@@ -3877,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="AD28" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE28" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -3944,10 +3878,10 @@
         <v>5</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V29" s="12" t="s">
         <v>39</v>
@@ -3972,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE29" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -4039,10 +3973,10 @@
         <v>5</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V30" s="12" t="s">
         <v>39</v>
@@ -4067,10 +4001,10 @@
         <v>0</v>
       </c>
       <c r="AD30" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE30" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -4134,10 +4068,10 @@
         <v>5</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V31" s="12" t="s">
         <v>39</v>
@@ -4162,10 +4096,10 @@
         <v>0</v>
       </c>
       <c r="AD31" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE31" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -4229,10 +4163,10 @@
         <v>5</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V32" s="12" t="s">
         <v>39</v>
@@ -4257,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="AD32" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE32" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -4324,10 +4258,10 @@
         <v>5</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V33" s="12" t="s">
         <v>39</v>
@@ -4352,10 +4286,10 @@
         <v>0</v>
       </c>
       <c r="AD33" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE33" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -4419,10 +4353,10 @@
         <v>5</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V34" s="12" t="s">
         <v>39</v>
@@ -4447,10 +4381,10 @@
         <v>0</v>
       </c>
       <c r="AD34" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE34" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -4514,10 +4448,10 @@
         <v>5</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V35" s="12" t="s">
         <v>39</v>
@@ -4542,10 +4476,10 @@
         <v>0</v>
       </c>
       <c r="AD35" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE35" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="36" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -4612,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V36" s="12" t="s">
         <v>39</v>
@@ -4637,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="AD36" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE36" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -4707,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V37" s="12" t="s">
         <v>39</v>
@@ -4732,10 +4666,10 @@
         <v>0</v>
       </c>
       <c r="AD37" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE37" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -4802,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V38" s="12" t="s">
         <v>39</v>
@@ -4827,10 +4761,10 @@
         <v>0</v>
       </c>
       <c r="AD38" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE38" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -4897,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V39" s="12" t="s">
         <v>39</v>
@@ -4922,10 +4856,10 @@
         <v>0</v>
       </c>
       <c r="AD39" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE39" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -4992,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V40" s="12" t="s">
         <v>39</v>
@@ -5017,10 +4951,10 @@
         <v>0</v>
       </c>
       <c r="AD40" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE40" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -5087,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V41" s="12" t="s">
         <v>39</v>
@@ -5112,10 +5046,10 @@
         <v>0</v>
       </c>
       <c r="AD41" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE41" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="42" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -5182,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V42" s="12" t="s">
         <v>39</v>
@@ -5207,10 +5141,10 @@
         <v>0</v>
       </c>
       <c r="AD42" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE42" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -5277,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V43" s="12" t="s">
         <v>39</v>
@@ -5302,10 +5236,10 @@
         <v>0</v>
       </c>
       <c r="AD43" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE43" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="44" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -5372,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V44" s="12" t="s">
         <v>39</v>
@@ -5397,10 +5331,10 @@
         <v>0</v>
       </c>
       <c r="AD44" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE44" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="45" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -5467,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V45" s="12" t="s">
         <v>39</v>
@@ -5492,10 +5426,10 @@
         <v>0</v>
       </c>
       <c r="AD45" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE45" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="46" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -5562,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V46" s="12" t="s">
         <v>39</v>
@@ -5587,10 +5521,10 @@
         <v>0</v>
       </c>
       <c r="AD46" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE46" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="47" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -5657,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V47" s="12" t="s">
         <v>39</v>
@@ -5682,10 +5616,10 @@
         <v>0</v>
       </c>
       <c r="AD47" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE47" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="48" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -5752,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="U48" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V48" s="12" t="s">
         <v>39</v>
@@ -5777,10 +5711,10 @@
         <v>0</v>
       </c>
       <c r="AD48" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE48" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -5847,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V49" s="12" t="s">
         <v>39</v>
@@ -5872,10 +5806,10 @@
         <v>0</v>
       </c>
       <c r="AD49" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE49" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -5942,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V50" s="12" t="s">
         <v>39</v>
@@ -5967,10 +5901,10 @@
         <v>0</v>
       </c>
       <c r="AD50" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE50" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -6037,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V51" s="12" t="s">
         <v>39</v>
@@ -6062,10 +5996,10 @@
         <v>0</v>
       </c>
       <c r="AD51" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE51" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -6132,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V52" s="12" t="s">
         <v>39</v>
@@ -6157,10 +6091,10 @@
         <v>0</v>
       </c>
       <c r="AD52" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE52" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -6227,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V53" s="12" t="s">
         <v>39</v>
@@ -6252,10 +6186,10 @@
         <v>0</v>
       </c>
       <c r="AD53" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE53" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -6322,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V54" s="12" t="s">
         <v>39</v>
@@ -6347,10 +6281,10 @@
         <v>0</v>
       </c>
       <c r="AD54" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE54" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -6417,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V55" s="12" t="s">
         <v>39</v>
@@ -6442,10 +6376,10 @@
         <v>0</v>
       </c>
       <c r="AD55" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE55" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -6512,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V56" s="12" t="s">
         <v>39</v>
@@ -6537,10 +6471,10 @@
         <v>0</v>
       </c>
       <c r="AD56" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE56" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -6607,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V57" s="12" t="s">
         <v>39</v>
@@ -6632,10 +6566,10 @@
         <v>0</v>
       </c>
       <c r="AD57" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE57" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="58" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -6702,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V58" s="12" t="s">
         <v>39</v>
@@ -6727,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="AD58" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE58" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -6797,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="U59" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V59" s="12" t="s">
         <v>39</v>
@@ -6822,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="AD59" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE59" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -6892,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V60" s="12" t="s">
         <v>39</v>
@@ -6917,10 +6851,10 @@
         <v>0</v>
       </c>
       <c r="AD60" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE60" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="61" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -6987,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V61" s="12" t="s">
         <v>39</v>
@@ -7012,10 +6946,10 @@
         <v>0</v>
       </c>
       <c r="AD61" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE61" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -7082,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="U62" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V62" s="12" t="s">
         <v>39</v>
@@ -7107,10 +7041,10 @@
         <v>0</v>
       </c>
       <c r="AD62" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE62" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -7177,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="U63" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V63" s="12" t="s">
         <v>39</v>
@@ -7202,10 +7136,10 @@
         <v>0</v>
       </c>
       <c r="AD63" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE63" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -7272,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V64" s="12" t="s">
         <v>39</v>
@@ -7297,10 +7231,10 @@
         <v>0</v>
       </c>
       <c r="AD64" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE64" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -7367,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V65" s="12" t="s">
         <v>39</v>
@@ -7392,10 +7326,10 @@
         <v>0</v>
       </c>
       <c r="AD65" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE65" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -7462,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V66" s="12" t="s">
         <v>39</v>
@@ -7487,10 +7421,10 @@
         <v>0</v>
       </c>
       <c r="AD66" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE66" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -7557,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V67" s="12" t="s">
         <v>39</v>
@@ -7582,10 +7516,10 @@
         <v>0</v>
       </c>
       <c r="AD67" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE67" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -7652,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V68" s="12" t="s">
         <v>39</v>
@@ -7677,10 +7611,10 @@
         <v>0</v>
       </c>
       <c r="AD68" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE68" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="69" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -7747,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="U69" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V69" s="12" t="s">
         <v>39</v>
@@ -7772,10 +7706,10 @@
         <v>0</v>
       </c>
       <c r="AD69" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE69" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -7842,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="U70" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V70" s="12" t="s">
         <v>39</v>
@@ -7867,10 +7801,10 @@
         <v>0</v>
       </c>
       <c r="AD70" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE70" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="71" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -7937,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="U71" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V71" s="12" t="s">
         <v>39</v>
@@ -7962,10 +7896,10 @@
         <v>0</v>
       </c>
       <c r="AD71" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE71" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="72" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -8032,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="U72" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V72" s="12" t="s">
         <v>39</v>
@@ -8057,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="AD72" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE72" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="73" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -8127,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="U73" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V73" s="12" t="s">
         <v>39</v>
@@ -8152,10 +8086,10 @@
         <v>0</v>
       </c>
       <c r="AD73" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE73" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="74" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -8222,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="U74" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V74" s="12" t="s">
         <v>39</v>
@@ -8247,10 +8181,10 @@
         <v>0</v>
       </c>
       <c r="AD74" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE74" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="75" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -8317,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="U75" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V75" s="12" t="s">
         <v>39</v>
@@ -8342,10 +8276,10 @@
         <v>0</v>
       </c>
       <c r="AD75" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE75" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -8412,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="U76" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V76" s="12" t="s">
         <v>39</v>
@@ -8437,10 +8371,10 @@
         <v>0</v>
       </c>
       <c r="AD76" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE76" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="77" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -8507,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="U77" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V77" s="12" t="s">
         <v>39</v>
@@ -8532,10 +8466,10 @@
         <v>0</v>
       </c>
       <c r="AD77" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE77" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="78" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -8602,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="U78" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V78" s="12" t="s">
         <v>39</v>
@@ -8627,10 +8561,10 @@
         <v>0</v>
       </c>
       <c r="AD78" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE78" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="79" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -8697,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="U79" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V79" s="12" t="s">
         <v>39</v>
@@ -8722,10 +8656,10 @@
         <v>0</v>
       </c>
       <c r="AD79" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE79" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="80" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -8792,7 +8726,7 @@
         <v>0</v>
       </c>
       <c r="U80" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V80" s="12" t="s">
         <v>39</v>
@@ -8817,10 +8751,10 @@
         <v>0</v>
       </c>
       <c r="AD80" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE80" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="81" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -8887,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="U81" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V81" s="12" t="s">
         <v>39</v>
@@ -8912,10 +8846,10 @@
         <v>0</v>
       </c>
       <c r="AD81" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE81" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="82" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -8982,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="U82" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V82" s="12" t="s">
         <v>39</v>
@@ -9007,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="AD82" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE82" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -9077,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="U83" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V83" s="12" t="s">
         <v>39</v>
@@ -9102,10 +9036,10 @@
         <v>0</v>
       </c>
       <c r="AD83" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE83" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -9172,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="U84" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V84" s="12" t="s">
         <v>39</v>
@@ -9197,10 +9131,10 @@
         <v>0</v>
       </c>
       <c r="AD84" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE84" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -9267,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="U85" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V85" s="12" t="s">
         <v>39</v>
@@ -9292,10 +9226,10 @@
         <v>0</v>
       </c>
       <c r="AD85" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE85" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -9362,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="U86" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V86" s="12" t="s">
         <v>39</v>
@@ -9387,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="AD86" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE86" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -9457,7 +9391,7 @@
         <v>0</v>
       </c>
       <c r="U87" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V87" s="12" t="s">
         <v>39</v>
@@ -9482,10 +9416,10 @@
         <v>0</v>
       </c>
       <c r="AD87" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE87" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -9552,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="U88" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V88" s="12" t="s">
         <v>39</v>
@@ -9577,10 +9511,10 @@
         <v>0</v>
       </c>
       <c r="AD88" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE88" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -9647,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="U89" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V89" s="12" t="s">
         <v>39</v>
@@ -9672,10 +9606,10 @@
         <v>0</v>
       </c>
       <c r="AD89" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE89" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="90" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -9742,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="U90" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V90" s="12" t="s">
         <v>39</v>
@@ -9767,10 +9701,10 @@
         <v>0</v>
       </c>
       <c r="AD90" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE90" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -9837,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="U91" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V91" s="12" t="s">
         <v>39</v>
@@ -9862,10 +9796,10 @@
         <v>0</v>
       </c>
       <c r="AD91" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE91" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -9932,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="U92" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V92" s="12" t="s">
         <v>39</v>
@@ -9957,10 +9891,10 @@
         <v>0</v>
       </c>
       <c r="AD92" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE92" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -10027,7 +9961,7 @@
         <v>0</v>
       </c>
       <c r="U93" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V93" s="12" t="s">
         <v>39</v>
@@ -10052,10 +9986,10 @@
         <v>0</v>
       </c>
       <c r="AD93" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE93" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -10122,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="U94" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V94" s="12" t="s">
         <v>39</v>
@@ -10147,10 +10081,10 @@
         <v>0</v>
       </c>
       <c r="AD94" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE94" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -10217,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="U95" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V95" s="12" t="s">
         <v>39</v>
@@ -10242,10 +10176,10 @@
         <v>0</v>
       </c>
       <c r="AD95" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE95" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -10312,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="U96" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V96" s="12" t="s">
         <v>39</v>
@@ -10337,10 +10271,10 @@
         <v>0</v>
       </c>
       <c r="AD96" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE96" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="97" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -10407,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="U97" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V97" s="12" t="s">
         <v>39</v>
@@ -10432,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="AD97" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE97" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -10502,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="U98" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V98" s="12" t="s">
         <v>39</v>
@@ -10527,10 +10461,10 @@
         <v>0</v>
       </c>
       <c r="AD98" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE98" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="99" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -10597,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="U99" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V99" s="12" t="s">
         <v>39</v>
@@ -10622,10 +10556,10 @@
         <v>0</v>
       </c>
       <c r="AD99" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE99" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="100" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -10692,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="U100" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V100" s="12" t="s">
         <v>39</v>
@@ -10717,10 +10651,10 @@
         <v>0</v>
       </c>
       <c r="AD100" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE100" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -10787,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="U101" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V101" s="12" t="s">
         <v>39</v>
@@ -10812,10 +10746,10 @@
         <v>0</v>
       </c>
       <c r="AD101" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE101" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -10882,7 +10816,7 @@
         <v>0</v>
       </c>
       <c r="U102" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V102" s="12" t="s">
         <v>39</v>
@@ -10907,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="AD102" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE102" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -10977,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="U103" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V103" s="12" t="s">
         <v>39</v>
@@ -11002,10 +10936,10 @@
         <v>0</v>
       </c>
       <c r="AD103" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE103" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -11072,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="U104" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V104" s="12" t="s">
         <v>39</v>
@@ -11097,10 +11031,10 @@
         <v>0</v>
       </c>
       <c r="AD104" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE104" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="105" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -11167,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="U105" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V105" s="12" t="s">
         <v>39</v>
@@ -11192,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="AD105" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE105" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -11262,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="U106" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V106" s="12" t="s">
         <v>39</v>
@@ -11287,10 +11221,10 @@
         <v>0</v>
       </c>
       <c r="AD106" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE106" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -11357,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="U107" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V107" s="12" t="s">
         <v>39</v>
@@ -11382,10 +11316,10 @@
         <v>0</v>
       </c>
       <c r="AD107" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE107" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="108" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -11452,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="U108" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V108" s="12" t="s">
         <v>39</v>
@@ -11477,10 +11411,10 @@
         <v>0</v>
       </c>
       <c r="AD108" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE108" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -11547,7 +11481,7 @@
         <v>0</v>
       </c>
       <c r="U109" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V109" s="12" t="s">
         <v>39</v>
@@ -11572,10 +11506,10 @@
         <v>0</v>
       </c>
       <c r="AD109" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE109" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="110" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -11642,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="U110" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V110" s="12" t="s">
         <v>39</v>
@@ -11667,10 +11601,10 @@
         <v>0</v>
       </c>
       <c r="AD110" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE110" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -11735,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="U111" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V111" s="12" t="s">
         <v>70</v>
@@ -11760,10 +11694,10 @@
         <v>0</v>
       </c>
       <c r="AD111" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE111" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -11828,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="U112" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V112" s="12" t="s">
         <v>70</v>
@@ -11853,10 +11787,10 @@
         <v>0</v>
       </c>
       <c r="AD112" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE112" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -11921,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="U113" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V113" s="12" t="s">
         <v>70</v>
@@ -11946,10 +11880,10 @@
         <v>0</v>
       </c>
       <c r="AD113" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE113" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="114" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -12014,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="U114" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V114" s="12" t="s">
         <v>70</v>
@@ -12039,10 +11973,10 @@
         <v>0</v>
       </c>
       <c r="AD114" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE114" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="115" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -12107,7 +12041,7 @@
         <v>0</v>
       </c>
       <c r="U115" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V115" s="12" t="s">
         <v>70</v>
@@ -12134,10 +12068,10 @@
         <v>0</v>
       </c>
       <c r="AD115" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE115" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="116" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -12202,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="U116" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V116" s="12" t="s">
         <v>75</v>
@@ -12229,10 +12163,10 @@
         <v>0</v>
       </c>
       <c r="AD116" s="12">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AE116" s="12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3810" windowWidth="14805" windowHeight="10215"/>
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="299">
   <si>
     <t>Prefabs/Models/Body/Male_Body_7000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,14 +716,7 @@
     <t>10000-1-10000</t>
   </si>
   <si>
-    <t>10000-1-10000,10001-1-500</t>
-  </si>
-  <si>
     <t>100-10000,101-1000</t>
-  </si>
-  <si>
-    <t>10000-1-10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尸体停留时间</t>
@@ -732,6 +725,303 @@
   <si>
     <t>尸体消失技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001-1-10000</t>
+  </si>
+  <si>
+    <t>10002-1-10000</t>
+  </si>
+  <si>
+    <t>10003-1-10000</t>
+  </si>
+  <si>
+    <t>10004-1-10000</t>
+  </si>
+  <si>
+    <t>10005-1-10000</t>
+  </si>
+  <si>
+    <t>10006-1-10000</t>
+  </si>
+  <si>
+    <t>10007-1-10000</t>
+  </si>
+  <si>
+    <t>10008-1-10000</t>
+  </si>
+  <si>
+    <t>10009-1-10000</t>
+  </si>
+  <si>
+    <t>10010-1-10000</t>
+  </si>
+  <si>
+    <t>10011-1-10000</t>
+  </si>
+  <si>
+    <t>10012-1-10000</t>
+  </si>
+  <si>
+    <t>10013-1-10000</t>
+  </si>
+  <si>
+    <t>10014-1-10000</t>
+  </si>
+  <si>
+    <t>10015-1-10000</t>
+  </si>
+  <si>
+    <t>10016-1-10000</t>
+  </si>
+  <si>
+    <t>10017-1-10000</t>
+  </si>
+  <si>
+    <t>10018-1-10000</t>
+  </si>
+  <si>
+    <t>10019-1-10000</t>
+  </si>
+  <si>
+    <t>10020-1-10000</t>
+  </si>
+  <si>
+    <t>10021-1-10000</t>
+  </si>
+  <si>
+    <t>10022-1-10000</t>
+  </si>
+  <si>
+    <t>10023-1-10000</t>
+  </si>
+  <si>
+    <t>10024-1-10000</t>
+  </si>
+  <si>
+    <t>10025-1-10000</t>
+  </si>
+  <si>
+    <t>10026-1-10000</t>
+  </si>
+  <si>
+    <t>10027-1-10000</t>
+  </si>
+  <si>
+    <t>10028-1-10000</t>
+  </si>
+  <si>
+    <t>10029-1-10000</t>
+  </si>
+  <si>
+    <t>10030-1-10000</t>
+  </si>
+  <si>
+    <t>10031-1-10000</t>
+  </si>
+  <si>
+    <t>10032-1-10000</t>
+  </si>
+  <si>
+    <t>10033-1-10000</t>
+  </si>
+  <si>
+    <t>10034-1-10000</t>
+  </si>
+  <si>
+    <t>10035-1-10000</t>
+  </si>
+  <si>
+    <t>10036-1-10000</t>
+  </si>
+  <si>
+    <t>10037-1-10000</t>
+  </si>
+  <si>
+    <t>10038-1-10000</t>
+  </si>
+  <si>
+    <t>10039-1-10000</t>
+  </si>
+  <si>
+    <t>10040-1-10000</t>
+  </si>
+  <si>
+    <t>10041-1-10000</t>
+  </si>
+  <si>
+    <t>10042-1-10000</t>
+  </si>
+  <si>
+    <t>10043-1-10000</t>
+  </si>
+  <si>
+    <t>10044-1-10000</t>
+  </si>
+  <si>
+    <t>10045-1-10000</t>
+  </si>
+  <si>
+    <t>10046-1-10000</t>
+  </si>
+  <si>
+    <t>10047-1-10000</t>
+  </si>
+  <si>
+    <t>10048-1-10000</t>
+  </si>
+  <si>
+    <t>10049-1-10000</t>
+  </si>
+  <si>
+    <t>10050-1-10000</t>
+  </si>
+  <si>
+    <t>10051-1-10000</t>
+  </si>
+  <si>
+    <t>10052-1-10000</t>
+  </si>
+  <si>
+    <t>10053-1-10000</t>
+  </si>
+  <si>
+    <t>10054-1-10000</t>
+  </si>
+  <si>
+    <t>10055-1-10000</t>
+  </si>
+  <si>
+    <t>10056-1-10000</t>
+  </si>
+  <si>
+    <t>10057-1-10000</t>
+  </si>
+  <si>
+    <t>10058-1-10000</t>
+  </si>
+  <si>
+    <t>10059-1-10000</t>
+  </si>
+  <si>
+    <t>10060-1-10000</t>
+  </si>
+  <si>
+    <t>10061-1-10000</t>
+  </si>
+  <si>
+    <t>10062-1-10000</t>
+  </si>
+  <si>
+    <t>10063-1-10000</t>
+  </si>
+  <si>
+    <t>10064-1-10000</t>
+  </si>
+  <si>
+    <t>10065-1-10000</t>
+  </si>
+  <si>
+    <t>10066-1-10000</t>
+  </si>
+  <si>
+    <t>10067-1-10000</t>
+  </si>
+  <si>
+    <t>10068-1-10000</t>
+  </si>
+  <si>
+    <t>10069-1-10000</t>
+  </si>
+  <si>
+    <t>10070-1-10000</t>
+  </si>
+  <si>
+    <t>10071-1-10000</t>
+  </si>
+  <si>
+    <t>10072-1-10000</t>
+  </si>
+  <si>
+    <t>10073-1-10000</t>
+  </si>
+  <si>
+    <t>10074-1-10000</t>
+  </si>
+  <si>
+    <t>10075-1-10000</t>
+  </si>
+  <si>
+    <t>10076-1-10000</t>
+  </si>
+  <si>
+    <t>10077-1-10000</t>
+  </si>
+  <si>
+    <t>10078-1-10000</t>
+  </si>
+  <si>
+    <t>10079-1-10000</t>
+  </si>
+  <si>
+    <t>10080-1-10000</t>
+  </si>
+  <si>
+    <t>10081-1-10000</t>
+  </si>
+  <si>
+    <t>10082-1-10000</t>
+  </si>
+  <si>
+    <t>10083-1-10000</t>
+  </si>
+  <si>
+    <t>10084-1-10000</t>
+  </si>
+  <si>
+    <t>10085-1-10000</t>
+  </si>
+  <si>
+    <t>10086-1-10000</t>
+  </si>
+  <si>
+    <t>10087-1-10000</t>
+  </si>
+  <si>
+    <t>10088-1-10000</t>
+  </si>
+  <si>
+    <t>10089-1-10000</t>
+  </si>
+  <si>
+    <t>10090-1-10000</t>
+  </si>
+  <si>
+    <t>10091-1-10000</t>
+  </si>
+  <si>
+    <t>10092-1-10000</t>
+  </si>
+  <si>
+    <t>10093-1-10000</t>
+  </si>
+  <si>
+    <t>10094-1-10000</t>
+  </si>
+  <si>
+    <t>10095-1-10000</t>
+  </si>
+  <si>
+    <t>10096-1-10000</t>
+  </si>
+  <si>
+    <t>10097-1-10000</t>
+  </si>
+  <si>
+    <t>10098-1-10000</t>
+  </si>
+  <si>
+    <t>10099-1-10000</t>
   </si>
 </sst>
 </file>
@@ -931,7 +1221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -973,7 +1263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1008,7 +1298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1219,9 +1509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD26" sqref="AD26:AD116"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE114" sqref="AE114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1337,10 +1627,10 @@
         <v>16</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -1430,7 +1720,10 @@
         <v>0</v>
       </c>
       <c r="AD2" s="10">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE2" s="10">
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -1520,7 +1813,10 @@
         <v>0</v>
       </c>
       <c r="AD3" s="10">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE3" s="10">
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -1610,7 +1906,10 @@
         <v>0</v>
       </c>
       <c r="AD4" s="10">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE4" s="10">
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -1700,7 +1999,10 @@
         <v>0</v>
       </c>
       <c r="AD5" s="10">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -1790,7 +2092,10 @@
         <v>0</v>
       </c>
       <c r="AD6" s="10">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -1880,7 +2185,10 @@
         <v>0</v>
       </c>
       <c r="AD7" s="10">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -1970,7 +2278,10 @@
         <v>0</v>
       </c>
       <c r="AD8" s="10">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE8" s="10">
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -2060,7 +2371,10 @@
         <v>0</v>
       </c>
       <c r="AD9" s="10">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -2150,7 +2464,10 @@
         <v>0</v>
       </c>
       <c r="AD10" s="10">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE10" s="10">
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -2216,7 +2533,7 @@
         <v>196</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>31</v>
@@ -2241,7 +2558,10 @@
         <v>0</v>
       </c>
       <c r="AD11" s="12">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -2305,10 +2625,10 @@
         <v>5</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V12" s="12" t="s">
         <v>39</v>
@@ -2333,7 +2653,10 @@
         <v>0</v>
       </c>
       <c r="AD12" s="12">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -2397,10 +2720,10 @@
         <v>5</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V13" s="12" t="s">
         <v>39</v>
@@ -2425,7 +2748,10 @@
         <v>0</v>
       </c>
       <c r="AD13" s="12">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>5000</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -2489,10 +2815,10 @@
         <v>5</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V14" s="12" t="s">
         <v>31</v>
@@ -2517,7 +2843,10 @@
         <v>0</v>
       </c>
       <c r="AD14" s="12">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -2581,10 +2910,10 @@
         <v>5</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V15" s="12" t="s">
         <v>39</v>
@@ -2609,7 +2938,10 @@
         <v>0</v>
       </c>
       <c r="AD15" s="12">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>5000</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -2673,10 +3005,10 @@
         <v>5</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V16" s="12" t="s">
         <v>39</v>
@@ -2701,7 +3033,10 @@
         <v>0</v>
       </c>
       <c r="AD16" s="12">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>5000</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -2765,10 +3100,10 @@
         <v>5</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V17" s="12" t="s">
         <v>39</v>
@@ -2793,7 +3128,10 @@
         <v>0</v>
       </c>
       <c r="AD17" s="12">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>5000</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -2857,10 +3195,10 @@
         <v>5</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V18" s="12" t="s">
         <v>39</v>
@@ -2885,7 +3223,10 @@
         <v>0</v>
       </c>
       <c r="AD18" s="12">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE18" s="12">
+        <v>5000</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -2949,10 +3290,10 @@
         <v>5</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V19" s="12" t="s">
         <v>39</v>
@@ -2977,7 +3318,10 @@
         <v>0</v>
       </c>
       <c r="AD19" s="12">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE19" s="12">
+        <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -3041,10 +3385,10 @@
         <v>5</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V20" s="12" t="s">
         <v>39</v>
@@ -3069,7 +3413,10 @@
         <v>0</v>
       </c>
       <c r="AD20" s="12">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>5000</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -3133,10 +3480,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V21" s="12" t="s">
         <v>39</v>
@@ -3161,7 +3508,10 @@
         <v>0</v>
       </c>
       <c r="AD21" s="12">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE21" s="12">
+        <v>5000</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -3225,10 +3575,10 @@
         <v>5</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V22" s="12" t="s">
         <v>39</v>
@@ -3253,7 +3603,10 @@
         <v>0</v>
       </c>
       <c r="AD22" s="12">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>5000</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -3317,10 +3670,10 @@
         <v>5</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V23" s="12" t="s">
         <v>39</v>
@@ -3345,7 +3698,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="12">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE23" s="12">
+        <v>5000</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -3409,10 +3765,10 @@
         <v>5</v>
       </c>
       <c r="T24" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="U24" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="U24" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="V24" s="12" t="s">
         <v>39</v>
@@ -3437,7 +3793,10 @@
         <v>0</v>
       </c>
       <c r="AD24" s="12">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE24" s="12">
+        <v>5000</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -3501,10 +3860,10 @@
         <v>5</v>
       </c>
       <c r="T25" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="U25" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="U25" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="V25" s="12" t="s">
         <v>39</v>
@@ -3529,7 +3888,10 @@
         <v>0</v>
       </c>
       <c r="AD25" s="12">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="AE25" s="12">
+        <v>5000</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -3593,10 +3955,10 @@
         <v>5</v>
       </c>
       <c r="T26" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="U26" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="V26" s="12" t="s">
         <v>39</v>
@@ -3688,10 +4050,10 @@
         <v>5</v>
       </c>
       <c r="T27" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="U27" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="U27" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="V27" s="12" t="s">
         <v>39</v>
@@ -3783,10 +4145,10 @@
         <v>5</v>
       </c>
       <c r="T28" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="U28" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="V28" s="12" t="s">
         <v>39</v>
@@ -3878,10 +4240,10 @@
         <v>5</v>
       </c>
       <c r="T29" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="U29" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="V29" s="12" t="s">
         <v>39</v>
@@ -3973,10 +4335,10 @@
         <v>5</v>
       </c>
       <c r="T30" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="U30" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="U30" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="V30" s="12" t="s">
         <v>39</v>
@@ -4068,10 +4430,10 @@
         <v>5</v>
       </c>
       <c r="T31" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="U31" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="U31" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="V31" s="12" t="s">
         <v>39</v>
@@ -4163,10 +4525,10 @@
         <v>5</v>
       </c>
       <c r="T32" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="U32" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="U32" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="V32" s="12" t="s">
         <v>39</v>
@@ -4258,10 +4620,10 @@
         <v>5</v>
       </c>
       <c r="T33" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="U33" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="U33" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="V33" s="12" t="s">
         <v>39</v>
@@ -4353,10 +4715,10 @@
         <v>5</v>
       </c>
       <c r="T34" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="U34" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="U34" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="V34" s="12" t="s">
         <v>39</v>
@@ -4448,10 +4810,10 @@
         <v>5</v>
       </c>
       <c r="T35" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="U35" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="U35" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="V35" s="12" t="s">
         <v>39</v>
@@ -4542,11 +4904,11 @@
       <c r="S36" s="10">
         <v>5</v>
       </c>
-      <c r="T36" s="10">
-        <v>0</v>
+      <c r="T36" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V36" s="12" t="s">
         <v>39</v>
@@ -4637,11 +4999,11 @@
       <c r="S37" s="10">
         <v>5</v>
       </c>
-      <c r="T37" s="10">
-        <v>0</v>
+      <c r="T37" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V37" s="12" t="s">
         <v>39</v>
@@ -4732,11 +5094,11 @@
       <c r="S38" s="10">
         <v>5</v>
       </c>
-      <c r="T38" s="10">
-        <v>0</v>
+      <c r="T38" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V38" s="12" t="s">
         <v>39</v>
@@ -4827,11 +5189,11 @@
       <c r="S39" s="10">
         <v>5</v>
       </c>
-      <c r="T39" s="10">
-        <v>0</v>
+      <c r="T39" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V39" s="12" t="s">
         <v>39</v>
@@ -4922,11 +5284,11 @@
       <c r="S40" s="10">
         <v>5</v>
       </c>
-      <c r="T40" s="10">
-        <v>0</v>
+      <c r="T40" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V40" s="12" t="s">
         <v>39</v>
@@ -5017,11 +5379,11 @@
       <c r="S41" s="10">
         <v>5</v>
       </c>
-      <c r="T41" s="10">
-        <v>0</v>
+      <c r="T41" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V41" s="12" t="s">
         <v>39</v>
@@ -5112,11 +5474,11 @@
       <c r="S42" s="10">
         <v>5</v>
       </c>
-      <c r="T42" s="10">
-        <v>0</v>
+      <c r="T42" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V42" s="12" t="s">
         <v>39</v>
@@ -5207,11 +5569,11 @@
       <c r="S43" s="10">
         <v>5</v>
       </c>
-      <c r="T43" s="10">
-        <v>0</v>
+      <c r="T43" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V43" s="12" t="s">
         <v>39</v>
@@ -5302,11 +5664,11 @@
       <c r="S44" s="10">
         <v>5</v>
       </c>
-      <c r="T44" s="10">
-        <v>0</v>
+      <c r="T44" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V44" s="12" t="s">
         <v>39</v>
@@ -5397,11 +5759,11 @@
       <c r="S45" s="10">
         <v>5</v>
       </c>
-      <c r="T45" s="10">
-        <v>0</v>
+      <c r="T45" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="U45" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V45" s="12" t="s">
         <v>39</v>
@@ -5492,11 +5854,11 @@
       <c r="S46" s="10">
         <v>5</v>
       </c>
-      <c r="T46" s="10">
-        <v>0</v>
+      <c r="T46" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V46" s="12" t="s">
         <v>39</v>
@@ -5587,11 +5949,11 @@
       <c r="S47" s="10">
         <v>5</v>
       </c>
-      <c r="T47" s="10">
-        <v>0</v>
+      <c r="T47" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V47" s="12" t="s">
         <v>39</v>
@@ -5682,11 +6044,11 @@
       <c r="S48" s="10">
         <v>5</v>
       </c>
-      <c r="T48" s="10">
-        <v>0</v>
+      <c r="T48" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="U48" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V48" s="12" t="s">
         <v>39</v>
@@ -5777,11 +6139,11 @@
       <c r="S49" s="10">
         <v>5</v>
       </c>
-      <c r="T49" s="10">
-        <v>0</v>
+      <c r="T49" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="U49" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V49" s="12" t="s">
         <v>39</v>
@@ -5872,11 +6234,11 @@
       <c r="S50" s="10">
         <v>5</v>
       </c>
-      <c r="T50" s="10">
-        <v>0</v>
+      <c r="T50" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="U50" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V50" s="12" t="s">
         <v>39</v>
@@ -5967,11 +6329,11 @@
       <c r="S51" s="10">
         <v>5</v>
       </c>
-      <c r="T51" s="10">
-        <v>0</v>
+      <c r="T51" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="U51" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V51" s="12" t="s">
         <v>39</v>
@@ -6062,11 +6424,11 @@
       <c r="S52" s="10">
         <v>5</v>
       </c>
-      <c r="T52" s="10">
-        <v>0</v>
+      <c r="T52" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="U52" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V52" s="12" t="s">
         <v>39</v>
@@ -6157,11 +6519,11 @@
       <c r="S53" s="10">
         <v>5</v>
       </c>
-      <c r="T53" s="10">
-        <v>0</v>
+      <c r="T53" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="U53" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V53" s="12" t="s">
         <v>39</v>
@@ -6252,11 +6614,11 @@
       <c r="S54" s="10">
         <v>5</v>
       </c>
-      <c r="T54" s="10">
-        <v>0</v>
+      <c r="T54" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="U54" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V54" s="12" t="s">
         <v>39</v>
@@ -6347,11 +6709,11 @@
       <c r="S55" s="10">
         <v>5</v>
       </c>
-      <c r="T55" s="10">
-        <v>0</v>
+      <c r="T55" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="U55" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V55" s="12" t="s">
         <v>39</v>
@@ -6442,11 +6804,11 @@
       <c r="S56" s="10">
         <v>5</v>
       </c>
-      <c r="T56" s="10">
-        <v>0</v>
+      <c r="T56" s="10" t="s">
+        <v>244</v>
       </c>
       <c r="U56" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V56" s="12" t="s">
         <v>39</v>
@@ -6537,11 +6899,11 @@
       <c r="S57" s="10">
         <v>5</v>
       </c>
-      <c r="T57" s="10">
-        <v>0</v>
+      <c r="T57" s="10" t="s">
+        <v>245</v>
       </c>
       <c r="U57" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V57" s="12" t="s">
         <v>39</v>
@@ -6632,11 +6994,11 @@
       <c r="S58" s="10">
         <v>5</v>
       </c>
-      <c r="T58" s="10">
-        <v>0</v>
+      <c r="T58" s="10" t="s">
+        <v>246</v>
       </c>
       <c r="U58" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V58" s="12" t="s">
         <v>39</v>
@@ -6727,11 +7089,11 @@
       <c r="S59" s="10">
         <v>5</v>
       </c>
-      <c r="T59" s="10">
-        <v>0</v>
+      <c r="T59" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="U59" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V59" s="12" t="s">
         <v>39</v>
@@ -6822,11 +7184,11 @@
       <c r="S60" s="10">
         <v>5</v>
       </c>
-      <c r="T60" s="10">
-        <v>0</v>
+      <c r="T60" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="U60" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V60" s="12" t="s">
         <v>39</v>
@@ -6917,11 +7279,11 @@
       <c r="S61" s="10">
         <v>5</v>
       </c>
-      <c r="T61" s="10">
-        <v>0</v>
+      <c r="T61" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="U61" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V61" s="12" t="s">
         <v>39</v>
@@ -7012,11 +7374,11 @@
       <c r="S62" s="10">
         <v>5</v>
       </c>
-      <c r="T62" s="10">
-        <v>0</v>
+      <c r="T62" s="10" t="s">
+        <v>250</v>
       </c>
       <c r="U62" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V62" s="12" t="s">
         <v>39</v>
@@ -7107,11 +7469,11 @@
       <c r="S63" s="10">
         <v>5</v>
       </c>
-      <c r="T63" s="10">
-        <v>0</v>
+      <c r="T63" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="U63" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V63" s="12" t="s">
         <v>39</v>
@@ -7202,11 +7564,11 @@
       <c r="S64" s="10">
         <v>5</v>
       </c>
-      <c r="T64" s="10">
-        <v>0</v>
+      <c r="T64" s="10" t="s">
+        <v>252</v>
       </c>
       <c r="U64" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V64" s="12" t="s">
         <v>39</v>
@@ -7297,11 +7659,11 @@
       <c r="S65" s="10">
         <v>5</v>
       </c>
-      <c r="T65" s="10">
-        <v>0</v>
+      <c r="T65" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="U65" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V65" s="12" t="s">
         <v>39</v>
@@ -7392,11 +7754,11 @@
       <c r="S66" s="10">
         <v>5</v>
       </c>
-      <c r="T66" s="10">
-        <v>0</v>
+      <c r="T66" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="U66" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V66" s="12" t="s">
         <v>39</v>
@@ -7487,11 +7849,11 @@
       <c r="S67" s="10">
         <v>5</v>
       </c>
-      <c r="T67" s="10">
-        <v>0</v>
+      <c r="T67" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="U67" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V67" s="12" t="s">
         <v>39</v>
@@ -7582,11 +7944,11 @@
       <c r="S68" s="10">
         <v>5</v>
       </c>
-      <c r="T68" s="10">
-        <v>0</v>
+      <c r="T68" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="U68" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V68" s="12" t="s">
         <v>39</v>
@@ -7677,11 +8039,11 @@
       <c r="S69" s="10">
         <v>5</v>
       </c>
-      <c r="T69" s="10">
-        <v>0</v>
+      <c r="T69" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="U69" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V69" s="12" t="s">
         <v>39</v>
@@ -7772,11 +8134,11 @@
       <c r="S70" s="10">
         <v>5</v>
       </c>
-      <c r="T70" s="10">
-        <v>0</v>
+      <c r="T70" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="U70" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V70" s="12" t="s">
         <v>39</v>
@@ -7867,11 +8229,11 @@
       <c r="S71" s="10">
         <v>5</v>
       </c>
-      <c r="T71" s="10">
-        <v>0</v>
+      <c r="T71" s="10" t="s">
+        <v>259</v>
       </c>
       <c r="U71" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V71" s="12" t="s">
         <v>39</v>
@@ -7962,11 +8324,11 @@
       <c r="S72" s="10">
         <v>5</v>
       </c>
-      <c r="T72" s="10">
-        <v>0</v>
+      <c r="T72" s="10" t="s">
+        <v>260</v>
       </c>
       <c r="U72" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V72" s="12" t="s">
         <v>39</v>
@@ -8057,11 +8419,11 @@
       <c r="S73" s="10">
         <v>5</v>
       </c>
-      <c r="T73" s="10">
-        <v>0</v>
+      <c r="T73" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="U73" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V73" s="12" t="s">
         <v>39</v>
@@ -8152,11 +8514,11 @@
       <c r="S74" s="10">
         <v>5</v>
       </c>
-      <c r="T74" s="10">
-        <v>0</v>
+      <c r="T74" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="U74" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V74" s="12" t="s">
         <v>39</v>
@@ -8247,11 +8609,11 @@
       <c r="S75" s="10">
         <v>5</v>
       </c>
-      <c r="T75" s="10">
-        <v>0</v>
+      <c r="T75" s="10" t="s">
+        <v>263</v>
       </c>
       <c r="U75" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V75" s="12" t="s">
         <v>39</v>
@@ -8342,11 +8704,11 @@
       <c r="S76" s="10">
         <v>5</v>
       </c>
-      <c r="T76" s="10">
-        <v>0</v>
+      <c r="T76" s="10" t="s">
+        <v>264</v>
       </c>
       <c r="U76" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V76" s="12" t="s">
         <v>39</v>
@@ -8437,11 +8799,11 @@
       <c r="S77" s="10">
         <v>5</v>
       </c>
-      <c r="T77" s="10">
-        <v>0</v>
+      <c r="T77" s="10" t="s">
+        <v>265</v>
       </c>
       <c r="U77" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V77" s="12" t="s">
         <v>39</v>
@@ -8532,11 +8894,11 @@
       <c r="S78" s="10">
         <v>5</v>
       </c>
-      <c r="T78" s="10">
-        <v>0</v>
+      <c r="T78" s="10" t="s">
+        <v>266</v>
       </c>
       <c r="U78" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V78" s="12" t="s">
         <v>39</v>
@@ -8627,11 +8989,11 @@
       <c r="S79" s="10">
         <v>5</v>
       </c>
-      <c r="T79" s="10">
-        <v>0</v>
+      <c r="T79" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="U79" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V79" s="12" t="s">
         <v>39</v>
@@ -8722,11 +9084,11 @@
       <c r="S80" s="10">
         <v>5</v>
       </c>
-      <c r="T80" s="10">
-        <v>0</v>
+      <c r="T80" s="10" t="s">
+        <v>268</v>
       </c>
       <c r="U80" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V80" s="12" t="s">
         <v>39</v>
@@ -8817,11 +9179,11 @@
       <c r="S81" s="10">
         <v>5</v>
       </c>
-      <c r="T81" s="10">
-        <v>0</v>
+      <c r="T81" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="U81" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V81" s="12" t="s">
         <v>39</v>
@@ -8912,11 +9274,11 @@
       <c r="S82" s="10">
         <v>5</v>
       </c>
-      <c r="T82" s="10">
-        <v>0</v>
+      <c r="T82" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="U82" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V82" s="12" t="s">
         <v>39</v>
@@ -9007,11 +9369,11 @@
       <c r="S83" s="10">
         <v>5</v>
       </c>
-      <c r="T83" s="10">
-        <v>0</v>
+      <c r="T83" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="U83" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V83" s="12" t="s">
         <v>39</v>
@@ -9102,11 +9464,11 @@
       <c r="S84" s="10">
         <v>5</v>
       </c>
-      <c r="T84" s="10">
-        <v>0</v>
+      <c r="T84" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="U84" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V84" s="12" t="s">
         <v>39</v>
@@ -9197,11 +9559,11 @@
       <c r="S85" s="10">
         <v>5</v>
       </c>
-      <c r="T85" s="10">
-        <v>0</v>
+      <c r="T85" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="U85" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V85" s="12" t="s">
         <v>39</v>
@@ -9292,11 +9654,11 @@
       <c r="S86" s="10">
         <v>5</v>
       </c>
-      <c r="T86" s="10">
-        <v>0</v>
+      <c r="T86" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="U86" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V86" s="12" t="s">
         <v>39</v>
@@ -9387,11 +9749,11 @@
       <c r="S87" s="10">
         <v>5</v>
       </c>
-      <c r="T87" s="10">
-        <v>0</v>
+      <c r="T87" s="10" t="s">
+        <v>275</v>
       </c>
       <c r="U87" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V87" s="12" t="s">
         <v>39</v>
@@ -9482,11 +9844,11 @@
       <c r="S88" s="10">
         <v>5</v>
       </c>
-      <c r="T88" s="10">
-        <v>0</v>
+      <c r="T88" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="U88" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V88" s="12" t="s">
         <v>39</v>
@@ -9577,11 +9939,11 @@
       <c r="S89" s="10">
         <v>5</v>
       </c>
-      <c r="T89" s="10">
-        <v>0</v>
+      <c r="T89" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="U89" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V89" s="12" t="s">
         <v>39</v>
@@ -9672,11 +10034,11 @@
       <c r="S90" s="10">
         <v>5</v>
       </c>
-      <c r="T90" s="10">
-        <v>0</v>
+      <c r="T90" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="U90" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V90" s="12" t="s">
         <v>39</v>
@@ -9767,11 +10129,11 @@
       <c r="S91" s="10">
         <v>5</v>
       </c>
-      <c r="T91" s="10">
-        <v>0</v>
+      <c r="T91" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="U91" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V91" s="12" t="s">
         <v>39</v>
@@ -9862,11 +10224,11 @@
       <c r="S92" s="10">
         <v>5</v>
       </c>
-      <c r="T92" s="10">
-        <v>0</v>
+      <c r="T92" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="U92" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V92" s="12" t="s">
         <v>39</v>
@@ -9957,11 +10319,11 @@
       <c r="S93" s="10">
         <v>5</v>
       </c>
-      <c r="T93" s="10">
-        <v>0</v>
+      <c r="T93" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="U93" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V93" s="12" t="s">
         <v>39</v>
@@ -10052,11 +10414,11 @@
       <c r="S94" s="10">
         <v>5</v>
       </c>
-      <c r="T94" s="10">
-        <v>0</v>
+      <c r="T94" s="10" t="s">
+        <v>282</v>
       </c>
       <c r="U94" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V94" s="12" t="s">
         <v>39</v>
@@ -10147,11 +10509,11 @@
       <c r="S95" s="10">
         <v>5</v>
       </c>
-      <c r="T95" s="10">
-        <v>0</v>
+      <c r="T95" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="U95" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V95" s="12" t="s">
         <v>39</v>
@@ -10242,11 +10604,11 @@
       <c r="S96" s="10">
         <v>5</v>
       </c>
-      <c r="T96" s="10">
-        <v>0</v>
+      <c r="T96" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="U96" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V96" s="12" t="s">
         <v>39</v>
@@ -10337,11 +10699,11 @@
       <c r="S97" s="10">
         <v>5</v>
       </c>
-      <c r="T97" s="10">
-        <v>0</v>
+      <c r="T97" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="U97" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V97" s="12" t="s">
         <v>39</v>
@@ -10432,11 +10794,11 @@
       <c r="S98" s="10">
         <v>5</v>
       </c>
-      <c r="T98" s="10">
-        <v>0</v>
+      <c r="T98" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="U98" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V98" s="12" t="s">
         <v>39</v>
@@ -10527,11 +10889,11 @@
       <c r="S99" s="10">
         <v>5</v>
       </c>
-      <c r="T99" s="10">
-        <v>0</v>
+      <c r="T99" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="U99" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V99" s="12" t="s">
         <v>39</v>
@@ -10622,11 +10984,11 @@
       <c r="S100" s="10">
         <v>5</v>
       </c>
-      <c r="T100" s="10">
-        <v>0</v>
+      <c r="T100" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="U100" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V100" s="12" t="s">
         <v>39</v>
@@ -10717,11 +11079,11 @@
       <c r="S101" s="10">
         <v>5</v>
       </c>
-      <c r="T101" s="10">
-        <v>0</v>
+      <c r="T101" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="U101" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V101" s="12" t="s">
         <v>39</v>
@@ -10812,11 +11174,11 @@
       <c r="S102" s="10">
         <v>5</v>
       </c>
-      <c r="T102" s="10">
-        <v>0</v>
+      <c r="T102" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="U102" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V102" s="12" t="s">
         <v>39</v>
@@ -10907,11 +11269,11 @@
       <c r="S103" s="10">
         <v>5</v>
       </c>
-      <c r="T103" s="10">
-        <v>0</v>
+      <c r="T103" s="10" t="s">
+        <v>291</v>
       </c>
       <c r="U103" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V103" s="12" t="s">
         <v>39</v>
@@ -11002,11 +11364,11 @@
       <c r="S104" s="10">
         <v>5</v>
       </c>
-      <c r="T104" s="10">
-        <v>0</v>
+      <c r="T104" s="10" t="s">
+        <v>292</v>
       </c>
       <c r="U104" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V104" s="12" t="s">
         <v>39</v>
@@ -11097,11 +11459,11 @@
       <c r="S105" s="10">
         <v>5</v>
       </c>
-      <c r="T105" s="10">
-        <v>0</v>
+      <c r="T105" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="U105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V105" s="12" t="s">
         <v>39</v>
@@ -11192,11 +11554,11 @@
       <c r="S106" s="10">
         <v>5</v>
       </c>
-      <c r="T106" s="10">
-        <v>0</v>
+      <c r="T106" s="10" t="s">
+        <v>294</v>
       </c>
       <c r="U106" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V106" s="12" t="s">
         <v>39</v>
@@ -11287,11 +11649,11 @@
       <c r="S107" s="10">
         <v>5</v>
       </c>
-      <c r="T107" s="10">
-        <v>0</v>
+      <c r="T107" s="10" t="s">
+        <v>295</v>
       </c>
       <c r="U107" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V107" s="12" t="s">
         <v>39</v>
@@ -11382,11 +11744,11 @@
       <c r="S108" s="10">
         <v>5</v>
       </c>
-      <c r="T108" s="10">
-        <v>0</v>
+      <c r="T108" s="10" t="s">
+        <v>296</v>
       </c>
       <c r="U108" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V108" s="12" t="s">
         <v>39</v>
@@ -11477,11 +11839,11 @@
       <c r="S109" s="10">
         <v>5</v>
       </c>
-      <c r="T109" s="10">
-        <v>0</v>
+      <c r="T109" s="10" t="s">
+        <v>297</v>
       </c>
       <c r="U109" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V109" s="12" t="s">
         <v>39</v>
@@ -11572,11 +11934,11 @@
       <c r="S110" s="10">
         <v>5</v>
       </c>
-      <c r="T110" s="10">
-        <v>0</v>
+      <c r="T110" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="U110" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V110" s="12" t="s">
         <v>39</v>
@@ -11665,11 +12027,11 @@
       <c r="S111" s="10">
         <v>5</v>
       </c>
-      <c r="T111" s="10">
-        <v>0</v>
+      <c r="T111" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="U111" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V111" s="12" t="s">
         <v>70</v>
@@ -11694,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="AD111" s="12">
-        <v>20000</v>
+        <v>20001</v>
       </c>
       <c r="AE111" s="12">
         <v>5000</v>
@@ -11758,11 +12120,11 @@
       <c r="S112" s="10">
         <v>5</v>
       </c>
-      <c r="T112" s="10">
-        <v>0</v>
+      <c r="T112" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="U112" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V112" s="12" t="s">
         <v>70</v>
@@ -11787,7 +12149,7 @@
         <v>0</v>
       </c>
       <c r="AD112" s="12">
-        <v>20000</v>
+        <v>20001</v>
       </c>
       <c r="AE112" s="12">
         <v>5000</v>
@@ -11851,11 +12213,11 @@
       <c r="S113" s="10">
         <v>5</v>
       </c>
-      <c r="T113" s="10">
-        <v>0</v>
+      <c r="T113" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="U113" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V113" s="12" t="s">
         <v>70</v>
@@ -11880,7 +12242,7 @@
         <v>0</v>
       </c>
       <c r="AD113" s="12">
-        <v>20000</v>
+        <v>20001</v>
       </c>
       <c r="AE113" s="12">
         <v>5000</v>
@@ -11944,11 +12306,11 @@
       <c r="S114" s="10">
         <v>5</v>
       </c>
-      <c r="T114" s="10">
-        <v>0</v>
+      <c r="T114" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="U114" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V114" s="12" t="s">
         <v>70</v>
@@ -11973,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="AD114" s="12">
-        <v>20000</v>
+        <v>20001</v>
       </c>
       <c r="AE114" s="12">
         <v>5000</v>
@@ -12037,11 +12399,11 @@
       <c r="S115" s="10">
         <v>5</v>
       </c>
-      <c r="T115" s="10">
-        <v>0</v>
+      <c r="T115" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="U115" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V115" s="12" t="s">
         <v>70</v>
@@ -12068,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="AD115" s="12">
-        <v>20000</v>
+        <v>20001</v>
       </c>
       <c r="AE115" s="12">
         <v>5000</v>
@@ -12132,11 +12494,11 @@
       <c r="S116" s="10">
         <v>5</v>
       </c>
-      <c r="T116" s="10">
-        <v>0</v>
+      <c r="T116" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="U116" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V116" s="12" t="s">
         <v>75</v>
@@ -12163,7 +12525,7 @@
         <v>0</v>
       </c>
       <c r="AD116" s="12">
-        <v>20000</v>
+        <v>20001</v>
       </c>
       <c r="AE116" s="12">
         <v>5000</v>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="309">
   <si>
     <t>Prefabs/Models/Body/Male_Body_7000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,38 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>桃源强盗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃源刀客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃源巫祝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔化琴姬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤尾魔猴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方锤鬼将</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔瞳狐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偃刀叛将</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔化校尉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,15 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9级普通怪</t>
-  </si>
-  <si>
-    <t>10级普通怪</t>
-  </si>
-  <si>
-    <t>11级普通怪</t>
-  </si>
-  <si>
     <t>12级普通怪</t>
   </si>
   <si>
@@ -1022,6 +981,90 @@
   </si>
   <si>
     <t>10099-1-10000</t>
+  </si>
+  <si>
+    <t>凶狠的老虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华南虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨斧将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀兵斥候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持矛偏将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩马将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甄姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1509,9 +1552,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE114" sqref="AE114"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozenSplit"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1552,19 +1596,19 @@
         <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>44</v>
@@ -1579,31 +1623,31 @@
         <v>47</v>
       </c>
       <c r="N1" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="T1" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P1" s="11" t="s">
+      <c r="U1" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="W1" s="6" t="s">
         <v>32</v>
@@ -1627,10 +1671,10 @@
         <v>16</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -1641,7 +1685,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D2" s="10">
         <v>0</v>
@@ -1734,7 +1778,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D3" s="10">
         <v>0</v>
@@ -1791,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="10">
@@ -1827,7 +1871,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D4" s="10">
         <v>0</v>
@@ -1920,7 +1964,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D5" s="10">
         <v>0</v>
@@ -2013,7 +2057,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D6" s="10">
         <v>0</v>
@@ -2106,7 +2150,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
@@ -2199,7 +2243,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -2475,10 +2519,10 @@
         <v>10000</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D11" s="12">
         <v>1</v>
@@ -2530,10 +2574,10 @@
         <v>5</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>31</v>
@@ -2569,10 +2613,10 @@
         <v>10001</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>59</v>
+        <v>292</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D12" s="12">
         <v>1</v>
@@ -2625,13 +2669,13 @@
         <v>5</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="W12" s="12"/>
       <c r="X12" s="12">
@@ -2664,10 +2708,10 @@
         <v>10002</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
@@ -2720,13 +2764,13 @@
         <v>5</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>39</v>
+        <v>293</v>
       </c>
       <c r="W13" s="12"/>
       <c r="X13" s="12">
@@ -2759,10 +2803,10 @@
         <v>10003</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>61</v>
+        <v>296</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -2815,13 +2859,13 @@
         <v>5</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="W14" s="12"/>
       <c r="X14" s="12">
@@ -2854,10 +2898,10 @@
         <v>10004</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>62</v>
+        <v>297</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D15" s="12">
         <v>1</v>
@@ -2910,13 +2954,13 @@
         <v>5</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="W15" s="12"/>
       <c r="X15" s="12">
@@ -2949,10 +2993,10 @@
         <v>10005</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D16" s="12">
         <v>1</v>
@@ -3005,13 +3049,13 @@
         <v>5</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="W16" s="12"/>
       <c r="X16" s="12">
@@ -3044,10 +3088,10 @@
         <v>10006</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>64</v>
+        <v>301</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D17" s="12">
         <v>1</v>
@@ -3100,13 +3144,13 @@
         <v>5</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>39</v>
+        <v>302</v>
       </c>
       <c r="W17" s="12"/>
       <c r="X17" s="12">
@@ -3139,10 +3183,10 @@
         <v>10007</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D18" s="12">
         <v>1</v>
@@ -3195,13 +3239,13 @@
         <v>5</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>39</v>
+        <v>304</v>
       </c>
       <c r="W18" s="12"/>
       <c r="X18" s="12">
@@ -3234,10 +3278,10 @@
         <v>10008</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>88</v>
+        <v>306</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="D19" s="12">
         <v>1</v>
@@ -3290,13 +3334,13 @@
         <v>5</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>39</v>
+        <v>305</v>
       </c>
       <c r="W19" s="12"/>
       <c r="X19" s="12">
@@ -3329,10 +3373,10 @@
         <v>10009</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>89</v>
+        <v>289</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="D20" s="12">
         <v>1</v>
@@ -3385,10 +3429,10 @@
         <v>5</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V20" s="12" t="s">
         <v>39</v>
@@ -3424,10 +3468,10 @@
         <v>10010</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D21" s="12">
         <v>1</v>
@@ -3480,13 +3524,13 @@
         <v>5</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12">
@@ -3519,10 +3563,10 @@
         <v>10011</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D22" s="12">
         <v>1</v>
@@ -3575,10 +3619,10 @@
         <v>5</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V22" s="12" t="s">
         <v>39</v>
@@ -3614,10 +3658,10 @@
         <v>10012</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D23" s="12">
         <v>1</v>
@@ -3670,10 +3714,10 @@
         <v>5</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V23" s="12" t="s">
         <v>39</v>
@@ -3709,10 +3753,10 @@
         <v>10013</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D24" s="12">
         <v>1</v>
@@ -3765,10 +3809,10 @@
         <v>5</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V24" s="12" t="s">
         <v>39</v>
@@ -3804,10 +3848,10 @@
         <v>10014</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D25" s="12">
         <v>1</v>
@@ -3860,10 +3904,10 @@
         <v>5</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V25" s="12" t="s">
         <v>39</v>
@@ -3899,10 +3943,10 @@
         <v>10015</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D26" s="12">
         <v>1</v>
@@ -3955,10 +3999,10 @@
         <v>5</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V26" s="12" t="s">
         <v>39</v>
@@ -3994,10 +4038,10 @@
         <v>10016</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D27" s="12">
         <v>1</v>
@@ -4050,10 +4094,10 @@
         <v>5</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V27" s="12" t="s">
         <v>39</v>
@@ -4089,10 +4133,10 @@
         <v>10017</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D28" s="12">
         <v>1</v>
@@ -4145,10 +4189,10 @@
         <v>5</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V28" s="12" t="s">
         <v>39</v>
@@ -4184,10 +4228,10 @@
         <v>10018</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D29" s="12">
         <v>1</v>
@@ -4240,10 +4284,10 @@
         <v>5</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V29" s="12" t="s">
         <v>39</v>
@@ -4279,10 +4323,10 @@
         <v>10019</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D30" s="12">
         <v>1</v>
@@ -4335,10 +4379,10 @@
         <v>5</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V30" s="12" t="s">
         <v>39</v>
@@ -4374,10 +4418,10 @@
         <v>10020</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D31" s="12">
         <v>1</v>
@@ -4430,10 +4474,10 @@
         <v>5</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V31" s="12" t="s">
         <v>39</v>
@@ -4469,10 +4513,10 @@
         <v>10021</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D32" s="12">
         <v>1</v>
@@ -4525,10 +4569,10 @@
         <v>5</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V32" s="12" t="s">
         <v>39</v>
@@ -4564,10 +4608,10 @@
         <v>10022</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D33" s="12">
         <v>1</v>
@@ -4620,10 +4664,10 @@
         <v>5</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V33" s="12" t="s">
         <v>39</v>
@@ -4659,10 +4703,10 @@
         <v>10023</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D34" s="12">
         <v>1</v>
@@ -4715,10 +4759,10 @@
         <v>5</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V34" s="12" t="s">
         <v>39</v>
@@ -4754,10 +4798,10 @@
         <v>10024</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D35" s="12">
         <v>1</v>
@@ -4810,10 +4854,10 @@
         <v>5</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V35" s="12" t="s">
         <v>39</v>
@@ -4849,10 +4893,10 @@
         <v>10025</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
@@ -4905,10 +4949,10 @@
         <v>5</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V36" s="12" t="s">
         <v>39</v>
@@ -4944,10 +4988,10 @@
         <v>10026</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
@@ -5000,10 +5044,10 @@
         <v>5</v>
       </c>
       <c r="T37" s="10" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V37" s="12" t="s">
         <v>39</v>
@@ -5039,10 +5083,10 @@
         <v>10027</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D38" s="12">
         <v>1</v>
@@ -5095,10 +5139,10 @@
         <v>5</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V38" s="12" t="s">
         <v>39</v>
@@ -5134,10 +5178,10 @@
         <v>10028</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D39" s="12">
         <v>1</v>
@@ -5190,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V39" s="12" t="s">
         <v>39</v>
@@ -5229,10 +5273,10 @@
         <v>10029</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D40" s="12">
         <v>1</v>
@@ -5285,10 +5329,10 @@
         <v>5</v>
       </c>
       <c r="T40" s="10" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V40" s="12" t="s">
         <v>39</v>
@@ -5324,10 +5368,10 @@
         <v>10030</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D41" s="12">
         <v>1</v>
@@ -5380,10 +5424,10 @@
         <v>5</v>
       </c>
       <c r="T41" s="10" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V41" s="12" t="s">
         <v>39</v>
@@ -5419,10 +5463,10 @@
         <v>10031</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D42" s="12">
         <v>1</v>
@@ -5475,10 +5519,10 @@
         <v>5</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V42" s="12" t="s">
         <v>39</v>
@@ -5514,10 +5558,10 @@
         <v>10032</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D43" s="12">
         <v>1</v>
@@ -5570,10 +5614,10 @@
         <v>5</v>
       </c>
       <c r="T43" s="10" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V43" s="12" t="s">
         <v>39</v>
@@ -5609,10 +5653,10 @@
         <v>10033</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D44" s="12">
         <v>1</v>
@@ -5665,10 +5709,10 @@
         <v>5</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V44" s="12" t="s">
         <v>39</v>
@@ -5704,10 +5748,10 @@
         <v>10034</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D45" s="12">
         <v>1</v>
@@ -5760,10 +5804,10 @@
         <v>5</v>
       </c>
       <c r="T45" s="10" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="U45" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V45" s="12" t="s">
         <v>39</v>
@@ -5799,10 +5843,10 @@
         <v>10035</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D46" s="12">
         <v>1</v>
@@ -5855,10 +5899,10 @@
         <v>5</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V46" s="12" t="s">
         <v>39</v>
@@ -5894,10 +5938,10 @@
         <v>10036</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D47" s="12">
         <v>1</v>
@@ -5950,10 +5994,10 @@
         <v>5</v>
       </c>
       <c r="T47" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V47" s="12" t="s">
         <v>39</v>
@@ -5989,10 +6033,10 @@
         <v>10037</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D48" s="12">
         <v>1</v>
@@ -6045,10 +6089,10 @@
         <v>5</v>
       </c>
       <c r="T48" s="10" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="U48" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V48" s="12" t="s">
         <v>39</v>
@@ -6084,10 +6128,10 @@
         <v>10038</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D49" s="12">
         <v>1</v>
@@ -6140,10 +6184,10 @@
         <v>5</v>
       </c>
       <c r="T49" s="10" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="U49" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V49" s="12" t="s">
         <v>39</v>
@@ -6179,10 +6223,10 @@
         <v>10039</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D50" s="12">
         <v>1</v>
@@ -6235,10 +6279,10 @@
         <v>5</v>
       </c>
       <c r="T50" s="10" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="U50" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V50" s="12" t="s">
         <v>39</v>
@@ -6274,10 +6318,10 @@
         <v>10040</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D51" s="12">
         <v>1</v>
@@ -6330,10 +6374,10 @@
         <v>5</v>
       </c>
       <c r="T51" s="10" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="U51" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V51" s="12" t="s">
         <v>39</v>
@@ -6369,10 +6413,10 @@
         <v>10041</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D52" s="12">
         <v>1</v>
@@ -6425,10 +6469,10 @@
         <v>5</v>
       </c>
       <c r="T52" s="10" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="U52" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V52" s="12" t="s">
         <v>39</v>
@@ -6464,10 +6508,10 @@
         <v>10042</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D53" s="12">
         <v>1</v>
@@ -6520,10 +6564,10 @@
         <v>5</v>
       </c>
       <c r="T53" s="10" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="U53" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V53" s="12" t="s">
         <v>39</v>
@@ -6559,10 +6603,10 @@
         <v>10043</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D54" s="12">
         <v>1</v>
@@ -6615,10 +6659,10 @@
         <v>5</v>
       </c>
       <c r="T54" s="10" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="U54" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V54" s="12" t="s">
         <v>39</v>
@@ -6654,10 +6698,10 @@
         <v>10044</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D55" s="12">
         <v>1</v>
@@ -6710,10 +6754,10 @@
         <v>5</v>
       </c>
       <c r="T55" s="10" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="U55" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V55" s="12" t="s">
         <v>39</v>
@@ -6749,10 +6793,10 @@
         <v>10045</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D56" s="12">
         <v>1</v>
@@ -6805,10 +6849,10 @@
         <v>5</v>
       </c>
       <c r="T56" s="10" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="U56" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V56" s="12" t="s">
         <v>39</v>
@@ -6844,10 +6888,10 @@
         <v>10046</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
@@ -6900,10 +6944,10 @@
         <v>5</v>
       </c>
       <c r="T57" s="10" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="U57" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V57" s="12" t="s">
         <v>39</v>
@@ -6939,10 +6983,10 @@
         <v>10047</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D58" s="12">
         <v>1</v>
@@ -6995,10 +7039,10 @@
         <v>5</v>
       </c>
       <c r="T58" s="10" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="U58" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V58" s="12" t="s">
         <v>39</v>
@@ -7034,10 +7078,10 @@
         <v>10048</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D59" s="12">
         <v>1</v>
@@ -7090,10 +7134,10 @@
         <v>5</v>
       </c>
       <c r="T59" s="10" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="U59" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V59" s="12" t="s">
         <v>39</v>
@@ -7129,10 +7173,10 @@
         <v>10049</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D60" s="12">
         <v>1</v>
@@ -7185,10 +7229,10 @@
         <v>5</v>
       </c>
       <c r="T60" s="10" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="U60" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V60" s="12" t="s">
         <v>39</v>
@@ -7224,10 +7268,10 @@
         <v>10050</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D61" s="12">
         <v>1</v>
@@ -7280,10 +7324,10 @@
         <v>5</v>
       </c>
       <c r="T61" s="10" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="U61" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V61" s="12" t="s">
         <v>39</v>
@@ -7319,10 +7363,10 @@
         <v>10051</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D62" s="12">
         <v>1</v>
@@ -7375,10 +7419,10 @@
         <v>5</v>
       </c>
       <c r="T62" s="10" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="U62" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V62" s="12" t="s">
         <v>39</v>
@@ -7414,10 +7458,10 @@
         <v>10052</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D63" s="12">
         <v>1</v>
@@ -7470,10 +7514,10 @@
         <v>5</v>
       </c>
       <c r="T63" s="10" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="U63" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V63" s="12" t="s">
         <v>39</v>
@@ -7509,10 +7553,10 @@
         <v>10053</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D64" s="12">
         <v>1</v>
@@ -7565,10 +7609,10 @@
         <v>5</v>
       </c>
       <c r="T64" s="10" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="U64" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V64" s="12" t="s">
         <v>39</v>
@@ -7604,10 +7648,10 @@
         <v>10054</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D65" s="12">
         <v>1</v>
@@ -7660,10 +7704,10 @@
         <v>5</v>
       </c>
       <c r="T65" s="10" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="U65" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V65" s="12" t="s">
         <v>39</v>
@@ -7699,10 +7743,10 @@
         <v>10055</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D66" s="12">
         <v>1</v>
@@ -7755,10 +7799,10 @@
         <v>5</v>
       </c>
       <c r="T66" s="10" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="U66" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V66" s="12" t="s">
         <v>39</v>
@@ -7794,10 +7838,10 @@
         <v>10056</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D67" s="12">
         <v>1</v>
@@ -7850,10 +7894,10 @@
         <v>5</v>
       </c>
       <c r="T67" s="10" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="U67" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V67" s="12" t="s">
         <v>39</v>
@@ -7889,10 +7933,10 @@
         <v>10057</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D68" s="12">
         <v>1</v>
@@ -7945,10 +7989,10 @@
         <v>5</v>
       </c>
       <c r="T68" s="10" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="U68" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V68" s="12" t="s">
         <v>39</v>
@@ -7984,10 +8028,10 @@
         <v>10058</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D69" s="12">
         <v>1</v>
@@ -8040,10 +8084,10 @@
         <v>5</v>
       </c>
       <c r="T69" s="10" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="U69" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V69" s="12" t="s">
         <v>39</v>
@@ -8079,10 +8123,10 @@
         <v>10059</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D70" s="12">
         <v>1</v>
@@ -8135,10 +8179,10 @@
         <v>5</v>
       </c>
       <c r="T70" s="10" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="U70" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V70" s="12" t="s">
         <v>39</v>
@@ -8174,10 +8218,10 @@
         <v>10060</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D71" s="12">
         <v>1</v>
@@ -8230,10 +8274,10 @@
         <v>5</v>
       </c>
       <c r="T71" s="10" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="U71" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V71" s="12" t="s">
         <v>39</v>
@@ -8269,10 +8313,10 @@
         <v>10061</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D72" s="12">
         <v>1</v>
@@ -8325,10 +8369,10 @@
         <v>5</v>
       </c>
       <c r="T72" s="10" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="U72" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V72" s="12" t="s">
         <v>39</v>
@@ -8364,10 +8408,10 @@
         <v>10062</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D73" s="12">
         <v>1</v>
@@ -8420,10 +8464,10 @@
         <v>5</v>
       </c>
       <c r="T73" s="10" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="U73" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V73" s="12" t="s">
         <v>39</v>
@@ -8459,10 +8503,10 @@
         <v>10063</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D74" s="12">
         <v>1</v>
@@ -8515,10 +8559,10 @@
         <v>5</v>
       </c>
       <c r="T74" s="10" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="U74" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V74" s="12" t="s">
         <v>39</v>
@@ -8554,10 +8598,10 @@
         <v>10064</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D75" s="12">
         <v>1</v>
@@ -8610,10 +8654,10 @@
         <v>5</v>
       </c>
       <c r="T75" s="10" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="U75" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V75" s="12" t="s">
         <v>39</v>
@@ -8649,10 +8693,10 @@
         <v>10065</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D76" s="12">
         <v>1</v>
@@ -8705,10 +8749,10 @@
         <v>5</v>
       </c>
       <c r="T76" s="10" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="U76" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V76" s="12" t="s">
         <v>39</v>
@@ -8744,10 +8788,10 @@
         <v>10066</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D77" s="12">
         <v>1</v>
@@ -8800,10 +8844,10 @@
         <v>5</v>
       </c>
       <c r="T77" s="10" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="U77" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V77" s="12" t="s">
         <v>39</v>
@@ -8839,10 +8883,10 @@
         <v>10067</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D78" s="12">
         <v>1</v>
@@ -8895,10 +8939,10 @@
         <v>5</v>
       </c>
       <c r="T78" s="10" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="U78" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V78" s="12" t="s">
         <v>39</v>
@@ -8934,10 +8978,10 @@
         <v>10068</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D79" s="12">
         <v>1</v>
@@ -8990,10 +9034,10 @@
         <v>5</v>
       </c>
       <c r="T79" s="10" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="U79" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V79" s="12" t="s">
         <v>39</v>
@@ -9029,10 +9073,10 @@
         <v>10069</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D80" s="12">
         <v>1</v>
@@ -9085,10 +9129,10 @@
         <v>5</v>
       </c>
       <c r="T80" s="10" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="U80" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V80" s="12" t="s">
         <v>39</v>
@@ -9124,10 +9168,10 @@
         <v>10070</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D81" s="12">
         <v>1</v>
@@ -9180,10 +9224,10 @@
         <v>5</v>
       </c>
       <c r="T81" s="10" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="U81" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V81" s="12" t="s">
         <v>39</v>
@@ -9219,10 +9263,10 @@
         <v>10071</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D82" s="12">
         <v>1</v>
@@ -9275,10 +9319,10 @@
         <v>5</v>
       </c>
       <c r="T82" s="10" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="U82" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V82" s="12" t="s">
         <v>39</v>
@@ -9314,10 +9358,10 @@
         <v>10072</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D83" s="12">
         <v>1</v>
@@ -9370,10 +9414,10 @@
         <v>5</v>
       </c>
       <c r="T83" s="10" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="U83" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V83" s="12" t="s">
         <v>39</v>
@@ -9409,10 +9453,10 @@
         <v>10073</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D84" s="12">
         <v>1</v>
@@ -9465,10 +9509,10 @@
         <v>5</v>
       </c>
       <c r="T84" s="10" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="U84" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V84" s="12" t="s">
         <v>39</v>
@@ -9504,10 +9548,10 @@
         <v>10074</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D85" s="12">
         <v>1</v>
@@ -9560,10 +9604,10 @@
         <v>5</v>
       </c>
       <c r="T85" s="10" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="U85" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V85" s="12" t="s">
         <v>39</v>
@@ -9599,10 +9643,10 @@
         <v>10075</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D86" s="12">
         <v>1</v>
@@ -9655,10 +9699,10 @@
         <v>5</v>
       </c>
       <c r="T86" s="10" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="U86" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V86" s="12" t="s">
         <v>39</v>
@@ -9694,10 +9738,10 @@
         <v>10076</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D87" s="12">
         <v>1</v>
@@ -9750,10 +9794,10 @@
         <v>5</v>
       </c>
       <c r="T87" s="10" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="U87" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V87" s="12" t="s">
         <v>39</v>
@@ -9789,10 +9833,10 @@
         <v>10077</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D88" s="12">
         <v>1</v>
@@ -9845,10 +9889,10 @@
         <v>5</v>
       </c>
       <c r="T88" s="10" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="U88" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V88" s="12" t="s">
         <v>39</v>
@@ -9884,10 +9928,10 @@
         <v>10078</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D89" s="12">
         <v>1</v>
@@ -9940,10 +9984,10 @@
         <v>5</v>
       </c>
       <c r="T89" s="10" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="U89" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V89" s="12" t="s">
         <v>39</v>
@@ -9979,10 +10023,10 @@
         <v>10079</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D90" s="12">
         <v>1</v>
@@ -10035,10 +10079,10 @@
         <v>5</v>
       </c>
       <c r="T90" s="10" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="U90" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V90" s="12" t="s">
         <v>39</v>
@@ -10074,10 +10118,10 @@
         <v>10080</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D91" s="12">
         <v>1</v>
@@ -10130,10 +10174,10 @@
         <v>5</v>
       </c>
       <c r="T91" s="10" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="U91" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V91" s="12" t="s">
         <v>39</v>
@@ -10169,10 +10213,10 @@
         <v>10081</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D92" s="12">
         <v>1</v>
@@ -10225,10 +10269,10 @@
         <v>5</v>
       </c>
       <c r="T92" s="10" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="U92" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V92" s="12" t="s">
         <v>39</v>
@@ -10264,10 +10308,10 @@
         <v>10082</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D93" s="12">
         <v>1</v>
@@ -10320,10 +10364,10 @@
         <v>5</v>
       </c>
       <c r="T93" s="10" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="U93" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V93" s="12" t="s">
         <v>39</v>
@@ -10359,10 +10403,10 @@
         <v>10083</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D94" s="12">
         <v>1</v>
@@ -10415,10 +10459,10 @@
         <v>5</v>
       </c>
       <c r="T94" s="10" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="U94" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V94" s="12" t="s">
         <v>39</v>
@@ -10454,10 +10498,10 @@
         <v>10084</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D95" s="12">
         <v>1</v>
@@ -10510,10 +10554,10 @@
         <v>5</v>
       </c>
       <c r="T95" s="10" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="U95" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V95" s="12" t="s">
         <v>39</v>
@@ -10549,10 +10593,10 @@
         <v>10085</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D96" s="12">
         <v>1</v>
@@ -10605,10 +10649,10 @@
         <v>5</v>
       </c>
       <c r="T96" s="10" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="U96" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V96" s="12" t="s">
         <v>39</v>
@@ -10644,10 +10688,10 @@
         <v>10086</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D97" s="12">
         <v>1</v>
@@ -10700,10 +10744,10 @@
         <v>5</v>
       </c>
       <c r="T97" s="10" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="U97" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V97" s="12" t="s">
         <v>39</v>
@@ -10739,10 +10783,10 @@
         <v>10087</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D98" s="12">
         <v>1</v>
@@ -10795,10 +10839,10 @@
         <v>5</v>
       </c>
       <c r="T98" s="10" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="U98" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V98" s="12" t="s">
         <v>39</v>
@@ -10834,10 +10878,10 @@
         <v>10088</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D99" s="12">
         <v>1</v>
@@ -10890,10 +10934,10 @@
         <v>5</v>
       </c>
       <c r="T99" s="10" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="U99" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V99" s="12" t="s">
         <v>39</v>
@@ -10929,10 +10973,10 @@
         <v>10089</v>
       </c>
       <c r="B100" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C100" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="D100" s="12">
         <v>1</v>
@@ -10985,10 +11029,10 @@
         <v>5</v>
       </c>
       <c r="T100" s="10" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="U100" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V100" s="12" t="s">
         <v>39</v>
@@ -11024,10 +11068,10 @@
         <v>10090</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D101" s="12">
         <v>1</v>
@@ -11080,10 +11124,10 @@
         <v>5</v>
       </c>
       <c r="T101" s="10" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="U101" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V101" s="12" t="s">
         <v>39</v>
@@ -11119,10 +11163,10 @@
         <v>10091</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D102" s="12">
         <v>1</v>
@@ -11175,10 +11219,10 @@
         <v>5</v>
       </c>
       <c r="T102" s="10" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="U102" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V102" s="12" t="s">
         <v>39</v>
@@ -11214,10 +11258,10 @@
         <v>10092</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D103" s="12">
         <v>1</v>
@@ -11270,10 +11314,10 @@
         <v>5</v>
       </c>
       <c r="T103" s="10" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="U103" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V103" s="12" t="s">
         <v>39</v>
@@ -11309,10 +11353,10 @@
         <v>10093</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D104" s="12">
         <v>1</v>
@@ -11365,10 +11409,10 @@
         <v>5</v>
       </c>
       <c r="T104" s="10" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="U104" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V104" s="12" t="s">
         <v>39</v>
@@ -11404,10 +11448,10 @@
         <v>10094</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D105" s="12">
         <v>1</v>
@@ -11460,10 +11504,10 @@
         <v>5</v>
       </c>
       <c r="T105" s="10" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="U105" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V105" s="12" t="s">
         <v>39</v>
@@ -11499,10 +11543,10 @@
         <v>10095</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D106" s="12">
         <v>1</v>
@@ -11555,10 +11599,10 @@
         <v>5</v>
       </c>
       <c r="T106" s="10" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="U106" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V106" s="12" t="s">
         <v>39</v>
@@ -11594,10 +11638,10 @@
         <v>10096</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D107" s="12">
         <v>1</v>
@@ -11650,10 +11694,10 @@
         <v>5</v>
       </c>
       <c r="T107" s="10" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="U107" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V107" s="12" t="s">
         <v>39</v>
@@ -11689,10 +11733,10 @@
         <v>10097</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D108" s="12">
         <v>1</v>
@@ -11745,10 +11789,10 @@
         <v>5</v>
       </c>
       <c r="T108" s="10" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="U108" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V108" s="12" t="s">
         <v>39</v>
@@ -11784,10 +11828,10 @@
         <v>10098</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D109" s="12">
         <v>1</v>
@@ -11840,10 +11884,10 @@
         <v>5</v>
       </c>
       <c r="T109" s="10" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="U109" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V109" s="12" t="s">
         <v>39</v>
@@ -11879,10 +11923,10 @@
         <v>10099</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D110" s="12">
         <v>1</v>
@@ -11935,10 +11979,10 @@
         <v>5</v>
       </c>
       <c r="T110" s="10" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="U110" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V110" s="12" t="s">
         <v>39</v>
@@ -11974,10 +12018,10 @@
         <v>20000</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D111" s="12">
         <v>2</v>
@@ -12028,13 +12072,13 @@
         <v>5</v>
       </c>
       <c r="T111" s="10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="U111" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V111" s="12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="W111" s="12"/>
       <c r="X111" s="12">
@@ -12067,10 +12111,10 @@
         <v>20001</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D112" s="12">
         <v>2</v>
@@ -12121,13 +12165,13 @@
         <v>5</v>
       </c>
       <c r="T112" s="10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="U112" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V112" s="12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="W112" s="12"/>
       <c r="X112" s="12">
@@ -12160,10 +12204,10 @@
         <v>20002</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D113" s="12">
         <v>2</v>
@@ -12214,13 +12258,13 @@
         <v>5</v>
       </c>
       <c r="T113" s="10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="U113" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V113" s="12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="W113" s="12"/>
       <c r="X113" s="12">
@@ -12253,10 +12297,10 @@
         <v>20003</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D114" s="12">
         <v>2</v>
@@ -12307,13 +12351,13 @@
         <v>5</v>
       </c>
       <c r="T114" s="10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="U114" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V114" s="12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="W114" s="12"/>
       <c r="X114" s="12">
@@ -12346,10 +12390,10 @@
         <v>40000</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D115" s="12">
         <v>3</v>
@@ -12400,13 +12444,13 @@
         <v>5</v>
       </c>
       <c r="T115" s="10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="U115" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V115" s="12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="W115" s="12" t="s">
         <v>33</v>
@@ -12441,10 +12485,10 @@
         <v>50000</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D116" s="12">
         <v>3</v>
@@ -12495,13 +12539,13 @@
         <v>5</v>
       </c>
       <c r="T116" s="10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="U116" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V116" s="12" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="W116" s="12" t="s">
         <v>33</v>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3810" windowWidth="14805" windowHeight="10215"/>
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="314">
   <si>
     <t>Prefabs/Models/Body/Male_Body_7000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -713,9 +713,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000-1-10000</t>
-  </si>
-  <si>
     <t>100-10000,101-1000</t>
   </si>
   <si>
@@ -727,301 +724,349 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10001-1-10000</t>
-  </si>
-  <si>
-    <t>10002-1-10000</t>
-  </si>
-  <si>
-    <t>10003-1-10000</t>
-  </si>
-  <si>
-    <t>10004-1-10000</t>
-  </si>
-  <si>
-    <t>10005-1-10000</t>
-  </si>
-  <si>
-    <t>10006-1-10000</t>
-  </si>
-  <si>
-    <t>10007-1-10000</t>
-  </si>
-  <si>
-    <t>10008-1-10000</t>
-  </si>
-  <si>
-    <t>10009-1-10000</t>
-  </si>
-  <si>
-    <t>10010-1-10000</t>
-  </si>
-  <si>
-    <t>10011-1-10000</t>
-  </si>
-  <si>
-    <t>10012-1-10000</t>
-  </si>
-  <si>
-    <t>10013-1-10000</t>
-  </si>
-  <si>
-    <t>10014-1-10000</t>
-  </si>
-  <si>
-    <t>10015-1-10000</t>
-  </si>
-  <si>
-    <t>10016-1-10000</t>
-  </si>
-  <si>
-    <t>10017-1-10000</t>
-  </si>
-  <si>
-    <t>10018-1-10000</t>
-  </si>
-  <si>
-    <t>10019-1-10000</t>
-  </si>
-  <si>
-    <t>10020-1-10000</t>
-  </si>
-  <si>
-    <t>10021-1-10000</t>
-  </si>
-  <si>
-    <t>10022-1-10000</t>
-  </si>
-  <si>
-    <t>10023-1-10000</t>
-  </si>
-  <si>
-    <t>10024-1-10000</t>
-  </si>
-  <si>
-    <t>10025-1-10000</t>
-  </si>
-  <si>
-    <t>10026-1-10000</t>
-  </si>
-  <si>
-    <t>10027-1-10000</t>
-  </si>
-  <si>
-    <t>10028-1-10000</t>
-  </si>
-  <si>
-    <t>10029-1-10000</t>
-  </si>
-  <si>
-    <t>10030-1-10000</t>
-  </si>
-  <si>
-    <t>10031-1-10000</t>
-  </si>
-  <si>
-    <t>10032-1-10000</t>
-  </si>
-  <si>
-    <t>10033-1-10000</t>
-  </si>
-  <si>
-    <t>10034-1-10000</t>
-  </si>
-  <si>
-    <t>10035-1-10000</t>
-  </si>
-  <si>
-    <t>10036-1-10000</t>
-  </si>
-  <si>
-    <t>10037-1-10000</t>
-  </si>
-  <si>
-    <t>10038-1-10000</t>
-  </si>
-  <si>
-    <t>10039-1-10000</t>
-  </si>
-  <si>
-    <t>10040-1-10000</t>
-  </si>
-  <si>
-    <t>10041-1-10000</t>
-  </si>
-  <si>
-    <t>10042-1-10000</t>
-  </si>
-  <si>
-    <t>10043-1-10000</t>
-  </si>
-  <si>
-    <t>10044-1-10000</t>
-  </si>
-  <si>
-    <t>10045-1-10000</t>
-  </si>
-  <si>
-    <t>10046-1-10000</t>
-  </si>
-  <si>
-    <t>10047-1-10000</t>
-  </si>
-  <si>
-    <t>10048-1-10000</t>
-  </si>
-  <si>
-    <t>10049-1-10000</t>
-  </si>
-  <si>
-    <t>10050-1-10000</t>
-  </si>
-  <si>
-    <t>10051-1-10000</t>
-  </si>
-  <si>
-    <t>10052-1-10000</t>
-  </si>
-  <si>
-    <t>10053-1-10000</t>
-  </si>
-  <si>
-    <t>10054-1-10000</t>
-  </si>
-  <si>
-    <t>10055-1-10000</t>
-  </si>
-  <si>
-    <t>10056-1-10000</t>
-  </si>
-  <si>
-    <t>10057-1-10000</t>
-  </si>
-  <si>
-    <t>10058-1-10000</t>
-  </si>
-  <si>
-    <t>10059-1-10000</t>
-  </si>
-  <si>
-    <t>10060-1-10000</t>
-  </si>
-  <si>
-    <t>10061-1-10000</t>
-  </si>
-  <si>
-    <t>10062-1-10000</t>
-  </si>
-  <si>
-    <t>10063-1-10000</t>
-  </si>
-  <si>
-    <t>10064-1-10000</t>
-  </si>
-  <si>
-    <t>10065-1-10000</t>
-  </si>
-  <si>
-    <t>10066-1-10000</t>
-  </si>
-  <si>
-    <t>10067-1-10000</t>
-  </si>
-  <si>
-    <t>10068-1-10000</t>
-  </si>
-  <si>
-    <t>10069-1-10000</t>
-  </si>
-  <si>
-    <t>10070-1-10000</t>
-  </si>
-  <si>
-    <t>10071-1-10000</t>
-  </si>
-  <si>
-    <t>10072-1-10000</t>
-  </si>
-  <si>
-    <t>10073-1-10000</t>
-  </si>
-  <si>
-    <t>10074-1-10000</t>
-  </si>
-  <si>
-    <t>10075-1-10000</t>
-  </si>
-  <si>
-    <t>10076-1-10000</t>
-  </si>
-  <si>
-    <t>10077-1-10000</t>
-  </si>
-  <si>
-    <t>10078-1-10000</t>
-  </si>
-  <si>
-    <t>10079-1-10000</t>
-  </si>
-  <si>
-    <t>10080-1-10000</t>
-  </si>
-  <si>
-    <t>10081-1-10000</t>
-  </si>
-  <si>
-    <t>10082-1-10000</t>
-  </si>
-  <si>
-    <t>10083-1-10000</t>
-  </si>
-  <si>
-    <t>10084-1-10000</t>
-  </si>
-  <si>
-    <t>10085-1-10000</t>
-  </si>
-  <si>
-    <t>10086-1-10000</t>
-  </si>
-  <si>
-    <t>10087-1-10000</t>
-  </si>
-  <si>
-    <t>10088-1-10000</t>
-  </si>
-  <si>
-    <t>10089-1-10000</t>
-  </si>
-  <si>
-    <t>10090-1-10000</t>
-  </si>
-  <si>
-    <t>10091-1-10000</t>
-  </si>
-  <si>
-    <t>10092-1-10000</t>
-  </si>
-  <si>
-    <t>10093-1-10000</t>
-  </si>
-  <si>
-    <t>10094-1-10000</t>
-  </si>
-  <si>
-    <t>10095-1-10000</t>
-  </si>
-  <si>
-    <t>10096-1-10000</t>
-  </si>
-  <si>
-    <t>10097-1-10000</t>
-  </si>
-  <si>
-    <t>10098-1-10000</t>
-  </si>
-  <si>
-    <t>10099-1-10000</t>
+    <t>[[10000,1,10000],[10000,1,1000]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1001]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1002]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1003]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1004]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1005]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1006]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1007]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1008]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1009]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1010]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1011]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1012]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1013]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1014]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1015]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1016]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1017]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1018]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1019]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1020]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1021]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1022]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1023]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1024]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1025]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1026]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1027]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1028]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1029]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1030]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1031]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1032]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1033]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1034]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1035]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1036]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1037]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1038]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1039]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1040]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1041]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1042]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1043]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1044]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1045]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1046]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1047]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1048]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1049]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1050]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1051]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1052]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1053]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1054]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1055]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1056]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1057]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1058]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1059]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1060]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1061]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1062]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1063]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1064]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1065]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1066]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1067]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1068]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1069]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1070]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1071]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1072]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1073]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1074]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1075]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1076]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1077]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1078]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1079]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1080]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1081]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1082]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1083]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1084]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1085]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1086]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1087]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1088]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1089]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1090]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1091]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1092]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1093]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1094]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1095]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1096]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1097]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1098]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1099]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1100]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1101]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1102]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1103]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1104]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1105]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1106]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1107]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1108]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1109]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1110]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1111]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1112]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1113]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1114]]</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1266,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1263,7 +1308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1298,7 +1343,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1510,8 +1555,8 @@
   <dimension ref="A1:AE116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE114" sqref="AE114"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T2" sqref="T2:T116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1627,10 +1672,10 @@
         <v>16</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -1691,8 +1736,8 @@
       <c r="S2" s="10">
         <v>0</v>
       </c>
-      <c r="T2" s="10">
-        <v>0</v>
+      <c r="T2" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="U2" s="10">
         <v>0</v>
@@ -1784,8 +1829,8 @@
       <c r="S3" s="10">
         <v>0</v>
       </c>
-      <c r="T3" s="10">
-        <v>0</v>
+      <c r="T3" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="U3" s="10">
         <v>0</v>
@@ -1877,8 +1922,8 @@
       <c r="S4" s="10">
         <v>0</v>
       </c>
-      <c r="T4" s="10">
-        <v>0</v>
+      <c r="T4" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="U4" s="10">
         <v>0</v>
@@ -1970,8 +2015,8 @@
       <c r="S5" s="10">
         <v>0</v>
       </c>
-      <c r="T5" s="10">
-        <v>0</v>
+      <c r="T5" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="U5" s="10">
         <v>0</v>
@@ -2063,8 +2108,8 @@
       <c r="S6" s="10">
         <v>0</v>
       </c>
-      <c r="T6" s="10">
-        <v>0</v>
+      <c r="T6" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="U6" s="10">
         <v>0</v>
@@ -2156,8 +2201,8 @@
       <c r="S7" s="10">
         <v>0</v>
       </c>
-      <c r="T7" s="10">
-        <v>0</v>
+      <c r="T7" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="U7" s="10">
         <v>0</v>
@@ -2249,8 +2294,8 @@
       <c r="S8" s="10">
         <v>0</v>
       </c>
-      <c r="T8" s="10">
-        <v>0</v>
+      <c r="T8" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="U8" s="10">
         <v>0</v>
@@ -2342,8 +2387,8 @@
       <c r="S9" s="10">
         <v>0</v>
       </c>
-      <c r="T9" s="10">
-        <v>0</v>
+      <c r="T9" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="U9" s="10">
         <v>0</v>
@@ -2435,8 +2480,8 @@
       <c r="S10" s="10">
         <v>0</v>
       </c>
-      <c r="T10" s="10">
-        <v>0</v>
+      <c r="T10" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="U10" s="10">
         <v>0</v>
@@ -2530,10 +2575,10 @@
         <v>5</v>
       </c>
       <c r="T11" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="U11" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>31</v>
@@ -2625,10 +2670,10 @@
         <v>5</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V12" s="12" t="s">
         <v>39</v>
@@ -2720,10 +2765,10 @@
         <v>5</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V13" s="12" t="s">
         <v>39</v>
@@ -2815,10 +2860,10 @@
         <v>5</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V14" s="12" t="s">
         <v>31</v>
@@ -2910,10 +2955,10 @@
         <v>5</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V15" s="12" t="s">
         <v>39</v>
@@ -3005,10 +3050,10 @@
         <v>5</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V16" s="12" t="s">
         <v>39</v>
@@ -3100,10 +3145,10 @@
         <v>5</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V17" s="12" t="s">
         <v>39</v>
@@ -3195,10 +3240,10 @@
         <v>5</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V18" s="12" t="s">
         <v>39</v>
@@ -3290,10 +3335,10 @@
         <v>5</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V19" s="12" t="s">
         <v>39</v>
@@ -3385,10 +3430,10 @@
         <v>5</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V20" s="12" t="s">
         <v>39</v>
@@ -3480,10 +3525,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V21" s="12" t="s">
         <v>39</v>
@@ -3575,10 +3620,10 @@
         <v>5</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V22" s="12" t="s">
         <v>39</v>
@@ -3670,10 +3715,10 @@
         <v>5</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V23" s="12" t="s">
         <v>39</v>
@@ -3765,10 +3810,10 @@
         <v>5</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V24" s="12" t="s">
         <v>39</v>
@@ -3860,10 +3905,10 @@
         <v>5</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V25" s="12" t="s">
         <v>39</v>
@@ -3955,10 +4000,10 @@
         <v>5</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V26" s="12" t="s">
         <v>39</v>
@@ -4050,10 +4095,10 @@
         <v>5</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V27" s="12" t="s">
         <v>39</v>
@@ -4145,10 +4190,10 @@
         <v>5</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V28" s="12" t="s">
         <v>39</v>
@@ -4240,10 +4285,10 @@
         <v>5</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V29" s="12" t="s">
         <v>39</v>
@@ -4335,10 +4380,10 @@
         <v>5</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V30" s="12" t="s">
         <v>39</v>
@@ -4430,10 +4475,10 @@
         <v>5</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V31" s="12" t="s">
         <v>39</v>
@@ -4525,10 +4570,10 @@
         <v>5</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V32" s="12" t="s">
         <v>39</v>
@@ -4620,10 +4665,10 @@
         <v>5</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V33" s="12" t="s">
         <v>39</v>
@@ -4715,10 +4760,10 @@
         <v>5</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V34" s="12" t="s">
         <v>39</v>
@@ -4810,10 +4855,10 @@
         <v>5</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V35" s="12" t="s">
         <v>39</v>
@@ -4905,10 +4950,10 @@
         <v>5</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V36" s="12" t="s">
         <v>39</v>
@@ -5000,10 +5045,10 @@
         <v>5</v>
       </c>
       <c r="T37" s="10" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V37" s="12" t="s">
         <v>39</v>
@@ -5095,10 +5140,10 @@
         <v>5</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V38" s="12" t="s">
         <v>39</v>
@@ -5190,10 +5235,10 @@
         <v>5</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V39" s="12" t="s">
         <v>39</v>
@@ -5285,10 +5330,10 @@
         <v>5</v>
       </c>
       <c r="T40" s="10" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V40" s="12" t="s">
         <v>39</v>
@@ -5380,10 +5425,10 @@
         <v>5</v>
       </c>
       <c r="T41" s="10" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V41" s="12" t="s">
         <v>39</v>
@@ -5475,10 +5520,10 @@
         <v>5</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V42" s="12" t="s">
         <v>39</v>
@@ -5570,10 +5615,10 @@
         <v>5</v>
       </c>
       <c r="T43" s="10" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V43" s="12" t="s">
         <v>39</v>
@@ -5665,10 +5710,10 @@
         <v>5</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V44" s="12" t="s">
         <v>39</v>
@@ -5760,10 +5805,10 @@
         <v>5</v>
       </c>
       <c r="T45" s="10" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="U45" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V45" s="12" t="s">
         <v>39</v>
@@ -5855,10 +5900,10 @@
         <v>5</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V46" s="12" t="s">
         <v>39</v>
@@ -5950,10 +5995,10 @@
         <v>5</v>
       </c>
       <c r="T47" s="10" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V47" s="12" t="s">
         <v>39</v>
@@ -6045,10 +6090,10 @@
         <v>5</v>
       </c>
       <c r="T48" s="10" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="U48" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V48" s="12" t="s">
         <v>39</v>
@@ -6140,10 +6185,10 @@
         <v>5</v>
       </c>
       <c r="T49" s="10" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="U49" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V49" s="12" t="s">
         <v>39</v>
@@ -6235,10 +6280,10 @@
         <v>5</v>
       </c>
       <c r="T50" s="10" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="U50" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V50" s="12" t="s">
         <v>39</v>
@@ -6330,10 +6375,10 @@
         <v>5</v>
       </c>
       <c r="T51" s="10" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="U51" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V51" s="12" t="s">
         <v>39</v>
@@ -6425,10 +6470,10 @@
         <v>5</v>
       </c>
       <c r="T52" s="10" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="U52" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V52" s="12" t="s">
         <v>39</v>
@@ -6520,10 +6565,10 @@
         <v>5</v>
       </c>
       <c r="T53" s="10" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="U53" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V53" s="12" t="s">
         <v>39</v>
@@ -6615,10 +6660,10 @@
         <v>5</v>
       </c>
       <c r="T54" s="10" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="U54" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V54" s="12" t="s">
         <v>39</v>
@@ -6710,10 +6755,10 @@
         <v>5</v>
       </c>
       <c r="T55" s="10" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="U55" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V55" s="12" t="s">
         <v>39</v>
@@ -6805,10 +6850,10 @@
         <v>5</v>
       </c>
       <c r="T56" s="10" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="U56" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V56" s="12" t="s">
         <v>39</v>
@@ -6900,10 +6945,10 @@
         <v>5</v>
       </c>
       <c r="T57" s="10" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="U57" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V57" s="12" t="s">
         <v>39</v>
@@ -6995,10 +7040,10 @@
         <v>5</v>
       </c>
       <c r="T58" s="10" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="U58" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V58" s="12" t="s">
         <v>39</v>
@@ -7090,10 +7135,10 @@
         <v>5</v>
       </c>
       <c r="T59" s="10" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="U59" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V59" s="12" t="s">
         <v>39</v>
@@ -7185,10 +7230,10 @@
         <v>5</v>
       </c>
       <c r="T60" s="10" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="U60" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V60" s="12" t="s">
         <v>39</v>
@@ -7280,10 +7325,10 @@
         <v>5</v>
       </c>
       <c r="T61" s="10" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="U61" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V61" s="12" t="s">
         <v>39</v>
@@ -7375,10 +7420,10 @@
         <v>5</v>
       </c>
       <c r="T62" s="10" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="U62" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V62" s="12" t="s">
         <v>39</v>
@@ -7470,10 +7515,10 @@
         <v>5</v>
       </c>
       <c r="T63" s="10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="U63" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V63" s="12" t="s">
         <v>39</v>
@@ -7565,10 +7610,10 @@
         <v>5</v>
       </c>
       <c r="T64" s="10" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="U64" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V64" s="12" t="s">
         <v>39</v>
@@ -7660,10 +7705,10 @@
         <v>5</v>
       </c>
       <c r="T65" s="10" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="U65" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V65" s="12" t="s">
         <v>39</v>
@@ -7755,10 +7800,10 @@
         <v>5</v>
       </c>
       <c r="T66" s="10" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="U66" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V66" s="12" t="s">
         <v>39</v>
@@ -7850,10 +7895,10 @@
         <v>5</v>
       </c>
       <c r="T67" s="10" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="U67" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V67" s="12" t="s">
         <v>39</v>
@@ -7945,10 +7990,10 @@
         <v>5</v>
       </c>
       <c r="T68" s="10" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="U68" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V68" s="12" t="s">
         <v>39</v>
@@ -8040,10 +8085,10 @@
         <v>5</v>
       </c>
       <c r="T69" s="10" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="U69" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V69" s="12" t="s">
         <v>39</v>
@@ -8135,10 +8180,10 @@
         <v>5</v>
       </c>
       <c r="T70" s="10" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="U70" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V70" s="12" t="s">
         <v>39</v>
@@ -8230,10 +8275,10 @@
         <v>5</v>
       </c>
       <c r="T71" s="10" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="U71" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V71" s="12" t="s">
         <v>39</v>
@@ -8325,10 +8370,10 @@
         <v>5</v>
       </c>
       <c r="T72" s="10" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="U72" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V72" s="12" t="s">
         <v>39</v>
@@ -8420,10 +8465,10 @@
         <v>5</v>
       </c>
       <c r="T73" s="10" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="U73" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V73" s="12" t="s">
         <v>39</v>
@@ -8515,10 +8560,10 @@
         <v>5</v>
       </c>
       <c r="T74" s="10" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="U74" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V74" s="12" t="s">
         <v>39</v>
@@ -8610,10 +8655,10 @@
         <v>5</v>
       </c>
       <c r="T75" s="10" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="U75" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V75" s="12" t="s">
         <v>39</v>
@@ -8705,10 +8750,10 @@
         <v>5</v>
       </c>
       <c r="T76" s="10" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="U76" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V76" s="12" t="s">
         <v>39</v>
@@ -8800,10 +8845,10 @@
         <v>5</v>
       </c>
       <c r="T77" s="10" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="U77" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V77" s="12" t="s">
         <v>39</v>
@@ -8895,10 +8940,10 @@
         <v>5</v>
       </c>
       <c r="T78" s="10" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="U78" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V78" s="12" t="s">
         <v>39</v>
@@ -8990,10 +9035,10 @@
         <v>5</v>
       </c>
       <c r="T79" s="10" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="U79" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V79" s="12" t="s">
         <v>39</v>
@@ -9085,10 +9130,10 @@
         <v>5</v>
       </c>
       <c r="T80" s="10" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="U80" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V80" s="12" t="s">
         <v>39</v>
@@ -9180,10 +9225,10 @@
         <v>5</v>
       </c>
       <c r="T81" s="10" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="U81" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V81" s="12" t="s">
         <v>39</v>
@@ -9275,10 +9320,10 @@
         <v>5</v>
       </c>
       <c r="T82" s="10" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="U82" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V82" s="12" t="s">
         <v>39</v>
@@ -9370,10 +9415,10 @@
         <v>5</v>
       </c>
       <c r="T83" s="10" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="U83" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V83" s="12" t="s">
         <v>39</v>
@@ -9465,10 +9510,10 @@
         <v>5</v>
       </c>
       <c r="T84" s="10" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="U84" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V84" s="12" t="s">
         <v>39</v>
@@ -9560,10 +9605,10 @@
         <v>5</v>
       </c>
       <c r="T85" s="10" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="U85" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V85" s="12" t="s">
         <v>39</v>
@@ -9655,10 +9700,10 @@
         <v>5</v>
       </c>
       <c r="T86" s="10" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="U86" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V86" s="12" t="s">
         <v>39</v>
@@ -9750,10 +9795,10 @@
         <v>5</v>
       </c>
       <c r="T87" s="10" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="U87" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V87" s="12" t="s">
         <v>39</v>
@@ -9845,10 +9890,10 @@
         <v>5</v>
       </c>
       <c r="T88" s="10" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="U88" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V88" s="12" t="s">
         <v>39</v>
@@ -9940,10 +9985,10 @@
         <v>5</v>
       </c>
       <c r="T89" s="10" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="U89" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V89" s="12" t="s">
         <v>39</v>
@@ -10035,10 +10080,10 @@
         <v>5</v>
       </c>
       <c r="T90" s="10" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="U90" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V90" s="12" t="s">
         <v>39</v>
@@ -10130,10 +10175,10 @@
         <v>5</v>
       </c>
       <c r="T91" s="10" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="U91" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V91" s="12" t="s">
         <v>39</v>
@@ -10225,10 +10270,10 @@
         <v>5</v>
       </c>
       <c r="T92" s="10" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="U92" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V92" s="12" t="s">
         <v>39</v>
@@ -10320,10 +10365,10 @@
         <v>5</v>
       </c>
       <c r="T93" s="10" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="U93" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V93" s="12" t="s">
         <v>39</v>
@@ -10415,10 +10460,10 @@
         <v>5</v>
       </c>
       <c r="T94" s="10" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="U94" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V94" s="12" t="s">
         <v>39</v>
@@ -10510,10 +10555,10 @@
         <v>5</v>
       </c>
       <c r="T95" s="10" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="U95" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V95" s="12" t="s">
         <v>39</v>
@@ -10605,10 +10650,10 @@
         <v>5</v>
       </c>
       <c r="T96" s="10" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="U96" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V96" s="12" t="s">
         <v>39</v>
@@ -10700,10 +10745,10 @@
         <v>5</v>
       </c>
       <c r="T97" s="10" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="U97" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V97" s="12" t="s">
         <v>39</v>
@@ -10795,10 +10840,10 @@
         <v>5</v>
       </c>
       <c r="T98" s="10" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="U98" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V98" s="12" t="s">
         <v>39</v>
@@ -10890,10 +10935,10 @@
         <v>5</v>
       </c>
       <c r="T99" s="10" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="U99" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V99" s="12" t="s">
         <v>39</v>
@@ -10985,10 +11030,10 @@
         <v>5</v>
       </c>
       <c r="T100" s="10" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="U100" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V100" s="12" t="s">
         <v>39</v>
@@ -11080,10 +11125,10 @@
         <v>5</v>
       </c>
       <c r="T101" s="10" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="U101" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V101" s="12" t="s">
         <v>39</v>
@@ -11175,10 +11220,10 @@
         <v>5</v>
       </c>
       <c r="T102" s="10" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="U102" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V102" s="12" t="s">
         <v>39</v>
@@ -11270,10 +11315,10 @@
         <v>5</v>
       </c>
       <c r="T103" s="10" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="U103" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V103" s="12" t="s">
         <v>39</v>
@@ -11365,10 +11410,10 @@
         <v>5</v>
       </c>
       <c r="T104" s="10" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="U104" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V104" s="12" t="s">
         <v>39</v>
@@ -11460,10 +11505,10 @@
         <v>5</v>
       </c>
       <c r="T105" s="10" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="U105" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V105" s="12" t="s">
         <v>39</v>
@@ -11555,10 +11600,10 @@
         <v>5</v>
       </c>
       <c r="T106" s="10" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="U106" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V106" s="12" t="s">
         <v>39</v>
@@ -11650,10 +11695,10 @@
         <v>5</v>
       </c>
       <c r="T107" s="10" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="U107" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V107" s="12" t="s">
         <v>39</v>
@@ -11745,10 +11790,10 @@
         <v>5</v>
       </c>
       <c r="T108" s="10" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="U108" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V108" s="12" t="s">
         <v>39</v>
@@ -11840,10 +11885,10 @@
         <v>5</v>
       </c>
       <c r="T109" s="10" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="U109" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V109" s="12" t="s">
         <v>39</v>
@@ -11935,10 +11980,10 @@
         <v>5</v>
       </c>
       <c r="T110" s="10" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="U110" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V110" s="12" t="s">
         <v>39</v>
@@ -12028,10 +12073,10 @@
         <v>5</v>
       </c>
       <c r="T111" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="U111" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="U111" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="V111" s="12" t="s">
         <v>70</v>
@@ -12121,10 +12166,10 @@
         <v>5</v>
       </c>
       <c r="T112" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="U112" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="U112" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="V112" s="12" t="s">
         <v>70</v>
@@ -12214,10 +12259,10 @@
         <v>5</v>
       </c>
       <c r="T113" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="U113" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="U113" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="V113" s="12" t="s">
         <v>70</v>
@@ -12307,10 +12352,10 @@
         <v>5</v>
       </c>
       <c r="T114" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U114" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="U114" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="V114" s="12" t="s">
         <v>70</v>
@@ -12400,10 +12445,10 @@
         <v>5</v>
       </c>
       <c r="T115" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="U115" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="U115" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="V115" s="12" t="s">
         <v>70</v>
@@ -12495,10 +12540,10 @@
         <v>5</v>
       </c>
       <c r="T116" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="U116" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="U116" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="V116" s="12" t="s">
         <v>75</v>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3810" windowWidth="14805" windowHeight="10215"/>
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="324">
   <si>
     <t>Prefabs/Models/Body/Male_Body_7000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -672,9 +672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000-1-10000</t>
-  </si>
-  <si>
     <t>100-10000,101-1000</t>
   </si>
   <si>
@@ -686,303 +683,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10001-1-10000</t>
-  </si>
-  <si>
-    <t>10002-1-10000</t>
-  </si>
-  <si>
-    <t>10003-1-10000</t>
-  </si>
-  <si>
-    <t>10004-1-10000</t>
-  </si>
-  <si>
-    <t>10005-1-10000</t>
-  </si>
-  <si>
-    <t>10006-1-10000</t>
-  </si>
-  <si>
-    <t>10007-1-10000</t>
-  </si>
-  <si>
-    <t>10008-1-10000</t>
-  </si>
-  <si>
-    <t>10009-1-10000</t>
-  </si>
-  <si>
-    <t>10010-1-10000</t>
-  </si>
-  <si>
-    <t>10011-1-10000</t>
-  </si>
-  <si>
-    <t>10012-1-10000</t>
-  </si>
-  <si>
-    <t>10013-1-10000</t>
-  </si>
-  <si>
-    <t>10014-1-10000</t>
-  </si>
-  <si>
-    <t>10015-1-10000</t>
-  </si>
-  <si>
-    <t>10016-1-10000</t>
-  </si>
-  <si>
-    <t>10017-1-10000</t>
-  </si>
-  <si>
-    <t>10018-1-10000</t>
-  </si>
-  <si>
-    <t>10019-1-10000</t>
-  </si>
-  <si>
-    <t>10020-1-10000</t>
-  </si>
-  <si>
-    <t>10021-1-10000</t>
-  </si>
-  <si>
-    <t>10022-1-10000</t>
-  </si>
-  <si>
-    <t>10023-1-10000</t>
-  </si>
-  <si>
-    <t>10024-1-10000</t>
-  </si>
-  <si>
-    <t>10025-1-10000</t>
-  </si>
-  <si>
-    <t>10026-1-10000</t>
-  </si>
-  <si>
-    <t>10027-1-10000</t>
-  </si>
-  <si>
-    <t>10028-1-10000</t>
-  </si>
-  <si>
-    <t>10029-1-10000</t>
-  </si>
-  <si>
-    <t>10030-1-10000</t>
-  </si>
-  <si>
-    <t>10031-1-10000</t>
-  </si>
-  <si>
-    <t>10032-1-10000</t>
-  </si>
-  <si>
-    <t>10033-1-10000</t>
-  </si>
-  <si>
-    <t>10034-1-10000</t>
-  </si>
-  <si>
-    <t>10035-1-10000</t>
-  </si>
-  <si>
-    <t>10036-1-10000</t>
-  </si>
-  <si>
-    <t>10037-1-10000</t>
-  </si>
-  <si>
-    <t>10038-1-10000</t>
-  </si>
-  <si>
-    <t>10039-1-10000</t>
-  </si>
-  <si>
-    <t>10040-1-10000</t>
-  </si>
-  <si>
-    <t>10041-1-10000</t>
-  </si>
-  <si>
-    <t>10042-1-10000</t>
-  </si>
-  <si>
-    <t>10043-1-10000</t>
-  </si>
-  <si>
-    <t>10044-1-10000</t>
-  </si>
-  <si>
-    <t>10045-1-10000</t>
-  </si>
-  <si>
-    <t>10046-1-10000</t>
-  </si>
-  <si>
-    <t>10047-1-10000</t>
-  </si>
-  <si>
-    <t>10048-1-10000</t>
-  </si>
-  <si>
-    <t>10049-1-10000</t>
-  </si>
-  <si>
-    <t>10050-1-10000</t>
-  </si>
-  <si>
-    <t>10051-1-10000</t>
-  </si>
-  <si>
-    <t>10052-1-10000</t>
-  </si>
-  <si>
-    <t>10053-1-10000</t>
-  </si>
-  <si>
-    <t>10054-1-10000</t>
-  </si>
-  <si>
-    <t>10055-1-10000</t>
-  </si>
-  <si>
-    <t>10056-1-10000</t>
-  </si>
-  <si>
-    <t>10057-1-10000</t>
-  </si>
-  <si>
-    <t>10058-1-10000</t>
-  </si>
-  <si>
-    <t>10059-1-10000</t>
-  </si>
-  <si>
-    <t>10060-1-10000</t>
-  </si>
-  <si>
-    <t>10061-1-10000</t>
-  </si>
-  <si>
-    <t>10062-1-10000</t>
-  </si>
-  <si>
-    <t>10063-1-10000</t>
-  </si>
-  <si>
-    <t>10064-1-10000</t>
-  </si>
-  <si>
-    <t>10065-1-10000</t>
-  </si>
-  <si>
-    <t>10066-1-10000</t>
-  </si>
-  <si>
-    <t>10067-1-10000</t>
-  </si>
-  <si>
-    <t>10068-1-10000</t>
-  </si>
-  <si>
-    <t>10069-1-10000</t>
-  </si>
-  <si>
-    <t>10070-1-10000</t>
-  </si>
-  <si>
-    <t>10071-1-10000</t>
-  </si>
-  <si>
-    <t>10072-1-10000</t>
-  </si>
-  <si>
-    <t>10073-1-10000</t>
-  </si>
-  <si>
-    <t>10074-1-10000</t>
-  </si>
-  <si>
-    <t>10075-1-10000</t>
-  </si>
-  <si>
-    <t>10076-1-10000</t>
-  </si>
-  <si>
-    <t>10077-1-10000</t>
-  </si>
-  <si>
-    <t>10078-1-10000</t>
-  </si>
-  <si>
-    <t>10079-1-10000</t>
-  </si>
-  <si>
-    <t>10080-1-10000</t>
-  </si>
-  <si>
-    <t>10081-1-10000</t>
-  </si>
-  <si>
-    <t>10082-1-10000</t>
-  </si>
-  <si>
-    <t>10083-1-10000</t>
-  </si>
-  <si>
-    <t>10084-1-10000</t>
-  </si>
-  <si>
-    <t>10085-1-10000</t>
-  </si>
-  <si>
-    <t>10086-1-10000</t>
-  </si>
-  <si>
-    <t>10087-1-10000</t>
-  </si>
-  <si>
-    <t>10088-1-10000</t>
-  </si>
-  <si>
-    <t>10089-1-10000</t>
-  </si>
-  <si>
-    <t>10090-1-10000</t>
-  </si>
-  <si>
-    <t>10091-1-10000</t>
-  </si>
-  <si>
-    <t>10092-1-10000</t>
-  </si>
-  <si>
-    <t>10093-1-10000</t>
-  </si>
-  <si>
-    <t>10094-1-10000</t>
-  </si>
-  <si>
-    <t>10095-1-10000</t>
-  </si>
-  <si>
-    <t>10096-1-10000</t>
-  </si>
-  <si>
-    <t>10097-1-10000</t>
-  </si>
-  <si>
-    <t>10098-1-10000</t>
-  </si>
-  <si>
-    <t>10099-1-10000</t>
-  </si>
-  <si>
     <t>凶狠的老虎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1065,6 +765,351 @@
   <si>
     <t>甄姬</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1002]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1003]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1004]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1005]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1006]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1007]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1008]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1009]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1010]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1011]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1012]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1013]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1014]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1015]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1016]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1017]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1018]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1019]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1020]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1021]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1022]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1023]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1024]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1025]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1026]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1027]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1028]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1029]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1030]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1031]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1032]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1033]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1034]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1035]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1036]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1037]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1038]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1039]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1040]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1041]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1042]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1043]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1044]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1045]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1046]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1047]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1048]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1049]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1050]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1051]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1052]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1053]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1054]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1055]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1056]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1057]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1058]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1059]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1060]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1061]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1062]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1063]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1064]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1065]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1066]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1067]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1068]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1069]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1070]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1071]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1072]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1073]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1074]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1075]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1076]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1077]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1078]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1079]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1080]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1081]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1082]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1083]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1084]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1085]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1086]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1087]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1088]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1089]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1090]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1091]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1092]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1093]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1094]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1095]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1096]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1097]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1098]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1099]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1100]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1101]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1102]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1103]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1104]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1105]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1106]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1107]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1108]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1109]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1110]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1111]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1112]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1113]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1114]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1115]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000],[10000,1,1116]]</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1309,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1306,7 +1351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1341,7 +1386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1552,10 +1597,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozenSplit"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="W12" sqref="W12"/>
+      <selection pane="topRight" activeCell="T2" sqref="T2:T116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1671,10 +1716,10 @@
         <v>16</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -1735,8 +1780,8 @@
       <c r="S2" s="10">
         <v>0</v>
       </c>
-      <c r="T2" s="10">
-        <v>0</v>
+      <c r="T2" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="U2" s="10">
         <v>0</v>
@@ -1828,8 +1873,8 @@
       <c r="S3" s="10">
         <v>0</v>
       </c>
-      <c r="T3" s="10">
-        <v>0</v>
+      <c r="T3" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="U3" s="10">
         <v>0</v>
@@ -1921,8 +1966,8 @@
       <c r="S4" s="10">
         <v>0</v>
       </c>
-      <c r="T4" s="10">
-        <v>0</v>
+      <c r="T4" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="U4" s="10">
         <v>0</v>
@@ -2014,8 +2059,8 @@
       <c r="S5" s="10">
         <v>0</v>
       </c>
-      <c r="T5" s="10">
-        <v>0</v>
+      <c r="T5" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="U5" s="10">
         <v>0</v>
@@ -2107,8 +2152,8 @@
       <c r="S6" s="10">
         <v>0</v>
       </c>
-      <c r="T6" s="10">
-        <v>0</v>
+      <c r="T6" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="U6" s="10">
         <v>0</v>
@@ -2200,8 +2245,8 @@
       <c r="S7" s="10">
         <v>0</v>
       </c>
-      <c r="T7" s="10">
-        <v>0</v>
+      <c r="T7" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="U7" s="10">
         <v>0</v>
@@ -2293,8 +2338,8 @@
       <c r="S8" s="10">
         <v>0</v>
       </c>
-      <c r="T8" s="10">
-        <v>0</v>
+      <c r="T8" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="U8" s="10">
         <v>0</v>
@@ -2386,8 +2431,8 @@
       <c r="S9" s="10">
         <v>0</v>
       </c>
-      <c r="T9" s="10">
-        <v>0</v>
+      <c r="T9" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="U9" s="10">
         <v>0</v>
@@ -2479,8 +2524,8 @@
       <c r="S10" s="10">
         <v>0</v>
       </c>
-      <c r="T10" s="10">
-        <v>0</v>
+      <c r="T10" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="U10" s="10">
         <v>0</v>
@@ -2519,7 +2564,7 @@
         <v>10000</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>68</v>
@@ -2574,10 +2619,10 @@
         <v>5</v>
       </c>
       <c r="T11" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="U11" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>31</v>
@@ -2613,7 +2658,7 @@
         <v>10001</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>292</v>
+        <v>192</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>70</v>
@@ -2669,13 +2714,13 @@
         <v>5</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="W12" s="12"/>
       <c r="X12" s="12">
@@ -2708,7 +2753,7 @@
         <v>10002</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>69</v>
@@ -2764,13 +2809,13 @@
         <v>5</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="W13" s="12"/>
       <c r="X13" s="12">
@@ -2803,7 +2848,7 @@
         <v>10003</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>296</v>
+        <v>196</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>71</v>
@@ -2859,13 +2904,13 @@
         <v>5</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="W14" s="12"/>
       <c r="X14" s="12">
@@ -2898,7 +2943,7 @@
         <v>10004</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>297</v>
+        <v>197</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>72</v>
@@ -2954,13 +2999,13 @@
         <v>5</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c r="W15" s="12"/>
       <c r="X15" s="12">
@@ -2993,7 +3038,7 @@
         <v>10005</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>73</v>
@@ -3049,13 +3094,13 @@
         <v>5</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W16" s="12"/>
       <c r="X16" s="12">
@@ -3088,7 +3133,7 @@
         <v>10006</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>74</v>
@@ -3144,13 +3189,13 @@
         <v>5</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="W17" s="12"/>
       <c r="X17" s="12">
@@ -3183,7 +3228,7 @@
         <v>10007</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>75</v>
@@ -3239,13 +3284,13 @@
         <v>5</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>304</v>
+        <v>204</v>
       </c>
       <c r="W18" s="12"/>
       <c r="X18" s="12">
@@ -3278,10 +3323,10 @@
         <v>10008</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="D19" s="12">
         <v>1</v>
@@ -3334,13 +3379,13 @@
         <v>5</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="W19" s="12"/>
       <c r="X19" s="12">
@@ -3373,10 +3418,10 @@
         <v>10009</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>289</v>
+        <v>189</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="D20" s="12">
         <v>1</v>
@@ -3429,10 +3474,10 @@
         <v>5</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V20" s="12" t="s">
         <v>39</v>
@@ -3468,7 +3513,7 @@
         <v>10010</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>169</v>
@@ -3524,13 +3569,13 @@
         <v>5</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12">
@@ -3619,10 +3664,10 @@
         <v>5</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V22" s="12" t="s">
         <v>39</v>
@@ -3714,10 +3759,10 @@
         <v>5</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V23" s="12" t="s">
         <v>39</v>
@@ -3809,10 +3854,10 @@
         <v>5</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V24" s="12" t="s">
         <v>39</v>
@@ -3904,10 +3949,10 @@
         <v>5</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V25" s="12" t="s">
         <v>39</v>
@@ -3999,10 +4044,10 @@
         <v>5</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V26" s="12" t="s">
         <v>39</v>
@@ -4094,10 +4139,10 @@
         <v>5</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V27" s="12" t="s">
         <v>39</v>
@@ -4189,10 +4234,10 @@
         <v>5</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V28" s="12" t="s">
         <v>39</v>
@@ -4284,10 +4329,10 @@
         <v>5</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V29" s="12" t="s">
         <v>39</v>
@@ -4379,10 +4424,10 @@
         <v>5</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V30" s="12" t="s">
         <v>39</v>
@@ -4474,10 +4519,10 @@
         <v>5</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V31" s="12" t="s">
         <v>39</v>
@@ -4569,10 +4614,10 @@
         <v>5</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V32" s="12" t="s">
         <v>39</v>
@@ -4664,10 +4709,10 @@
         <v>5</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V33" s="12" t="s">
         <v>39</v>
@@ -4759,10 +4804,10 @@
         <v>5</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V34" s="12" t="s">
         <v>39</v>
@@ -4854,10 +4899,10 @@
         <v>5</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V35" s="12" t="s">
         <v>39</v>
@@ -4949,10 +4994,10 @@
         <v>5</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V36" s="12" t="s">
         <v>39</v>
@@ -5044,10 +5089,10 @@
         <v>5</v>
       </c>
       <c r="T37" s="10" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V37" s="12" t="s">
         <v>39</v>
@@ -5139,10 +5184,10 @@
         <v>5</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V38" s="12" t="s">
         <v>39</v>
@@ -5234,10 +5279,10 @@
         <v>5</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V39" s="12" t="s">
         <v>39</v>
@@ -5329,10 +5374,10 @@
         <v>5</v>
       </c>
       <c r="T40" s="10" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V40" s="12" t="s">
         <v>39</v>
@@ -5424,10 +5469,10 @@
         <v>5</v>
       </c>
       <c r="T41" s="10" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V41" s="12" t="s">
         <v>39</v>
@@ -5519,10 +5564,10 @@
         <v>5</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V42" s="12" t="s">
         <v>39</v>
@@ -5614,10 +5659,10 @@
         <v>5</v>
       </c>
       <c r="T43" s="10" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V43" s="12" t="s">
         <v>39</v>
@@ -5709,10 +5754,10 @@
         <v>5</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V44" s="12" t="s">
         <v>39</v>
@@ -5804,10 +5849,10 @@
         <v>5</v>
       </c>
       <c r="T45" s="10" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="U45" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V45" s="12" t="s">
         <v>39</v>
@@ -5899,10 +5944,10 @@
         <v>5</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V46" s="12" t="s">
         <v>39</v>
@@ -5994,10 +6039,10 @@
         <v>5</v>
       </c>
       <c r="T47" s="10" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V47" s="12" t="s">
         <v>39</v>
@@ -6089,10 +6134,10 @@
         <v>5</v>
       </c>
       <c r="T48" s="10" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="U48" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V48" s="12" t="s">
         <v>39</v>
@@ -6184,10 +6229,10 @@
         <v>5</v>
       </c>
       <c r="T49" s="10" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="U49" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V49" s="12" t="s">
         <v>39</v>
@@ -6279,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="T50" s="10" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="U50" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V50" s="12" t="s">
         <v>39</v>
@@ -6374,10 +6419,10 @@
         <v>5</v>
       </c>
       <c r="T51" s="10" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="U51" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V51" s="12" t="s">
         <v>39</v>
@@ -6469,10 +6514,10 @@
         <v>5</v>
       </c>
       <c r="T52" s="10" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="U52" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V52" s="12" t="s">
         <v>39</v>
@@ -6564,10 +6609,10 @@
         <v>5</v>
       </c>
       <c r="T53" s="10" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="U53" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V53" s="12" t="s">
         <v>39</v>
@@ -6659,10 +6704,10 @@
         <v>5</v>
       </c>
       <c r="T54" s="10" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="U54" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V54" s="12" t="s">
         <v>39</v>
@@ -6754,10 +6799,10 @@
         <v>5</v>
       </c>
       <c r="T55" s="10" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="U55" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V55" s="12" t="s">
         <v>39</v>
@@ -6849,10 +6894,10 @@
         <v>5</v>
       </c>
       <c r="T56" s="10" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="U56" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V56" s="12" t="s">
         <v>39</v>
@@ -6944,10 +6989,10 @@
         <v>5</v>
       </c>
       <c r="T57" s="10" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="U57" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V57" s="12" t="s">
         <v>39</v>
@@ -7039,10 +7084,10 @@
         <v>5</v>
       </c>
       <c r="T58" s="10" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="U58" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V58" s="12" t="s">
         <v>39</v>
@@ -7134,10 +7179,10 @@
         <v>5</v>
       </c>
       <c r="T59" s="10" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="U59" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V59" s="12" t="s">
         <v>39</v>
@@ -7229,10 +7274,10 @@
         <v>5</v>
       </c>
       <c r="T60" s="10" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="U60" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V60" s="12" t="s">
         <v>39</v>
@@ -7324,10 +7369,10 @@
         <v>5</v>
       </c>
       <c r="T61" s="10" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="U61" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V61" s="12" t="s">
         <v>39</v>
@@ -7419,10 +7464,10 @@
         <v>5</v>
       </c>
       <c r="T62" s="10" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="U62" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V62" s="12" t="s">
         <v>39</v>
@@ -7514,10 +7559,10 @@
         <v>5</v>
       </c>
       <c r="T63" s="10" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="U63" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V63" s="12" t="s">
         <v>39</v>
@@ -7609,10 +7654,10 @@
         <v>5</v>
       </c>
       <c r="T64" s="10" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="U64" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V64" s="12" t="s">
         <v>39</v>
@@ -7704,10 +7749,10 @@
         <v>5</v>
       </c>
       <c r="T65" s="10" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="U65" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V65" s="12" t="s">
         <v>39</v>
@@ -7799,10 +7844,10 @@
         <v>5</v>
       </c>
       <c r="T66" s="10" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="U66" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V66" s="12" t="s">
         <v>39</v>
@@ -7894,10 +7939,10 @@
         <v>5</v>
       </c>
       <c r="T67" s="10" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="U67" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V67" s="12" t="s">
         <v>39</v>
@@ -7989,10 +8034,10 @@
         <v>5</v>
       </c>
       <c r="T68" s="10" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="U68" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V68" s="12" t="s">
         <v>39</v>
@@ -8084,10 +8129,10 @@
         <v>5</v>
       </c>
       <c r="T69" s="10" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="U69" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V69" s="12" t="s">
         <v>39</v>
@@ -8179,10 +8224,10 @@
         <v>5</v>
       </c>
       <c r="T70" s="10" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="U70" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V70" s="12" t="s">
         <v>39</v>
@@ -8274,10 +8319,10 @@
         <v>5</v>
       </c>
       <c r="T71" s="10" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="U71" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V71" s="12" t="s">
         <v>39</v>
@@ -8369,10 +8414,10 @@
         <v>5</v>
       </c>
       <c r="T72" s="10" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="U72" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V72" s="12" t="s">
         <v>39</v>
@@ -8464,10 +8509,10 @@
         <v>5</v>
       </c>
       <c r="T73" s="10" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="U73" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V73" s="12" t="s">
         <v>39</v>
@@ -8559,10 +8604,10 @@
         <v>5</v>
       </c>
       <c r="T74" s="10" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="U74" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V74" s="12" t="s">
         <v>39</v>
@@ -8654,10 +8699,10 @@
         <v>5</v>
       </c>
       <c r="T75" s="10" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="U75" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V75" s="12" t="s">
         <v>39</v>
@@ -8749,10 +8794,10 @@
         <v>5</v>
       </c>
       <c r="T76" s="10" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="U76" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V76" s="12" t="s">
         <v>39</v>
@@ -8844,10 +8889,10 @@
         <v>5</v>
       </c>
       <c r="T77" s="10" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="U77" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V77" s="12" t="s">
         <v>39</v>
@@ -8939,10 +8984,10 @@
         <v>5</v>
       </c>
       <c r="T78" s="10" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="U78" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V78" s="12" t="s">
         <v>39</v>
@@ -9034,10 +9079,10 @@
         <v>5</v>
       </c>
       <c r="T79" s="10" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="U79" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V79" s="12" t="s">
         <v>39</v>
@@ -9129,10 +9174,10 @@
         <v>5</v>
       </c>
       <c r="T80" s="10" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="U80" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V80" s="12" t="s">
         <v>39</v>
@@ -9224,10 +9269,10 @@
         <v>5</v>
       </c>
       <c r="T81" s="10" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="U81" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V81" s="12" t="s">
         <v>39</v>
@@ -9319,10 +9364,10 @@
         <v>5</v>
       </c>
       <c r="T82" s="10" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="U82" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V82" s="12" t="s">
         <v>39</v>
@@ -9414,10 +9459,10 @@
         <v>5</v>
       </c>
       <c r="T83" s="10" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="U83" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V83" s="12" t="s">
         <v>39</v>
@@ -9509,10 +9554,10 @@
         <v>5</v>
       </c>
       <c r="T84" s="10" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="U84" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V84" s="12" t="s">
         <v>39</v>
@@ -9604,10 +9649,10 @@
         <v>5</v>
       </c>
       <c r="T85" s="10" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="U85" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V85" s="12" t="s">
         <v>39</v>
@@ -9699,10 +9744,10 @@
         <v>5</v>
       </c>
       <c r="T86" s="10" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="U86" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V86" s="12" t="s">
         <v>39</v>
@@ -9794,10 +9839,10 @@
         <v>5</v>
       </c>
       <c r="T87" s="10" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="U87" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V87" s="12" t="s">
         <v>39</v>
@@ -9889,10 +9934,10 @@
         <v>5</v>
       </c>
       <c r="T88" s="10" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="U88" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V88" s="12" t="s">
         <v>39</v>
@@ -9984,10 +10029,10 @@
         <v>5</v>
       </c>
       <c r="T89" s="10" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="U89" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V89" s="12" t="s">
         <v>39</v>
@@ -10079,10 +10124,10 @@
         <v>5</v>
       </c>
       <c r="T90" s="10" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="U90" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V90" s="12" t="s">
         <v>39</v>
@@ -10174,10 +10219,10 @@
         <v>5</v>
       </c>
       <c r="T91" s="10" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="U91" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V91" s="12" t="s">
         <v>39</v>
@@ -10269,10 +10314,10 @@
         <v>5</v>
       </c>
       <c r="T92" s="10" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="U92" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V92" s="12" t="s">
         <v>39</v>
@@ -10364,10 +10409,10 @@
         <v>5</v>
       </c>
       <c r="T93" s="10" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="U93" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V93" s="12" t="s">
         <v>39</v>
@@ -10459,10 +10504,10 @@
         <v>5</v>
       </c>
       <c r="T94" s="10" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="U94" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V94" s="12" t="s">
         <v>39</v>
@@ -10554,10 +10599,10 @@
         <v>5</v>
       </c>
       <c r="T95" s="10" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="U95" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V95" s="12" t="s">
         <v>39</v>
@@ -10649,10 +10694,10 @@
         <v>5</v>
       </c>
       <c r="T96" s="10" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="U96" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V96" s="12" t="s">
         <v>39</v>
@@ -10744,10 +10789,10 @@
         <v>5</v>
       </c>
       <c r="T97" s="10" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="U97" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V97" s="12" t="s">
         <v>39</v>
@@ -10839,10 +10884,10 @@
         <v>5</v>
       </c>
       <c r="T98" s="10" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="U98" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V98" s="12" t="s">
         <v>39</v>
@@ -10934,10 +10979,10 @@
         <v>5</v>
       </c>
       <c r="T99" s="10" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="U99" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V99" s="12" t="s">
         <v>39</v>
@@ -11029,10 +11074,10 @@
         <v>5</v>
       </c>
       <c r="T100" s="10" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="U100" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V100" s="12" t="s">
         <v>39</v>
@@ -11124,10 +11169,10 @@
         <v>5</v>
       </c>
       <c r="T101" s="10" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="U101" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V101" s="12" t="s">
         <v>39</v>
@@ -11219,10 +11264,10 @@
         <v>5</v>
       </c>
       <c r="T102" s="10" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="U102" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V102" s="12" t="s">
         <v>39</v>
@@ -11314,10 +11359,10 @@
         <v>5</v>
       </c>
       <c r="T103" s="10" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="U103" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V103" s="12" t="s">
         <v>39</v>
@@ -11409,10 +11454,10 @@
         <v>5</v>
       </c>
       <c r="T104" s="10" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="U104" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V104" s="12" t="s">
         <v>39</v>
@@ -11504,10 +11549,10 @@
         <v>5</v>
       </c>
       <c r="T105" s="10" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="U105" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V105" s="12" t="s">
         <v>39</v>
@@ -11599,10 +11644,10 @@
         <v>5</v>
       </c>
       <c r="T106" s="10" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="U106" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V106" s="12" t="s">
         <v>39</v>
@@ -11694,10 +11739,10 @@
         <v>5</v>
       </c>
       <c r="T107" s="10" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="U107" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V107" s="12" t="s">
         <v>39</v>
@@ -11789,10 +11834,10 @@
         <v>5</v>
       </c>
       <c r="T108" s="10" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="U108" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V108" s="12" t="s">
         <v>39</v>
@@ -11884,10 +11929,10 @@
         <v>5</v>
       </c>
       <c r="T109" s="10" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="U109" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V109" s="12" t="s">
         <v>39</v>
@@ -11979,10 +12024,10 @@
         <v>5</v>
       </c>
       <c r="T110" s="10" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="U110" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V110" s="12" t="s">
         <v>39</v>
@@ -12072,10 +12117,10 @@
         <v>5</v>
       </c>
       <c r="T111" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="U111" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="U111" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="V111" s="12" t="s">
         <v>62</v>
@@ -12165,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="T112" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="U112" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="U112" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="V112" s="12" t="s">
         <v>62</v>
@@ -12258,10 +12303,10 @@
         <v>5</v>
       </c>
       <c r="T113" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="U113" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="U113" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="V113" s="12" t="s">
         <v>62</v>
@@ -12351,10 +12396,10 @@
         <v>5</v>
       </c>
       <c r="T114" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="U114" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="U114" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="V114" s="12" t="s">
         <v>62</v>
@@ -12444,10 +12489,10 @@
         <v>5</v>
       </c>
       <c r="T115" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="U115" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="U115" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="V115" s="12" t="s">
         <v>62</v>
@@ -12539,10 +12584,10 @@
         <v>5</v>
       </c>
       <c r="T116" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="U116" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="U116" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="V116" s="12" t="s">
         <v>67</v>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3810" windowWidth="14805" windowHeight="10215"/>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -672,9 +672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100-10000,101-1000</t>
-  </si>
-  <si>
     <t>尸体停留时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1110,6 +1107,9 @@
   </si>
   <si>
     <t>[[10000,1,10000],[10000,1,1116]]</t>
+  </si>
+  <si>
+    <t>[[100,10000],[101,1000]]</t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1309,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1351,7 +1351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1386,7 +1386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1598,9 +1598,9 @@
   <dimension ref="A1:AE116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozenSplit"/>
+      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozenSplit"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="T2" sqref="T2:T116"/>
+      <selection pane="topRight" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1617,7 +1617,7 @@
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
     <col min="13" max="19" width="9" customWidth="1"/>
-    <col min="20" max="20" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.25" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="26.5" customWidth="1"/>
     <col min="22" max="22" width="40.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="40.75" customWidth="1"/>
@@ -1716,10 +1716,10 @@
         <v>16</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="16.5" x14ac:dyDescent="0.35">
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U2" s="10">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U3" s="10">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U4" s="10">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U5" s="10">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U6" s="10">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U7" s="10">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U8" s="10">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U9" s="10">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U10" s="10">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>10000</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>68</v>
@@ -2619,10 +2619,10 @@
         <v>5</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>31</v>
@@ -2658,7 +2658,7 @@
         <v>10001</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>70</v>
@@ -2714,13 +2714,13 @@
         <v>5</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W12" s="12"/>
       <c r="X12" s="12">
@@ -2753,7 +2753,7 @@
         <v>10002</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>69</v>
@@ -2809,13 +2809,13 @@
         <v>5</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W13" s="12"/>
       <c r="X13" s="12">
@@ -2848,7 +2848,7 @@
         <v>10003</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>71</v>
@@ -2904,13 +2904,13 @@
         <v>5</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W14" s="12"/>
       <c r="X14" s="12">
@@ -2943,7 +2943,7 @@
         <v>10004</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>72</v>
@@ -2999,13 +2999,13 @@
         <v>5</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W15" s="12"/>
       <c r="X15" s="12">
@@ -3038,7 +3038,7 @@
         <v>10005</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>73</v>
@@ -3094,13 +3094,13 @@
         <v>5</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W16" s="12"/>
       <c r="X16" s="12">
@@ -3133,7 +3133,7 @@
         <v>10006</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>74</v>
@@ -3189,13 +3189,13 @@
         <v>5</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W17" s="12"/>
       <c r="X17" s="12">
@@ -3228,7 +3228,7 @@
         <v>10007</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>75</v>
@@ -3284,13 +3284,13 @@
         <v>5</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W18" s="12"/>
       <c r="X18" s="12">
@@ -3323,10 +3323,10 @@
         <v>10008</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D19" s="12">
         <v>1</v>
@@ -3379,13 +3379,13 @@
         <v>5</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W19" s="12"/>
       <c r="X19" s="12">
@@ -3418,10 +3418,10 @@
         <v>10009</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D20" s="12">
         <v>1</v>
@@ -3474,10 +3474,10 @@
         <v>5</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V20" s="12" t="s">
         <v>39</v>
@@ -3513,7 +3513,7 @@
         <v>10010</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>169</v>
@@ -3569,13 +3569,13 @@
         <v>5</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12">
@@ -3664,10 +3664,10 @@
         <v>5</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V22" s="12" t="s">
         <v>39</v>
@@ -3759,10 +3759,10 @@
         <v>5</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V23" s="12" t="s">
         <v>39</v>
@@ -3854,10 +3854,10 @@
         <v>5</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V24" s="12" t="s">
         <v>39</v>
@@ -3949,10 +3949,10 @@
         <v>5</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V25" s="12" t="s">
         <v>39</v>
@@ -4044,10 +4044,10 @@
         <v>5</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V26" s="12" t="s">
         <v>39</v>
@@ -4139,10 +4139,10 @@
         <v>5</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V27" s="12" t="s">
         <v>39</v>
@@ -4234,10 +4234,10 @@
         <v>5</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V28" s="12" t="s">
         <v>39</v>
@@ -4329,10 +4329,10 @@
         <v>5</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V29" s="12" t="s">
         <v>39</v>
@@ -4424,10 +4424,10 @@
         <v>5</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V30" s="12" t="s">
         <v>39</v>
@@ -4519,10 +4519,10 @@
         <v>5</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V31" s="12" t="s">
         <v>39</v>
@@ -4614,10 +4614,10 @@
         <v>5</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V32" s="12" t="s">
         <v>39</v>
@@ -4709,10 +4709,10 @@
         <v>5</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V33" s="12" t="s">
         <v>39</v>
@@ -4804,10 +4804,10 @@
         <v>5</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V34" s="12" t="s">
         <v>39</v>
@@ -4899,10 +4899,10 @@
         <v>5</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V35" s="12" t="s">
         <v>39</v>
@@ -4994,10 +4994,10 @@
         <v>5</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V36" s="12" t="s">
         <v>39</v>
@@ -5089,10 +5089,10 @@
         <v>5</v>
       </c>
       <c r="T37" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V37" s="12" t="s">
         <v>39</v>
@@ -5184,10 +5184,10 @@
         <v>5</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V38" s="12" t="s">
         <v>39</v>
@@ -5279,10 +5279,10 @@
         <v>5</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V39" s="12" t="s">
         <v>39</v>
@@ -5374,10 +5374,10 @@
         <v>5</v>
       </c>
       <c r="T40" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V40" s="12" t="s">
         <v>39</v>
@@ -5469,10 +5469,10 @@
         <v>5</v>
       </c>
       <c r="T41" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V41" s="12" t="s">
         <v>39</v>
@@ -5564,10 +5564,10 @@
         <v>5</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V42" s="12" t="s">
         <v>39</v>
@@ -5659,10 +5659,10 @@
         <v>5</v>
       </c>
       <c r="T43" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V43" s="12" t="s">
         <v>39</v>
@@ -5754,10 +5754,10 @@
         <v>5</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V44" s="12" t="s">
         <v>39</v>
@@ -5849,10 +5849,10 @@
         <v>5</v>
       </c>
       <c r="T45" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U45" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V45" s="12" t="s">
         <v>39</v>
@@ -5944,10 +5944,10 @@
         <v>5</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V46" s="12" t="s">
         <v>39</v>
@@ -6039,10 +6039,10 @@
         <v>5</v>
       </c>
       <c r="T47" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V47" s="12" t="s">
         <v>39</v>
@@ -6134,10 +6134,10 @@
         <v>5</v>
       </c>
       <c r="T48" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U48" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V48" s="12" t="s">
         <v>39</v>
@@ -6229,10 +6229,10 @@
         <v>5</v>
       </c>
       <c r="T49" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U49" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V49" s="12" t="s">
         <v>39</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="T50" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U50" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V50" s="12" t="s">
         <v>39</v>
@@ -6419,10 +6419,10 @@
         <v>5</v>
       </c>
       <c r="T51" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U51" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V51" s="12" t="s">
         <v>39</v>
@@ -6514,10 +6514,10 @@
         <v>5</v>
       </c>
       <c r="T52" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U52" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V52" s="12" t="s">
         <v>39</v>
@@ -6609,10 +6609,10 @@
         <v>5</v>
       </c>
       <c r="T53" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U53" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V53" s="12" t="s">
         <v>39</v>
@@ -6704,10 +6704,10 @@
         <v>5</v>
       </c>
       <c r="T54" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U54" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V54" s="12" t="s">
         <v>39</v>
@@ -6799,10 +6799,10 @@
         <v>5</v>
       </c>
       <c r="T55" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U55" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V55" s="12" t="s">
         <v>39</v>
@@ -6894,10 +6894,10 @@
         <v>5</v>
       </c>
       <c r="T56" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U56" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V56" s="12" t="s">
         <v>39</v>
@@ -6989,10 +6989,10 @@
         <v>5</v>
       </c>
       <c r="T57" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U57" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V57" s="12" t="s">
         <v>39</v>
@@ -7084,10 +7084,10 @@
         <v>5</v>
       </c>
       <c r="T58" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U58" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V58" s="12" t="s">
         <v>39</v>
@@ -7179,10 +7179,10 @@
         <v>5</v>
       </c>
       <c r="T59" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U59" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V59" s="12" t="s">
         <v>39</v>
@@ -7274,10 +7274,10 @@
         <v>5</v>
       </c>
       <c r="T60" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U60" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V60" s="12" t="s">
         <v>39</v>
@@ -7369,10 +7369,10 @@
         <v>5</v>
       </c>
       <c r="T61" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="U61" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V61" s="12" t="s">
         <v>39</v>
@@ -7464,10 +7464,10 @@
         <v>5</v>
       </c>
       <c r="T62" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U62" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V62" s="12" t="s">
         <v>39</v>
@@ -7559,10 +7559,10 @@
         <v>5</v>
       </c>
       <c r="T63" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U63" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V63" s="12" t="s">
         <v>39</v>
@@ -7654,10 +7654,10 @@
         <v>5</v>
       </c>
       <c r="T64" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U64" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V64" s="12" t="s">
         <v>39</v>
@@ -7749,10 +7749,10 @@
         <v>5</v>
       </c>
       <c r="T65" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U65" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V65" s="12" t="s">
         <v>39</v>
@@ -7844,10 +7844,10 @@
         <v>5</v>
       </c>
       <c r="T66" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U66" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V66" s="12" t="s">
         <v>39</v>
@@ -7939,10 +7939,10 @@
         <v>5</v>
       </c>
       <c r="T67" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U67" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V67" s="12" t="s">
         <v>39</v>
@@ -8034,10 +8034,10 @@
         <v>5</v>
       </c>
       <c r="T68" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U68" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V68" s="12" t="s">
         <v>39</v>
@@ -8129,10 +8129,10 @@
         <v>5</v>
       </c>
       <c r="T69" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U69" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V69" s="12" t="s">
         <v>39</v>
@@ -8224,10 +8224,10 @@
         <v>5</v>
       </c>
       <c r="T70" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U70" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V70" s="12" t="s">
         <v>39</v>
@@ -8319,10 +8319,10 @@
         <v>5</v>
       </c>
       <c r="T71" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U71" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V71" s="12" t="s">
         <v>39</v>
@@ -8414,10 +8414,10 @@
         <v>5</v>
       </c>
       <c r="T72" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U72" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V72" s="12" t="s">
         <v>39</v>
@@ -8509,10 +8509,10 @@
         <v>5</v>
       </c>
       <c r="T73" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U73" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V73" s="12" t="s">
         <v>39</v>
@@ -8604,10 +8604,10 @@
         <v>5</v>
       </c>
       <c r="T74" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U74" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V74" s="12" t="s">
         <v>39</v>
@@ -8699,10 +8699,10 @@
         <v>5</v>
       </c>
       <c r="T75" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U75" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V75" s="12" t="s">
         <v>39</v>
@@ -8794,10 +8794,10 @@
         <v>5</v>
       </c>
       <c r="T76" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U76" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V76" s="12" t="s">
         <v>39</v>
@@ -8889,10 +8889,10 @@
         <v>5</v>
       </c>
       <c r="T77" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U77" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V77" s="12" t="s">
         <v>39</v>
@@ -8984,10 +8984,10 @@
         <v>5</v>
       </c>
       <c r="T78" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U78" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V78" s="12" t="s">
         <v>39</v>
@@ -9079,10 +9079,10 @@
         <v>5</v>
       </c>
       <c r="T79" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U79" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V79" s="12" t="s">
         <v>39</v>
@@ -9174,10 +9174,10 @@
         <v>5</v>
       </c>
       <c r="T80" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U80" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V80" s="12" t="s">
         <v>39</v>
@@ -9269,10 +9269,10 @@
         <v>5</v>
       </c>
       <c r="T81" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U81" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V81" s="12" t="s">
         <v>39</v>
@@ -9364,10 +9364,10 @@
         <v>5</v>
       </c>
       <c r="T82" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U82" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V82" s="12" t="s">
         <v>39</v>
@@ -9459,10 +9459,10 @@
         <v>5</v>
       </c>
       <c r="T83" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U83" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V83" s="12" t="s">
         <v>39</v>
@@ -9554,10 +9554,10 @@
         <v>5</v>
       </c>
       <c r="T84" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U84" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V84" s="12" t="s">
         <v>39</v>
@@ -9649,10 +9649,10 @@
         <v>5</v>
       </c>
       <c r="T85" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U85" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V85" s="12" t="s">
         <v>39</v>
@@ -9744,10 +9744,10 @@
         <v>5</v>
       </c>
       <c r="T86" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U86" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V86" s="12" t="s">
         <v>39</v>
@@ -9839,10 +9839,10 @@
         <v>5</v>
       </c>
       <c r="T87" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U87" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V87" s="12" t="s">
         <v>39</v>
@@ -9934,10 +9934,10 @@
         <v>5</v>
       </c>
       <c r="T88" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U88" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V88" s="12" t="s">
         <v>39</v>
@@ -10029,10 +10029,10 @@
         <v>5</v>
       </c>
       <c r="T89" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U89" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V89" s="12" t="s">
         <v>39</v>
@@ -10124,10 +10124,10 @@
         <v>5</v>
       </c>
       <c r="T90" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U90" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V90" s="12" t="s">
         <v>39</v>
@@ -10219,10 +10219,10 @@
         <v>5</v>
       </c>
       <c r="T91" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U91" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V91" s="12" t="s">
         <v>39</v>
@@ -10314,10 +10314,10 @@
         <v>5</v>
       </c>
       <c r="T92" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U92" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V92" s="12" t="s">
         <v>39</v>
@@ -10409,10 +10409,10 @@
         <v>5</v>
       </c>
       <c r="T93" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U93" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V93" s="12" t="s">
         <v>39</v>
@@ -10504,10 +10504,10 @@
         <v>5</v>
       </c>
       <c r="T94" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U94" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V94" s="12" t="s">
         <v>39</v>
@@ -10599,10 +10599,10 @@
         <v>5</v>
       </c>
       <c r="T95" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U95" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V95" s="12" t="s">
         <v>39</v>
@@ -10694,10 +10694,10 @@
         <v>5</v>
       </c>
       <c r="T96" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U96" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V96" s="12" t="s">
         <v>39</v>
@@ -10789,10 +10789,10 @@
         <v>5</v>
       </c>
       <c r="T97" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U97" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V97" s="12" t="s">
         <v>39</v>
@@ -10884,10 +10884,10 @@
         <v>5</v>
       </c>
       <c r="T98" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U98" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V98" s="12" t="s">
         <v>39</v>
@@ -10979,10 +10979,10 @@
         <v>5</v>
       </c>
       <c r="T99" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U99" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V99" s="12" t="s">
         <v>39</v>
@@ -11074,10 +11074,10 @@
         <v>5</v>
       </c>
       <c r="T100" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U100" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V100" s="12" t="s">
         <v>39</v>
@@ -11169,10 +11169,10 @@
         <v>5</v>
       </c>
       <c r="T101" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U101" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V101" s="12" t="s">
         <v>39</v>
@@ -11264,10 +11264,10 @@
         <v>5</v>
       </c>
       <c r="T102" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U102" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V102" s="12" t="s">
         <v>39</v>
@@ -11359,10 +11359,10 @@
         <v>5</v>
       </c>
       <c r="T103" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U103" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V103" s="12" t="s">
         <v>39</v>
@@ -11454,10 +11454,10 @@
         <v>5</v>
       </c>
       <c r="T104" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U104" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V104" s="12" t="s">
         <v>39</v>
@@ -11549,10 +11549,10 @@
         <v>5</v>
       </c>
       <c r="T105" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U105" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V105" s="12" t="s">
         <v>39</v>
@@ -11644,10 +11644,10 @@
         <v>5</v>
       </c>
       <c r="T106" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U106" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V106" s="12" t="s">
         <v>39</v>
@@ -11739,10 +11739,10 @@
         <v>5</v>
       </c>
       <c r="T107" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U107" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V107" s="12" t="s">
         <v>39</v>
@@ -11834,10 +11834,10 @@
         <v>5</v>
       </c>
       <c r="T108" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U108" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V108" s="12" t="s">
         <v>39</v>
@@ -11929,10 +11929,10 @@
         <v>5</v>
       </c>
       <c r="T109" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U109" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V109" s="12" t="s">
         <v>39</v>
@@ -12024,10 +12024,10 @@
         <v>5</v>
       </c>
       <c r="T110" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U110" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V110" s="12" t="s">
         <v>39</v>
@@ -12117,10 +12117,10 @@
         <v>5</v>
       </c>
       <c r="T111" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U111" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V111" s="12" t="s">
         <v>62</v>
@@ -12210,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="T112" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U112" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V112" s="12" t="s">
         <v>62</v>
@@ -12303,10 +12303,10 @@
         <v>5</v>
       </c>
       <c r="T113" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U113" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V113" s="12" t="s">
         <v>62</v>
@@ -12396,10 +12396,10 @@
         <v>5</v>
       </c>
       <c r="T114" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U114" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V114" s="12" t="s">
         <v>62</v>
@@ -12489,10 +12489,10 @@
         <v>5</v>
       </c>
       <c r="T115" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U115" s="10" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="V115" s="12" t="s">
         <v>62</v>
@@ -12584,10 +12584,10 @@
         <v>5</v>
       </c>
       <c r="T116" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="U116" s="10" t="s">
         <v>323</v>
-      </c>
-      <c r="U116" s="10" t="s">
-        <v>185</v>
       </c>
       <c r="V116" s="12" t="s">
         <v>67</v>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3810" windowWidth="14805" windowHeight="10215"/>
@@ -1309,7 +1309,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1351,7 +1351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1386,7 +1386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1600,7 +1600,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozenSplit"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="U12" sqref="U12"/>
+      <selection pane="topRight" activeCell="U2" sqref="U2:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1783,9 +1783,7 @@
       <c r="T2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="U2" s="10">
-        <v>0</v>
-      </c>
+      <c r="U2" s="10"/>
       <c r="V2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1876,9 +1874,7 @@
       <c r="T3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="U3" s="10">
-        <v>0</v>
-      </c>
+      <c r="U3" s="10"/>
       <c r="V3" s="10" t="s">
         <v>177</v>
       </c>
@@ -1969,9 +1965,7 @@
       <c r="T4" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="U4" s="10">
-        <v>0</v>
-      </c>
+      <c r="U4" s="10"/>
       <c r="V4" s="10" t="s">
         <v>57</v>
       </c>
@@ -2062,9 +2056,7 @@
       <c r="T5" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="U5" s="10">
-        <v>0</v>
-      </c>
+      <c r="U5" s="10"/>
       <c r="V5" s="10" t="s">
         <v>38</v>
       </c>
@@ -2155,9 +2147,7 @@
       <c r="T6" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="U6" s="10">
-        <v>0</v>
-      </c>
+      <c r="U6" s="10"/>
       <c r="V6" s="10" t="s">
         <v>36</v>
       </c>
@@ -2248,9 +2238,7 @@
       <c r="T7" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="U7" s="10">
-        <v>0</v>
-      </c>
+      <c r="U7" s="10"/>
       <c r="V7" s="10" t="s">
         <v>37</v>
       </c>
@@ -2341,9 +2329,7 @@
       <c r="T8" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="U8" s="10">
-        <v>0</v>
-      </c>
+      <c r="U8" s="10"/>
       <c r="V8" s="10" t="s">
         <v>35</v>
       </c>
@@ -2434,9 +2420,7 @@
       <c r="T9" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="U9" s="10">
-        <v>0</v>
-      </c>
+      <c r="U9" s="10"/>
       <c r="V9" s="10" t="s">
         <v>35</v>
       </c>
@@ -2527,9 +2511,7 @@
       <c r="T10" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="U10" s="10">
-        <v>0</v>
-      </c>
+      <c r="U10" s="10"/>
       <c r="V10" s="10" t="s">
         <v>35</v>
       </c>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3810" windowWidth="14805" windowHeight="10215"/>
@@ -791,325 +791,325 @@
     <t>[[10000,1,10000],[10000,1,1010]]</t>
   </si>
   <si>
-    <t>[[10000,1,10000],[10000,1,1011]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1012]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1013]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1014]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1015]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1016]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1017]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1018]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1019]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1020]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1021]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1022]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1023]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1024]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1025]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1026]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1027]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1028]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1029]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1030]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1031]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1032]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1033]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1034]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1035]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1036]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1037]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1038]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1039]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1040]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1041]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1042]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1043]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1044]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1045]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1046]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1047]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1048]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1049]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1050]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1051]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1052]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1053]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1054]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1055]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1056]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1057]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1058]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1059]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1060]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1061]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1062]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1063]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1064]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1065]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1066]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1067]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1068]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1069]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1070]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1071]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1072]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1073]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1074]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1075]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1076]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1077]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1078]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1079]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1080]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1081]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1082]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1083]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1084]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1085]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1086]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1087]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1088]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1089]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1090]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1091]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1092]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1093]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1094]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1095]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1096]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1097]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1098]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1099]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1100]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1101]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1102]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1103]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1104]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1105]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1106]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1107]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1108]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1109]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1110]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1111]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1112]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1113]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1114]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1115]]</t>
-  </si>
-  <si>
-    <t>[[10000,1,10000],[10000,1,1116]]</t>
-  </si>
-  <si>
     <t>[[100,10000],[101,1000]]</t>
+  </si>
+  <si>
+    <t>[[10000,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10001,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10002,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10003,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10004,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10005,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10006,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10007,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10008,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10009,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10010,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10011,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10012,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10013,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10014,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10015,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10016,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10017,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10018,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10019,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10020,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10021,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10022,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10023,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10024,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10025,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10026,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10027,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10028,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10029,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10030,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10031,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10032,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10033,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10034,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10035,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10036,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10037,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10038,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10039,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10040,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10041,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10042,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10043,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10044,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10045,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10046,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10047,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10048,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10049,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10050,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10051,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10052,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10053,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10054,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10055,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10056,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10057,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10058,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10059,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10060,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10061,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10062,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10063,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10064,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10065,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10066,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10067,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10068,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10069,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10070,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10071,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10072,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10073,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10074,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10075,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10076,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10077,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10078,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10079,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10080,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10081,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10082,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10083,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10084,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10085,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10086,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10087,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10088,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10089,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10090,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10091,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10092,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10093,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10094,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10095,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10096,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10097,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10098,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10099,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10100,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10101,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10102,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10103,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10104,1,10000]</t>
+  </si>
+  <si>
+    <t>[[10105,1,10000]</t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1309,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1351,7 +1351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1386,7 +1386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1597,10 +1597,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozenSplit"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="U2" sqref="U2:U10"/>
+      <selection pane="topRight" activeCell="T11" sqref="T11:T116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2601,10 +2601,10 @@
         <v>5</v>
       </c>
       <c r="T11" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="U11" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>323</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>31</v>
@@ -2696,10 +2696,10 @@
         <v>5</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V12" s="12" t="s">
         <v>190</v>
@@ -2791,10 +2791,10 @@
         <v>5</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V13" s="12" t="s">
         <v>192</v>
@@ -2886,10 +2886,10 @@
         <v>5</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V14" s="12" t="s">
         <v>194</v>
@@ -2981,10 +2981,10 @@
         <v>5</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V15" s="12" t="s">
         <v>197</v>
@@ -3076,10 +3076,10 @@
         <v>5</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V16" s="12" t="s">
         <v>199</v>
@@ -3171,10 +3171,10 @@
         <v>5</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V17" s="12" t="s">
         <v>201</v>
@@ -3266,10 +3266,10 @@
         <v>5</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V18" s="12" t="s">
         <v>203</v>
@@ -3361,10 +3361,10 @@
         <v>5</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V19" s="12" t="s">
         <v>204</v>
@@ -3456,10 +3456,10 @@
         <v>5</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V20" s="12" t="s">
         <v>39</v>
@@ -3551,10 +3551,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V21" s="12" t="s">
         <v>206</v>
@@ -3646,10 +3646,10 @@
         <v>5</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V22" s="12" t="s">
         <v>39</v>
@@ -3741,10 +3741,10 @@
         <v>5</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V23" s="12" t="s">
         <v>39</v>
@@ -3836,10 +3836,10 @@
         <v>5</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V24" s="12" t="s">
         <v>39</v>
@@ -3931,10 +3931,10 @@
         <v>5</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V25" s="12" t="s">
         <v>39</v>
@@ -4026,10 +4026,10 @@
         <v>5</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V26" s="12" t="s">
         <v>39</v>
@@ -4121,10 +4121,10 @@
         <v>5</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V27" s="12" t="s">
         <v>39</v>
@@ -4216,10 +4216,10 @@
         <v>5</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V28" s="12" t="s">
         <v>39</v>
@@ -4311,10 +4311,10 @@
         <v>5</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V29" s="12" t="s">
         <v>39</v>
@@ -4406,10 +4406,10 @@
         <v>5</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V30" s="12" t="s">
         <v>39</v>
@@ -4501,10 +4501,10 @@
         <v>5</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V31" s="12" t="s">
         <v>39</v>
@@ -4596,10 +4596,10 @@
         <v>5</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V32" s="12" t="s">
         <v>39</v>
@@ -4691,10 +4691,10 @@
         <v>5</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V33" s="12" t="s">
         <v>39</v>
@@ -4786,10 +4786,10 @@
         <v>5</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V34" s="12" t="s">
         <v>39</v>
@@ -4881,10 +4881,10 @@
         <v>5</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V35" s="12" t="s">
         <v>39</v>
@@ -4976,10 +4976,10 @@
         <v>5</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V36" s="12" t="s">
         <v>39</v>
@@ -5071,10 +5071,10 @@
         <v>5</v>
       </c>
       <c r="T37" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V37" s="12" t="s">
         <v>39</v>
@@ -5166,10 +5166,10 @@
         <v>5</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V38" s="12" t="s">
         <v>39</v>
@@ -5261,10 +5261,10 @@
         <v>5</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V39" s="12" t="s">
         <v>39</v>
@@ -5356,10 +5356,10 @@
         <v>5</v>
       </c>
       <c r="T40" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V40" s="12" t="s">
         <v>39</v>
@@ -5451,10 +5451,10 @@
         <v>5</v>
       </c>
       <c r="T41" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V41" s="12" t="s">
         <v>39</v>
@@ -5546,10 +5546,10 @@
         <v>5</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V42" s="12" t="s">
         <v>39</v>
@@ -5641,10 +5641,10 @@
         <v>5</v>
       </c>
       <c r="T43" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V43" s="12" t="s">
         <v>39</v>
@@ -5736,10 +5736,10 @@
         <v>5</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V44" s="12" t="s">
         <v>39</v>
@@ -5831,10 +5831,10 @@
         <v>5</v>
       </c>
       <c r="T45" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="U45" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V45" s="12" t="s">
         <v>39</v>
@@ -5926,10 +5926,10 @@
         <v>5</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V46" s="12" t="s">
         <v>39</v>
@@ -6021,10 +6021,10 @@
         <v>5</v>
       </c>
       <c r="T47" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V47" s="12" t="s">
         <v>39</v>
@@ -6116,10 +6116,10 @@
         <v>5</v>
       </c>
       <c r="T48" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U48" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V48" s="12" t="s">
         <v>39</v>
@@ -6211,10 +6211,10 @@
         <v>5</v>
       </c>
       <c r="T49" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="U49" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V49" s="12" t="s">
         <v>39</v>
@@ -6306,10 +6306,10 @@
         <v>5</v>
       </c>
       <c r="T50" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="U50" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V50" s="12" t="s">
         <v>39</v>
@@ -6401,10 +6401,10 @@
         <v>5</v>
       </c>
       <c r="T51" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="U51" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V51" s="12" t="s">
         <v>39</v>
@@ -6496,10 +6496,10 @@
         <v>5</v>
       </c>
       <c r="T52" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="U52" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V52" s="12" t="s">
         <v>39</v>
@@ -6591,10 +6591,10 @@
         <v>5</v>
       </c>
       <c r="T53" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="U53" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V53" s="12" t="s">
         <v>39</v>
@@ -6686,10 +6686,10 @@
         <v>5</v>
       </c>
       <c r="T54" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="U54" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V54" s="12" t="s">
         <v>39</v>
@@ -6781,10 +6781,10 @@
         <v>5</v>
       </c>
       <c r="T55" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="U55" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V55" s="12" t="s">
         <v>39</v>
@@ -6876,10 +6876,10 @@
         <v>5</v>
       </c>
       <c r="T56" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="U56" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V56" s="12" t="s">
         <v>39</v>
@@ -6971,10 +6971,10 @@
         <v>5</v>
       </c>
       <c r="T57" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="U57" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V57" s="12" t="s">
         <v>39</v>
@@ -7066,10 +7066,10 @@
         <v>5</v>
       </c>
       <c r="T58" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U58" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V58" s="12" t="s">
         <v>39</v>
@@ -7161,10 +7161,10 @@
         <v>5</v>
       </c>
       <c r="T59" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U59" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V59" s="12" t="s">
         <v>39</v>
@@ -7256,10 +7256,10 @@
         <v>5</v>
       </c>
       <c r="T60" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U60" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V60" s="12" t="s">
         <v>39</v>
@@ -7351,10 +7351,10 @@
         <v>5</v>
       </c>
       <c r="T61" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="U61" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V61" s="12" t="s">
         <v>39</v>
@@ -7446,10 +7446,10 @@
         <v>5</v>
       </c>
       <c r="T62" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="U62" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V62" s="12" t="s">
         <v>39</v>
@@ -7541,10 +7541,10 @@
         <v>5</v>
       </c>
       <c r="T63" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U63" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V63" s="12" t="s">
         <v>39</v>
@@ -7636,10 +7636,10 @@
         <v>5</v>
       </c>
       <c r="T64" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U64" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V64" s="12" t="s">
         <v>39</v>
@@ -7731,10 +7731,10 @@
         <v>5</v>
       </c>
       <c r="T65" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="U65" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V65" s="12" t="s">
         <v>39</v>
@@ -7826,10 +7826,10 @@
         <v>5</v>
       </c>
       <c r="T66" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="U66" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V66" s="12" t="s">
         <v>39</v>
@@ -7921,10 +7921,10 @@
         <v>5</v>
       </c>
       <c r="T67" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="U67" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V67" s="12" t="s">
         <v>39</v>
@@ -8016,10 +8016,10 @@
         <v>5</v>
       </c>
       <c r="T68" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="U68" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V68" s="12" t="s">
         <v>39</v>
@@ -8111,10 +8111,10 @@
         <v>5</v>
       </c>
       <c r="T69" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="U69" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V69" s="12" t="s">
         <v>39</v>
@@ -8206,10 +8206,10 @@
         <v>5</v>
       </c>
       <c r="T70" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="U70" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V70" s="12" t="s">
         <v>39</v>
@@ -8301,10 +8301,10 @@
         <v>5</v>
       </c>
       <c r="T71" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="U71" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V71" s="12" t="s">
         <v>39</v>
@@ -8396,10 +8396,10 @@
         <v>5</v>
       </c>
       <c r="T72" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="U72" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V72" s="12" t="s">
         <v>39</v>
@@ -8491,10 +8491,10 @@
         <v>5</v>
       </c>
       <c r="T73" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U73" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V73" s="12" t="s">
         <v>39</v>
@@ -8586,10 +8586,10 @@
         <v>5</v>
       </c>
       <c r="T74" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U74" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V74" s="12" t="s">
         <v>39</v>
@@ -8681,10 +8681,10 @@
         <v>5</v>
       </c>
       <c r="T75" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U75" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V75" s="12" t="s">
         <v>39</v>
@@ -8776,10 +8776,10 @@
         <v>5</v>
       </c>
       <c r="T76" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U76" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V76" s="12" t="s">
         <v>39</v>
@@ -8871,10 +8871,10 @@
         <v>5</v>
       </c>
       <c r="T77" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="U77" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V77" s="12" t="s">
         <v>39</v>
@@ -8966,10 +8966,10 @@
         <v>5</v>
       </c>
       <c r="T78" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="U78" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V78" s="12" t="s">
         <v>39</v>
@@ -9061,10 +9061,10 @@
         <v>5</v>
       </c>
       <c r="T79" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="U79" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V79" s="12" t="s">
         <v>39</v>
@@ -9156,10 +9156,10 @@
         <v>5</v>
       </c>
       <c r="T80" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="U80" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V80" s="12" t="s">
         <v>39</v>
@@ -9251,10 +9251,10 @@
         <v>5</v>
       </c>
       <c r="T81" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="U81" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V81" s="12" t="s">
         <v>39</v>
@@ -9346,10 +9346,10 @@
         <v>5</v>
       </c>
       <c r="T82" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="U82" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V82" s="12" t="s">
         <v>39</v>
@@ -9441,10 +9441,10 @@
         <v>5</v>
       </c>
       <c r="T83" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="U83" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V83" s="12" t="s">
         <v>39</v>
@@ -9536,10 +9536,10 @@
         <v>5</v>
       </c>
       <c r="T84" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="U84" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V84" s="12" t="s">
         <v>39</v>
@@ -9631,10 +9631,10 @@
         <v>5</v>
       </c>
       <c r="T85" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="U85" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V85" s="12" t="s">
         <v>39</v>
@@ -9726,10 +9726,10 @@
         <v>5</v>
       </c>
       <c r="T86" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U86" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V86" s="12" t="s">
         <v>39</v>
@@ -9821,10 +9821,10 @@
         <v>5</v>
       </c>
       <c r="T87" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U87" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V87" s="12" t="s">
         <v>39</v>
@@ -9916,10 +9916,10 @@
         <v>5</v>
       </c>
       <c r="T88" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="U88" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V88" s="12" t="s">
         <v>39</v>
@@ -10011,10 +10011,10 @@
         <v>5</v>
       </c>
       <c r="T89" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="U89" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V89" s="12" t="s">
         <v>39</v>
@@ -10106,10 +10106,10 @@
         <v>5</v>
       </c>
       <c r="T90" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="U90" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V90" s="12" t="s">
         <v>39</v>
@@ -10201,10 +10201,10 @@
         <v>5</v>
       </c>
       <c r="T91" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U91" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V91" s="12" t="s">
         <v>39</v>
@@ -10296,10 +10296,10 @@
         <v>5</v>
       </c>
       <c r="T92" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="U92" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V92" s="12" t="s">
         <v>39</v>
@@ -10391,10 +10391,10 @@
         <v>5</v>
       </c>
       <c r="T93" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="U93" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V93" s="12" t="s">
         <v>39</v>
@@ -10486,10 +10486,10 @@
         <v>5</v>
       </c>
       <c r="T94" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="U94" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V94" s="12" t="s">
         <v>39</v>
@@ -10581,10 +10581,10 @@
         <v>5</v>
       </c>
       <c r="T95" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U95" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V95" s="12" t="s">
         <v>39</v>
@@ -10676,10 +10676,10 @@
         <v>5</v>
       </c>
       <c r="T96" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U96" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V96" s="12" t="s">
         <v>39</v>
@@ -10771,10 +10771,10 @@
         <v>5</v>
       </c>
       <c r="T97" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U97" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V97" s="12" t="s">
         <v>39</v>
@@ -10866,10 +10866,10 @@
         <v>5</v>
       </c>
       <c r="T98" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U98" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V98" s="12" t="s">
         <v>39</v>
@@ -10961,10 +10961,10 @@
         <v>5</v>
       </c>
       <c r="T99" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U99" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V99" s="12" t="s">
         <v>39</v>
@@ -11056,10 +11056,10 @@
         <v>5</v>
       </c>
       <c r="T100" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="U100" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V100" s="12" t="s">
         <v>39</v>
@@ -11151,10 +11151,10 @@
         <v>5</v>
       </c>
       <c r="T101" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="U101" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V101" s="12" t="s">
         <v>39</v>
@@ -11246,10 +11246,10 @@
         <v>5</v>
       </c>
       <c r="T102" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U102" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V102" s="12" t="s">
         <v>39</v>
@@ -11341,10 +11341,10 @@
         <v>5</v>
       </c>
       <c r="T103" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U103" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V103" s="12" t="s">
         <v>39</v>
@@ -11436,10 +11436,10 @@
         <v>5</v>
       </c>
       <c r="T104" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="U104" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V104" s="12" t="s">
         <v>39</v>
@@ -11531,10 +11531,10 @@
         <v>5</v>
       </c>
       <c r="T105" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="U105" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V105" s="12" t="s">
         <v>39</v>
@@ -11626,10 +11626,10 @@
         <v>5</v>
       </c>
       <c r="T106" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="U106" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V106" s="12" t="s">
         <v>39</v>
@@ -11721,10 +11721,10 @@
         <v>5</v>
       </c>
       <c r="T107" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="U107" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V107" s="12" t="s">
         <v>39</v>
@@ -11816,10 +11816,10 @@
         <v>5</v>
       </c>
       <c r="T108" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U108" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V108" s="12" t="s">
         <v>39</v>
@@ -11911,10 +11911,10 @@
         <v>5</v>
       </c>
       <c r="T109" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="U109" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V109" s="12" t="s">
         <v>39</v>
@@ -12006,10 +12006,10 @@
         <v>5</v>
       </c>
       <c r="T110" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="U110" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V110" s="12" t="s">
         <v>39</v>
@@ -12099,10 +12099,10 @@
         <v>5</v>
       </c>
       <c r="T111" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="U111" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V111" s="12" t="s">
         <v>62</v>
@@ -12192,10 +12192,10 @@
         <v>5</v>
       </c>
       <c r="T112" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="U112" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V112" s="12" t="s">
         <v>62</v>
@@ -12285,10 +12285,10 @@
         <v>5</v>
       </c>
       <c r="T113" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="U113" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V113" s="12" t="s">
         <v>62</v>
@@ -12378,10 +12378,10 @@
         <v>5</v>
       </c>
       <c r="T114" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="U114" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V114" s="12" t="s">
         <v>62</v>
@@ -12471,10 +12471,10 @@
         <v>5</v>
       </c>
       <c r="T115" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="U115" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V115" s="12" t="s">
         <v>62</v>
@@ -12566,10 +12566,10 @@
         <v>5</v>
       </c>
       <c r="T116" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="U116" s="10" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="V116" s="12" t="s">
         <v>67</v>

--- a/doc/table/Npc表.xlsx
+++ b/doc/table/Npc表.xlsx
@@ -1597,10 +1597,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="T11" sqref="T11:T116"/>
+      <selection pane="topRight" activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12530,7 +12530,7 @@
         <v>5</v>
       </c>
       <c r="H116" s="12">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="I116" s="12">
         <v>500</v>
